--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,53 +427,69 @@
           <t>source</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-03-04 17:30</t>
+          <t>2020-01-13 17:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.7251088</v>
+        <v>13.6899991</v>
       </c>
       <c r="E2" t="n">
-        <v>100.3529065</v>
+        <v>100.7501124</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พนง.ขับรถบรรทุกผลไม้ ติดเชื้อเสียชีวิต</t>
+          <t>(เคสที่ 1) เดินทางมาจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%99%e0%b8%87-%e0%b8%82%e0%b8%b1/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -484,52 +500,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-03-06 17:30</t>
+          <t>2020-01-17 17:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>สถาบันโรคทรวงอก</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.8620256</v>
+        <v>13.6899991</v>
       </c>
       <c r="E3" t="n">
-        <v>100.5220974</v>
+        <v>100.7451124</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>British</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(เคสที่ 48) เดินทางมาจากลอนดอน เปลี่ยนเครื่องที่ฮ่องกง</t>
+          <t>(เคสที่ 2) เดินทางมาจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8047754/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -540,26 +559,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-03-07 17:30</t>
+          <t>2020-01-22 17:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>โรงพยาบาลราชวิถี</t>
+          <t>โรงพยาบาลนครปฐม</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.7643031</v>
+        <v>13.8215908</v>
       </c>
       <c r="E4" t="n">
-        <v>100.5365908</v>
+        <v>100.0658874</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -569,23 +588,26 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(เคสที่ 49) เดินทางกลับจากการดูงานที่ประเทศอิตาลี</t>
+          <t>(เคสที่ 3) เดินทางกลับจากไปเที่ยวอู่ฮั่น</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-429314</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -596,22 +618,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-03-07 17:30</t>
+          <t>2020-01-22 17:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>โรงพยาบาลนพรัตนราชธานี</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.8167961</v>
+        <v>13.68799991</v>
       </c>
       <c r="E5" t="n">
-        <v>100.6872403</v>
+        <v>100.7451124</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -620,28 +642,31 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(เคสที่ 50) เดินทางกลับจากการดูงานที่ประเทศอิตาลี</t>
+          <t>(เคสที่ 4) เดินทางมาจากอู่ฮั่น ตรวจพบจากการคัดกรองที่สนามบินสุวรรณภูมิ รักษาหายและเดินทางกลับประเทศแล้ว</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-429314</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +677,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-03-10 17:30</t>
+          <t>2020-01-24 17:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,13 +686,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.7639031</v>
+        <v>13.765143</v>
       </c>
       <c r="E6" t="n">
-        <v>100.5366008</v>
+        <v>100.536202</v>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -676,28 +701,31 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(เคสที่ 51) สัมผัสใกล้ชิดกับผู้ป่วยพนักงานบริษัทที่กลับจากประเทศอิตาลีเคสที่ 45</t>
+          <t>(เคสที่ 6) เป็นภรรยาของผู้ป่วยรายที่ 4 ซึ่งเป็นนักท่องเที่ยวชาวจีนอายุ 68 ปี รักษาหายและเดินทางกลับประเทศแล้ว</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-430230</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -708,22 +736,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-03-10 17:30</t>
+          <t>2020-01-26 17:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>นครปฐม</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.7851184</v>
+        <v>13.8537638</v>
       </c>
       <c r="E7" t="n">
-        <v>99.9701025</v>
+        <v>100.5227505</v>
       </c>
       <c r="F7" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -732,28 +760,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(เคสที่ 52) เดินทางกลับจากอิตาลี</t>
+          <t>(เคสที่ 5) เดินทางมาจากอู่ฮั่นพร้อมลูกสาว ลูกสาวไม่ติดเชื้อ</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-430230</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -764,52 +795,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-03-10 17:30</t>
+          <t>2020-01-26 17:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>นครปฐม</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.7850184</v>
+        <v>13.8527638</v>
       </c>
       <c r="E8" t="n">
-        <v>99.96910250000001</v>
+        <v>100.5217505</v>
       </c>
       <c r="F8" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(เคสที่ 53) ไม่ได้เดินทางไปต่างประเทศ ติดจากภรรยาเคสที่ 52</t>
+          <t>(เคสที่ 7) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-430230</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -820,52 +854,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-26 17:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>โรงพยาบาลกลาง</t>
+          <t>โรงพยาบาลเอกชนในหัวหิน</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.7464973</v>
+        <v>12.5541754</v>
       </c>
       <c r="E9" t="n">
-        <v>100.5092326</v>
+        <v>99.9587111</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(เคสที่ 54) พนักงานตม.สนามบินสุวรรณภูมิ ยืนยันผลแล็บตรงกัน 2 แห่ง</t>
+          <t>(เคสที่ 8) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -876,52 +913,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-28 17:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>สนามบินสุวรรณภูมิ</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.6998881</v>
+        <v>13.8527668</v>
       </c>
       <c r="E10" t="n">
-        <v>100.7501124</v>
+        <v>100.5227505</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(เคสที่ 55) เจ้าหน้าที่ตรวจค้นประจำสนามบินสุวรรณภูมิ</t>
+          <t>(เคสที่ 9) ครอบครัวนักท่องเที่ยวจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -932,7 +972,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-28 17:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -941,69 +981,72 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.8522958</v>
+        <v>13.8527668</v>
       </c>
       <c r="E11" t="n">
-        <v>100.5222895</v>
+        <v>100.5219665</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>(เคสที่ 56) พนักงานบริษัท ไม่ได้เดินทางออกนอกประเทศ กำลังหาต้นตอ</t>
+          <t>(เคสที่ 10) ครอบครัวนักท่องเที่ยวจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-28 17:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>บริษัท ยูไนเต็ด แอนนาลิสต์ แอนด์ เอ็นจิเนียริ่ง คอนซัลแตนท์ จำกัด</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.678604</v>
+        <v>13.8530668</v>
       </c>
       <c r="E12" t="n">
-        <v>100.631158</v>
+        <v>100.5219665</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1012,28 +1055,31 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>(เคสที่ 56) พนักงานบริษัท ทำงานที่นี่</t>
+          <t>(เคสที่ 11) ครอบครัวนักท่องเที่ยวจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>http://www.uaeconsultant.com/TH/covid19_1.html?fbclid=IwAR04Ip6LgCruEfj7OY6Mtt4ivZRXbE1MYWh_66JdltjjMPK6nvjDcxEuOBc</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1044,78 +1090,81 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-28 17:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>โรงพยาบาลนพรัตนราชธานี</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.8168561</v>
+        <v>13.8530668</v>
       </c>
       <c r="E13" t="n">
-        <v>100.6877403</v>
+        <v>100.5229505</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>(เคสที่ 57) เดินทางกลับจากเกาหลีใต้</t>
+          <t>(เคสที่ 12) ครอบครัวนักท่องเที่ยวจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-28 17:30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ซีอาร์ซี ทาวเวอร์ ออล ซีซั่นส์ เพลส </t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.7391092</v>
+        <v>13.8531268</v>
       </c>
       <c r="E14" t="n">
-        <v>100.5457424</v>
+        <v>100.5219505</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1124,28 +1173,31 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Singaporean</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) ทางตึกได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(เคสที่ 13) ครอบครัวนักท่องเที่ยวจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://thestandard.co/all-seasons-place-open-as-usual-except-ohana-poke/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1208,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-28 17:30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1165,13 +1217,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.8532558</v>
+        <v>13.8533238</v>
       </c>
       <c r="E15" t="n">
-        <v>100.5222895</v>
+        <v>100.5219505</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1180,28 +1232,31 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Singaporean</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) เจ้าของร้านอาหารที่ตึก All Season Place รักษาอยู่ที่นี่</t>
+          <t>(เคสที่ 14) ครอบครัวนักท่องเที่ยวจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1212,22 +1267,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-31 17:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>โรงพยาบาลกรุงเทพคริสเตียน</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.7281658</v>
+        <v>13.8531238</v>
       </c>
       <c r="E16" t="n">
-        <v>100.5310528</v>
+        <v>100.5219505</v>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1236,58 +1291,61 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Singaporean</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) ตรวจพบเชื้อที่นี่แต่ได้ถูกย้ายไปยังโรงพยาบาลสถาบันบำราศนราดูรแล้ว</t>
+          <t>(เคสที่ 15) เดินทางมาจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/theohanapoke/photos/a.420163565114428/862025934261520</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-01-31 17:30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>สุพรรณบุรี</t>
+          <t>โรงพยาบาลนพรัตนราชธานี</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14.5701493</v>
+        <v>13.8159861</v>
       </c>
       <c r="E17" t="n">
-        <v>99.22042329999999</v>
+        <v>100.6873403</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1302,192 +1360,228 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ทางจังหวัดขอสงวนข้อมูล อายุ และเพศ ผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศ</t>
+          <t>(เคสที่ 16) เคสแรกที่ติดในไทย คนขับรถแท๊กซี่รับผู้โดยสารชาวจีน</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/central/1792523</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-01-31 17:30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>เดอะคอมมอนส์ทองหล่อ</t>
+          <t>โรงพยาบาลมหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.7349548</v>
+        <v>18.7897682</v>
       </c>
       <c r="E18" t="n">
-        <v>100.5800494</v>
+        <v>98.9724276</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
+          <t>(เคสที่ 17) เดินทางมาจากหูเป่ยไปเชียงใหม่</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-01-31 17:30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ชงเจริญกรู๊ฟ</t>
+          <t>สถาบันโรคทรวงอก</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13.7453294</v>
+        <v>13.8618308</v>
       </c>
       <c r="E19" t="n">
-        <v>100.535899</v>
+        <v>100.5195033</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
+          <t>(เคสที่ 18) เดินทางมาจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-01-31 17:30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>แอทโมส บาร์ ทองหล่อ 10</t>
+          <t>โรงพยาบาลตำรวจ</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13.732099</v>
+        <v>13.743426</v>
       </c>
       <c r="E20" t="n">
-        <v>100.582344</v>
+        <v>100.538183</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
+          <t>(เคสที่ 19) เดินทางมาจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-02-04 17:30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>อาคารแสงทองธานี</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.7228962</v>
+        <v>13.7645461</v>
       </c>
       <c r="E21" t="n">
-        <v>100.5324903</v>
+        <v>100.5361008</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1497,260 +1591,303 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
+          <t>(เคสที่ 20) คู่สามีภรรยากลับจากญี่ปุ่น</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-02-04 17:30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปทุมธานี</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14.0965673</v>
+        <v>13.8523238</v>
       </c>
       <c r="E22" t="n">
-        <v>100.3616182</v>
+        <v>100.5219505</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
+          <t>(เคสที่ 21) คู่สามีภรรยากลับจากญี่ปุ่น</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-02-04 17:30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>โรงเรียนในเพชรบูรณ์</t>
+          <t>โรงพยาบาลศิริาช</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16.313361</v>
+        <v>13.7599318</v>
       </c>
       <c r="E23" t="n">
-        <v>101.126105</v>
+        <v>100.4835986</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
+          <t>(เคสที่ 22) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-02-04 17:30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยในสงขลา</t>
+          <t>โรงพยาบาลหัวหิน</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7.1154502</v>
+        <v>12.5673364</v>
       </c>
       <c r="E24" t="n">
-        <v>100.0193856</v>
+        <v>99.9032811</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
+          <t>(เคสที่ 23) ขับขี่รถรับจ้างรับนักท่องเที่ยวจีนในหัวหิน</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-02-04 17:30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
+          <t>โรงพยาบาลกระบี่</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13.723107</v>
+        <v>8.07845</v>
       </c>
       <c r="E25" t="n">
-        <v>100.569595</v>
+        <v>98.906229</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
+          <t>(เคสที่ 24) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020-03-12 20:20</t>
+          <t>2020-02-04 17:30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FITWHEYGYM สาขา SHOWDC</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.751749</v>
+        <v>13.8523238</v>
       </c>
       <c r="E26" t="n">
-        <v>100.572667</v>
+        <v>100.5229505</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1759,345 +1896,400 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
+          <t>(เคสที่ 25) อาการหนักเพราะมีวัณโรคร่วมด้วย</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>เบียร์เบลลี่</t>
+          <t>โรงพยาบาลวชิระภูเก็ต</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13.734802</v>
+        <v>7.8968866</v>
       </c>
       <c r="E27" t="n">
-        <v>100.583135</v>
+        <v>98.3816029</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
+          <t>(เคสที่ 26) เดินทางจากอู่ฮั่น</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
+          <t>คิง เพาเวอร์ ศรีวารี</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13.734867</v>
+        <v>13.6538969</v>
       </c>
       <c r="E28" t="n">
-        <v>100.583127</v>
+        <v>100.7822187</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>deceased</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
+          <t>(เคสที่ 27) เสียชีวิตรายแรก</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51694727</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ตึกมาลีนนท์</t>
+          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13.717394</v>
+        <v>13.7657207</v>
       </c>
       <c r="E29" t="n">
-        <v>100.572368</v>
+        <v>100.5312696</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
+          <t>(เคสที่ 28) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปราจีนบุรี</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14.205984</v>
+        <v>13.8531238</v>
       </c>
       <c r="E30" t="n">
-        <v>101.643807</v>
+        <v>100.5229505</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
+          <t>(เคสที่ 29) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>อาคารคอลัมน์ ทาวเวอร์</t>
+          <t>สถาบันโรคทรวงอก</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13.733154</v>
+        <v>13.8618308</v>
       </c>
       <c r="E31" t="n">
-        <v>100.560401</v>
+        <v>100.5185033</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
+          <t>(เคสที่ 30) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020-03-14 00:00</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>คิงเพาเวอร์ มหานคร</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13.723381</v>
+        <v>13.8531228</v>
       </c>
       <c r="E32" t="n">
-        <v>100.528231</v>
+        <v>100.5219505</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
+          <t>(เคสที่ 31) สัมพันธ์กับพนักงานคู่ค้าคิงพาวเวอร์เคสที่ 27</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1794644</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020-03-14 00:00</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>เชียงราย</t>
+          <t>สนามบินอู่ตะเภา</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.90671</v>
+        <v>12.6745261</v>
       </c>
       <c r="E33" t="n">
-        <v>99.721943</v>
+        <v>100.9980048</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2107,23 +2299,26 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
+          <t>(เคสที่ 32) คนไทยที่เดินทางกลับมาจากเมืองอู่ฮั่น</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -2134,50 +2329,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020-03-14 10:00</t>
+          <t>2020-02-08 17:30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13.7323667</v>
+        <v>13.8531028</v>
       </c>
       <c r="E34" t="n">
-        <v>100.5356087</v>
+        <v>100.5219305</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
+          <t>(เคสที่ 33) นักท่องเที่ยวชาวจีน</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -2188,26 +2388,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020-03-14 13:00</t>
+          <t>2020-02-15 17:30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>โรงพยาบาลราชวิถี</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13.767431</v>
+        <v>13.8531128</v>
       </c>
       <c r="E35" t="n">
-        <v>100.53489</v>
+        <v>100.5229305</v>
       </c>
       <c r="F35" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2222,18 +2422,21 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
+          <t>(เคสที่ 34) บุคลากรทางการแพทย์ที่ดูแลพนักงานคู่ค้าคิงพาวเวอร์เคสที่ 27</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
-        </is>
+          <t>https://www.thairath.co.th/news/politic/1784296</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -2244,50 +2447,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020-03-14 13:00</t>
+          <t>2020-02-17 17:30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13.795892</v>
+        <v>13.8531148</v>
       </c>
       <c r="E36" t="n">
-        <v>100.320675</v>
+        <v>100.5229205</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>China</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
+          <t>(เคสที่ 35) สัมพันธ์กับผู้ป่วยนักท่องเที่ยวชาวจีนเคสที่ 22 เป็นคนในครอบครัว</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701394</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -2298,46 +2506,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-25 17:30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสัตหีบ กม.10</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12.697731</v>
+        <v>13.7645431</v>
       </c>
       <c r="E37" t="n">
-        <v>100.97399</v>
+        <v>100.5360908</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(เคสที่ 36) แม่บ้าน ติดจากคนที่บ้านเดินทางไปจีนมา</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
-        </is>
+          <t>https://www.bangkokbiznews.com/news/detail/867803</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -2348,46 +2565,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-25 17:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>โรงพยาบาลบ้านฉาง</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>12.726049</v>
+        <v>13.8522248</v>
       </c>
       <c r="E38" t="n">
-        <v>101.043339</v>
+        <v>100.5217305</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(เคสที่ 37) พนักงานขับรถให้ขับรถบริการนักท่องเที่ยว มีประวัติขับรถรับส่งนักท่องเที่ยวจากประเทศจีน</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
-        </is>
+          <t>https://www.bangkokbiznews.com/news/detail/867803</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -2398,46 +2624,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-26 17:30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมาบตาพุด</t>
+          <t>โรงพยาบาล บี.แคร์ เมดิคอลเซ็นเตอร์</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12.730494</v>
+        <v>13.9436441</v>
       </c>
       <c r="E39" t="n">
-        <v>101.136369</v>
+        <v>100.6245672</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(เคสที่ 38) คู่ปู่ย่าสามีภรรยา (สามี) เดินทางกลับจากฮอกไกโด</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51640076</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -2448,46 +2683,55 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-26 17:30</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>โรงพยาบาลระยอง</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12.682116</v>
+        <v>13.8525958</v>
       </c>
       <c r="E40" t="n">
-        <v>101.276476</v>
+        <v>100.5227195</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(เคสที่ 39) คู่ปู่ย่าสามีภรรยา (ภรรยา) เดินทางกลับจากฮอกไกโด</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51640076</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -2498,190 +2742,232 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-26 17:30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>12.662795</v>
+        <v>13.8530158</v>
       </c>
       <c r="E41" t="n">
-        <v>100.909332</v>
+        <v>100.5219995</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
+          <t>(เคสที่ 40) หลานชายคู่สามีภรรยา (ปู่ย่า) ที่เดินทางกลับจากฮอกไกโด</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51640076</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-28 17:30</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13.60094</v>
+        <v>13.8529858</v>
       </c>
       <c r="E42" t="n">
-        <v>100.593057</v>
+        <v>100.5218995</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
+          <t>(เคสที่ 41) ไกด์นำเที่ยวเดินทางกลับจากเกาหลี</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
-        </is>
+          <t>https://www.bangkokbiznews.com/news/detail/868372</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-02-29 17:30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
+          <t>โรงพยาบาลนพรัตนราชธานี</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>14.037659</v>
+        <v>13.8168861</v>
       </c>
       <c r="E43" t="n">
-        <v>102.125791</v>
+        <v>100.6874403</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
+          <t>(เคสที่ 42) พนักงานขายในห้างสรรพสินค้า ทำงานใกล้ชิดชาวต่างชาติ</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
-        </is>
+          <t>https://www.bangkokbiznews.com/news/detail/867803</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-02-29 17:30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13.866945</v>
+        <v>13.8525858</v>
       </c>
       <c r="E44" t="n">
-        <v>100.608801</v>
+        <v>100.5220995</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>recovered</t>
+        </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
+          <t>(เคสที่ 43) อาชีพดูแลนักท่องเที่ยว สัมพันธ์กับพนักงานขับรถเคสที่ 37</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51701389</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -2692,26 +2978,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-02-29 17:30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>โรงพยาบาลชลบุรี</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13.735609</v>
+        <v>13.3515942</v>
       </c>
       <c r="E45" t="n">
-        <v>100.528497</v>
+        <v>100.9812545</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2721,75 +3007,85 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
+          <t>(เคสที่ 44) เดินทางมาจากอิตาลี</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28240</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51748412</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-02-29 17:30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GREEN VALLEY COUNTRY CLUB</t>
+          <t>โรงพยาบาลชลบุรี</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13.60822</v>
+        <v>13.3515942</v>
       </c>
       <c r="E46" t="n">
-        <v>100.730924</v>
+        <v>100.9822545</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
+          <t>(เคสที่ 45) เดินทางกลับจากอิตาลี</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://imgur.com/6xEojOR</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51748412</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -2800,156 +3096,165 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020-03-15 13:00</t>
+          <t>2020-02-29 17:30</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13.866526</v>
+        <v>13.8525958</v>
       </c>
       <c r="E47" t="n">
-        <v>100.60866</v>
+        <v>100.5219895</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
+          <t>(เคสที่ 46) เดินทางมาจากอิหร่าน (มาต่อเครื่อง)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51748412</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020-03-15 15:00</t>
+          <t>2020-02-29 17:30</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
+          <t>โรงพยาบาลท่าศาลา</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>14.133529</v>
+        <v>8.660777599999999</v>
       </c>
       <c r="E48" t="n">
-        <v>100.616017</v>
+        <v>99.9207031</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
+          <t>(เคสที่ 47) เดินทางกลับมาจากอิหร่าน</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
-        </is>
+          <t>https://www.bbc.com/thai/thailand-51748412</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020-03-15 18:00</t>
+          <t>2020-03-04 17:30</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>จังหวัดนครสวรรค์</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>15.703143</v>
+        <v>13.7251088</v>
       </c>
       <c r="E49" t="n">
-        <v>100.125006</v>
+        <v>100.3529065</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
+          <t>(ข่าวปลอม) พนง.ขับรถบรรทุกผลไม้ ติดเชื้อเสียชีวิต</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
-        </is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%99%e0%b8%87-%e0%b8%82%e0%b8%b1/</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -2960,22 +3265,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-03-15 20:30</t>
+          <t>2020-03-06 17:30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเพชรบูรณ์</t>
+          <t>สถาบันโรคทรวงอก</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16.427158</v>
+        <v>13.8620256</v>
       </c>
       <c r="E50" t="n">
-        <v>101.153523</v>
+        <v>100.5220974</v>
       </c>
       <c r="F50" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2984,12 +3289,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Belgian</t>
+          <t>British</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2999,13 +3304,16 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
+          <t>(เคสที่ 48) เดินทางมาจากลอนดอน เปลี่ยนเครื่องที่ฮ่องกง</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2058081</t>
-        </is>
+          <t>https://www.sanook.com/news/8047754/</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="51">
@@ -3016,22 +3324,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-07 17:30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>13.765684</v>
+        <v>13.7643031</v>
       </c>
       <c r="E51" t="n">
-        <v>100.533389</v>
+        <v>100.5365908</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3045,7 +3353,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3055,13 +3363,16 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
+          <t>(เคสที่ 49) เดินทางกลับจากการดูงานที่ประเทศอิตาลี</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
-        </is>
+          <t>https://www.prachachat.net/general/news-429314</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="52">
@@ -3072,22 +3383,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-07 17:30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเปาโล</t>
+          <t>โรงพยาบาลนพรัตนราชธานี</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13.792305</v>
+        <v>13.8167961</v>
       </c>
       <c r="E52" t="n">
-        <v>100.549973</v>
+        <v>100.6872403</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3101,53 +3412,56 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
+          <t>(เคสที่ 50) เดินทางกลับจากการดูงานที่ประเทศอิตาลี</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
-        </is>
+          <t>https://www.prachachat.net/general/news-429314</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-10 17:30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13.737169</v>
+        <v>13.7639031</v>
       </c>
       <c r="E53" t="n">
-        <v>100.643512</v>
+        <v>100.5366008</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3162,48 +3476,51 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
+          <t>(เคสที่ 51) สัมผัสใกล้ชิดกับผู้ป่วยพนักงานบริษัทที่กลับจากประเทศอิตาลีเคสที่ 45</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
-        </is>
+          <t>https://www.prachachat.net/general/news-430230</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-10 17:30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลิศสิน</t>
+          <t>นครปฐม</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13.722081</v>
+        <v>13.7851184</v>
       </c>
       <c r="E54" t="n">
-        <v>100.517465</v>
+        <v>99.9701025</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3213,7 +3530,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3223,43 +3540,46 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
+          <t>(เคสที่ 52) เดินทางกลับจากอิตาลี</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
-        </is>
+          <t>https://www.prachachat.net/general/news-430230</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-10 17:30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>สถานีดับเพลิงบางอ้อ</t>
+          <t>นครปฐม</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13.802817</v>
+        <v>13.7850184</v>
       </c>
       <c r="E55" t="n">
-        <v>100.512125</v>
+        <v>99.96910250000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3274,44 +3594,47 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
+          <t>(เคสที่ 53) ไม่ได้เดินทางไปต่างประเทศ ติดจากภรรยาเคสที่ 52</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
-        </is>
+          <t>https://www.prachachat.net/general/news-430230</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
+          <t>โรงพยาบาลกลาง</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13.721404</v>
+        <v>13.7464973</v>
       </c>
       <c r="E56" t="n">
-        <v>100.511063</v>
+        <v>100.5092326</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3335,43 +3658,46 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
+          <t>(เคสที่ 54) พนักงานตม.สนามบินสุวรรณภูมิ ยืนยันผลแล็บตรงกัน 2 แห่ง</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
-        </is>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13.753194</v>
+        <v>13.6998881</v>
       </c>
       <c r="E57" t="n">
-        <v>100.576234</v>
+        <v>100.7501124</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3386,48 +3712,51 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(เคสที่ 55) เจ้าหน้าที่ตรวจค้นประจำสนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
-        </is>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>13.732153</v>
+        <v>13.8522958</v>
       </c>
       <c r="E58" t="n">
-        <v>100.536033</v>
+        <v>100.5222895</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3447,42 +3776,47 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
+          <t>(เคสที่ 56) พนักงานบริษัท ไม่ได้เดินทางออกนอกประเทศ กำลังหาต้นตอ</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
-        </is>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-03-16 12:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
+          <t>บริษัท ยูไนเต็ด แอนนาลิสต์ แอนด์ เอ็นจิเนียริ่ง คอนซัลแตนท์ จำกัด</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>16.942695</v>
+        <v>13.678604</v>
       </c>
       <c r="E59" t="n">
-        <v>104.723904</v>
+        <v>100.631158</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3501,194 +3835,228 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
+          <t>(เคสที่ 56) พนักงานบริษัท ทำงานที่นี่</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
-        </is>
+          <t>http://www.uaeconsultant.com/TH/covid19_1.html?fbclid=IwAR04Ip6LgCruEfj7OY6Mtt4ivZRXbE1MYWh_66JdltjjMPK6nvjDcxEuOBc</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
+          <t>โรงพยาบาลนพรัตนราชธานี</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>13.706591</v>
+        <v>13.8168561</v>
       </c>
       <c r="E60" t="n">
-        <v>101.129142</v>
+        <v>100.6877403</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
+          <t>(เคสที่ 57) เดินทางกลับจากเกาหลีใต้</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1796191</t>
-        </is>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
+          <t xml:space="preserve">ซีอาร์ซี ทาวเวอร์ ออล ซีซั่นส์ เพลส </t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>13.285124</v>
+        <v>13.7391092</v>
       </c>
       <c r="E61" t="n">
-        <v>100.922403</v>
+        <v>100.5457424</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Singaporean</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
+          <t>(เคสที่ 59) ทางตึกได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
-        </is>
+          <t>https://thestandard.co/all-seasons-place-open-as-usual-except-ohana-poke/</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-03-16 15:41</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>อาคารมณียา เซ็นเตอร์</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>13.744037</v>
+        <v>13.8532558</v>
       </c>
       <c r="E62" t="n">
-        <v>100.542015</v>
+        <v>100.5222895</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Singaporean</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
+          <t>(เคสที่ 59) เจ้าของร้านอาหารที่ตึก All Season Place รักษาอยู่ที่นี่</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-432768</t>
-        </is>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-03-16 21:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
+          <t>โรงพยาบาลกรุงเทพคริสเตียน</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13.71831</v>
+        <v>13.7281658</v>
       </c>
       <c r="E63" t="n">
-        <v>100.585345</v>
+        <v>100.5310528</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Singaporean</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3696,48 +4064,53 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
+          <t>(เคสที่ 59) ตรวจพบเชื้อที่นี่แต่ได้ถูกย้ายไปยังโรงพยาบาลสถาบันบำราศนราดูรแล้ว</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
-        </is>
+          <t>https://www.facebook.com/theohanapoke/photos/a.420163565114428/862025934261520</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-03-17 00:08</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
+          <t>สุพรรณบุรี</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>16.948493</v>
+        <v>14.5701493</v>
       </c>
       <c r="E64" t="n">
-        <v>99.96773</v>
+        <v>99.22042329999999</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3752,18 +4125,21 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
+          <t>(รอยืนยัน) ทางจังหวัดขอสงวนข้อมูล อายุ และเพศ ผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศ</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
-        </is>
+          <t>https://www.thairath.co.th/news/local/central/1792523</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -3774,19 +4150,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-03-17 11:00</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
+          <t>เดอะคอมมอนส์ทองหล่อ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>13.767544</v>
+        <v>13.7349548</v>
       </c>
       <c r="E65" t="n">
-        <v>100.44369</v>
+        <v>100.5800494</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3805,92 +4181,90 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
+          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
-        </is>
+          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-03-17 11:45</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ปัตตานี</t>
+          <t>ชงเจริญกรู๊ฟ</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6.749083</v>
+        <v>13.7453294</v>
       </c>
       <c r="E66" t="n">
-        <v>101.32889</v>
+        <v>100.535899</v>
       </c>
       <c r="F66" t="n">
-        <v>65</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
+          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1796811</t>
-        </is>
+          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-03-17 12:00</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ชุมชนพรทวีวัฒน์1</t>
+          <t>แอทโมส บาร์ ทองหล่อ 10</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14.054377</v>
+        <v>13.732099</v>
       </c>
       <c r="E67" t="n">
-        <v>100.631022</v>
+        <v>100.582344</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3901,54 +4275,55 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
+          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
-        </is>
+          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-03-17 14:00</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>เชฟแมน ราชดำริ</t>
+          <t>อาคารแสงทองธานี</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13.739698</v>
+        <v>13.7228962</v>
       </c>
       <c r="E68" t="n">
-        <v>100.541591</v>
+        <v>100.5324903</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="n">
-        <v>0</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3967,36 +4342,39 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
+          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
-        </is>
+          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-03-17 14:24</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>15.276705</v>
+        <v>14.0965673</v>
       </c>
       <c r="E69" t="n">
-        <v>104.80429</v>
+        <v>100.3616182</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4004,51 +4382,50 @@
       <c r="G69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H69" t="n">
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J69" t="n">
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://www.komchadluek.net/news/regional/422815</t>
-        </is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>กาญจนบุรี</t>
+          <t>โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>14.005274</v>
+        <v>16.313361</v>
       </c>
       <c r="E70" t="n">
-        <v>99.54920799999999</v>
+        <v>101.126105</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4062,76 +4439,72 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J70" t="n">
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
-        </is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>จังหวัดยะลา</t>
+          <t>มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6.547652</v>
+        <v>7.1154502</v>
       </c>
       <c r="E71" t="n">
-        <v>101.276494</v>
+        <v>100.0193856</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://www.paktaireport.com/?p=289</t>
-        </is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -4142,25 +4515,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-03-17 15:15</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ศาลหลักเมืองชลบุรี</t>
+          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>13.364938</v>
+        <v>13.723107</v>
       </c>
       <c r="E72" t="n">
-        <v>100.98566</v>
+        <v>100.569595</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4179,52 +4554,53 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
+          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/east/1796964</t>
-        </is>
+          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-03-17 16:00</t>
+          <t>2020-03-12 20:20</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
+          <t>FITWHEYGYM สาขา SHOWDC</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8.426632</v>
+        <v>13.751749</v>
       </c>
       <c r="E73" t="n">
-        <v>99.945635</v>
+        <v>100.572667</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4233,67 +4609,67 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
+          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
-        </is>
+          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-03-17 20:00</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>เบียร์เบลลี่</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>16.442351</v>
+        <v>13.734802</v>
       </c>
       <c r="E74" t="n">
-        <v>102.835978</v>
+        <v>100.583135</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J74" t="n">
+        <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
+          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
-        </is>
+          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="75">
@@ -4304,19 +4680,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gym Monkey</t>
+          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>13.768027</v>
+        <v>13.734867</v>
       </c>
       <c r="E75" t="n">
-        <v>100.442156</v>
+        <v>100.583127</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4335,48 +4711,57 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
+          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
-        </is>
+          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ขอนแก่น</t>
+          <t>ตึกมาลีนนท์</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>16.442257</v>
+        <v>13.717394</v>
       </c>
       <c r="E76" t="n">
-        <v>102.837362</v>
+        <v>100.572368</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4385,92 +4770,90 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
+          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
-        </is>
+          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ฉะเชิงเทรา</t>
+          <t>โรงพยาบาลในปราจีนบุรี</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>13.6887431</v>
+        <v>14.205984</v>
       </c>
       <c r="E77" t="n">
-        <v>101.0785358</v>
+        <v>101.643807</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
+          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
-        </is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-03-17 20:55</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
+          <t>อาคารคอลัมน์ ทาวเวอร์</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13.763845</v>
+        <v>13.733154</v>
       </c>
       <c r="E78" t="n">
-        <v>100.569331</v>
+        <v>100.560401</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -4480,7 +4863,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4495,44 +4878,45 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
+          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
-        </is>
+          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-03-18 14:44</t>
+          <t>2020-03-14 00:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
+          <t>คิงเพาเวอร์ มหานคร</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>13.767126</v>
+        <v>13.723381</v>
       </c>
       <c r="E79" t="n">
-        <v>100.57881</v>
+        <v>100.528231</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G79" t="n">
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4540,20 +4924,21 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J79" t="n">
+        <v>0</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
+          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://imgur.com/snvTfA5</t>
-        </is>
+          <t>https://www.thairath.co.th/news/society/1794644</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="80">
@@ -4564,26 +4949,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-03-18 15:18</t>
+          <t>2020-03-14 00:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
+          <t>เชียงราย</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16.401265</v>
+        <v>19.90671</v>
       </c>
       <c r="E80" t="n">
-        <v>103.374251</v>
+        <v>99.721943</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4603,44 +4988,45 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
+          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
-        </is>
+          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-03-18 15:24</t>
+          <t>2020-03-14 10:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>จังหวัดร้อยเอ็ด</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>16.04753</v>
+        <v>13.7323667</v>
       </c>
       <c r="E81" t="n">
-        <v>103.653192</v>
+        <v>100.5356087</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G81" t="n">
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4659,13 +5045,16 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
+          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8056818/</t>
-        </is>
+          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="82">
@@ -4676,26 +5065,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-14 13:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>14.984929</v>
+        <v>13.767431</v>
       </c>
       <c r="E82" t="n">
-        <v>102.103557</v>
+        <v>100.53489</v>
       </c>
       <c r="F82" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4715,13 +5104,16 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
-        </is>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -4732,27 +5124,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-14 13:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>14.984919</v>
+        <v>13.795892</v>
       </c>
       <c r="E83" t="n">
-        <v>102.103547</v>
+        <v>100.320675</v>
       </c>
       <c r="F83" t="n">
-        <v>30</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4761,7 +5151,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4771,13 +5161,16 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
-        </is>
+          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="84">
@@ -4788,27 +5181,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
+          <t>โรงพยาบาลสัตหีบ กม.10</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>13.758529</v>
+        <v>12.697731</v>
       </c>
       <c r="E84" t="n">
-        <v>100.566238</v>
+        <v>100.97399</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G84" t="n">
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4818,49 +5209,50 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
-        </is>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
+          <t>โรงพยาบาลบ้านฉาง</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>13.724323</v>
+        <v>12.726049</v>
       </c>
       <c r="E85" t="n">
-        <v>100.578732</v>
+        <v>101.043339</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G85" t="n">
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4870,49 +5262,50 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
-        </is>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
+          <t>โรงพยาบาลมาบตาพุด</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13.762677</v>
+        <v>12.730494</v>
       </c>
       <c r="E86" t="n">
-        <v>100.472519</v>
+        <v>101.136369</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G86" t="n">
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4922,49 +5315,50 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
-        </is>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
+          <t>โรงพยาบาลระยอง</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>13.726004</v>
+        <v>12.682116</v>
       </c>
       <c r="E87" t="n">
-        <v>100.529007</v>
+        <v>101.276476</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G87" t="n">
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4974,49 +5368,50 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
-        </is>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-03-18 16:55</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>7.197264</v>
+        <v>12.662795</v>
       </c>
       <c r="E88" t="n">
-        <v>100.592928</v>
+        <v>100.909332</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G88" t="n">
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5031,44 +5426,45 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นขาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://mgronline.com/south/detail/9630000027399</t>
-        </is>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>จังหวัดลพบุรี</t>
+          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>14.805827</v>
+        <v>13.60094</v>
       </c>
       <c r="E89" t="n">
-        <v>100.652328</v>
+        <v>100.593057</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G89" t="n">
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5076,76 +5472,3008 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J89" t="n">
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
-        </is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-03-15 08:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>14.037659</v>
+      </c>
+      <c r="E90" t="n">
+        <v>102.125791</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-03-15 10:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>สนามมวยลุมพินี</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>13.866945</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100.608801</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>confirmed</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-03-15 10:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>13.735609</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100.528497</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://www.chula.ac.th/news/28240</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-03-15 10:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>GREEN VALLEY COUNTRY CLUB</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>13.60822</v>
+      </c>
+      <c r="E93" t="n">
+        <v>100.730924</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://imgur.com/6xEojOR</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-03-15 13:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>สนามมวยลุมพินี</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>13.866526</v>
+      </c>
+      <c r="E94" t="n">
+        <v>100.60866</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-03-15 15:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>14.133529</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100.616017</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-03-15 18:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>จังหวัดนครสวรรค์</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>15.703143</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100.125006</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-03-15 20:30</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเพชรบูรณ์</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>16.427158</v>
+      </c>
+      <c r="E97" t="n">
+        <v>101.153523</v>
+      </c>
+      <c r="F97" t="n">
+        <v>67</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Belgian</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/region/news_2058081</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-03-15 23:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>13.765684</v>
+      </c>
+      <c r="E98" t="n">
+        <v>100.533389</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-03-15 23:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเปาโล</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>13.792305</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100.549973</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-03-15 23:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>13.737169</v>
+      </c>
+      <c r="E100" t="n">
+        <v>100.643512</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-03-15 23:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเลิศสิน</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>13.722081</v>
+      </c>
+      <c r="E101" t="n">
+        <v>100.517465</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-03-16 09:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>สถานีดับเพลิงบางอ้อ</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>13.802817</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100.512125</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-03-16 09:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13.721404</v>
+      </c>
+      <c r="E103" t="n">
+        <v>100.511063</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-03-16 10:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13.753194</v>
+      </c>
+      <c r="E104" t="n">
+        <v>100.576234</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-03-16 10:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13.732153</v>
+      </c>
+      <c r="E105" t="n">
+        <v>100.536033</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-03-16 12:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>16.942695</v>
+      </c>
+      <c r="E106" t="n">
+        <v>104.723904</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-03-16 14:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>13.706591</v>
+      </c>
+      <c r="E107" t="n">
+        <v>101.129142</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/society/1796191</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-03-16 14:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>13.285124</v>
+      </c>
+      <c r="E108" t="n">
+        <v>100.922403</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-03-16 15:41</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>อาคารมณียา เซ็นเตอร์</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>13.744037</v>
+      </c>
+      <c r="E109" t="n">
+        <v>100.542015</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/general/news-432768</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-03-16 21:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>13.71831</v>
+      </c>
+      <c r="E110" t="n">
+        <v>100.585345</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-03-17 00:08</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>16.948493</v>
+      </c>
+      <c r="E111" t="n">
+        <v>99.96773</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-03-17 11:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>13.767544</v>
+      </c>
+      <c r="E112" t="n">
+        <v>100.44369</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-03-17 11:45</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ปัตตานี</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6.749083</v>
+      </c>
+      <c r="E113" t="n">
+        <v>101.32889</v>
+      </c>
+      <c r="F113" t="n">
+        <v>65</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1796811</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-03-17 12:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ชุมชนพรทวีวัฒน์1</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>14.054377</v>
+      </c>
+      <c r="E114" t="n">
+        <v>100.631022</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-03-17 14:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>เชฟแมน ราชดำริ</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>13.739698</v>
+      </c>
+      <c r="E115" t="n">
+        <v>100.541591</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-03-17 14:24</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>จังหวัดอุบลราชธานี</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>15.276705</v>
+      </c>
+      <c r="E116" t="n">
+        <v>104.80429</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>https://www.komchadluek.net/news/regional/422815</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-03-17 15:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>กาญจนบุรี</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>14.005274</v>
+      </c>
+      <c r="E117" t="n">
+        <v>99.54920799999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-03-17 15:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>จังหวัดยะลา</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>6.547652</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101.276494</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>https://www.paktaireport.com/?p=289</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-03-17 15:15</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ศาลหลักเมืองชลบุรี</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>13.364938</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100.98566</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/east/1796964</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-03-17 16:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>8.426632</v>
+      </c>
+      <c r="E120" t="n">
+        <v>99.945635</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-03-17 20:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>จังหวัดขอนแก่น</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>16.442351</v>
+      </c>
+      <c r="E121" t="n">
+        <v>102.835978</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-03-17 20:45</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Gym Monkey</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>13.768027</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100.442156</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-03-17 20:45</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ขอนแก่น</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>16.442257</v>
+      </c>
+      <c r="E123" t="n">
+        <v>102.837362</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-03-17 20:45</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ฉะเชิงเทรา</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>13.6887431</v>
+      </c>
+      <c r="E124" t="n">
+        <v>101.0785358</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-03-17 20:55</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>13.763845</v>
+      </c>
+      <c r="E125" t="n">
+        <v>100.569331</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-03-18 14:44</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>13.767126</v>
+      </c>
+      <c r="E126" t="n">
+        <v>100.57881</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>https://imgur.com/snvTfA5</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-03-18 15:18</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16.401265</v>
+      </c>
+      <c r="E127" t="n">
+        <v>103.374251</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-03-18 15:24</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>จังหวัดร้อยเอ็ด</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>16.04753</v>
+      </c>
+      <c r="E128" t="n">
+        <v>103.653192</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>https://www.sanook.com/news/8056818/</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-03-18 15:41</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>14.984929</v>
+      </c>
+      <c r="E129" t="n">
+        <v>102.103557</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-03-18 15:41</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>14.984919</v>
+      </c>
+      <c r="E130" t="n">
+        <v>102.103547</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-03-18 16:30</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>13.758529</v>
+      </c>
+      <c r="E131" t="n">
+        <v>100.566238</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-03-18 16:30</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>13.724323</v>
+      </c>
+      <c r="E132" t="n">
+        <v>100.578732</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-03-18 16:30</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>13.762677</v>
+      </c>
+      <c r="E133" t="n">
+        <v>100.472519</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>sanitizing</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-03-18 16:30</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>13.726004</v>
+      </c>
+      <c r="E134" t="n">
+        <v>100.529007</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-03-18 16:55</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>จังหวัดสงขลา</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>7.197264</v>
+      </c>
+      <c r="E135" t="n">
+        <v>100.592928</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นขาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>https://mgronline.com/south/detail/9630000027399</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-03-18 17:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>จังหวัดลพบุรี</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>14.805827</v>
+      </c>
+      <c r="E136" t="n">
+        <v>100.652328</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-03-18 17:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>13.713369</v>
+      </c>
+      <c r="E137" t="n">
+        <v>100.479241</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>2020-03-18 17:28</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D138" t="n">
         <v>9.124031</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E138" t="n">
         <v>99.309859</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F138" t="n">
         <v>49</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>https://www.posttoday.com/social/local/618074</t>
         </is>
+      </c>
+      <c r="M138" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-03-18 23:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>จังหวัดเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>18.7931751</v>
+      </c>
+      <c r="E139" t="n">
+        <v>98.94244550000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/local-economy/news-434059</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-03-18 23:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>บริษัท MinebeaMitsumi</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>14.152245</v>
+      </c>
+      <c r="E140" t="n">
+        <v>100.617803</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>https://imgur.com/iI8MLi1</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-03-19 11:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>จังหวัดปัตตานี</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>6.85436</v>
+      </c>
+      <c r="E141" t="n">
+        <v>101.371369</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:02</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>จังหวัดพัทลุง</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>7.616929</v>
+      </c>
+      <c r="E142" t="n">
+        <v>100.072822</v>
+      </c>
+      <c r="F142" t="n">
+        <v>56</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/society/1798681</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>14.5701493</v>
+        <v>14.895585</v>
       </c>
       <c r="E64" t="n">
-        <v>99.22042329999999</v>
+        <v>99.451262</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -4145,48 +4145,56 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-03-12 10:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>เดอะคอมมอนส์ทองหล่อ</t>
+          <t>สถานีรถไฟหัวลำโพง</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>13.7349548</v>
+        <v>13.738209</v>
       </c>
       <c r="E65" t="n">
-        <v>100.5800494</v>
+        <v>100.516303</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
+          <t>(คำชี้แจง) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
+          <t>https://www.thairath.co.th/news/local/bangkok/1798353</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -4196,48 +4204,56 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-03-12 10:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ชงเจริญกรู๊ฟ</t>
+          <t>สถานีรถไฟท่าชนะ</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>13.7453294</v>
+        <v>9.565692</v>
       </c>
       <c r="E66" t="n">
-        <v>100.535899</v>
+        <v>99.165083</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
+          <t>(คำชี้แจง) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
+          <t>https://www.thairath.co.th/news/local/bangkok/1798353</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -4257,14 +4273,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>แอทโมส บาร์ ทองหล่อ 10</t>
+          <t>เดอะคอมมอนส์ทองหล่อ</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>13.732099</v>
+        <v>13.7349548</v>
       </c>
       <c r="E67" t="n">
-        <v>100.582344</v>
+        <v>100.5800494</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -4283,12 +4299,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
+          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
+          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -4308,46 +4324,38 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>อาคารแสงทองธานี</t>
+          <t>ชงเจริญกรู๊ฟ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13.7228962</v>
+        <v>13.7453294</v>
       </c>
       <c r="E68" t="n">
-        <v>100.5324903</v>
+        <v>100.535899</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
+          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
+          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -4357,7 +4365,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4367,14 +4375,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปทุมธานี</t>
+          <t>แอทโมส บาร์ ทองหล่อ 10</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>14.0965673</v>
+        <v>13.732099</v>
       </c>
       <c r="E69" t="n">
-        <v>100.3616182</v>
+        <v>100.582344</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4393,12 +4401,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
+          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
+          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -4408,7 +4416,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4418,38 +4426,46 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>โรงเรียนในเพชรบูรณ์</t>
+          <t>อาคารแสงทองธานี</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16.313361</v>
+        <v>13.7228962</v>
       </c>
       <c r="E70" t="n">
-        <v>101.126105</v>
+        <v>100.5324903</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
+          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
+          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -4469,14 +4485,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยในสงขลา</t>
+          <t>โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7.1154502</v>
+        <v>14.0965673</v>
       </c>
       <c r="E71" t="n">
-        <v>100.0193856</v>
+        <v>100.3616182</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4495,12 +4511,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -4510,7 +4526,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4520,46 +4536,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
+          <t>โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>13.723107</v>
+        <v>16.313361</v>
       </c>
       <c r="E72" t="n">
-        <v>100.569595</v>
+        <v>101.126105</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -4569,32 +4577,30 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-03-12 20:20</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FITWHEYGYM สาขา SHOWDC</t>
+          <t>มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>13.751749</v>
+        <v>7.1154502</v>
       </c>
       <c r="E73" t="n">
-        <v>100.572667</v>
+        <v>100.0193856</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G73" t="n">
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4602,19 +4608,17 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J73" t="n">
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -4629,43 +4633,51 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>เบียร์เบลลี่</t>
+          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>13.734802</v>
+        <v>13.723107</v>
       </c>
       <c r="E74" t="n">
-        <v>100.583135</v>
+        <v>100.569595</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
+          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
+          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -4680,25 +4692,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-03-12 20:20</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
+          <t>FITWHEYGYM สาขา SHOWDC</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>13.734867</v>
+        <v>13.751749</v>
       </c>
       <c r="E75" t="n">
-        <v>100.583127</v>
+        <v>100.572667</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
-      <c r="G75" t="n">
-        <v>0</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4706,17 +4720,19 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
+          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
+          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -4736,46 +4752,38 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ตึกมาลีนนท์</t>
+          <t>เบียร์เบลลี่</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13.717394</v>
+        <v>13.734802</v>
       </c>
       <c r="E76" t="n">
-        <v>100.572368</v>
+        <v>100.583135</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
+          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
+          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -4785,7 +4793,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4795,14 +4803,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปราจีนบุรี</t>
+          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>14.205984</v>
+        <v>13.734867</v>
       </c>
       <c r="E77" t="n">
-        <v>101.643807</v>
+        <v>100.583127</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4821,12 +4829,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
+          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
+          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -4846,24 +4854,26 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>อาคารคอลัมน์ ทาวเวอร์</t>
+          <t>ตึกมาลีนนท์</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13.733154</v>
+        <v>13.717394</v>
       </c>
       <c r="E78" t="n">
-        <v>100.560401</v>
+        <v>100.572368</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4878,12 +4888,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
+          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
+          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -4893,24 +4903,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-03-14 00:00</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>คิงเพาเวอร์ มหานคร</t>
+          <t>โรงพยาบาลในปราจีนบุรี</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>13.723381</v>
+        <v>14.205984</v>
       </c>
       <c r="E79" t="n">
-        <v>100.528231</v>
+        <v>101.643807</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -4929,12 +4939,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
+          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1794644</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -4944,36 +4954,34 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-03-14 00:00</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>เชียงราย</t>
+          <t>อาคารคอลัมน์ ทาวเวอร์</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>19.90671</v>
+        <v>13.733154</v>
       </c>
       <c r="E80" t="n">
-        <v>99.721943</v>
+        <v>100.560401</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G80" t="n">
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4983,17 +4991,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
+          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
+          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -5003,54 +5011,52 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-03-14 10:00</t>
+          <t>2020-03-13 11:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>มหาวิทยาลัยกรุงเทพ</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>13.7323667</v>
+        <v>14.039612</v>
       </c>
       <c r="E81" t="n">
-        <v>100.5356087</v>
+        <v>100.614963</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
+          <t>(คำชี้แจง) มหาวิทยาลัยกรุงเทพได้ตรวจพบว่า มีนักศึกษาของมหาวิทยาลัยกรุงเทพอยู่ในข่ายต้องสงสัยว่าอาจมีการสัมผัสกับเชื้อโควิด-19 และกรมควบคุมโรคได้รับนักศึกษาคนดังกล่าวไว้เพื่อดูแลและติดตามอาการตามขั้นตอนทางการแพทย์เรียบร้อยแล้ว โดยขณะนี้อยู่ในระหว่างการรอผลตรวจยืนยัน</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
+          <t>https://www.posttoday.com/social/general/617611</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -5060,56 +5066,48 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-03-14 13:00</t>
+          <t>2020-03-14 00:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>โรงพยาบาลราชวิถี</t>
+          <t>คิงเพาเวอร์ มหานคร</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>13.767431</v>
+        <v>13.723381</v>
       </c>
       <c r="E82" t="n">
-        <v>100.53489</v>
+        <v>100.528231</v>
       </c>
       <c r="F82" t="n">
-        <v>41</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
+          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
+          <t>https://www.thairath.co.th/news/society/1794644</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -5119,30 +5117,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-03-14 13:00</t>
+          <t>2020-03-14 00:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
+          <t>เชียงราย</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>13.795892</v>
+        <v>19.90671</v>
       </c>
       <c r="E83" t="n">
-        <v>100.320675</v>
+        <v>99.721943</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5156,17 +5156,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
+          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
+          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -5181,19 +5181,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-03-14 10:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสัตหีบ กม.10</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.697731</v>
+        <v>13.7323667</v>
       </c>
       <c r="E84" t="n">
-        <v>100.97399</v>
+        <v>100.5356087</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -5201,25 +5201,29 @@
       <c r="G84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -5234,45 +5238,51 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-03-14 13:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>โรงพยาบาลบ้านฉาง</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.726049</v>
+        <v>13.767431</v>
       </c>
       <c r="E85" t="n">
-        <v>101.043339</v>
+        <v>100.53489</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -5287,19 +5297,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-03-14 13:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมาบตาพุด</t>
+          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.730494</v>
+        <v>13.795892</v>
       </c>
       <c r="E86" t="n">
-        <v>101.136369</v>
+        <v>100.320675</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -5307,25 +5317,29 @@
       <c r="G86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5345,14 +5359,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>โรงพยาบาลระยอง</t>
+          <t>โรงพยาบาลสัตหีบ กม.10</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.682116</v>
+        <v>12.697731</v>
       </c>
       <c r="E87" t="n">
-        <v>101.276476</v>
+        <v>100.97399</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -5373,7 +5387,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5398,14 +5412,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
+          <t>โรงพยาบาลบ้านฉาง</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.662795</v>
+        <v>12.726049</v>
       </c>
       <c r="E88" t="n">
-        <v>100.909332</v>
+        <v>101.043339</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -5426,7 +5440,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5441,7 +5455,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5451,14 +5465,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
+          <t>โรงพยาบาลมาบตาพุด</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13.60094</v>
+        <v>12.730494</v>
       </c>
       <c r="E89" t="n">
-        <v>100.593057</v>
+        <v>101.136369</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -5472,17 +5486,19 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -5492,7 +5508,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5502,14 +5518,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
+          <t>โรงพยาบาลระยอง</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>14.037659</v>
+        <v>12.682116</v>
       </c>
       <c r="E90" t="n">
-        <v>102.125791</v>
+        <v>101.276476</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -5523,17 +5539,19 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -5543,24 +5561,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>13.866945</v>
+        <v>12.662795</v>
       </c>
       <c r="E91" t="n">
-        <v>100.608801</v>
+        <v>100.909332</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5574,17 +5592,19 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -5594,56 +5614,48 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>13.735609</v>
+        <v>13.60094</v>
       </c>
       <c r="E92" t="n">
-        <v>100.528497</v>
+        <v>100.593057</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
+          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28240</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -5653,32 +5665,30 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GREEN VALLEY COUNTRY CLUB</t>
+          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>13.60822</v>
+        <v>14.037659</v>
       </c>
       <c r="E93" t="n">
-        <v>100.730924</v>
+        <v>102.125791</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G93" t="n">
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5686,19 +5696,17 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J93" t="n">
+        <v>0</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
+          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://imgur.com/6xEojOR</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -5708,12 +5716,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-03-15 13:00</t>
+          <t>2020-03-15 10:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5722,42 +5730,34 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>13.866526</v>
+        <v>13.866945</v>
       </c>
       <c r="E94" t="n">
-        <v>100.60866</v>
+        <v>100.608801</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>transferred</t>
-        </is>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
+          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
+          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -5767,48 +5767,56 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-03-15 15:00</t>
+          <t>2020-03-15 10:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
+          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>14.133529</v>
+        <v>13.735609</v>
       </c>
       <c r="E95" t="n">
-        <v>100.616017</v>
+        <v>100.528497</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
+          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
+          <t>https://www.chula.ac.th/news/28240</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -5818,56 +5826,52 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-03-15 18:00</t>
+          <t>2020-03-15 10:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>จังหวัดนครสวรรค์</t>
+          <t>GREEN VALLEY COUNTRY CLUB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15.703143</v>
+        <v>13.60822</v>
       </c>
       <c r="E96" t="n">
-        <v>100.125006</v>
+        <v>100.730924</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
+          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
+          <t>https://imgur.com/6xEojOR</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -5877,56 +5881,50 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-03-15 20:30</t>
+          <t>2020-03-15 12:30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเพชรบูรณ์</t>
+          <t>มหาวิทยาลัยศรีปทุม บางเขน</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>16.427158</v>
+        <v>13.855782</v>
       </c>
       <c r="E97" t="n">
-        <v>101.153523</v>
+        <v>100.585702</v>
       </c>
       <c r="F97" t="n">
-        <v>67</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Belgian</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
+          <t>(คำชี้แจง) มหาวิยาลัยศรีปทุม บางเขน ประกาษปิดทำการในช่วง 15-20 มีนาคม หลังผมนักศึกษาเข้าข่ายติดเชื้อโควิด-19</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2058081</t>
+          <t>https://www.thebangkokinsight.com/309244/</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -5941,26 +5939,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 13:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
+          <t>สนามมวยลุมพินี</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13.765684</v>
+        <v>13.866526</v>
       </c>
       <c r="E98" t="n">
-        <v>100.533389</v>
+        <v>100.60866</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5975,17 +5973,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
+          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
+          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -5995,56 +5993,48 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 15:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเปาโล</t>
+          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>13.792305</v>
+        <v>14.133529</v>
       </c>
       <c r="E99" t="n">
-        <v>100.549973</v>
+        <v>100.616017</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>transferred</t>
-        </is>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
+          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
+          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -6054,24 +6044,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 15:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
+          <t>Assumption University of Thailand</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>13.737169</v>
+        <v>13.610982</v>
       </c>
       <c r="E100" t="n">
-        <v>100.643512</v>
+        <v>100.837457</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -6081,29 +6071,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
+          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -6113,31 +6099,31 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 18:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลิศสิน</t>
+          <t>จังหวัดนครสวรรค์</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>13.722081</v>
+        <v>15.703143</v>
       </c>
       <c r="E101" t="n">
-        <v>100.517465</v>
+        <v>100.125006</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6157,12 +6143,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
+          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -6172,36 +6158,36 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-15 20:30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>สถานีดับเพลิงบางอ้อ</t>
+          <t>โรงพยาบาลเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>13.802817</v>
+        <v>16.427158</v>
       </c>
       <c r="E102" t="n">
-        <v>100.512125</v>
+        <v>101.153523</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Belgian</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6211,17 +6197,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
+          <t>https://www.matichon.co.th/region/news_2058081</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -6231,24 +6217,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
+          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>13.721404</v>
+        <v>13.765684</v>
       </c>
       <c r="E103" t="n">
-        <v>100.511063</v>
+        <v>100.533389</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -6275,12 +6261,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
+          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
+          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -6290,31 +6276,31 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
+          <t>โรงพยาบาลเปาโล</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13.753194</v>
+        <v>13.792305</v>
       </c>
       <c r="E104" t="n">
-        <v>100.576234</v>
+        <v>100.549973</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6334,12 +6320,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -6349,24 +6335,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13.732153</v>
+        <v>13.737169</v>
       </c>
       <c r="E105" t="n">
-        <v>100.536033</v>
+        <v>100.643512</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -6388,17 +6374,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
+          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -6408,30 +6394,32 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2020-03-16 12:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
+          <t>โรงพยาบาลเลิดสิน</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>16.942695</v>
+        <v>13.722081</v>
       </c>
       <c r="E106" t="n">
-        <v>104.723904</v>
+        <v>100.517465</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="n">
-        <v>0</v>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -6450,12 +6438,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
+          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -6465,48 +6453,56 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-16 09:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
+          <t>สถานีดับเพลิงบางอ้อ</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>13.706591</v>
+        <v>13.802817</v>
       </c>
       <c r="E107" t="n">
-        <v>101.129142</v>
+        <v>100.512125</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
+          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1796191</t>
+          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -6516,48 +6512,56 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-16 09:00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
+          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13.285124</v>
+        <v>13.721404</v>
       </c>
       <c r="E108" t="n">
-        <v>100.922403</v>
+        <v>100.511063</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
+          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
+          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -6567,24 +6571,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020-03-16 15:41</t>
+          <t>2020-03-16 10:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>อาคารมณียา เซ็นเตอร์</t>
+          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>13.744037</v>
+        <v>13.753194</v>
       </c>
       <c r="E109" t="n">
-        <v>100.542015</v>
+        <v>100.576234</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -6594,25 +6598,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-432768</t>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -6622,30 +6630,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2020-03-16 21:00</t>
+          <t>2020-03-16 10:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>13.71831</v>
+        <v>13.732153</v>
       </c>
       <c r="E110" t="n">
-        <v>100.585345</v>
+        <v>100.536033</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
-      <c r="G110" t="n">
-        <v>0</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6657,17 +6667,19 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -6677,32 +6689,30 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2020-03-17 00:08</t>
+          <t>2020-03-16 12:00</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
+          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>16.948493</v>
+        <v>16.942695</v>
       </c>
       <c r="E111" t="n">
-        <v>99.96773</v>
+        <v>104.723904</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="G111" t="n">
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6716,17 +6726,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
+          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
+          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -6736,24 +6746,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2020-03-17 11:00</t>
+          <t>2020-03-16 14:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
+          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13.767544</v>
+        <v>13.706591</v>
       </c>
       <c r="E112" t="n">
-        <v>100.44369</v>
+        <v>101.129142</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -6772,12 +6782,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
+          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/society/1796191</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -6787,56 +6797,48 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2020-03-17 11:45</t>
+          <t>2020-03-16 14:00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ปัตตานี</t>
+          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6.749083</v>
+        <v>13.285124</v>
       </c>
       <c r="E113" t="n">
-        <v>101.32889</v>
+        <v>100.922403</v>
       </c>
       <c r="F113" t="n">
-        <v>65</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
+          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1796811</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -6846,52 +6848,52 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-03-17 12:00</t>
+          <t>2020-03-16 15:41</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ชุมชนพรทวีวัฒน์1</t>
+          <t>อาคารมณียา เซ็นเตอร์</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14.054377</v>
+        <v>13.744037</v>
       </c>
       <c r="E114" t="n">
-        <v>100.631022</v>
+        <v>100.542015</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
-      <c r="G114" t="n">
-        <v>0</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I114" t="n">
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
+          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
+          <t>https://www.prachachat.net/general/news-432768</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -6906,19 +6908,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2020-03-17 14:00</t>
+          <t>2020-03-16 21:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>เชฟแมน ราชดำริ</t>
+          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>13.739698</v>
+        <v>13.71831</v>
       </c>
       <c r="E115" t="n">
-        <v>100.541591</v>
+        <v>100.585345</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -6936,19 +6938,17 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J115" t="n">
+        <v>0</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
+          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
+          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -6963,33 +6963,37 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-03-17 14:24</t>
+          <t>2020-03-17 00:08</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>15.276705</v>
+        <v>16.948493</v>
       </c>
       <c r="E116" t="n">
-        <v>104.80429</v>
+        <v>99.96773</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="n">
-        <v>0</v>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -6998,12 +7002,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
+          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>https://www.komchadluek.net/news/regional/422815</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -7013,24 +7017,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-17 10:00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>กาญจนบุรี</t>
+          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>14.005274</v>
+        <v>14.045304</v>
       </c>
       <c r="E117" t="n">
-        <v>99.54920799999999</v>
+        <v>100.433878</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -7038,25 +7042,27 @@
       <c r="G117" t="n">
         <v>0</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
+          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
+          <t>https://imgur.com/MRZ15kd</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -7066,56 +7072,48 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-17 11:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>จังหวัดยะลา</t>
+          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6.547652</v>
+        <v>13.767544</v>
       </c>
       <c r="E118" t="n">
-        <v>101.276494</v>
+        <v>100.44369</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
+          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>https://www.paktaireport.com/?p=289</t>
+          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M118" t="n">
@@ -7125,30 +7123,32 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-03-17 15:15</t>
+          <t>2020-03-17 11:45</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ศาลหลักเมืองชลบุรี</t>
+          <t>ปัตตานี</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>13.364938</v>
+        <v>6.749083</v>
       </c>
       <c r="E119" t="n">
-        <v>100.98566</v>
+        <v>101.32889</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -7167,12 +7167,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/east/1796964</t>
+          <t>https://www.thairath.co.th/news/local/south/1796811</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -7182,24 +7182,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020-03-17 16:00</t>
+          <t>2020-03-17 12:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
+          <t>ชุมชนพรทวีวัฒน์1</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>8.426632</v>
+        <v>14.054377</v>
       </c>
       <c r="E120" t="n">
-        <v>99.945635</v>
+        <v>100.631022</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -7207,10 +7207,8 @@
       <c r="G120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H120" t="n">
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -7224,12 +7222,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
+          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
+          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -7239,40 +7237,40 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020-03-17 20:00</t>
+          <t>2020-03-17 14:00</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>เชฟแมน ราชดำริ</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>16.442351</v>
+        <v>13.739698</v>
       </c>
       <c r="E121" t="n">
-        <v>102.835978</v>
+        <v>100.541591</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G121" t="n">
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -7281,12 +7279,12 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
+          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
+          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -7296,24 +7294,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 14:24</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Gym Monkey</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13.768027</v>
+        <v>15.276705</v>
       </c>
       <c r="E122" t="n">
-        <v>100.442156</v>
+        <v>104.80429</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -7321,23 +7319,27 @@
       <c r="G122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
+          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
+          <t>https://www.komchadluek.net/news/regional/422815</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -7352,19 +7354,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 15:00</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ขอนแก่น</t>
+          <t>กาญจนบุรี</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>16.442257</v>
+        <v>14.005274</v>
       </c>
       <c r="E123" t="n">
-        <v>102.837362</v>
+        <v>99.54920799999999</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7380,17 +7382,17 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
+          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -7405,26 +7407,26 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 15:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ฉะเชิงเทรา</t>
+          <t>จังหวัดยะลา</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>13.6887431</v>
+        <v>6.547652</v>
       </c>
       <c r="E124" t="n">
-        <v>101.0785358</v>
+        <v>101.276494</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7434,7 +7436,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7444,12 +7446,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
+          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
+          <t>https://www.paktaireport.com/?p=289</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -7459,24 +7461,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2020-03-17 20:55</t>
+          <t>2020-03-17 15:15</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
+          <t>ศาลหลักเมืองชลบุรี</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>13.763845</v>
+        <v>13.364938</v>
       </c>
       <c r="E125" t="n">
-        <v>100.569331</v>
+        <v>100.98566</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -7501,12 +7503,12 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
+          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
+          <t>https://www.thairath.co.th/news/local/east/1796964</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -7516,52 +7518,54 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2020-03-18 14:44</t>
+          <t>2020-03-17 16:00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
+          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>13.767126</v>
+        <v>8.426632</v>
       </c>
       <c r="E126" t="n">
-        <v>100.57881</v>
+        <v>99.945635</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
+          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>https://imgur.com/snvTfA5</t>
+          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -7576,19 +7580,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-03-18 15:18</t>
+          <t>2020-03-17 20:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>16.401265</v>
+        <v>16.442351</v>
       </c>
       <c r="E127" t="n">
-        <v>103.374251</v>
+        <v>102.835978</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -7603,24 +7607,22 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I127" t="n">
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
+          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -7630,56 +7632,48 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2020-03-18 15:24</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>จังหวัดร้อยเอ็ด</t>
+          <t>Gym Monkey</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>16.04753</v>
+        <v>13.768027</v>
       </c>
       <c r="E128" t="n">
-        <v>103.653192</v>
+        <v>100.442156</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
+          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8056818/</t>
+          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -7689,42 +7683,36 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>ขอนแก่น</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>14.984929</v>
+        <v>16.442257</v>
       </c>
       <c r="E129" t="n">
-        <v>102.103557</v>
+        <v>102.837362</v>
       </c>
       <c r="F129" t="n">
-        <v>22</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -7733,12 +7721,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -7748,27 +7736,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>14.984919</v>
+        <v>13.6887431</v>
       </c>
       <c r="E130" t="n">
-        <v>102.103547</v>
+        <v>101.0785358</v>
       </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -7782,7 +7770,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7792,12 +7780,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -7807,38 +7795,40 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-17 20:55</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
+          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>13.758529</v>
+        <v>13.763845</v>
       </c>
       <c r="E131" t="n">
-        <v>100.566238</v>
+        <v>100.569331</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -7847,12 +7837,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -7862,24 +7852,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 12:30</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
+          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>13.724323</v>
+        <v>15.219054</v>
       </c>
       <c r="E132" t="n">
-        <v>100.578732</v>
+        <v>100.133061</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -7897,17 +7887,17 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1420176</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -7922,19 +7912,19 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 14:44</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
+          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>13.762677</v>
+        <v>13.767126</v>
       </c>
       <c r="E133" t="n">
-        <v>100.472519</v>
+        <v>100.57881</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -7952,17 +7942,17 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://imgur.com/snvTfA5</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -7972,52 +7962,56 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 15:18</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
+          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>13.726004</v>
+        <v>16.401265</v>
       </c>
       <c r="E134" t="n">
-        <v>100.529007</v>
+        <v>103.374251</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -8032,47 +8026,51 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2020-03-18 16:55</t>
+          <t>2020-03-18 15:24</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>จังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>7.197264</v>
+        <v>16.04753</v>
       </c>
       <c r="E135" t="n">
-        <v>100.592928</v>
+        <v>103.653192</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นขาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>https://mgronline.com/south/detail/9630000027399</t>
+          <t>https://www.sanook.com/news/8056818/</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -8082,38 +8080,42 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>จังหวัดลพบุรี</t>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14.805827</v>
+        <v>14.984929</v>
       </c>
       <c r="E136" t="n">
-        <v>100.652328</v>
+        <v>102.103557</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -8122,12 +8124,12 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -8142,33 +8144,37 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>13.713369</v>
+        <v>14.984919</v>
       </c>
       <c r="E137" t="n">
-        <v>100.479241</v>
+        <v>102.103547</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -8177,12 +8183,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -8192,27 +8198,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-03-18 17:28</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>9.124031</v>
+        <v>14.984919</v>
       </c>
       <c r="E138" t="n">
-        <v>99.309859</v>
+        <v>102.103547</v>
       </c>
       <c r="F138" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -8236,12 +8242,12 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
+          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618074</t>
+          <t>https://www.sanook.com/news/8057670/</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -8251,24 +8257,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2020-03-18 23:00</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>18.7931751</v>
+        <v>13.758529</v>
       </c>
       <c r="E139" t="n">
-        <v>98.94244550000001</v>
+        <v>100.566238</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -8281,24 +8287,22 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I139" t="n">
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-434059</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M139" t="n">
@@ -8308,24 +8312,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2020-03-18 23:00</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>บริษัท MinebeaMitsumi</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>14.152245</v>
+        <v>13.724323</v>
       </c>
       <c r="E140" t="n">
-        <v>100.617803</v>
+        <v>100.578732</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -8335,29 +8339,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>https://imgur.com/iI8MLi1</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -8367,24 +8367,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2020-03-19 11:00</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>จังหวัดปัตตานี</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6.85436</v>
+        <v>13.762677</v>
       </c>
       <c r="E141" t="n">
-        <v>101.371369</v>
+        <v>100.472519</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8402,17 +8402,17 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M141" t="n">
@@ -8422,37 +8422,35 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2020-03-19 12:02</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>จังหวัดพัทลุง</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>7.616929</v>
+        <v>13.726004</v>
       </c>
       <c r="E142" t="n">
-        <v>100.072822</v>
+        <v>100.529007</v>
       </c>
       <c r="F142" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -8464,16 +8462,1236 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1798681</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M142" t="n">
         <v>140</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-03-18 16:55</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>จังหวัดสงขลา</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>7.197264</v>
+      </c>
+      <c r="E143" t="n">
+        <v>100.592928</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นขาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>https://mgronline.com/south/detail/9630000027399</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2020-03-18 17:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>จังหวัดลพบุรี</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>14.805827</v>
+      </c>
+      <c r="E144" t="n">
+        <v>100.652328</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2020-03-18 17:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>13.713369</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100.479241</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2020-03-18 17:28</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>9.124031</v>
+      </c>
+      <c r="E146" t="n">
+        <v>99.309859</v>
+      </c>
+      <c r="F146" t="n">
+        <v>49</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>https://www.posttoday.com/social/local/618074</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>sanitized</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-03-18 18:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>12.683745</v>
+      </c>
+      <c r="E147" t="n">
+        <v>101.248754</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มีนาคม ทางศูนย์การค้าจงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020-03-18 18:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>สนามบินสุวรรณภูมิ</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>13.68924</v>
+      </c>
+      <c r="E148" t="n">
+        <v>100.750014</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>https://covid-19.kapook.com/view222445.html</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2020-03-18 22:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>BASE Amarin</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>13.743774</v>
+      </c>
+      <c r="E149" t="n">
+        <v>100.541312</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เราได้รับการแจ้งจากสมาชิกท่านหนึ่งว่าได้ตรวจพบเชื้อโควิด-19 ซึ่งสมาชิกท่านนี้ได้มายังวันอังคารที่ 10 และพฤหัสที่ 12 มีนา ซึ่งเป็นเวลาก่อนที่จะได้รับการตรวจแต่อาจจะมีการติดเชื้อในช่วงเวลาก่อนหน้านั้นได้</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1096603273717108/posts/2994305460613537/</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2020-03-18 23:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>จังหวัดเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>18.7931751</v>
+      </c>
+      <c r="E150" t="n">
+        <v>98.94244550000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/local-economy/news-434059</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2020-03-18 23:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>บริษัท MinebeaMitsumi</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>14.152245</v>
+      </c>
+      <c r="E151" t="n">
+        <v>100.617803</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>https://imgur.com/iI8MLi1</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2020-03-19 11:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>จังหวัดปัตตานี</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>6.85436</v>
+      </c>
+      <c r="E152" t="n">
+        <v>101.371369</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2020-03-19 11:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ชลบุรี</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>13.361891</v>
+      </c>
+      <c r="E153" t="n">
+        <v>100.983336</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>http://www.chonburi.go.th/website/activity/view396</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>13.748381</v>
+      </c>
+      <c r="E154" t="n">
+        <v>100.564095</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:02</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>จังหวัดพัทลุง</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>7.616929</v>
+      </c>
+      <c r="E155" t="n">
+        <v>100.072822</v>
+      </c>
+      <c r="F155" t="n">
+        <v>56</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/society/1798681</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:30</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>13.079526</v>
+      </c>
+      <c r="E156" t="n">
+        <v>100.921558</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:30</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>13.612125</v>
+      </c>
+      <c r="E157" t="n">
+        <v>101.328831</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:30</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>14.838629</v>
+      </c>
+      <c r="E158" t="n">
+        <v>104.682512</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2020-03-19 14:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเกาะพะงัน</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>9.735879000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>99.99124999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2020-03-19 14:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>13.752392</v>
+      </c>
+      <c r="E160" t="n">
+        <v>100.663796</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>https://imgur.com/7kXAYAB</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2020-03-19 14:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>13.89878</v>
+      </c>
+      <c r="E161" t="n">
+        <v>100.545152</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>https://imgur.com/a0k1SAI</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:30</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลมะการักษ์</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>13.908185</v>
+      </c>
+      <c r="E162" t="n">
+        <v>99.767413</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
+ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
+และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-03-20 11:30</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>จังหวัดสระบุรี</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>14.527356</v>
+      </c>
+      <c r="E163" t="n">
+        <v>100.910644</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2020-03-20 11:30</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>จังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>7.888859</v>
+      </c>
+      <c r="E164" t="n">
+        <v>98.39840599999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3442,22 +3442,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-03-10 17:30</t>
+          <t>2020-03-09 12:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>โรงพยาบาลราชวิถี</t>
+          <t>บริษัท นาดาว บางกอก จำกัด</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13.7639031</v>
+        <v>13.743664</v>
       </c>
       <c r="E53" t="n">
-        <v>100.5366008</v>
+        <v>100.570826</v>
       </c>
       <c r="F53" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>(เคสที่ 51) สัมผัสใกล้ชิดกับผู้ป่วยพนักงานบริษัทที่กลับจากประเทศอิตาลีเคสที่ 45</t>
+          <t>(คำชี้แจง) ผู้ป่วยโควิด-19 ท่านหนึ่ง (อาชีพนักแสดง) ได้เข้ามาทำงานและใช้พื้นที่บางส่วนของออฟฟิศเมื่อ 9มี.ค.63 ผู้ป่วยเริ่มแสดงอาการคืนวันที่ 15มี.ค.63 ทางบริษัทให้พนักงานและนักแสดงที่ร่วมงานและใกล้ชิดผู้ป่วยกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-430230</t>
+          <t>https://www.facebook.com/112258875451758/posts/3872521716092103/</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -3506,17 +3506,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>นครปฐม</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13.7851184</v>
+        <v>13.7639031</v>
       </c>
       <c r="E54" t="n">
-        <v>99.9701025</v>
+        <v>100.5366008</v>
       </c>
       <c r="F54" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>(เคสที่ 52) เดินทางกลับจากอิตาลี</t>
+          <t>(เคสที่ 51) สัมผัสใกล้ชิดกับผู้ป่วยพนักงานบริษัทที่กลับจากประเทศอิตาลีเคสที่ 45</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3569,17 +3569,17 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13.7850184</v>
+        <v>13.7851184</v>
       </c>
       <c r="E55" t="n">
-        <v>99.96910250000001</v>
+        <v>99.9701025</v>
       </c>
       <c r="F55" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>(เคสที่ 53) ไม่ได้เดินทางไปต่างประเทศ ติดจากภรรยาเคสที่ 52</t>
+          <t>(เคสที่ 52) เดินทางกลับจากอิตาลี</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3619,22 +3619,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-03-10 17:30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>โรงพยาบาลกลาง</t>
+          <t>นครปฐม</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13.7464973</v>
+        <v>13.7850184</v>
       </c>
       <c r="E56" t="n">
-        <v>100.5092326</v>
+        <v>99.96910250000001</v>
       </c>
       <c r="F56" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3658,12 +3658,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>(เคสที่ 54) พนักงานตม.สนามบินสุวรรณภูมิ ยืนยันผลแล็บตรงกัน 2 แห่ง</t>
+          <t>(เคสที่ 53) ไม่ได้เดินทางไปต่างประเทศ ติดจากภรรยาเคสที่ 52</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
+          <t>https://www.prachachat.net/general/news-430230</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -3683,17 +3683,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>สนามบินสุวรรณภูมิ</t>
+          <t>โรงพยาบาลกลาง</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13.6998881</v>
+        <v>13.7464973</v>
       </c>
       <c r="E57" t="n">
-        <v>100.7501124</v>
+        <v>100.5092326</v>
       </c>
       <c r="F57" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>(เคสที่ 55) เจ้าหน้าที่ตรวจค้นประจำสนามบินสุวรรณภูมิ</t>
+          <t>(เคสที่ 54) พนักงานตม.สนามบินสุวรรณภูมิ ยืนยันผลแล็บตรงกัน 2 แห่ง</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3742,17 +3742,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>สถาบันบำราศนราดูร</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>13.8522958</v>
+        <v>13.6998881</v>
       </c>
       <c r="E58" t="n">
-        <v>100.5222895</v>
+        <v>100.7501124</v>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>(เคสที่ 56) พนักงานบริษัท ไม่ได้เดินทางออกนอกประเทศ กำลังหาต้นตอ</t>
+          <t>(เคสที่ 55) เจ้าหน้าที่ตรวจค้นประจำสนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3791,7 +3791,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>บริษัท ยูไนเต็ด แอนนาลิสต์ แอนด์ เอ็นจิเนียริ่ง คอนซัลแตนท์ จำกัด</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>13.678604</v>
+        <v>13.8522958</v>
       </c>
       <c r="E59" t="n">
-        <v>100.631158</v>
+        <v>100.5222895</v>
       </c>
       <c r="F59" t="n">
         <v>25</v>
@@ -3835,12 +3835,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>(เคสที่ 56) พนักงานบริษัท ทำงานที่นี่</t>
+          <t>(เคสที่ 56) พนักงานบริษัท ไม่ได้เดินทางออกนอกประเทศ กำลังหาต้นตอ</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>http://www.uaeconsultant.com/TH/covid19_1.html?fbclid=IwAR04Ip6LgCruEfj7OY6Mtt4ivZRXbE1MYWh_66JdltjjMPK6nvjDcxEuOBc</t>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -3850,7 +3850,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3860,21 +3860,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>โรงพยาบาลนพรัตนราชธานี</t>
+          <t>บริษัท ยูไนเต็ด แอนนาลิสต์ แอนด์ เอ็นจิเนียริ่ง คอนซัลแตนท์ จำกัด</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>13.8168561</v>
+        <v>13.678604</v>
       </c>
       <c r="E60" t="n">
-        <v>100.6877403</v>
+        <v>100.631158</v>
       </c>
       <c r="F60" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>(เคสที่ 57) เดินทางกลับจากเกาหลีใต้</t>
+          <t>(เคสที่ 56) พนักงานบริษัท ทำงานที่นี่</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
+          <t>http://www.uaeconsultant.com/TH/covid19_1.html?fbclid=IwAR04Ip6LgCruEfj7OY6Mtt4ivZRXbE1MYWh_66JdltjjMPK6nvjDcxEuOBc</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -3909,7 +3909,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3919,31 +3919,31 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">ซีอาร์ซี ทาวเวอร์ ออล ซีซั่นส์ เพลส </t>
+          <t>โรงพยาบาลนพรัตนราชธานี</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>13.7391092</v>
+        <v>13.8168561</v>
       </c>
       <c r="E61" t="n">
-        <v>100.5457424</v>
+        <v>100.6877403</v>
       </c>
       <c r="F61" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Singaporean</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) ทางตึกได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(เคสที่ 57) เดินทางกลับจากเกาหลีใต้</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://thestandard.co/all-seasons-place-open-as-usual-except-ohana-poke/</t>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -3968,7 +3968,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3978,14 +3978,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>สถาบันบำราศนราดูร</t>
+          <t xml:space="preserve">ซีอาร์ซี ทาวเวอร์ ออล ซีซั่นส์ เพลส </t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>13.8532558</v>
+        <v>13.7391092</v>
       </c>
       <c r="E62" t="n">
-        <v>100.5222895</v>
+        <v>100.5457424</v>
       </c>
       <c r="F62" t="n">
         <v>36</v>
@@ -4012,12 +4012,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) เจ้าของร้านอาหารที่ตึก All Season Place รักษาอยู่ที่นี่</t>
+          <t>(เคสที่ 59) ทางตึกได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
+          <t>https://thestandard.co/all-seasons-place-open-as-usual-except-ohana-poke/</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -4037,14 +4037,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>โรงพยาบาลกรุงเทพคริสเตียน</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13.7281658</v>
+        <v>13.8532558</v>
       </c>
       <c r="E63" t="n">
-        <v>100.5310528</v>
+        <v>100.5222895</v>
       </c>
       <c r="F63" t="n">
         <v>36</v>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) ตรวจพบเชื้อที่นี่แต่ได้ถูกย้ายไปยังโรงพยาบาลสถาบันบำราศนราดูรแล้ว</t>
+          <t>(เคสที่ 59) เจ้าของร้านอาหารที่ตึก All Season Place รักษาอยู่ที่นี่</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/theohanapoke/photos/a.420163565114428/862025934261520</t>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -4086,7 +4086,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4096,26 +4096,26 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>สุพรรณบุรี</t>
+          <t>โรงพยาบาลกรุงเทพคริสเตียน</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>14.895585</v>
+        <v>13.7281658</v>
       </c>
       <c r="E64" t="n">
-        <v>99.451262</v>
+        <v>100.5310528</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Singaporean</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4125,17 +4125,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ทางจังหวัดขอสงวนข้อมูล อายุ และเพศ ผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศ</t>
+          <t>(เคสที่ 59) ตรวจพบเชื้อที่นี่แต่ได้ถูกย้ายไปยังโรงพยาบาลสถาบันบำราศนราดูรแล้ว</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/central/1792523</t>
+          <t>https://www.facebook.com/theohanapoke/photos/a.420163565114428/862025934261520</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -4145,24 +4145,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-03-12 10:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>สถานีรถไฟหัวลำโพง</t>
+          <t>สุพรรณบุรี</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>13.738209</v>
+        <v>14.895585</v>
       </c>
       <c r="E65" t="n">
-        <v>100.516303</v>
+        <v>99.451262</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -4184,17 +4184,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
+          <t>(รอยืนยัน) ทางจังหวัดขอสงวนข้อมูล อายุ และเพศ ผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศ</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/bangkok/1798353</t>
+          <t>https://www.thairath.co.th/news/local/central/1792523</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -4214,14 +4214,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>สถานีรถไฟท่าชนะ</t>
+          <t>สถานีรถไฟหัวลำโพง</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9.565692</v>
+        <v>13.738209</v>
       </c>
       <c r="E66" t="n">
-        <v>99.165083</v>
+        <v>100.516303</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
+          <t>(ยืนยัน) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4263,48 +4263,56 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-03-12 10:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>เดอะคอมมอนส์ทองหล่อ</t>
+          <t>สถานีรถไฟท่าชนะ</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>13.7349548</v>
+        <v>9.565692</v>
       </c>
       <c r="E67" t="n">
-        <v>100.5800494</v>
+        <v>99.165083</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
+          <t>(ยืนยัน) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
+          <t>https://www.thairath.co.th/news/local/bangkok/1798353</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -4324,14 +4332,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ชงเจริญกรู๊ฟ</t>
+          <t>เดอะคอมมอนส์ทองหล่อ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13.7453294</v>
+        <v>13.7349548</v>
       </c>
       <c r="E68" t="n">
-        <v>100.535899</v>
+        <v>100.5800494</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4355,7 +4363,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
+          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -4375,14 +4383,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>แอทโมส บาร์ ทองหล่อ 10</t>
+          <t>ชงเจริญกรู๊ฟ</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>13.732099</v>
+        <v>13.7453294</v>
       </c>
       <c r="E69" t="n">
-        <v>100.582344</v>
+        <v>100.535899</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4401,12 +4409,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
+          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
+          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -4426,46 +4434,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>อาคารแสงทองธานี</t>
+          <t>แอทโมส บาร์ ทองหล่อ 10</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>13.7228962</v>
+        <v>13.732099</v>
       </c>
       <c r="E70" t="n">
-        <v>100.5324903</v>
+        <v>100.582344</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
+          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
+          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -4475,7 +4475,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4485,38 +4485,46 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปทุมธานี</t>
+          <t>อาคารแสงทองธานี</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>14.0965673</v>
+        <v>13.7228962</v>
       </c>
       <c r="E71" t="n">
-        <v>100.3616182</v>
+        <v>100.5324903</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
+          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
+          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -4536,14 +4544,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>โรงเรียนในเพชรบูรณ์</t>
+          <t>โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>16.313361</v>
+        <v>14.0965673</v>
       </c>
       <c r="E72" t="n">
-        <v>101.126105</v>
+        <v>100.3616182</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -4562,12 +4570,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -4587,14 +4595,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยในสงขลา</t>
+          <t>โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7.1154502</v>
+        <v>16.313361</v>
       </c>
       <c r="E73" t="n">
-        <v>100.0193856</v>
+        <v>101.126105</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4613,12 +4621,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -4628,7 +4636,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4638,46 +4646,38 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
+          <t>มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>13.723107</v>
+        <v>7.1154502</v>
       </c>
       <c r="E74" t="n">
-        <v>100.569595</v>
+        <v>100.0193856</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -4692,19 +4692,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-03-12 20:20</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FITWHEYGYM สาขา SHOWDC</t>
+          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>13.751749</v>
+        <v>13.723107</v>
       </c>
       <c r="E75" t="n">
-        <v>100.572667</v>
+        <v>100.569595</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4714,11 +4714,15 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4727,12 +4731,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
+          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
+          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -4747,25 +4751,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-03-12 20:20</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>เบียร์เบลลี่</t>
+          <t>FITWHEYGYM สาขา SHOWDC</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13.734802</v>
+        <v>13.751749</v>
       </c>
       <c r="E76" t="n">
-        <v>100.583135</v>
+        <v>100.572667</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4773,17 +4779,19 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
+          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
+          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -4803,14 +4811,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
+          <t>เบียร์เบลลี่</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>13.734867</v>
+        <v>13.734802</v>
       </c>
       <c r="E77" t="n">
-        <v>100.583127</v>
+        <v>100.583135</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4829,12 +4837,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
+          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
+          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -4854,46 +4862,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ตึกมาลีนนท์</t>
+          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13.717394</v>
+        <v>13.734867</v>
       </c>
       <c r="E78" t="n">
-        <v>100.572368</v>
+        <v>100.583127</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
+          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
+          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -4903,7 +4903,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4913,38 +4913,46 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปราจีนบุรี</t>
+          <t>ตึกมาลีนนท์</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>14.205984</v>
+        <v>13.717394</v>
       </c>
       <c r="E79" t="n">
-        <v>101.643807</v>
+        <v>100.572368</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
+          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
+          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -4954,7 +4962,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4964,14 +4972,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>อาคารคอลัมน์ ทาวเวอร์</t>
+          <t>โรงพยาบาลในปราจีนบุรี</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>13.733154</v>
+        <v>14.205984</v>
       </c>
       <c r="E80" t="n">
-        <v>100.560401</v>
+        <v>101.643807</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -4979,29 +4987,23 @@
       <c r="G80" t="n">
         <v>0</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
+          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -5011,52 +5013,54 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-03-13 11:00</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยกรุงเทพ</t>
+          <t>อาคารคอลัมน์ ทาวเวอร์</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14.039612</v>
+        <v>13.733154</v>
       </c>
       <c r="E81" t="n">
-        <v>100.614963</v>
+        <v>100.560401</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิทยาลัยกรุงเทพได้ตรวจพบว่า มีนักศึกษาของมหาวิทยาลัยกรุงเทพอยู่ในข่ายต้องสงสัยว่าอาจมีการสัมผัสกับเชื้อโควิด-19 และกรมควบคุมโรคได้รับนักศึกษาคนดังกล่าวไว้เพื่อดูแลและติดตามอาการตามขั้นตอนทางการแพทย์เรียบร้อยแล้ว โดยขณะนี้อยู่ในระหว่างการรอผลตรวจยืนยัน</t>
+          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/general/617611</t>
+          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -5066,30 +5070,32 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-03-14 00:00</t>
+          <t>2020-03-13 11:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>คิงเพาเวอร์ มหานคร</t>
+          <t>มหาวิทยาลัยกรุงเทพ</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>13.723381</v>
+        <v>14.039612</v>
       </c>
       <c r="E82" t="n">
-        <v>100.528231</v>
+        <v>100.614963</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="n">
-        <v>0</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5097,17 +5103,19 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
+          <t>(คำชี้แจง) มหาวิทยาลัยกรุงเทพได้ตรวจพบว่า มีนักศึกษาของมหาวิทยาลัยกรุงเทพอยู่ในข่ายต้องสงสัยว่าอาจมีการสัมผัสกับเชื้อโควิด-19 และกรมควบคุมโรคได้รับนักศึกษาคนดังกล่าวไว้เพื่อดูแลและติดตามอาการตามขั้นตอนทางการแพทย์เรียบร้อยแล้ว โดยขณะนี้อยู่ในระหว่างการรอผลตรวจยืนยัน</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1794644</t>
+          <t>https://www.posttoday.com/social/general/617611</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -5117,7 +5125,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5127,46 +5135,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>เชียงราย</t>
+          <t>คิงเพาเวอร์ มหานคร</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>19.90671</v>
+        <v>13.723381</v>
       </c>
       <c r="E83" t="n">
-        <v>99.721943</v>
+        <v>100.528231</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
+          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
+          <t>https://www.thairath.co.th/news/society/1794644</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -5176,30 +5176,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-03-14 10:00</t>
+          <t>2020-03-14 00:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>เชียงราย</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>13.7323667</v>
+        <v>19.90671</v>
       </c>
       <c r="E84" t="n">
-        <v>100.5356087</v>
+        <v>99.721943</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="n">
-        <v>0</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5213,17 +5215,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
+          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
+          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -5238,27 +5240,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-03-14 13:00</t>
+          <t>2020-03-14 10:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>โรงพยาบาลราชวิถี</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>13.767431</v>
+        <v>13.7323667</v>
       </c>
       <c r="E85" t="n">
-        <v>100.53489</v>
+        <v>100.5356087</v>
       </c>
       <c r="F85" t="n">
-        <v>41</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5277,12 +5277,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
+          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
+          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -5302,20 +5302,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13.795892</v>
+        <v>13.767431</v>
       </c>
       <c r="E86" t="n">
-        <v>100.320675</v>
+        <v>100.53489</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5334,12 +5336,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
+          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5354,19 +5356,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-03-14 13:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสัตหีบ กม.10</t>
+          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.697731</v>
+        <v>13.795892</v>
       </c>
       <c r="E87" t="n">
-        <v>100.97399</v>
+        <v>100.320675</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -5374,25 +5376,29 @@
       <c r="G87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -5412,14 +5418,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>โรงพยาบาลบ้านฉาง</t>
+          <t>โรงพยาบาลสัตหีบ กม.10</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.726049</v>
+        <v>12.697731</v>
       </c>
       <c r="E88" t="n">
-        <v>101.043339</v>
+        <v>100.97399</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -5440,7 +5446,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5465,14 +5471,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมาบตาพุด</t>
+          <t>โรงพยาบาลบ้านฉาง</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.730494</v>
+        <v>12.726049</v>
       </c>
       <c r="E89" t="n">
-        <v>101.136369</v>
+        <v>101.043339</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -5518,14 +5524,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>โรงพยาบาลระยอง</t>
+          <t>โรงพยาบาลมาบตาพุด</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>12.682116</v>
+        <v>12.730494</v>
       </c>
       <c r="E90" t="n">
-        <v>101.276476</v>
+        <v>101.136369</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -5571,14 +5577,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
+          <t>โรงพยาบาลระยอง</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>12.662795</v>
+        <v>12.682116</v>
       </c>
       <c r="E91" t="n">
-        <v>100.909332</v>
+        <v>101.276476</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5599,7 +5605,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5614,7 +5620,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5624,14 +5630,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
+          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>13.60094</v>
+        <v>12.662795</v>
       </c>
       <c r="E92" t="n">
-        <v>100.593057</v>
+        <v>100.909332</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -5645,17 +5651,19 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -5675,14 +5683,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
+          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14.037659</v>
+        <v>13.60094</v>
       </c>
       <c r="E93" t="n">
-        <v>102.125791</v>
+        <v>100.593057</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -5701,12 +5709,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
+          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -5716,24 +5724,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>13.866945</v>
+        <v>14.037659</v>
       </c>
       <c r="E94" t="n">
-        <v>100.608801</v>
+        <v>102.125791</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5752,12 +5760,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
+          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -5767,7 +5775,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5777,46 +5785,38 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>สนามมวยลุมพินี</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>13.735609</v>
+        <v>13.866945</v>
       </c>
       <c r="E95" t="n">
-        <v>100.528497</v>
+        <v>100.608801</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
+          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28240</t>
+          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -5826,7 +5826,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5836,14 +5836,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GREEN VALLEY COUNTRY CLUB</t>
+          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>13.60822</v>
+        <v>13.735609</v>
       </c>
       <c r="E96" t="n">
-        <v>100.730924</v>
+        <v>100.528497</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -5853,25 +5853,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
+          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://imgur.com/6xEojOR</t>
+          <t>https://www.chula.ac.th/news/28240</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -5886,25 +5890,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-03-15 12:30</t>
+          <t>2020-03-15 10:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยศรีปทุม บางเขน</t>
+          <t>GREEN VALLEY COUNTRY CLUB</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>13.855782</v>
+        <v>13.60822</v>
       </c>
       <c r="E97" t="n">
-        <v>100.585702</v>
+        <v>100.730924</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
-      <c r="G97" t="n">
-        <v>0</v>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -5914,17 +5920,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิยาลัยศรีปทุม บางเขน ประกาษปิดทำการในช่วง 15-20 มีนาคม หลังผมนักศึกษาเข้าข่ายติดเชื้อโควิด-19</t>
+          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://www.thebangkokinsight.com/309244/</t>
+          <t>https://imgur.com/6xEojOR</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -5934,56 +5940,50 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2020-03-15 13:00</t>
+          <t>2020-03-15 12:30</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>มหาวิทยาลัยศรีปทุม บางเขน</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13.866526</v>
+        <v>13.855782</v>
       </c>
       <c r="E98" t="n">
-        <v>100.60866</v>
+        <v>100.585702</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
+          <t>(คำชี้แจง) มหาวิยาลัยศรีปทุม บางเขน ประกาศปิดทำการในช่วง 15-20 มี.ค. หลังพบนักศึกษาเข้าข่ายติดเชื้อโควิด-19</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
+          <t>https://www.thebangkokinsight.com/309244/</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -5993,48 +5993,56 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020-03-15 15:00</t>
+          <t>2020-03-15 13:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
+          <t>สนามมวยลุมพินี</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>14.133529</v>
+        <v>13.866526</v>
       </c>
       <c r="E99" t="n">
-        <v>100.616017</v>
+        <v>100.60866</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
+          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
+          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -6044,7 +6052,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6054,22 +6062,20 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Assumption University of Thailand</t>
+          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>13.610982</v>
+        <v>14.133529</v>
       </c>
       <c r="E100" t="n">
-        <v>100.837457</v>
+        <v>100.616017</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G100" t="n">
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6077,19 +6083,17 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J100" t="n">
+        <v>0</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
+          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -6099,42 +6103,38 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2020-03-15 18:00</t>
+          <t>2020-03-15 15:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>จังหวัดนครสวรรค์</t>
+          <t>Assumption University of Thailand</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>15.703143</v>
+        <v>13.610982</v>
       </c>
       <c r="E101" t="n">
-        <v>100.125006</v>
+        <v>100.837457</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -6143,12 +6143,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
+          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
+          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -6163,37 +6163,33 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2020-03-15 20:30</t>
+          <t>2020-03-15 15:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเพชรบูรณ์</t>
+          <t>เจ.ซี. ทาวเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>16.427158</v>
+        <v>13.785962</v>
       </c>
       <c r="E102" t="n">
-        <v>101.153523</v>
+        <v>100.556176</v>
       </c>
       <c r="F102" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Belgian</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -6202,12 +6198,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
+          <t>(คำชี้แจง) ได้ทราบข่าวผู้พักอาศัย 1 คน ติดเชื้อโควิด-19 จากการไปดูมวย ปัจจุบันอยู่ในโรงพยาบาลรัฐแล้ว</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2058081</t>
+          <t>https://imgur.com/9fqomiQ</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -6217,24 +6213,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 18:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
+          <t>จังหวัดนครสวรรค์</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>13.765684</v>
+        <v>15.703143</v>
       </c>
       <c r="E103" t="n">
-        <v>100.533389</v>
+        <v>100.125006</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -6261,12 +6257,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
+          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
+          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -6281,22 +6277,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 20:30</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเปาโล</t>
+          <t>โรงพยาบาลเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13.792305</v>
+        <v>16.427158</v>
       </c>
       <c r="E104" t="n">
-        <v>100.549973</v>
+        <v>101.153523</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6305,7 +6301,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Belgian</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6315,17 +6311,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
+          <t>https://www.matichon.co.th/region/news_2058081</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -6335,7 +6331,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6345,21 +6341,21 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
+          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13.737169</v>
+        <v>13.765684</v>
       </c>
       <c r="E105" t="n">
-        <v>100.643512</v>
+        <v>100.533389</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6374,17 +6370,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
+          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -6394,7 +6390,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6404,21 +6400,21 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลิดสิน</t>
+          <t>โรงพยาบาลเปาโล</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>13.722081</v>
+        <v>13.792305</v>
       </c>
       <c r="E106" t="n">
-        <v>100.517465</v>
+        <v>100.549973</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -6433,17 +6429,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
+          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -6453,24 +6449,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>สถานีดับเพลิงบางอ้อ</t>
+          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>13.802817</v>
+        <v>13.737169</v>
       </c>
       <c r="E107" t="n">
-        <v>100.512125</v>
+        <v>100.643512</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -6492,17 +6488,17 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
+          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -6512,31 +6508,31 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
+          <t>โรงพยาบาลเลิดสิน</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13.721404</v>
+        <v>13.722081</v>
       </c>
       <c r="E108" t="n">
-        <v>100.511063</v>
+        <v>100.517465</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6556,12 +6552,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
+          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -6571,24 +6567,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-16 09:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
+          <t>สถานีดับเพลิงบางอ้อ</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>13.753194</v>
+        <v>13.802817</v>
       </c>
       <c r="E109" t="n">
-        <v>100.576234</v>
+        <v>100.512125</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -6610,17 +6606,17 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -6630,31 +6626,31 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-16 09:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>13.732153</v>
+        <v>13.721404</v>
       </c>
       <c r="E110" t="n">
-        <v>100.536033</v>
+        <v>100.511063</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6674,12 +6670,12 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
+          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -6689,30 +6685,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2020-03-16 12:00</t>
+          <t>2020-03-16 10:00</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
+          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>16.942695</v>
+        <v>13.753194</v>
       </c>
       <c r="E111" t="n">
-        <v>104.723904</v>
+        <v>100.576234</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
-      <c r="G111" t="n">
-        <v>0</v>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6726,17 +6724,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -6746,48 +6744,56 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-16 10:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13.706591</v>
+        <v>13.732153</v>
       </c>
       <c r="E112" t="n">
-        <v>101.129142</v>
+        <v>100.536033</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1796191</t>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -6797,24 +6803,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-16 12:00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
+          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>13.285124</v>
+        <v>16.942695</v>
       </c>
       <c r="E113" t="n">
-        <v>100.922403</v>
+        <v>104.723904</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -6822,23 +6828,29 @@
       <c r="G113" t="n">
         <v>0</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
+          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
+          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -6853,27 +6865,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-03-16 15:41</t>
+          <t>2020-03-16 14:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>อาคารมณียา เซ็นเตอร์</t>
+          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>13.744037</v>
+        <v>13.706591</v>
       </c>
       <c r="E114" t="n">
-        <v>100.542015</v>
+        <v>101.129142</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G114" t="n">
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -6881,19 +6891,17 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J114" t="n">
+        <v>0</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
+          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-432768</t>
+          <t>https://www.thairath.co.th/news/society/1796191</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -6903,24 +6911,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2020-03-16 21:00</t>
+          <t>2020-03-16 14:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
+          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>13.71831</v>
+        <v>13.285124</v>
       </c>
       <c r="E115" t="n">
-        <v>100.585345</v>
+        <v>100.922403</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -6928,27 +6936,23 @@
       <c r="G115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
+          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -6958,56 +6962,52 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-03-17 00:08</t>
+          <t>2020-03-16 15:41</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
+          <t>อาคารมณียา เซ็นเตอร์</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>16.948493</v>
+        <v>13.744037</v>
       </c>
       <c r="E116" t="n">
-        <v>99.96773</v>
+        <v>100.542015</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
+          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
+          <t>https://www.prachachat.net/general/news-432768</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -7017,24 +7017,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2020-03-17 10:00</t>
+          <t>2020-03-16 21:00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
+          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>14.045304</v>
+        <v>13.71831</v>
       </c>
       <c r="E117" t="n">
-        <v>100.433878</v>
+        <v>100.585345</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
+          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>https://imgur.com/MRZ15kd</t>
+          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -7072,48 +7072,56 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-03-17 11:00</t>
+          <t>2020-03-17 00:08</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
+          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>13.767544</v>
+        <v>16.948493</v>
       </c>
       <c r="E118" t="n">
-        <v>100.44369</v>
+        <v>99.96773</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
+          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
         </is>
       </c>
       <c r="M118" t="n">
@@ -7123,42 +7131,38 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-03-17 11:45</t>
+          <t>2020-03-17 10:00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ปัตตานี</t>
+          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>6.749083</v>
+        <v>14.045304</v>
       </c>
       <c r="E119" t="n">
-        <v>101.32889</v>
+        <v>100.433878</v>
       </c>
       <c r="F119" t="n">
-        <v>65</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -7167,12 +7171,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
+          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1796811</t>
+          <t>https://imgur.com/MRZ15kd</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -7182,24 +7186,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020-03-17 12:00</t>
+          <t>2020-03-17 11:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ชุมชนพรทวีวัฒน์1</t>
+          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>14.054377</v>
+        <v>13.767544</v>
       </c>
       <c r="E120" t="n">
-        <v>100.631022</v>
+        <v>100.44369</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -7210,24 +7214,20 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
+          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
+          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -7237,30 +7237,32 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020-03-17 14:00</t>
+          <t>2020-03-17 11:45</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>เชฟแมน ราชดำริ</t>
+          <t>ปัตตานี</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>13.739698</v>
+        <v>6.749083</v>
       </c>
       <c r="E121" t="n">
-        <v>100.541591</v>
+        <v>101.32889</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -7279,12 +7281,12 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
+          <t>https://www.thairath.co.th/news/local/south/1796811</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -7294,24 +7296,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2020-03-17 14:24</t>
+          <t>2020-03-17 12:00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>ชุมชนพรทวีวัฒน์1</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15.276705</v>
+        <v>14.054377</v>
       </c>
       <c r="E122" t="n">
-        <v>104.80429</v>
+        <v>100.631022</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -7319,27 +7321,27 @@
       <c r="G122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
+          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>https://www.komchadluek.net/news/regional/422815</t>
+          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -7349,24 +7351,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-17 14:00</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>กาญจนบุรี</t>
+          <t>เชฟแมน ราชดำริ</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>14.005274</v>
+        <v>13.739698</v>
       </c>
       <c r="E123" t="n">
-        <v>99.54920799999999</v>
+        <v>100.541591</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7374,25 +7376,29 @@
       <c r="G123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
+          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
+          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -7402,56 +7408,52 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-17 14:24</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>จังหวัดยะลา</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6.547652</v>
+        <v>15.276705</v>
       </c>
       <c r="E124" t="n">
-        <v>101.276494</v>
+        <v>104.80429</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G124" t="n">
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
+      <c r="I124" t="n">
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
+          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>https://www.paktaireport.com/?p=289</t>
+          <t>https://www.komchadluek.net/news/regional/422815</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -7461,24 +7463,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2020-03-17 15:15</t>
+          <t>2020-03-17 15:00</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ศาลหลักเมืองชลบุรี</t>
+          <t>กาญจนบุรี</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>13.364938</v>
+        <v>14.005274</v>
       </c>
       <c r="E125" t="n">
-        <v>100.98566</v>
+        <v>99.54920799999999</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -7486,29 +7488,25 @@
       <c r="G125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
+          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/east/1796964</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -7523,25 +7521,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2020-03-17 16:00</t>
+          <t>2020-03-17 15:00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
+          <t>จังหวัดยะลา</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>8.426632</v>
+        <v>6.547652</v>
       </c>
       <c r="E126" t="n">
-        <v>99.945635</v>
+        <v>101.276494</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="n">
-        <v>0</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
+          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
+          <t>https://www.paktaireport.com/?p=289</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -7575,40 +7575,40 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-03-17 20:00</t>
+          <t>2020-03-17 15:15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>ศาลหลักเมืองชลบุรี</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>16.442351</v>
+        <v>13.364938</v>
       </c>
       <c r="E127" t="n">
-        <v>102.835978</v>
+        <v>100.98566</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G127" t="n">
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -7617,12 +7617,12 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
+          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
+          <t>https://www.thairath.co.th/news/local/east/1796964</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -7632,24 +7632,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 16:00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Gym Monkey</t>
+          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>13.768027</v>
+        <v>8.426632</v>
       </c>
       <c r="E128" t="n">
-        <v>100.442156</v>
+        <v>99.945635</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -7657,23 +7657,29 @@
       <c r="G128" t="n">
         <v>0</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
+          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
+          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -7688,28 +7694,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 20:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ขอนแก่น</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16.442257</v>
+        <v>16.442351</v>
       </c>
       <c r="E129" t="n">
-        <v>102.837362</v>
+        <v>102.835978</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -7721,12 +7731,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
+          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -7736,7 +7746,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7746,46 +7756,38 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ฉะเชิงเทรา</t>
+          <t>Gym Monkey</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13.6887431</v>
+        <v>13.768027</v>
       </c>
       <c r="E130" t="n">
-        <v>101.0785358</v>
+        <v>100.442156</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
+          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
+          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -7795,24 +7797,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2020-03-17 20:55</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
+          <t>ขอนแก่น</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>13.763845</v>
+        <v>16.442257</v>
       </c>
       <c r="E131" t="n">
-        <v>100.569331</v>
+        <v>102.837362</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -7820,15 +7822,11 @@
       <c r="G131" t="n">
         <v>0</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -7837,12 +7835,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
+          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -7852,52 +7850,56 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-03-18 12:30</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
+          <t>ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>15.219054</v>
+        <v>13.6887431</v>
       </c>
       <c r="E132" t="n">
-        <v>100.133061</v>
+        <v>101.0785358</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
+          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1420176</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -7912,47 +7914,49 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020-03-18 14:44</t>
+          <t>2020-03-17 20:55</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
+          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>13.767126</v>
+        <v>13.763845</v>
       </c>
       <c r="E133" t="n">
-        <v>100.57881</v>
+        <v>100.569331</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>https://imgur.com/snvTfA5</t>
+          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -7962,42 +7966,38 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020-03-18 15:18</t>
+          <t>2020-03-18 12:30</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
+          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>16.401265</v>
+        <v>15.219054</v>
       </c>
       <c r="E134" t="n">
-        <v>103.374251</v>
+        <v>100.133061</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
+          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
+          <t>https://www.77kaoded.com/content/1420176</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -8021,56 +8021,52 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2020-03-18 15:24</t>
+          <t>2020-03-18 14:44</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>จังหวัดร้อยเอ็ด</t>
+          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>16.04753</v>
+        <v>13.767126</v>
       </c>
       <c r="E135" t="n">
-        <v>103.653192</v>
+        <v>100.57881</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
+          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8056818/</t>
+          <t>https://imgur.com/snvTfA5</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -8080,31 +8076,31 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-18 15:18</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14.984929</v>
+        <v>16.401265</v>
       </c>
       <c r="E136" t="n">
-        <v>102.103557</v>
+        <v>103.374251</v>
       </c>
       <c r="F136" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8119,17 +8115,17 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -8139,31 +8135,31 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-18 15:24</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>จังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>14.984919</v>
+        <v>16.04753</v>
       </c>
       <c r="E137" t="n">
-        <v>102.103547</v>
+        <v>103.653192</v>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8173,7 +8169,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8183,12 +8179,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+          <t>https://www.sanook.com/news/8056818/</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -8198,7 +8194,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8208,21 +8204,21 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>14.984919</v>
+        <v>14.984929</v>
       </c>
       <c r="E138" t="n">
-        <v>102.103547</v>
+        <v>102.103557</v>
       </c>
       <c r="F138" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8242,12 +8238,12 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8057670/</t>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -8262,33 +8258,37 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>13.758529</v>
+        <v>14.984919</v>
       </c>
       <c r="E139" t="n">
-        <v>100.566238</v>
+        <v>102.103547</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -8297,12 +8297,12 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
         </is>
       </c>
       <c r="M139" t="n">
@@ -8312,38 +8312,42 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>13.724323</v>
+        <v>14.984919</v>
       </c>
       <c r="E140" t="n">
-        <v>100.578732</v>
+        <v>102.103547</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -8352,12 +8356,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.sanook.com/news/8057670/</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -8367,7 +8371,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8377,14 +8381,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>13.762677</v>
+        <v>13.758529</v>
       </c>
       <c r="E141" t="n">
-        <v>100.472519</v>
+        <v>100.566238</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8407,7 +8411,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -8432,14 +8436,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>13.726004</v>
+        <v>13.724323</v>
       </c>
       <c r="E142" t="n">
-        <v>100.529007</v>
+        <v>100.578732</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -8462,7 +8466,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ๋ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -8477,24 +8481,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2020-03-18 16:55</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>7.197264</v>
+        <v>13.762677</v>
       </c>
       <c r="E143" t="n">
-        <v>100.592928</v>
+        <v>100.472519</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -8512,17 +8516,17 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นขาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>https://mgronline.com/south/detail/9630000027399</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -8532,24 +8536,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>จังหวัดลพบุรี</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>14.805827</v>
+        <v>13.726004</v>
       </c>
       <c r="E144" t="n">
-        <v>100.652328</v>
+        <v>100.529007</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -8572,12 +8576,12 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -8587,24 +8591,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-18 16:55</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
+          <t>จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>13.713369</v>
+        <v>7.197264</v>
       </c>
       <c r="E145" t="n">
-        <v>100.479241</v>
+        <v>100.592928</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -8622,17 +8626,17 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
+          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นชาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
+          <t>https://mgronline.com/south/detail/9630000027399</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -8642,42 +8646,38 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-03-18 17:28</t>
+          <t>2020-03-18 17:00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดลพบุรี</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>9.124031</v>
+        <v>14.805827</v>
       </c>
       <c r="E146" t="n">
-        <v>99.309859</v>
+        <v>100.652328</v>
       </c>
       <c r="F146" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -8686,12 +8686,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
+          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618074</t>
+          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -8701,30 +8701,32 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-03-18 18:00</t>
+          <t>2020-03-18 17:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
+          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>12.683745</v>
+        <v>13.713369</v>
       </c>
       <c r="E147" t="n">
-        <v>101.248754</v>
+        <v>100.479241</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="n">
-        <v>0</v>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -8734,17 +8736,17 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มีนาคม ทางศูนย์การค้าจงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มีนาคม</t>
+          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -8759,26 +8761,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-03-18 18:00</t>
+          <t>2020-03-18 17:28</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>สนามบินสุวรรณภูมิ</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>13.68924</v>
+        <v>9.124031</v>
       </c>
       <c r="E148" t="n">
-        <v>100.750014</v>
+        <v>99.309859</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -8798,12 +8800,12 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>https://covid-19.kapook.com/view222445.html</t>
+          <t>https://www.posttoday.com/social/local/618074</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -8813,52 +8815,50 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-03-18 22:00</t>
+          <t>2020-03-18 18:00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BASE Amarin</t>
+          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13.743774</v>
+        <v>12.683745</v>
       </c>
       <c r="E149" t="n">
-        <v>100.541312</v>
+        <v>101.248754</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เราได้รับการแจ้งจากสมาชิกท่านหนึ่งว่าได้ตรวจพบเชื้อโควิด-19 ซึ่งสมาชิกท่านนี้ได้มายังวันอังคารที่ 10 และพฤหัสที่ 12 มีนา ซึ่งเป็นเวลาก่อนที่จะได้รับการตรวจแต่อาจจะมีการติดเชื้อในช่วงเวลาก่อนหน้านั้นได้</t>
+          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มี.ค. ทางศูนย์การค้าจึงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มี.ค.</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1096603273717108/posts/2994305460613537/</t>
+          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -8868,24 +8868,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-03-18 23:00</t>
+          <t>2020-03-18 18:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>18.7931751</v>
+        <v>13.68924</v>
       </c>
       <c r="E150" t="n">
-        <v>98.94244550000001</v>
+        <v>100.750014</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -8895,8 +8895,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -8905,17 +8907,17 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
+          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-434059</t>
+          <t>https://covid-19.kapook.com/view222445.html</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -8930,19 +8932,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-03-18 23:00</t>
+          <t>2020-03-18 22:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>บริษัท MinebeaMitsumi</t>
+          <t>BASE Amarin</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14.152245</v>
+        <v>13.743774</v>
       </c>
       <c r="E151" t="n">
-        <v>100.617803</v>
+        <v>100.541312</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -8952,15 +8954,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -8969,12 +8967,12 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
+          <t>(คำชี้แจง) เราได้รับการแจ้งจากสมาชิกท่านหนึ่งว่าได้ตรวจพบเชื้อโควิด-19 ซึ่งสมาชิกท่านนี้ได้มายังวันอังคารที่ 10 และพฤหัสที่ 12 มีนา ซึ่งเป็นเวลาก่อนที่จะได้รับการตรวจแต่อาจจะมีการติดเชื้อในช่วงเวลาก่อนหน้านั้นได้</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>https://imgur.com/iI8MLi1</t>
+          <t>https://www.facebook.com/1096603273717108/posts/2994305460613537/</t>
         </is>
       </c>
       <c r="M151" t="n">
@@ -8989,19 +8987,19 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-03-19 11:00</t>
+          <t>2020-03-18 23:00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>จังหวัดปัตตานี</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>6.85436</v>
+        <v>18.7931751</v>
       </c>
       <c r="E152" t="n">
-        <v>101.371369</v>
+        <v>98.94244550000001</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -9014,8 +9012,10 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -9024,12 +9024,12 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
+          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/local-economy/news-434059</t>
         </is>
       </c>
       <c r="M152" t="n">
@@ -9039,36 +9039,42 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-03-19 11:00</t>
+          <t>2020-03-18 23:00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ชลบุรี</t>
+          <t>บริษัท MinebeaMitsumi</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>13.361891</v>
+        <v>14.152245</v>
       </c>
       <c r="E153" t="n">
-        <v>100.983336</v>
+        <v>100.617803</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -9077,12 +9083,12 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
+          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>http://www.chonburi.go.th/website/activity/view396</t>
+          <t>https://imgur.com/iI8MLi1</t>
         </is>
       </c>
       <c r="M153" t="n">
@@ -9092,24 +9098,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-03-19 12:00</t>
+          <t>2020-03-19 11:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
+          <t>จังหวัดปัตตานี</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>13.748381</v>
+        <v>6.85436</v>
       </c>
       <c r="E154" t="n">
-        <v>100.564095</v>
+        <v>101.371369</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -9127,17 +9133,17 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
+          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -9152,49 +9158,45 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-03-19 12:02</t>
+          <t>2020-03-19 11:00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>จังหวัดพัทลุง</t>
+          <t>ชลบุรี</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7.616929</v>
+        <v>13.361891</v>
       </c>
       <c r="E155" t="n">
-        <v>100.072822</v>
+        <v>100.983336</v>
       </c>
       <c r="F155" t="n">
-        <v>56</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
+          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1798681</t>
+          <t>http://www.chonburi.go.th/website/activity/view396</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -9204,24 +9206,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 11:00</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>Sidel South Asia-Pacific LTD.</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>13.079526</v>
+        <v>13.749285</v>
       </c>
       <c r="E156" t="n">
-        <v>100.921558</v>
+        <v>100.556816</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -9242,12 +9244,12 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
+          <t>(ยืนยัน) เนื่องด้วยวันศุกร์ที่ 13 มีนาคม เวลาประมาณ 18.00 ได้รับแจ้งว่า มีผู้ติดเชื้อโควิด-19 ติดต่อกับบริษัท จากบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค ชั้นที่ 18 และได้ดำเนินการฆ่าเชื้อ พร้อมกับกักตัวพนักงานบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค แล้ว</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
+          <t>https://imgur.com/fBVkK0r</t>
         </is>
       </c>
       <c r="M156" t="n">
@@ -9262,25 +9264,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 11:00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>อาคารชุดซีณิธเพลส ห้วยขวาง</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13.612125</v>
+        <v>13.777464</v>
       </c>
       <c r="E157" t="n">
-        <v>101.328831</v>
+        <v>100.579256</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
-      <c r="G157" t="n">
-        <v>0</v>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9295,12 +9299,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(ยืนยัน) ทางอาคารได้รับรายงานว่ามีลูกบ้านตรวจพบเชื้อโควิด-19 เมื่อวันที่ 18 มีนาคม 2563 พักอยู่ที่ชั้น 4 ปัจจุบันเข้ารักษาต่อที่โรงพยาบาลรามาธิบดีแล้ว</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://imgur.com/pr66gbO</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -9310,24 +9314,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 12:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>14.838629</v>
+        <v>13.748381</v>
       </c>
       <c r="E158" t="n">
-        <v>104.682512</v>
+        <v>100.564095</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -9337,15 +9341,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -9354,12 +9354,12 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -9369,32 +9369,30 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 12:00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>ลุมพินี มิกซ์ เทพารักษ์-ศรีนครินทร์</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>9.735879000000001</v>
+        <v>13.626072</v>
       </c>
       <c r="E159" t="n">
-        <v>99.99124999999999</v>
+        <v>100.629077</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="G159" t="n">
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9409,12 +9407,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) นิติบุคคลแจ้งว่าจากการตรวจสอบย้อนหลังพบผู้ป่วยโควิด-19 ที่พักอาศัยอยู่ ได้ใช้พื้นที่ฟิตเนสวันที่ 11 มี.ค.63 / ซื้อของ 7-eleven และแวะนิติบุคคลเมื่อ 15 มี.ค.63</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://web.facebook.com/lpnmixx/photos/a.630816660454887/1387205514815994/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -9424,35 +9422,37 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 12:02</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>จังหวัดพัทลุง</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>13.752392</v>
+        <v>7.616929</v>
       </c>
       <c r="E160" t="n">
-        <v>100.663796</v>
+        <v>100.072822</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://www.thairath.co.th/news/society/1798681</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -9479,32 +9479,30 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 12:30</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>13.89878</v>
+        <v>13.079526</v>
       </c>
       <c r="E161" t="n">
-        <v>100.545152</v>
+        <v>100.921558</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G161" t="n">
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9514,17 +9512,17 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -9539,159 +9537,2163 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>2020-03-19 12:30</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>13.612125</v>
+      </c>
+      <c r="E162" t="n">
+        <v>101.328831</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-03-19 12:30</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>14.838629</v>
+      </c>
+      <c r="E163" t="n">
+        <v>104.682512</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2020-03-19 14:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเกาะพะงัน</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>9.735879000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>99.99124999999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2020-03-19 14:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>13.752392</v>
+      </c>
+      <c r="E165" t="n">
+        <v>100.663796</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>https://imgur.com/7kXAYAB</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2020-03-19 14:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>13.89878</v>
+      </c>
+      <c r="E166" t="n">
+        <v>100.545152</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>https://imgur.com/a0k1SAI</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2020-03-19 15:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>13.73697</v>
+      </c>
+      <c r="E167" t="n">
+        <v>100.641787</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>https://imgur.com/rgPnOZC</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2020-03-19 15:36</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>จังหวัดระยอง</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>12.706901</v>
+      </c>
+      <c r="E168" t="n">
+        <v>101.183109</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2020-03-19 16:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>เขตหนองจอก</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>13.853877</v>
+      </c>
+      <c r="E169" t="n">
+        <v>100.859128</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2020-03-19 16:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>จังหวัดนนทบุรี</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>13.863389</v>
+      </c>
+      <c r="E170" t="n">
+        <v>100.51366</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>2020-03-19 17:30</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D171" t="n">
         <v>13.908185</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E171" t="n">
         <v>99.767413</v>
       </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr">
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr">
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="L171" t="inlineStr">
         <is>
           <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="M171" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E172" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F172" t="n">
+        <v>30</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>unspecified_location</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>2020-03-20 11:30</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>จังหวัดสระบุรี</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D173" t="n">
         <v>14.527356</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E173" t="n">
         <v>100.910644</v>
       </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="M173" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>unspecified_location</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>2020-03-20 11:30</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D174" t="n">
         <v>7.888859</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E174" t="n">
         <v>98.39840599999999</v>
       </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr">
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>162</v>
+      <c r="M174" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2020-03-20 11:30</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเทิง</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>19.690448</v>
+      </c>
+      <c r="E175" t="n">
+        <v>100.176291</v>
+      </c>
+      <c r="F175" t="n">
+        <v>35</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2020-03-20 13:30</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>จังหวัดขอนแก่น</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>16.442351</v>
+      </c>
+      <c r="E176" t="n">
+        <v>102.835978</v>
+      </c>
+      <c r="F176" t="n">
+        <v>37</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2020-03-20 14:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>จังหวัดปราจีนบุรี</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>14.127509</v>
+      </c>
+      <c r="E177" t="n">
+        <v>101.654682</v>
+      </c>
+      <c r="F177" t="n">
+        <v>34</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2020-03-20 15:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>18.789733</v>
+      </c>
+      <c r="E178" t="n">
+        <v>98.974171</v>
+      </c>
+      <c r="F178" t="n">
+        <v>32</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2020-03-20 15:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>9.124031</v>
+      </c>
+      <c r="E179" t="n">
+        <v>99.309859</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-03-20 15:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>จังหวัดเพชรบูรณ์</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>16.426912</v>
+      </c>
+      <c r="E180" t="n">
+        <v>101.153556</v>
+      </c>
+      <c r="F180" t="n">
+        <v>47</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>https://www.77kaoded.com/content/1429473</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2020-03-20 15:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>โคแวน แคสเซิส</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>13.730586</v>
+      </c>
+      <c r="E181" t="n">
+        <v>100.513634</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2020-03-20 15:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ตึก Gaysorn Tower</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>13.74596</v>
+      </c>
+      <c r="E182" t="n">
+        <v>100.540751</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว อย่างไรก็ตาม จะมีการเปิดทำการ gaysorn tower ฝั่งสำนักงานในวันที่ 21 มีนาคมตามปกติ</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/GaysornVillage/photos/pcb.10158167292813489/10158167268163489/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-03-20 15:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>THE PARKLAND บางนา-ตราด</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>13.667345</v>
+      </c>
+      <c r="E183" t="n">
+        <v>100.650481</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>https://imgur.com/tXFPQlJ</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-03-20 16:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>จังหวัดสุรินทร์</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>14.836452</v>
+      </c>
+      <c r="E184" t="n">
+        <v>103.476803</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2020-03-20 16:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>จังหวัดหนองบัวลำภู</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>17.207168</v>
+      </c>
+      <c r="E185" t="n">
+        <v>102.446479</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 ศูนย์โควิด-19 หนองบัวลำภู มีเพิ่มเติมคือผู้ป่วยรอผลตรวจยืนยัน 1 ราย.ผู้เฝ้าระวังวันนี้ 86 ราย. พ้นระยะเฝ้าระวัง 30 ราย</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1957771564484143/posts/2514901972104430/</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-03-20 18:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>The Hive Phrakanong</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>13.71689</v>
+      </c>
+      <c r="E186" t="n">
+        <v>100.591962</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เนื่ื่องในวันนี้ได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ใน The Hive พระโขนง ทางเราได้ตัดสินใจปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2020-03-20 18:20</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>13.746522</v>
+      </c>
+      <c r="E187" t="n">
+        <v>100.529104</v>
+      </c>
+      <c r="F187" t="n">
+        <v>30</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-03-20 21:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>จังหวัดเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>18.789733</v>
+      </c>
+      <c r="E188" t="n">
+        <v>98.974171</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-20 21:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>13.783453</v>
+      </c>
+      <c r="E189" t="n">
+        <v>100.546504</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2020-03-20 21:49</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>6.3472894</v>
+      </c>
+      <c r="E190" t="n">
+        <v>101.7637775</v>
+      </c>
+      <c r="F190" t="n">
+        <v>55</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2020-03-20 21:49</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>6.3768399</v>
+      </c>
+      <c r="E191" t="n">
+        <v>101.8409443</v>
+      </c>
+      <c r="F191" t="n">
+        <v>41</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2020-03-21 09:00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>จังหวัดนครราชสีมา</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>14.984919</v>
+      </c>
+      <c r="E192" t="n">
+        <v>102.103547</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2020-03-21 11:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>จังหวัดสมุทรสาคร</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>13.547414</v>
+      </c>
+      <c r="E193" t="n">
+        <v>100.273464</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2020-03-21 13:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>16.8080697</v>
+      </c>
+      <c r="E194" t="n">
+        <v>100.2945489</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2020-03-21 19:12</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>จังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>19.9007421</v>
+      </c>
+      <c r="E195" t="n">
+        <v>99.829194</v>
+      </c>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2020-03-22 10:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>17.414934</v>
+      </c>
+      <c r="E196" t="n">
+        <v>102.780286</v>
+      </c>
+      <c r="F196" t="n">
+        <v>33</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2020-03-22 10:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>17.381135</v>
+      </c>
+      <c r="E197" t="n">
+        <v>102.57471</v>
+      </c>
+      <c r="F197" t="n">
+        <v>33</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2020-03-22 10:27</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>14.071779</v>
+      </c>
+      <c r="E198" t="n">
+        <v>100.632851</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2020-03-22 11:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>7.006991</v>
+      </c>
+      <c r="E199" t="n">
+        <v>100.643068</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2020-03-22 13:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเลย</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>17.48777</v>
+      </c>
+      <c r="E200" t="n">
+        <v>101.722455</v>
+      </c>
+      <c r="F200" t="n">
+        <v>22</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3678,51 +3678,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-03-11 17:30</t>
+          <t>2020-03-11 16:29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>โรงพยาบาลกลาง</t>
+          <t>จังหวัดสุพรรณบุรี</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13.7464973</v>
+        <v>14.4666439</v>
       </c>
       <c r="E57" t="n">
-        <v>100.5092326</v>
+        <v>100.1160247</v>
       </c>
       <c r="F57" t="n">
-        <v>21</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>(เคสที่ 54) พนักงานตม.สนามบินสุวรรณภูมิ ยืนยันผลแล็บตรงกัน 2 แห่ง</t>
+          <t>(ยืนยัน) สาธารณสุขจังหวัดสุพรรณบุรี พบผู้ป่วยยืนยันในพื้นที่จังหวัดสุพรรณบุรี จำนวน 1 ราย โดยผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศแล้วมีอาการป่วยระบบทางเดินหายใจ ต่อมาตรวจพบว่าติดเชื้อ ขณะนี้ส่งต่อไปรักษาโรงพยาบาลในกรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
+          <t>https://www.naewna.com/local/478636</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -3742,17 +3738,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>สนามบินสุวรรณภูมิ</t>
+          <t>โรงพยาบาลกลาง</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>13.6998881</v>
+        <v>13.7464973</v>
       </c>
       <c r="E58" t="n">
-        <v>100.7501124</v>
+        <v>100.5092326</v>
       </c>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3776,7 +3772,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>(เคสที่ 55) เจ้าหน้าที่ตรวจค้นประจำสนามบินสุวรรณภูมิ</t>
+          <t>(เคสที่ 54) พนักงานตม.สนามบินสุวรรณภูมิ ยืนยันผลแล็บตรงกัน 2 แห่ง</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3801,17 +3797,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>สถาบันบำราศนราดูร</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>13.8522958</v>
+        <v>13.6998881</v>
       </c>
       <c r="E59" t="n">
-        <v>100.5222895</v>
+        <v>100.7501124</v>
       </c>
       <c r="F59" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3835,7 +3831,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>(เคสที่ 56) พนักงานบริษัท ไม่ได้เดินทางออกนอกประเทศ กำลังหาต้นตอ</t>
+          <t>(เคสที่ 55) เจ้าหน้าที่ตรวจค้นประจำสนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3850,7 +3846,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3860,14 +3856,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>บริษัท ยูไนเต็ด แอนนาลิสต์ แอนด์ เอ็นจิเนียริ่ง คอนซัลแตนท์ จำกัด</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>13.678604</v>
+        <v>13.8522958</v>
       </c>
       <c r="E60" t="n">
-        <v>100.631158</v>
+        <v>100.5222895</v>
       </c>
       <c r="F60" t="n">
         <v>25</v>
@@ -3894,12 +3890,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>(เคสที่ 56) พนักงานบริษัท ทำงานที่นี่</t>
+          <t>(เคสที่ 56) พนักงานบริษัท ไม่ได้เดินทางออกนอกประเทศ กำลังหาต้นตอ</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>http://www.uaeconsultant.com/TH/covid19_1.html?fbclid=IwAR04Ip6LgCruEfj7OY6Mtt4ivZRXbE1MYWh_66JdltjjMPK6nvjDcxEuOBc</t>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -3909,7 +3905,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3919,21 +3915,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>โรงพยาบาลนพรัตนราชธานี</t>
+          <t>บริษัท ยูไนเต็ด แอนนาลิสต์ แอนด์ เอ็นจิเนียริ่ง คอนซัลแตนท์ จำกัด</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>13.8168561</v>
+        <v>13.678604</v>
       </c>
       <c r="E61" t="n">
-        <v>100.6877403</v>
+        <v>100.631158</v>
       </c>
       <c r="F61" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3943,7 +3939,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3953,12 +3949,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>(เคสที่ 57) เดินทางกลับจากเกาหลีใต้</t>
+          <t>(เคสที่ 56) พนักงานบริษัท ทำงานที่นี่</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
+          <t>http://www.uaeconsultant.com/TH/covid19_1.html?fbclid=IwAR04Ip6LgCruEfj7OY6Mtt4ivZRXbE1MYWh_66JdltjjMPK6nvjDcxEuOBc</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -3968,7 +3964,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3978,31 +3974,31 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ซีอาร์ซี ทาวเวอร์ ออล ซีซั่นส์ เพลส </t>
+          <t>โรงพยาบาลนพรัตนราชธานี</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>13.7391092</v>
+        <v>13.8168561</v>
       </c>
       <c r="E62" t="n">
-        <v>100.5457424</v>
+        <v>100.6877403</v>
       </c>
       <c r="F62" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Singaporean</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4012,12 +4008,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) ทางตึกได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(เคสที่ 57) เดินทางกลับจากเกาหลีใต้</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://thestandard.co/all-seasons-place-open-as-usual-except-ohana-poke/</t>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -4027,7 +4023,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4037,14 +4033,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>สถาบันบำราศนราดูร</t>
+          <t xml:space="preserve">ซีอาร์ซี ทาวเวอร์ ออล ซีซั่นส์ เพลส </t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13.8532558</v>
+        <v>13.7391092</v>
       </c>
       <c r="E63" t="n">
-        <v>100.5222895</v>
+        <v>100.5457424</v>
       </c>
       <c r="F63" t="n">
         <v>36</v>
@@ -4071,12 +4067,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) เจ้าของร้านอาหารที่ตึก All Season Place รักษาอยู่ที่นี่</t>
+          <t>(เคสที่ 59) ทางตึกได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/politic/1792259</t>
+          <t>https://thestandard.co/all-seasons-place-open-as-usual-except-ohana-poke/</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -4096,14 +4092,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>โรงพยาบาลกรุงเทพคริสเตียน</t>
+          <t>สถาบันบำราศนราดูร</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>13.7281658</v>
+        <v>13.8532558</v>
       </c>
       <c r="E64" t="n">
-        <v>100.5310528</v>
+        <v>100.5222895</v>
       </c>
       <c r="F64" t="n">
         <v>36</v>
@@ -4125,17 +4121,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>(เคสที่ 59) ตรวจพบเชื้อที่นี่แต่ได้ถูกย้ายไปยังโรงพยาบาลสถาบันบำราศนราดูรแล้ว</t>
+          <t>(เคสที่ 59) เจ้าของร้านอาหารที่ตึก All Season Place รักษาอยู่ที่นี่</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/theohanapoke/photos/a.420163565114428/862025934261520</t>
+          <t>https://www.thairath.co.th/news/politic/1792259</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -4145,7 +4141,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4155,26 +4151,26 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>สุพรรณบุรี</t>
+          <t>โรงพยาบาลกรุงเทพคริสเตียน</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>14.895585</v>
+        <v>13.7281658</v>
       </c>
       <c r="E65" t="n">
-        <v>99.451262</v>
+        <v>100.5310528</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Singaporean</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4184,17 +4180,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ทางจังหวัดขอสงวนข้อมูล อายุ และเพศ ผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศ</t>
+          <t>(เคสที่ 59) ตรวจพบเชื้อที่นี่แต่ได้ถูกย้ายไปยังโรงพยาบาลสถาบันบำราศนราดูรแล้ว</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/central/1792523</t>
+          <t>https://www.facebook.com/theohanapoke/photos/a.420163565114428/862025934261520</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -4204,24 +4200,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-03-12 10:00</t>
+          <t>2020-03-11 17:30</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>สถานีรถไฟหัวลำโพง</t>
+          <t>สุพรรณบุรี</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>13.738209</v>
+        <v>14.895585</v>
       </c>
       <c r="E66" t="n">
-        <v>100.516303</v>
+        <v>99.451262</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -4243,17 +4239,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
+          <t>(รอยืนยัน) ทางจังหวัดขอสงวนข้อมูล อายุ และเพศ ผู้ป่วยรายนี้เป็นผู้สัมผัสโรคจากผู้ที่เดินทางกลับมาจากต่างประเทศ</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/bangkok/1798353</t>
+          <t>https://www.thairath.co.th/news/local/central/1792523</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -4273,14 +4269,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>สถานีรถไฟท่าชนะ</t>
+          <t>สถานีรถไฟหัวลำโพง</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9.565692</v>
+        <v>13.738209</v>
       </c>
       <c r="E67" t="n">
-        <v>99.165083</v>
+        <v>100.516303</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -4322,48 +4318,56 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-03-12 17:30</t>
+          <t>2020-03-12 10:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>เดอะคอมมอนส์ทองหล่อ</t>
+          <t>สถานีรถไฟท่าชนะ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13.7349548</v>
+        <v>9.565692</v>
       </c>
       <c r="E68" t="n">
-        <v>100.5800494</v>
+        <v>99.165083</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
+          <t>(ยืนยัน) ตรวจพบผู้โดยสารติดเชื้อไวรัสโควิด-19 บนขบวนรถ 43 วันที่ 12 มีนาคม 2563 ในวันดังกล่าวมีผู้โดยสาร 2 คน โดยสารขบวนรถ 43 เดินทางจากกรุงเทพฯไปสถานีท่าชนะ ในรถเลขที่ 2517 คันที่ 3 เลขที่ 1 และ 2 เมื่อไปถึงสถานีท่าชนะมีอาการป่วยกะทันหัน เมื่อไปพบแพทย์ที่โรงพยาบาลท่าชนะแพทย์ผู้ตรวจอาการพบว่า ผู้โดยสารทั้ง 2 คนที่เดินทางโดยขบวนดังกล่าว ติดเชื้อไวรัสโควิด-19 ซึ่งทางโรงพยาบาลได้ทำการกักตัวผู้ป่วยทั้ง 2 รายไว้แล้ว</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
+          <t>https://www.thairath.co.th/news/local/bangkok/1798353</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -4383,14 +4387,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ชงเจริญกรู๊ฟ</t>
+          <t>เดอะคอมมอนส์ทองหล่อ</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>13.7453294</v>
+        <v>13.7349548</v>
       </c>
       <c r="E69" t="n">
-        <v>100.535899</v>
+        <v>100.5800494</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4414,7 +4418,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
+          <t>https://thestandard.co/centralworld-the-commons-announce-cleaning-department-area/</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -4434,14 +4438,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>แอทโมส บาร์ ทองหล่อ 10</t>
+          <t>ชงเจริญกรู๊ฟ</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>13.732099</v>
+        <v>13.7453294</v>
       </c>
       <c r="E70" t="n">
-        <v>100.582344</v>
+        <v>100.535899</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4460,12 +4464,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
+          <t>(คำชี้แจง) มีข่าวว่าเคสที่ 60-70 มาใช้บริการ แต่ไม่พบหลักฐาน</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
+          <t>https://www.facebook.com/chongjaroengroove/photos/a.377647622991691/646914832731634</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -4485,46 +4489,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>อาคารแสงทองธานี</t>
+          <t>แอทโมส บาร์ ทองหล่อ 10</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>13.7228962</v>
+        <v>13.732099</v>
       </c>
       <c r="E71" t="n">
-        <v>100.5324903</v>
+        <v>100.582344</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
+          <t xml:space="preserve">(คำชี้แจง) ไม่พบหลักฐานว่าผู้ติดเชื้อเคยมา / ทางร้านได้มีการอบฆ่าเชื้อโรค / ร้านเพิ่มมาตรการตรวจวัดไข้ลูกค้าทุกคนก่อนเข้ารับบริการที่ร้าน ถ้าอุณภูมิร่างกายสูงเกิน 37.0 องศา ทางร้านจะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน / มาตรการตรวจ Passport ลูกค้าทุกคนก่อนเข้ารับบริการ ตรวจ Passport หากมีประวัติเดินทางไปยังประเทศกลุ่มเสี่ยงภายใน 21 วัน จะปฏิเสธไม่ให้ลูกค้าเข้ารับบริการที่ร้าน (รวมถึงลูกค้าชาวต่างชาติ) / ทางร้านมีแก้วพลาสติกใช้แล้วทิ้งและสติกเกอร์ติดชื่อบนแก้วให้บริการ รวมถึงแยกที่ชงเครื่องดื่มให้ลูกค้าแต่ละท่าน </t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
+          <t>https://www.facebook.com/atmosbkk/posts/2953594574683804</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -4534,7 +4530,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4544,38 +4540,46 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปทุมธานี</t>
+          <t>อาคารแสงทองธานี</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14.0965673</v>
+        <v>13.7228962</v>
       </c>
       <c r="E72" t="n">
-        <v>100.3616182</v>
+        <v>100.5324903</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
+          <t>(คำชี้แจง) ธนาคารได้ปิดพื้นที่ ณ อาคารแสงทองธานี ชั้น 26 ทำความสะอาดฆ่าเชื้อทันทีในวันที่ 11 มีนาคม 2563 โดยใช้มาตรฐานการทำความสะอาดเดียวกันกับโรงพยาบาล เพื่อความปลอดภัยและลดความเสี่ยงตามแนวทางการป้องกันโรค ของกรมควบคุมโรค กระทรวงสาธารณสุข</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
+          <t>https://techsauce.co/pr-news/covid-19-bangkok-bank-2020</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -4595,14 +4599,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>โรงเรียนในเพชรบูรณ์</t>
+          <t>โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>16.313361</v>
+        <v>14.0965673</v>
       </c>
       <c r="E73" t="n">
-        <v>101.126105</v>
+        <v>100.3616182</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4621,12 +4625,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงพยาบาลในปทุมธานี</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%9e%e0%b8%9a-3/</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -4646,14 +4650,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยในสงขลา</t>
+          <t>โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7.1154502</v>
+        <v>16.313361</v>
       </c>
       <c r="E74" t="n">
-        <v>100.0193856</v>
+        <v>101.126105</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4672,12 +4676,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่โรงเรียนในเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-20/</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -4687,7 +4691,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4697,46 +4701,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
+          <t>มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>13.723107</v>
+        <v>7.1154502</v>
       </c>
       <c r="E75" t="n">
-        <v>100.569595</v>
+        <v>100.0193856</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
+          <t>(ข่าวปลอม) ข่าวปลอมว่าพบผู้ติดเชื้อที่มหาวิทยาลัยในสงขลา</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a1%e0%b8%ab%e0%b8%b2%e0%b8%a7%e0%b8%b4-2/</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -4751,19 +4747,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-03-12 20:20</t>
+          <t>2020-03-12 17:30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FITWHEYGYM สาขา SHOWDC</t>
+          <t>อาคารสำนักงานริชมอนด์สุขุมวิท 26</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13.751749</v>
+        <v>13.723107</v>
       </c>
       <c r="E76" t="n">
-        <v>100.572667</v>
+        <v>100.569595</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4773,11 +4769,15 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
+          <t>(รอยืนยัน) พนักงานธนาคารกรุงเทพได้เข้ามาประชุมที่นี่ ทางตึกได้สั่งให้พนักงานที่เกี่ยวข้องกักตัว และจะทำการฆ่าเชื้อในวันเสาร์นี้</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
+          <t>https://twitter.com/BoatPongpat/status/1238300011919601664</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -4806,25 +4806,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-03-13 00:30</t>
+          <t>2020-03-12 20:20</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>เบียร์เบลลี่</t>
+          <t>FITWHEYGYM สาขา SHOWDC</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>13.734802</v>
+        <v>13.751749</v>
       </c>
       <c r="E77" t="n">
-        <v>100.583135</v>
+        <v>100.572667</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4832,17 +4834,19 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
+          <t>(คำชี้แจง) ประกาศปิด FITWHEYGYM หลังจากพบสมาชิกยิมติดเชื้อ COVID-19 1 ราย ในช่วงวันที่ 12 มีนาคม เวลา 20.20-22.00 น.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
+          <t>https://www.facebook.com/fitwhey/photos/a.163256277079422/3575302189208130/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -4862,14 +4866,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
+          <t>เบียร์เบลลี่</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13.734867</v>
+        <v>13.734802</v>
       </c>
       <c r="E78" t="n">
-        <v>100.583127</v>
+        <v>100.583135</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -4888,12 +4892,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
+          <t>(คำชี้แจง) ทางร้านทำความสะอาดเรียบร้อยและไม่มีการยืนยันว่ากลุ่มคนดังกล่าวมาที่ร้าน</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
+          <t>https://www.facebook.com/611580532323916/posts/1554521528029807/?d=n</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -4913,46 +4917,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ตึกมาลีนนท์</t>
+          <t>72 คอร์ทยาร์ด ทองหล่อ</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>13.717394</v>
+        <v>13.734867</v>
       </c>
       <c r="E79" t="n">
-        <v>100.572368</v>
+        <v>100.583127</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
+          <t>(คำชี้แจง) โครงการเพิ่มการทำความสะอาดฆ่าเชื้อภายในร้านโดยบริษัทมืออาชีพเข้าทำการฆ่าเชื้อพิเศษ</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
+          <t>https://voicetv.co.th/read/_VsJgHXWf</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -4962,7 +4958,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4972,38 +4968,46 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในปราจีนบุรี</t>
+          <t>ตึกมาลีนนท์</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>14.205984</v>
+        <v>13.717394</v>
       </c>
       <c r="E80" t="n">
-        <v>101.643807</v>
+        <v>100.572368</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
+          <t>(คำชี้แจง) ทางตึกปิดชั้นที่ผู้ป่วยไปโดยทันที และพ่นน้ำยาฆ่าเชื้อทำความสะอาดทั้งชั้น รวมถึงปิดไม่ให้ใช้ไปอีก 2 สัปดาห์ รวมถึงร้านอาหารที่ผู้ป่วยได้ไปใช้บริการในวันนั้น / พ่นน้ำยาฆ่าเชื้อทำความสะอาดส่วนของสำนักงานทั้งหมด / กักตัวคนที่มีปฏิสัมพันธ์ 14 วัน</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
+          <t>https://thestandard.co/matthew-deane-covid-19-case-2/</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -5013,7 +5017,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5023,14 +5027,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>อาคารคอลัมน์ ทาวเวอร์</t>
+          <t>โรงพยาบาลในปราจีนบุรี</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>13.733154</v>
+        <v>14.205984</v>
       </c>
       <c r="E81" t="n">
-        <v>100.560401</v>
+        <v>101.643807</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -5038,29 +5042,23 @@
       <c r="G81" t="n">
         <v>0</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
+          <t xml:space="preserve">(ข่าวปลอม) ตามที่มีข่าวลือว่ามีผู้เสียชีวิตจาก covid-19 ในโรงพยาบาลแห่งหนึ่งในปราจีนบุรีกระทรวงสาธารณสุขตรวจสอบแล้วพบว่าเป็นเรื่องเท็จ </t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b9%82%e0%b8%a3/</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -5070,52 +5068,54 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-03-13 11:00</t>
+          <t>2020-03-13 00:30</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยกรุงเทพ</t>
+          <t>อาคารคอลัมน์ ทาวเวอร์</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>14.039612</v>
+        <v>13.733154</v>
       </c>
       <c r="E82" t="n">
-        <v>100.614963</v>
+        <v>100.560401</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิทยาลัยกรุงเทพได้ตรวจพบว่า มีนักศึกษาของมหาวิทยาลัยกรุงเทพอยู่ในข่ายต้องสงสัยว่าอาจมีการสัมผัสกับเชื้อโควิด-19 และกรมควบคุมโรคได้รับนักศึกษาคนดังกล่าวไว้เพื่อดูแลและติดตามอาการตามขั้นตอนทางการแพทย์เรียบร้อยแล้ว โดยขณะนี้อยู่ในระหว่างการรอผลตรวจยืนยัน</t>
+          <t>(คำชี้แจง) พนักงานที่ทำงานที่บริษัทชั้น 18 ติดเชื้อ ทางตึกทำการฉีดพ่นฆ่าเชื้อไวรัสในวันที่ 14-15 มี.ค.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/general/617611</t>
+          <t>https://scontent.fbkk8-3.fna.fbcdn.net/v/t1.15752-0/p480x480/89747880_211813026729183_393364011552342016_n.jpg?_nc_cat=111&amp;_nc_sid=b96e70&amp;_nc_ohc=oHB-NKBuXzUAX9ccBIi&amp;_nc_ht=scontent.fbkk8-3.fna&amp;_nc_tp=6&amp;oh=b738474b6b9b9b2116d1b32c151fba8c&amp;oe=5E917889</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -5125,30 +5125,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-03-14 00:00</t>
+          <t>2020-03-13 11:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>คิงเพาเวอร์ มหานคร</t>
+          <t>มหาวิทยาลัยกรุงเทพ</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>13.723381</v>
+        <v>14.039612</v>
       </c>
       <c r="E83" t="n">
-        <v>100.528231</v>
+        <v>100.614963</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5156,17 +5158,19 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
+          <t>(คำชี้แจง) มหาวิทยาลัยกรุงเทพได้ตรวจพบว่า มีนักศึกษาของมหาวิทยาลัยกรุงเทพอยู่ในข่ายต้องสงสัยว่าอาจมีการสัมผัสกับเชื้อโควิด-19 และกรมควบคุมโรคได้รับนักศึกษาคนดังกล่าวไว้เพื่อดูแลและติดตามอาการตามขั้นตอนทางการแพทย์เรียบร้อยแล้ว โดยขณะนี้อยู่ในระหว่างการรอผลตรวจยืนยัน</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1794644</t>
+          <t>https://www.posttoday.com/social/general/617611</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -5176,7 +5180,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5186,46 +5190,38 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>เชียงราย</t>
+          <t>คิงเพาเวอร์ มหานคร</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>19.90671</v>
+        <v>13.723381</v>
       </c>
       <c r="E84" t="n">
-        <v>99.721943</v>
+        <v>100.528231</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
+          <t xml:space="preserve">(คำชี้แจง) Close for cleaning ปิดอาคารคิง เพาเวอร์ มหานคร เพื่อเข้าดำเนินการ ฉีด พ่น อบ น้ำยาฆ่าเชื้อ ตามมาตรฐานสาธารณสุขสากล </t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
+          <t>https://www.thairath.co.th/news/society/1794644</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -5235,30 +5231,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-03-14 10:00</t>
+          <t>2020-03-14 00:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>เชียงราย</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>13.7323667</v>
+        <v>19.90671</v>
       </c>
       <c r="E85" t="n">
-        <v>100.5356087</v>
+        <v>99.721943</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
-      <c r="G85" t="n">
-        <v>0</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5272,17 +5270,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
+          <t>(คำชี้แจง) 33 แรงงานไทยจากเกาหลี เดินทางจากฐานทัพเรือสัตหีบ มาถึงจังหวัดเชียงราย ญาติกักตัวต่อ 14 วัน</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
+          <t>https://www.thairath.co.th/news/local/north/1794706?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0#cxrecs_s</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -5297,27 +5295,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-03-14 13:00</t>
+          <t>2020-03-14 10:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>โรงพยาบาลราชวิถี</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13.767431</v>
+        <v>13.7323667</v>
       </c>
       <c r="E86" t="n">
-        <v>100.53489</v>
+        <v>100.5356087</v>
       </c>
       <c r="F86" t="n">
-        <v>41</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5336,12 +5332,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
+          <t>(คำชี้แจง) ผู้ป่วยยืนยันว่าเป็น COVID-19 5 รายยอดตั้งแต่วันที่ 1 ก.พ. - 14 มี.ค. 2563 10 ราย</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
+          <t>https://chulalongkornhospital.go.th/kcmh/wp-content/uploads/2020/03/6BA48B92-9728-4210-8952-F12360CD151B.jpeg</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5361,20 +5357,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
+          <t>โรงพยาบาลราชวิถี</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>13.795892</v>
+        <v>13.767431</v>
       </c>
       <c r="E87" t="n">
-        <v>100.320675</v>
+        <v>100.53489</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5393,12 +5391,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
+          <t xml:space="preserve">(เคสที่ 82) ชายนักแสดง พิธีกร ธุรกิจค่ายมวย มีประวัติว่าเพื่อนเดินทางมาจากต่างประเทศ </t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red079_140363.pdf</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -5413,19 +5411,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-03-15 08:00</t>
+          <t>2020-03-14 13:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสัตหีบ กม.10</t>
+          <t>วิทยาลัยวิทยาศาสตร์และเทคโนโลยีการกีฬา ม.มหิดล</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.697731</v>
+        <v>13.795892</v>
       </c>
       <c r="E88" t="n">
-        <v>100.97399</v>
+        <v>100.320675</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -5433,25 +5431,29 @@
       <c r="G88" t="n">
         <v>0</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(คำชี้แจง) นักศึกษาจอดรถด้านข้างอาคารเอนกประสงค์ และเดินเข้าห้องสอบที่นี่ (นักศึกษาที่กังวลใจติดต่อ Hotline: 088-874-7385)</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
+          <t>https://www.facebook.com/mahidol/photos/a.10153450690529012/10159713714519012/?type=3</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -5471,14 +5473,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>โรงพยาบาลบ้านฉาง</t>
+          <t>โรงพยาบาลสัตหีบ กม.10</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.726049</v>
+        <v>12.697731</v>
       </c>
       <c r="E89" t="n">
-        <v>101.043339</v>
+        <v>100.97399</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -5499,7 +5501,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 3 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5524,14 +5526,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมาบตาพุด</t>
+          <t>โรงพยาบาลบ้านฉาง</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>12.730494</v>
+        <v>12.726049</v>
       </c>
       <c r="E90" t="n">
-        <v>101.136369</v>
+        <v>101.043339</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -5577,14 +5579,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>โรงพยาบาลระยอง</t>
+          <t>โรงพยาบาลมาบตาพุด</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>12.682116</v>
+        <v>12.730494</v>
       </c>
       <c r="E91" t="n">
-        <v>101.276476</v>
+        <v>101.136369</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5630,14 +5632,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
+          <t>โรงพยาบาลระยอง</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>12.662795</v>
+        <v>12.682116</v>
       </c>
       <c r="E92" t="n">
-        <v>100.909332</v>
+        <v>101.276476</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -5658,7 +5660,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 1 ราย เป็นผู้อยู่ในข่ายเฝ้าระวัง สังเกตอาการ เนื่องจากมีอาการไอ มีน้ำมูก ไม่มีไข้</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5673,7 +5675,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5683,14 +5685,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
+          <t>อาคารรับรองฐานทัพเรือสัตหีบ</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>13.60094</v>
+        <v>12.662795</v>
       </c>
       <c r="E93" t="n">
-        <v>100.593057</v>
+        <v>100.909332</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -5704,17 +5706,19 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>quarantined</t>
+        </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ผู้เดินทางจากประเทศอิตาลี จำนวน 77 ราย พักสังเกตอาการจนครบ 14 วัน</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/file/news/news_red080_150363.pdf</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -5734,14 +5738,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
+          <t>หมู่บ้านในจังหวัดสมุทรปราการ</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>14.037659</v>
+        <v>13.60094</v>
       </c>
       <c r="E94" t="n">
-        <v>102.125791</v>
+        <v>100.593057</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5760,12 +5764,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
+          <t>กระทรวงสาธารณสุขแจ้งว่ากรณีเรื่อง “พบผู้ติดเชื้อ COVID-19 เป็นคนไทย ติดจากญาติที่มาจากเกาหลี พิกัดหมู่บ้านแห่งหนึ่งในจังหวัดสมุทรปราการ แต่ข่าวไม่ออก” นั้น เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-24/</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -5775,24 +5779,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-03-15 10:00</t>
+          <t>2020-03-15 08:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>ตำบลแห่งหนึ่งในจังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>13.866945</v>
+        <v>14.037659</v>
       </c>
       <c r="E95" t="n">
-        <v>100.608801</v>
+        <v>102.125791</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -5811,12 +5815,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
+          <t>กระทรวงสาธารณสุขแจ้งว่าข่าวลือที่ว่าติดเชื้อ COVID-19 ทั้งครอบครัว เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%a5%e0%b8%b7%e0%b8%ad-%e0%b8%95%e0%b8%b4/</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -5826,7 +5830,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5836,46 +5840,38 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>สนามมวยลุมพินี</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>13.735609</v>
+        <v>13.866945</v>
       </c>
       <c r="E96" t="n">
-        <v>100.528497</v>
+        <v>100.608801</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
+          <t xml:space="preserve">(คำชี้แจง) เลขาธิการสนามมวยเวทีลุมพินีนำเจ้าหน้าที่กองควบคุมโรค สำนักอนามัย กรุงเทพมหานคร ทำการพ่นยาฆ่าเชื้อพื้นที่ภายในและภายนอกสนามมวยเวทีลุมพินีอีกด้วย </t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28240</t>
+          <t>https://thestandard.co/covid-19-lumpinee-boxing-stadium-close/</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -5885,7 +5881,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5895,14 +5891,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GREEN VALLEY COUNTRY CLUB</t>
+          <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>13.60822</v>
+        <v>13.735609</v>
       </c>
       <c r="E97" t="n">
-        <v>100.730924</v>
+        <v>100.528497</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -5912,25 +5908,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
+          <t>(คำชี้แจง) บุคลากรของคณะนิติศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย เข้ารับการรักษาที่โรงพยาบาลแห่งหนึ่งเป็นที่เรียบร้อยแล้ว</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://imgur.com/6xEojOR</t>
+          <t>https://www.chula.ac.th/news/28240</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -5945,25 +5945,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2020-03-15 12:30</t>
+          <t>2020-03-15 10:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยศรีปทุม บางเขน</t>
+          <t>GREEN VALLEY COUNTRY CLUB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13.855782</v>
+        <v>13.60822</v>
       </c>
       <c r="E98" t="n">
-        <v>100.585702</v>
+        <v>100.730924</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="G98" t="n">
-        <v>0</v>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5973,17 +5975,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิยาลัยศรีปทุม บางเขน ประกาศปิดทำการในช่วง 15-20 มี.ค. หลังพบนักศึกษาเข้าข่ายติดเชื้อโควิด-19</t>
+          <t>(คำชี้แจง) ทางสนามกอล์ฟได้ทราบว่ามีนักกอล์ฟท่านหนึ่งมีความเสี่ยงติดเชื้อโควิด-19 จึงทำการแจ้งกับกลุ่มที่ตีด้วยกัน กักตัวแค๊ดดี้ที่ให้บริการในกลุ่มและจัดทำความสะอาดสถานที่ทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://www.thebangkokinsight.com/309244/</t>
+          <t>https://imgur.com/6xEojOR</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -5993,56 +5995,50 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020-03-15 13:00</t>
+          <t>2020-03-15 12:30</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>สนามมวยลุมพินี</t>
+          <t>มหาวิทยาลัยศรีปทุม บางเขน</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>13.866526</v>
+        <v>13.855782</v>
       </c>
       <c r="E99" t="n">
-        <v>100.60866</v>
+        <v>100.585702</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
+          <t>(คำชี้แจง) มหาวิยาลัยศรีปทุม บางเขน ประกาศปิดทำการในช่วง 15-20 มี.ค. หลังพบนักศึกษาเข้าข่ายติดเชื้อโควิด-19</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
+          <t>https://www.thebangkokinsight.com/309244/</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -6052,48 +6048,56 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2020-03-15 15:00</t>
+          <t>2020-03-15 13:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
+          <t>สนามมวยลุมพินี</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>14.133529</v>
+        <v>13.866526</v>
       </c>
       <c r="E100" t="n">
-        <v>100.616017</v>
+        <v>100.60866</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
+          <t>(ยืนยัน) สธ.แถลงผู้ป่วยยืนยันเพิ่ม 32 ราย (รวมเป็น 114 ราย) มีผู้เกี่ยวข้องกับสนามมวย 9 รายส่งตัวไปรักษาแล้ว</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
+          <t>https://www.matichon.co.th/local/quality-life/news_2056813</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -6103,7 +6107,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6113,22 +6117,20 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Assumption University of Thailand</t>
+          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>13.610982</v>
+        <v>14.133529</v>
       </c>
       <c r="E101" t="n">
-        <v>100.837457</v>
+        <v>100.616017</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G101" t="n">
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6136,19 +6138,17 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J101" t="n">
+        <v>0</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
+          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -6168,14 +6168,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>เจ.ซี. ทาวเวอร์ คอนโดมิเนียม</t>
+          <t>Assumption University of Thailand</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>13.785962</v>
+        <v>13.610982</v>
       </c>
       <c r="E102" t="n">
-        <v>100.556176</v>
+        <v>100.837457</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -6198,12 +6198,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ทราบข่าวผู้พักอาศัย 1 คน ติดเชื้อโควิด-19 จากการไปดูมวย ปัจจุบันอยู่ในโรงพยาบาลรัฐแล้ว</t>
+          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>https://imgur.com/9fqomiQ</t>
+          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -6213,42 +6213,38 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2020-03-15 18:00</t>
+          <t>2020-03-15 15:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>จังหวัดนครสวรรค์</t>
+          <t>เจ.ซี. ทาวเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>15.703143</v>
+        <v>13.785962</v>
       </c>
       <c r="E103" t="n">
-        <v>100.125006</v>
+        <v>100.556176</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -6257,12 +6253,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
+          <t>(คำชี้แจง) ได้ทราบข่าวผู้พักอาศัย 1 คน ติดเชื้อโควิด-19 จากการไปดูมวย ปัจจุบันอยู่ในโรงพยาบาลรัฐแล้ว</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
+          <t>https://imgur.com/9fqomiQ</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -6272,27 +6268,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2020-03-15 20:30</t>
+          <t>2020-03-15 18:00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเพชรบูรณ์</t>
+          <t>จังหวัดนครสวรรค์</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>16.427158</v>
+        <v>15.703143</v>
       </c>
       <c r="E104" t="n">
-        <v>101.153523</v>
+        <v>100.125006</v>
       </c>
       <c r="F104" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6301,7 +6297,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Belgian</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6316,12 +6312,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
+          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2058081</t>
+          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -6336,22 +6332,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 20:30</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
+          <t>โรงพยาบาลเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13.765684</v>
+        <v>16.427158</v>
       </c>
       <c r="E105" t="n">
-        <v>100.533389</v>
+        <v>101.153523</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6360,7 +6356,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Belgian</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6375,12 +6371,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
+          <t>https://www.matichon.co.th/region/news_2058081</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -6400,14 +6396,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเปาโล</t>
+          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>13.792305</v>
+        <v>13.765684</v>
       </c>
       <c r="E106" t="n">
-        <v>100.549973</v>
+        <v>100.533389</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -6429,17 +6425,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
+          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
+          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -6449,7 +6445,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6459,21 +6455,21 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
+          <t>โรงพยาบาลเปาโล</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>13.737169</v>
+        <v>13.792305</v>
       </c>
       <c r="E107" t="n">
-        <v>100.643512</v>
+        <v>100.549973</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6493,12 +6489,12 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
+          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -6508,7 +6504,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6518,14 +6514,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลิดสิน</t>
+          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13.722081</v>
+        <v>13.737169</v>
       </c>
       <c r="E108" t="n">
-        <v>100.517465</v>
+        <v>100.643512</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -6547,12 +6543,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
+          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6572,19 +6568,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>สถานีดับเพลิงบางอ้อ</t>
+          <t>โรงพยาบาลเลิดสิน</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>13.802817</v>
+        <v>13.722081</v>
       </c>
       <c r="E109" t="n">
-        <v>100.512125</v>
+        <v>100.517465</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -6606,17 +6602,17 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
+          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -6626,7 +6622,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6636,21 +6632,21 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
+          <t>สถานีดับเพลิงบางอ้อ</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>13.721404</v>
+        <v>13.802817</v>
       </c>
       <c r="E110" t="n">
-        <v>100.511063</v>
+        <v>100.512125</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6665,17 +6661,17 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
+          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
+          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -6690,26 +6686,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-16 09:00</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
+          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>13.753194</v>
+        <v>13.721404</v>
       </c>
       <c r="E111" t="n">
-        <v>100.576234</v>
+        <v>100.511063</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6724,17 +6720,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -6744,7 +6740,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6754,14 +6750,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13.732153</v>
+        <v>13.753194</v>
       </c>
       <c r="E112" t="n">
-        <v>100.536033</v>
+        <v>100.576234</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -6783,12 +6779,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -6803,30 +6799,32 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2020-03-16 12:00</t>
+          <t>2020-03-16 10:00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>16.942695</v>
+        <v>13.732153</v>
       </c>
       <c r="E113" t="n">
-        <v>104.723904</v>
+        <v>100.536033</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
-      <c r="G113" t="n">
-        <v>0</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -6845,12 +6843,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -6865,19 +6863,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-16 12:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
+          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>13.706591</v>
+        <v>16.942695</v>
       </c>
       <c r="E114" t="n">
-        <v>101.129142</v>
+        <v>104.723904</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -6885,23 +6883,29 @@
       <c r="G114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
+          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1796191</t>
+          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -6911,7 +6915,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6921,14 +6925,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
+          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>13.285124</v>
+        <v>13.706591</v>
       </c>
       <c r="E115" t="n">
-        <v>100.922403</v>
+        <v>101.129142</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -6947,12 +6951,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
+          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
+          <t>https://www.thairath.co.th/news/society/1796191</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -6962,32 +6966,30 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-03-16 15:41</t>
+          <t>2020-03-16 14:00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>อาคารมณียา เซ็นเตอร์</t>
+          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>13.744037</v>
+        <v>13.285124</v>
       </c>
       <c r="E116" t="n">
-        <v>100.542015</v>
+        <v>100.922403</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G116" t="n">
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -6995,19 +6997,17 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J116" t="n">
+        <v>0</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
+          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-432768</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -7022,47 +7022,47 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2020-03-16 21:00</t>
+          <t>2020-03-16 15:41</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
+          <t>อาคารมณียา เซ็นเตอร์</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>13.71831</v>
+        <v>13.744037</v>
       </c>
       <c r="E117" t="n">
-        <v>100.585345</v>
+        <v>100.542015</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
+          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
+          <t>https://www.prachachat.net/general/news-432768</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -7072,32 +7072,30 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-03-17 00:08</t>
+          <t>2020-03-16 21:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
+          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>16.948493</v>
+        <v>13.71831</v>
       </c>
       <c r="E118" t="n">
-        <v>99.96773</v>
+        <v>100.585345</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="G118" t="n">
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -7109,19 +7107,17 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J118" t="n">
+        <v>0</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
+          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
+          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
         </is>
       </c>
       <c r="M118" t="n">
@@ -7131,52 +7127,56 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-03-17 10:00</t>
+          <t>2020-03-17 00:08</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
+          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>14.045304</v>
+        <v>16.948493</v>
       </c>
       <c r="E119" t="n">
-        <v>100.433878</v>
+        <v>99.96773</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
-      <c r="G119" t="n">
-        <v>0</v>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
+          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>https://imgur.com/MRZ15kd</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -7186,24 +7186,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020-03-17 11:00</t>
+          <t>2020-03-17 10:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
+          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>13.767544</v>
+        <v>14.045304</v>
       </c>
       <c r="E120" t="n">
-        <v>100.44369</v>
+        <v>100.433878</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -7211,23 +7211,27 @@
       <c r="G120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
+          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
+          <t>https://imgur.com/MRZ15kd</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -7237,56 +7241,48 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020-03-17 11:45</t>
+          <t>2020-03-17 11:00</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ปัตตานี</t>
+          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>6.749083</v>
+        <v>13.767544</v>
       </c>
       <c r="E121" t="n">
-        <v>101.32889</v>
+        <v>100.44369</v>
       </c>
       <c r="F121" t="n">
-        <v>65</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
+          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1796811</t>
+          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -7296,33 +7292,37 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2020-03-17 12:00</t>
+          <t>2020-03-17 11:45</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ชุมชนพรทวีวัฒน์1</t>
+          <t>ปัตตานี</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14.054377</v>
+        <v>6.749083</v>
       </c>
       <c r="E122" t="n">
-        <v>100.631022</v>
+        <v>101.32889</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
+          <t>https://www.thairath.co.th/news/local/south/1796811</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -7351,24 +7351,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2020-03-17 14:00</t>
+          <t>2020-03-17 12:00</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>เชฟแมน ราชดำริ</t>
+          <t>ชุมชนพรทวีวัฒน์1</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>13.739698</v>
+        <v>14.054377</v>
       </c>
       <c r="E123" t="n">
-        <v>100.541591</v>
+        <v>100.631022</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7376,10 +7376,8 @@
       <c r="G123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H123" t="n">
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -7393,12 +7391,12 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
+          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
+          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -7408,24 +7406,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2020-03-17 14:24</t>
+          <t>2020-03-17 14:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>เชฟแมน ราชดำริ</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>15.276705</v>
+        <v>13.739698</v>
       </c>
       <c r="E124" t="n">
-        <v>104.80429</v>
+        <v>100.541591</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -7438,22 +7436,24 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
+          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>https://www.komchadluek.net/news/regional/422815</t>
+          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -7463,24 +7463,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-17 14:24</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>กาญจนบุรี</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>14.005274</v>
+        <v>15.276705</v>
       </c>
       <c r="E125" t="n">
-        <v>99.54920799999999</v>
+        <v>104.80429</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -7488,25 +7488,27 @@
       <c r="G125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
+          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
+          <t>https://www.komchadluek.net/news/regional/422815</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -7526,46 +7528,40 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>จังหวัดยะลา</t>
+          <t>กาญจนบุรี</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6.547652</v>
+        <v>14.005274</v>
       </c>
       <c r="E126" t="n">
-        <v>101.276494</v>
+        <v>99.54920799999999</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
+          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>https://www.paktaireport.com/?p=289</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -7575,30 +7571,32 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-03-17 15:15</t>
+          <t>2020-03-17 15:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ศาลหลักเมืองชลบุรี</t>
+          <t>จังหวัดยะลา</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>13.364938</v>
+        <v>6.547652</v>
       </c>
       <c r="E127" t="n">
-        <v>100.98566</v>
+        <v>101.276494</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="n">
-        <v>0</v>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -7607,7 +7605,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7617,12 +7615,12 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
+          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/east/1796964</t>
+          <t>https://www.paktaireport.com/?p=289</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -7632,24 +7630,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2020-03-17 16:00</t>
+          <t>2020-03-17 15:15</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
+          <t>ศาลหลักเมืองชลบุรี</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8.426632</v>
+        <v>13.364938</v>
       </c>
       <c r="E128" t="n">
-        <v>99.945635</v>
+        <v>100.98566</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -7674,12 +7672,12 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
+          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
+          <t>https://www.thairath.co.th/news/local/east/1796964</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -7694,35 +7692,35 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-03-17 20:00</t>
+          <t>2020-03-17 16:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16.442351</v>
+        <v>8.426632</v>
       </c>
       <c r="E129" t="n">
-        <v>102.835978</v>
+        <v>99.945635</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G129" t="n">
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -7731,12 +7729,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
+          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
+          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -7746,48 +7744,54 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 20:00</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Gym Monkey</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13.768027</v>
+        <v>16.442351</v>
       </c>
       <c r="E130" t="n">
-        <v>100.442156</v>
+        <v>102.835978</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
-      <c r="G130" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
+          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -7797,7 +7801,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7807,14 +7811,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ขอนแก่น</t>
+          <t>Gym Monkey</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>16.442257</v>
+        <v>13.768027</v>
       </c>
       <c r="E131" t="n">
-        <v>102.837362</v>
+        <v>100.442156</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -7828,19 +7832,17 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J131" t="n">
+        <v>0</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
+          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
+          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -7860,32 +7862,26 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ฉะเชิงเทรา</t>
+          <t>ขอนแก่น</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>13.6887431</v>
+        <v>16.442257</v>
       </c>
       <c r="E132" t="n">
-        <v>101.0785358</v>
+        <v>102.837362</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -7894,12 +7890,12 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
+          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -7909,30 +7905,32 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020-03-17 20:55</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
+          <t>ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>13.763845</v>
+        <v>13.6887431</v>
       </c>
       <c r="E133" t="n">
-        <v>100.569331</v>
+        <v>101.0785358</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="n">
-        <v>0</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -7951,12 +7949,12 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
+          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -7966,52 +7964,54 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020-03-18 12:30</t>
+          <t>2020-03-17 20:55</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
+          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>15.219054</v>
+        <v>13.763845</v>
       </c>
       <c r="E134" t="n">
-        <v>100.133061</v>
+        <v>100.569331</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1420176</t>
+          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -8021,24 +8021,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2020-03-18 14:44</t>
+          <t>2020-03-18 12:30</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
+          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13.767126</v>
+        <v>15.219054</v>
       </c>
       <c r="E135" t="n">
-        <v>100.57881</v>
+        <v>100.133061</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -8056,17 +8056,17 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
+          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>https://imgur.com/snvTfA5</t>
+          <t>https://www.77kaoded.com/content/1420176</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -8076,56 +8076,52 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020-03-18 15:18</t>
+          <t>2020-03-18 14:44</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
+          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>16.401265</v>
+        <v>13.767126</v>
       </c>
       <c r="E136" t="n">
-        <v>103.374251</v>
+        <v>100.57881</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
+          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
+          <t>https://imgur.com/snvTfA5</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -8140,19 +8136,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020-03-18 15:24</t>
+          <t>2020-03-18 15:18</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>จังหวัดร้อยเอ็ด</t>
+          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>16.04753</v>
+        <v>16.401265</v>
       </c>
       <c r="E137" t="n">
-        <v>103.653192</v>
+        <v>103.374251</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -8174,17 +8170,17 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
+          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8056818/</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -8194,31 +8190,31 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-18 15:24</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>จังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>14.984929</v>
+        <v>16.04753</v>
       </c>
       <c r="E138" t="n">
-        <v>102.103557</v>
+        <v>103.653192</v>
       </c>
       <c r="F138" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8238,12 +8234,12 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+          <t>https://www.sanook.com/news/8056818/</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -8267,13 +8263,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>14.984919</v>
+        <v>14.984929</v>
       </c>
       <c r="E139" t="n">
-        <v>102.103547</v>
+        <v>102.103557</v>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -8287,7 +8283,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8297,7 +8293,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -8312,7 +8308,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8322,7 +8318,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -8332,11 +8328,11 @@
         <v>102.103547</v>
       </c>
       <c r="F140" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -8346,7 +8342,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8356,12 +8352,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8057670/</t>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -8371,38 +8367,42 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>13.758529</v>
+        <v>14.984919</v>
       </c>
       <c r="E141" t="n">
-        <v>100.566238</v>
+        <v>102.103547</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.sanook.com/news/8057670/</t>
         </is>
       </c>
       <c r="M141" t="n">
@@ -8426,7 +8426,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8436,14 +8436,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>13.724323</v>
+        <v>13.758529</v>
       </c>
       <c r="E142" t="n">
-        <v>100.578732</v>
+        <v>100.566238</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -8491,14 +8491,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>13.762677</v>
+        <v>13.724323</v>
       </c>
       <c r="E143" t="n">
-        <v>100.472519</v>
+        <v>100.578732</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -8546,14 +8546,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>13.726004</v>
+        <v>13.762677</v>
       </c>
       <c r="E144" t="n">
-        <v>100.529007</v>
+        <v>100.472519</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -8591,24 +8591,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-03-18 16:55</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>7.197264</v>
+        <v>13.726004</v>
       </c>
       <c r="E145" t="n">
-        <v>100.592928</v>
+        <v>100.529007</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -8626,17 +8626,17 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นชาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>https://mgronline.com/south/detail/9630000027399</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -8651,19 +8651,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-18 16:55</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>จังหวัดลพบุรี</t>
+          <t>จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>14.805827</v>
+        <v>7.197264</v>
       </c>
       <c r="E146" t="n">
-        <v>100.652328</v>
+        <v>100.592928</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -8681,17 +8681,17 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นชาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
+          <t>https://mgronline.com/south/detail/9630000027399</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -8701,7 +8701,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
+          <t>จังหวัดลพบุรี</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>13.713369</v>
+        <v>14.805827</v>
       </c>
       <c r="E147" t="n">
-        <v>100.479241</v>
+        <v>100.652328</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -8741,12 +8741,12 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
+          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -8761,37 +8761,33 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-03-18 17:28</t>
+          <t>2020-03-18 17:00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>9.124031</v>
+        <v>13.713369</v>
       </c>
       <c r="E148" t="n">
-        <v>99.309859</v>
+        <v>100.479241</v>
       </c>
       <c r="F148" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -8800,12 +8796,12 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
+          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618074</t>
+          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -8815,50 +8811,56 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-03-18 18:00</t>
+          <t>2020-03-18 17:28</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>12.683745</v>
+        <v>9.124031</v>
       </c>
       <c r="E149" t="n">
-        <v>101.248754</v>
+        <v>99.309859</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มี.ค. ทางศูนย์การค้าจึงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มี.ค.</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
+          <t>https://www.posttoday.com/social/local/618074</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -8868,7 +8870,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8878,46 +8880,40 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>สนามบินสุวรรณภูมิ</t>
+          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13.68924</v>
+        <v>12.683745</v>
       </c>
       <c r="E150" t="n">
-        <v>100.750014</v>
+        <v>101.248754</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
+          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มี.ค. ทางศูนย์การค้าจึงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มี.ค.</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>https://covid-19.kapook.com/view222445.html</t>
+          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -8932,19 +8928,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-03-18 22:00</t>
+          <t>2020-03-18 18:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BASE Amarin</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>13.743774</v>
+        <v>13.68924</v>
       </c>
       <c r="E151" t="n">
-        <v>100.541312</v>
+        <v>100.750014</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -8954,25 +8950,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เราได้รับการแจ้งจากสมาชิกท่านหนึ่งว่าได้ตรวจพบเชื้อโควิด-19 ซึ่งสมาชิกท่านนี้ได้มายังวันอังคารที่ 10 และพฤหัสที่ 12 มีนา ซึ่งเป็นเวลาก่อนที่จะได้รับการตรวจแต่อาจจะมีการติดเชื้อในช่วงเวลาก่อนหน้านั้นได้</t>
+          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1096603273717108/posts/2994305460613537/</t>
+          <t>https://covid-19.kapook.com/view222445.html</t>
         </is>
       </c>
       <c r="M151" t="n">
@@ -9098,24 +9098,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-03-19 11:00</t>
+          <t>2020-03-19 09:30</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>จังหวัดปัตตานี</t>
+          <t>BASE Amarin</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>6.85436</v>
+        <v>13.743774</v>
       </c>
       <c r="E154" t="n">
-        <v>101.371369</v>
+        <v>100.541312</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -9133,17 +9133,17 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
+          <t>(อัปเดทสถานการณ์) จากสถานการณ์ที่ตรวจพบผู้มาใช้บริการติดเชื้อโควิด-19 ปัจจุบัน ได้ทำการทำความสะอาดฆ่าเชื้อตัวตึกทั้งหมดแล้วในวันที่ 18 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1096603273717108/posts/2995390553838361/</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -9163,20 +9163,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ชลบุรี</t>
+          <t>จังหวัดปัตตานี</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>13.361891</v>
+        <v>6.85436</v>
       </c>
       <c r="E155" t="n">
-        <v>100.983336</v>
+        <v>101.371369</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
-      <c r="G155" t="n">
-        <v>0</v>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9191,12 +9193,12 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
+          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>http://www.chonburi.go.th/website/activity/view396</t>
+          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -9206,7 +9208,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9216,14 +9218,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sidel South Asia-Pacific LTD.</t>
+          <t>ชลบุรี</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>13.749285</v>
+        <v>13.361891</v>
       </c>
       <c r="E156" t="n">
-        <v>100.556816</v>
+        <v>100.983336</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -9239,17 +9241,17 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>(ยืนยัน) เนื่องด้วยวันศุกร์ที่ 13 มีนาคม เวลาประมาณ 18.00 ได้รับแจ้งว่า มีผู้ติดเชื้อโควิด-19 ติดต่อกับบริษัท จากบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค ชั้นที่ 18 และได้ดำเนินการฆ่าเชื้อ พร้อมกับกักตัวพนักงานบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค แล้ว</t>
+          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>https://imgur.com/fBVkK0r</t>
+          <t>http://www.chonburi.go.th/website/activity/view396</t>
         </is>
       </c>
       <c r="M156" t="n">
@@ -9259,7 +9261,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9269,22 +9271,20 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>อาคารชุดซีณิธเพลส ห้วยขวาง</t>
+          <t>Sidel South Asia-Pacific LTD.</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13.777464</v>
+        <v>13.749285</v>
       </c>
       <c r="E157" t="n">
-        <v>100.579256</v>
+        <v>100.556816</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G157" t="n">
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9294,17 +9294,17 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทางอาคารได้รับรายงานว่ามีลูกบ้านตรวจพบเชื้อโควิด-19 เมื่อวันที่ 18 มีนาคม 2563 พักอยู่ที่ชั้น 4 ปัจจุบันเข้ารักษาต่อที่โรงพยาบาลรามาธิบดีแล้ว</t>
+          <t>(ยืนยัน) เนื่องด้วยวันศุกร์ที่ 13 มีนาคม เวลาประมาณ 18.00 ได้รับแจ้งว่า มีผู้ติดเชื้อโควิด-19 ติดต่อกับบริษัท จากบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค ชั้นที่ 18 และได้ดำเนินการฆ่าเชื้อ พร้อมกับกักตัวพนักงานบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค แล้ว</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>https://imgur.com/pr66gbO</t>
+          <t>https://imgur.com/fBVkK0r</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -9314,24 +9314,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-03-19 12:00</t>
+          <t>2020-03-19 11:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
+          <t>อาคารชุดซีณิธเพลส ห้วยขวาง</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>13.748381</v>
+        <v>13.777464</v>
       </c>
       <c r="E158" t="n">
-        <v>100.564095</v>
+        <v>100.579256</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -9354,12 +9354,12 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
+          <t>(ยืนยัน) ทางอาคารได้รับรายงานว่ามีลูกบ้านตรวจพบเชื้อโควิด-19 เมื่อวันที่ 18 มีนาคม 2563 พักอยู่ที่ชั้น 4 ปัจจุบันเข้ารักษาต่อที่โรงพยาบาลรามาธิบดีแล้ว</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
+          <t>https://imgur.com/pr66gbO</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -9369,7 +9369,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9379,20 +9379,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ลุมพินี มิกซ์ เทพารักษ์-ศรีนครินทร์</t>
+          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>13.626072</v>
+        <v>13.748381</v>
       </c>
       <c r="E159" t="n">
-        <v>100.629077</v>
+        <v>100.564095</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
-      <c r="G159" t="n">
-        <v>0</v>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9407,12 +9409,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุคคลแจ้งว่าจากการตรวจสอบย้อนหลังพบผู้ป่วยโควิด-19 ที่พักอาศัยอยู่ ได้ใช้พื้นที่ฟิตเนสวันที่ 11 มี.ค.63 / ซื้อของ 7-eleven และแวะนิติบุคคลเมื่อ 15 มี.ค.63</t>
+          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/lpnmixx/photos/a.630816660454887/1387205514815994/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -9422,37 +9424,33 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-03-19 12:02</t>
+          <t>2020-03-19 12:00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>จังหวัดพัทลุง</t>
+          <t>ลุมพินี มิกซ์ เทพารักษ์-ศรีนครินทร์</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7.616929</v>
+        <v>13.626072</v>
       </c>
       <c r="E160" t="n">
-        <v>100.072822</v>
+        <v>100.629077</v>
       </c>
       <c r="F160" t="n">
-        <v>56</v>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -9464,12 +9462,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
+          <t>(คำชี้แจง) นิติบุคคลแจ้งว่าจากการตรวจสอบย้อนหลังพบผู้ป่วยโควิด-19 ที่พักอาศัยอยู่ ได้ใช้พื้นที่ฟิตเนสวันที่ 11 มี.ค.63 / ซื้อของ 7-eleven และแวะนิติบุคคลเมื่อ 15 มี.ค.63</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1798681</t>
+          <t>https://web.facebook.com/lpnmixx/photos/a.630816660454887/1387205514815994/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -9479,50 +9477,54 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 12:02</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>จังหวัดพัทลุง</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>13.079526</v>
+        <v>7.616929</v>
       </c>
       <c r="E161" t="n">
-        <v>100.921558</v>
+        <v>100.072822</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
+          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/society/1798681</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -9532,7 +9534,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -9542,14 +9544,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>13.612125</v>
+        <v>13.079526</v>
       </c>
       <c r="E162" t="n">
-        <v>101.328831</v>
+        <v>100.921558</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -9565,17 +9567,17 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -9585,7 +9587,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9595,32 +9597,26 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>14.838629</v>
+        <v>13.612125</v>
       </c>
       <c r="E163" t="n">
-        <v>104.682512</v>
+        <v>101.328831</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -9629,12 +9625,12 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -9644,38 +9640,42 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 12:30</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>9.735879000000001</v>
+        <v>14.838629</v>
       </c>
       <c r="E164" t="n">
-        <v>99.99124999999999</v>
+        <v>104.682512</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -9684,12 +9684,12 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M164" t="n">
@@ -9709,21 +9709,21 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>13.752392</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>100.663796</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -9739,12 +9739,12 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -9764,14 +9764,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>13.89878</v>
+        <v>13.752392</v>
       </c>
       <c r="E166" t="n">
-        <v>100.545152</v>
+        <v>100.663796</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -9794,12 +9794,12 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M166" t="n">
@@ -9814,19 +9814,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>13.73697</v>
+        <v>13.89878</v>
       </c>
       <c r="E167" t="n">
-        <v>100.641787</v>
+        <v>100.545152</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -9849,12 +9849,12 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M167" t="n">
@@ -9864,30 +9864,32 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>12.706901</v>
+        <v>13.73697</v>
       </c>
       <c r="E168" t="n">
-        <v>101.183109</v>
+        <v>100.641787</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
-      <c r="G168" t="n">
-        <v>0</v>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -9902,12 +9904,12 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -9917,24 +9919,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13.853877</v>
+        <v>12.706901</v>
       </c>
       <c r="E169" t="n">
-        <v>100.859128</v>
+        <v>101.183109</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -9955,12 +9957,12 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -9970,7 +9972,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9980,14 +9982,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>13.863389</v>
+        <v>13.853877</v>
       </c>
       <c r="E170" t="n">
-        <v>100.51366</v>
+        <v>100.859128</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -10008,12 +10010,12 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M170" t="n">
@@ -10023,113 +10025,107 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2020-03-19 16:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>จังหวัดนนทบุรี</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>13.863389</v>
+      </c>
+      <c r="E171" t="n">
+        <v>100.51366</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
           <t>confirmed</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>2020-03-19 17:30</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D172" t="n">
         <v>13.908185</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E172" t="n">
         <v>99.767413</v>
       </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr">
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr">
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="L172" t="inlineStr">
         <is>
           <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:56</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>15.004437</v>
-      </c>
-      <c r="E172" t="n">
-        <v>103.112176</v>
-      </c>
-      <c r="F172" t="n">
-        <v>30</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -10139,36 +10135,42 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-19 17:56</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>14.527356</v>
+        <v>15.004437</v>
       </c>
       <c r="E173" t="n">
-        <v>100.910644</v>
+        <v>103.112176</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -10177,12 +10179,12 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -10202,14 +10204,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>7.888859</v>
+        <v>14.527356</v>
       </c>
       <c r="E174" t="n">
-        <v>98.39840599999999</v>
+        <v>100.910644</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -10230,12 +10232,12 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M174" t="n">
@@ -10245,7 +10247,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -10255,44 +10257,40 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>19.690448</v>
+        <v>7.888859</v>
       </c>
       <c r="E175" t="n">
-        <v>100.176291</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F175" t="n">
-        <v>35</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -10302,31 +10300,31 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>16.442351</v>
+        <v>19.690448</v>
       </c>
       <c r="E176" t="n">
-        <v>102.835978</v>
+        <v>100.176291</v>
       </c>
       <c r="F176" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -10339,17 +10337,17 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -10364,26 +10362,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>14.127509</v>
+        <v>16.442351</v>
       </c>
       <c r="E177" t="n">
-        <v>101.654682</v>
+        <v>102.835978</v>
       </c>
       <c r="F177" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -10391,10 +10389,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I177" t="n">
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -10403,12 +10399,12 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M177" t="n">
@@ -10418,38 +10414,42 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>18.789733</v>
+        <v>14.127509</v>
       </c>
       <c r="E178" t="n">
-        <v>98.974171</v>
+        <v>101.654682</v>
       </c>
       <c r="F178" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -10458,12 +10458,12 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -10483,20 +10483,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9.124031</v>
+        <v>18.789733</v>
       </c>
       <c r="E179" t="n">
-        <v>99.309859</v>
+        <v>98.974171</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10511,12 +10513,12 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10526,7 +10528,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10536,27 +10538,23 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>16.426912</v>
+        <v>9.124031</v>
       </c>
       <c r="E180" t="n">
-        <v>101.153556</v>
+        <v>99.309859</v>
       </c>
       <c r="F180" t="n">
-        <v>47</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -10568,12 +10566,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10583,7 +10581,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -10593,23 +10591,27 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>13.730586</v>
+        <v>16.426912</v>
       </c>
       <c r="E181" t="n">
-        <v>100.513634</v>
+        <v>101.153556</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -10621,12 +10623,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10646,22 +10648,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>13.74596</v>
+        <v>13.730586</v>
       </c>
       <c r="E182" t="n">
-        <v>100.540751</v>
+        <v>100.513634</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G182" t="n">
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -10671,17 +10671,17 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(ยืนยัน) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว อย่างไรก็ตาม จะมีการเปิดทำการ gaysorn tower ฝั่งสำนักงานในวันที่ 21 มีนาคมตามปกติ</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/photos/pcb.10158167292813489/10158167268163489/?type=3&amp;theater</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10691,7 +10691,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.667345</v>
+        <v>13.74596</v>
       </c>
       <c r="E183" t="n">
-        <v>100.650481</v>
+        <v>100.540751</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10726,17 +10726,17 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10746,30 +10746,32 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>14.836452</v>
+        <v>13.667345</v>
       </c>
       <c r="E184" t="n">
-        <v>103.476803</v>
+        <v>100.650481</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
-      <c r="G184" t="n">
-        <v>0</v>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -10784,12 +10786,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10809,22 +10811,20 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>จังหวัดหนองบัวลำภู</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>17.207168</v>
+        <v>14.836452</v>
       </c>
       <c r="E185" t="n">
-        <v>102.446479</v>
+        <v>103.476803</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10834,17 +10834,17 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 ศูนย์โควิด-19 หนองบัวลำภู มีเพิ่มเติมคือผู้ป่วยรอผลตรวจยืนยัน 1 ราย.ผู้เฝ้าระวังวันนี้ 86 ราย. พ้นระยะเฝ้าระวัง 30 ราย</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2514901972104430/</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10859,47 +10859,47 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>The Hive Phrakanong</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>13.71689</v>
+        <v>17.127271</v>
       </c>
       <c r="E186" t="n">
-        <v>100.591962</v>
+        <v>105.451326</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่ื่องในวันนี้ได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ใน The Hive พระโขนง ทางเราได้ตัดสินใจปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10914,37 +10914,33 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.746522</v>
+        <v>13.731984</v>
       </c>
       <c r="E187" t="n">
-        <v>100.529104</v>
+        <v>100.57661</v>
       </c>
       <c r="F187" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -10953,12 +10949,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10968,50 +10964,56 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>18.789733</v>
+        <v>13.746522</v>
       </c>
       <c r="E188" t="n">
-        <v>98.974171</v>
+        <v>100.529104</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -11031,22 +11033,20 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>13.783453</v>
+        <v>18.789733</v>
       </c>
       <c r="E189" t="n">
-        <v>100.546504</v>
+        <v>98.974171</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G189" t="n">
+        <v>0</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11061,12 +11061,12 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11076,56 +11076,52 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>6.3472894</v>
+        <v>13.783453</v>
       </c>
       <c r="E190" t="n">
-        <v>101.7637775</v>
+        <v>100.546504</v>
       </c>
       <c r="F190" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11149,13 +11145,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>6.3768399</v>
+        <v>6.3472894</v>
       </c>
       <c r="E191" t="n">
-        <v>101.8409443</v>
+        <v>101.7637775</v>
       </c>
       <c r="F191" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -11179,7 +11175,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -11199,25 +11195,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.984919</v>
+        <v>6.3768399</v>
       </c>
       <c r="E192" t="n">
-        <v>102.103547</v>
+        <v>101.8409443</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -11226,22 +11224,22 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11251,38 +11249,40 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>13.547414</v>
+        <v>14.984919</v>
       </c>
       <c r="E193" t="n">
-        <v>100.273464</v>
+        <v>102.103547</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -11291,12 +11291,12 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11306,54 +11306,50 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>16.8080697</v>
+        <v>13.757503</v>
       </c>
       <c r="E194" t="n">
-        <v>100.2945489</v>
+        <v>100.56122</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11368,32 +11364,30 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>19.9007421</v>
+        <v>13.547414</v>
       </c>
       <c r="E195" t="n">
-        <v>99.829194</v>
+        <v>100.273464</v>
       </c>
       <c r="F195" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -11405,12 +11399,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11420,31 +11414,31 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>17.414934</v>
+        <v>16.8080697</v>
       </c>
       <c r="E196" t="n">
-        <v>102.780286</v>
+        <v>100.2945489</v>
       </c>
       <c r="F196" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -11452,24 +11446,22 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11479,27 +11471,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>17.381135</v>
+        <v>19.9007421</v>
       </c>
       <c r="E197" t="n">
-        <v>102.57471</v>
+        <v>99.829194</v>
       </c>
       <c r="F197" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -11511,10 +11503,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I197" t="n">
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -11523,12 +11513,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11538,48 +11528,56 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>14.071779</v>
+        <v>17.414934</v>
       </c>
       <c r="E198" t="n">
-        <v>100.632851</v>
+        <v>102.780286</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11594,33 +11592,37 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>7.006991</v>
+        <v>17.381135</v>
       </c>
       <c r="E199" t="n">
-        <v>100.643068</v>
+        <v>102.57471</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -11629,12 +11631,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11649,30 +11651,32 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>17.48777</v>
+        <v>12.6079491</v>
       </c>
       <c r="E200" t="n">
-        <v>101.722455</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F200" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Thai , British</t>
+        </is>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -11684,16 +11688,1122 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>198</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2020-03-22 10:27</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>14.071779</v>
+      </c>
+      <c r="E201" t="n">
+        <v>100.632851</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2020-03-22 11:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>7.006991</v>
+      </c>
+      <c r="E202" t="n">
+        <v>100.643068</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2020-03-22 13:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลเลย</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>17.48777</v>
+      </c>
+      <c r="E203" t="n">
+        <v>101.722455</v>
+      </c>
+      <c r="F203" t="n">
+        <v>22</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2020-03-22 13:40</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>13.781466</v>
+      </c>
+      <c r="E204" t="n">
+        <v>99.74632010000001</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2020-03-22 14:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>12.603813</v>
+      </c>
+      <c r="E205" t="n">
+        <v>102.1022441</v>
+      </c>
+      <c r="F205" t="n">
+        <v>27</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2020-03-22 14:06</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>จังหวัดตรัง</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>7.4782366</v>
+      </c>
+      <c r="E206" t="n">
+        <v>99.6455411</v>
+      </c>
+      <c r="F206" t="n">
+        <v>24</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>https://www.posttoday.com/social/local/618418</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2020-03-22 17:30</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>กรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>13.7322691</v>
+      </c>
+      <c r="E207" t="n">
+        <v>100.5369166</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2020-03-22 18:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>12.6821309</v>
+      </c>
+      <c r="E208" t="n">
+        <v>101.2763963</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2020-03-22 18:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>8.449477</v>
+      </c>
+      <c r="E209" t="n">
+        <v>98.52607500000001</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2020-03-22 20:15</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>15.4493884</v>
+      </c>
+      <c r="E210" t="n">
+        <v>101.0550581</v>
+      </c>
+      <c r="F210" t="n">
+        <v>34</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>https://www.sanook.com/news/8060246/</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2020-03-22 21:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>จังหวัดอุบลราชธานี</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>15.229853</v>
+      </c>
+      <c r="E211" t="n">
+        <v>104.857271</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2020-03-23 10:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>13.7359364</v>
+      </c>
+      <c r="E212" t="n">
+        <v>100.5287473</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>https://www.chula.ac.th/news/28617/</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2020-03-23 10:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>มทร.สุวรรณภูมิ</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>13.8681928</v>
+      </c>
+      <c r="E213" t="n">
+        <v>100.4829428</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2020-03-23 12:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>จังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>7.9250861</v>
+      </c>
+      <c r="E214" t="n">
+        <v>98.3075255</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2020-03-23 14:06</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>จังหวัดแพร่</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>18.1009878</v>
+      </c>
+      <c r="E215" t="n">
+        <v>100.2810275</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2020-03-23 15:30</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>13.6908986</v>
+      </c>
+      <c r="E216" t="n">
+        <v>102.5030711</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2020-03-23 15:34</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>13.8577378</v>
+      </c>
+      <c r="E217" t="n">
+        <v>100.5360211</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2020-03-23 17:36</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>14.6903685</v>
+      </c>
+      <c r="E218" t="n">
+        <v>100.8077161</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2020-03-23 17:54</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>13.6783729</v>
+      </c>
+      <c r="E219" t="n">
+        <v>100.5136153</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2020-03-23 18:52</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>6.1174893</v>
+      </c>
+      <c r="E220" t="n">
+        <v>101.7888233</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -3838,7 +3838,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>(ประกาศ) ผู้ที่อยู่สถานบันเทิงหรือร้านอาหารยามค่ำคืนในกรุงเทพในช่วง 9-10 มีนาคม 2563 ต้องกักกันตัวเอง 14 วัน นับตั้งแต่ไปสถานที่ดังกล่าว หากมีอาการให้ไปรับการตรวจรักษาที่สถานบริการสาธารณะสุขใกล้บ้านบันเทิง</t>
+          <t>(ประกาศ) ผู้ที่อยู่สถานบันเทิงหรือร้านอาหารยามค่ำคืนในกรุงเทพในช่วง 9-10 มีนาคม 2563 ต้องกักกันตัวเอง 14 วัน นับตั้งแต่ไปสถานที่ดังกล่าว หากมีอาการให้ไปรับการตรวจรักษาที่สถานบริการสาธารณะสุขใกล้บ้าน</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -7372,7 +7372,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>(ประกาศ) ผู้ที่อยู่โรงเหล้ามิตรภาพในช่วงคืนวันจันทร์ที่ 7 มีนาคม 00.00-03.30 ให้มารายงานตัวแสดงตรกับเจ้าหน้าที่สาธารณะสุข ณ สถานพยาบาลใกล้บ้านทันที ภายในวันที่ 30 มีนาคม 2563</t>
+          <t>(ประกาศ) ผู้ที่อยู่ตะวันแดง ขอนแก่น ในช่วง 16 มีนาคม ให้มารายงานตัวแสดงตรกับเจ้าหน้าที่สาธารณะสุข ณ สถานพยาบาลใกล้บ้านทันที ภายในวันที่ 30 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13348,30 +13348,32 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2020-03-23 15:30</t>
+          <t>2020-03-23 14:14</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+          <t>จังหวัดเพชรบุรี</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13.6908986</v>
+        <v>99.94551869999999</v>
       </c>
       <c r="E232" t="n">
-        <v>102.5030711</v>
+        <v>99.94551869999999</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
       </c>
-      <c r="G232" t="n">
-        <v>0</v>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -13388,12 +13390,12 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13408,27 +13410,25 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 15:34</t>
+          <t>2020-03-23 15:30</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13.8577378</v>
+        <v>13.6908986</v>
       </c>
       <c r="E233" t="n">
-        <v>100.5360211</v>
+        <v>102.5030711</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G233" t="n">
+        <v>0</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -13445,12 +13445,12 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13460,48 +13460,54 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2020-03-23 17:36</t>
+          <t>2020-03-23 15:34</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>14.6903685</v>
+        <v>13.8577378</v>
       </c>
       <c r="E234" t="n">
-        <v>100.8077161</v>
+        <v>100.5360211</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
       </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13511,56 +13517,48 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 17:54</t>
+          <t>2020-03-23 17:36</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>13.6783729</v>
+        <v>14.6903685</v>
       </c>
       <c r="E235" t="n">
-        <v>100.5136153</v>
+        <v>100.8077161</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -13570,24 +13568,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-03-23 18:52</t>
+          <t>2020-03-23 17:54</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>6.1174893</v>
+        <v>13.6783729</v>
       </c>
       <c r="E236" t="n">
-        <v>101.7888233</v>
+        <v>100.5136153</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -13597,29 +13595,198 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>234</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2020-03-23 18:52</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>6.1174893</v>
+      </c>
+      <c r="E237" t="n">
+        <v>101.7888233</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2020-03-23 22:22</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>อาคารทรู ทาวเวอร์ 1</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>13.7625241</v>
+      </c>
+      <c r="E238" t="n">
+        <v>100.5677793</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:53</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>13.7262400,</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>100.526799</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/ict/news-436572</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -6770,48 +6770,54 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-03-15 15:00</t>
+          <t>2020-03-15 13:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
+          <t>สถานีขนส่งหมอชิต</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14.133529</v>
+        <v>13.813326</v>
       </c>
       <c r="E114" t="n">
-        <v>100.616017</v>
+        <v>100.548622</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
+          <t>(ไทม์ไลน์ของผู้ป่วย) ผู้ป่วยโควิด-19 รายแรกของจ.หนองบัวลำภู / มีประวัติไปสนามมวยราชดำเนิน -&gt; วัดแถวโชคชัย 4 -&gt; ขึ้นรถเมล์มาที่หมอชิต -&gt; ขึ้นรถทัวร์จากหมอชิต ไปลงที่อุดรธานี</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
+          <t>https://www.sanook.com/news/8060114/</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -6821,7 +6827,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6831,22 +6837,20 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Assumption University of Thailand</t>
+          <t>มหาวิทยาลัยราชภัฏวไลยอลงกรณ์ ในพระบรมราชูปถัมภ์</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>13.610982</v>
+        <v>14.133529</v>
       </c>
       <c r="E115" t="n">
-        <v>100.837457</v>
+        <v>100.616017</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G115" t="n">
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -6854,19 +6858,17 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J115" t="n">
+        <v>0</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
+          <t>(คำชี้แจง) สาขาวิชาภาษาอังกฤษ คณะมนุษย์ศาสตร์และสังคมศาสตร์ แจงนักศึกษาไม่เข้าข่ายผู้ติดเชื้อโควิด-19 เพื่อความปลอดภัยจึงให้เฝ้าดูอาการ 14 วัน</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo.php?fbid=2783533615064952&amp;set=a.329759723775699&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -6886,14 +6888,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>เจ.ซี. ทาวเวอร์ คอนโดมิเนียม</t>
+          <t>Assumption University of Thailand</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>13.785962</v>
+        <v>13.610982</v>
       </c>
       <c r="E116" t="n">
-        <v>100.556176</v>
+        <v>100.837457</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -6916,12 +6918,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ทราบข่าวผู้พักอาศัย 1 คน ติดเชื้อโควิด-19 จากการไปดูมวย ปัจจุบันอยู่ในโรงพยาบาลรัฐแล้ว</t>
+          <t>(คำชี้แจง) มหาวิทยาลัยอัสสัมชัญ ได้รับทราบข้อมูลว่ามีผู้ต้องสงสัยติดเชื้อโควิด-19และได้ตรวจสอบพบการติดเชื้อจริง จึงสั่งให้งดการเรียนการสอน 14 วัน และติดตามอาการโดยตลอด</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>https://imgur.com/9fqomiQ</t>
+          <t>https://www.facebook.com/assumptionuniversity/photos/pcb.3112818448738051/3112818082071421/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -6936,25 +6938,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2020-03-15 16:00</t>
+          <t>2020-03-15 15:00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>สนามกีฬาจิระนคร</t>
+          <t>เจ.ซี. ทาวเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7.020039</v>
+        <v>13.785962</v>
       </c>
       <c r="E117" t="n">
-        <v>100.471903</v>
+        <v>100.556176</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
-      <c r="G117" t="n">
-        <v>0</v>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -6962,17 +6966,19 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>(ประกาศ) ผู้ที่อยู่สนามกีฬาจิระนคร ในช่วง 14-15 มีนาคม 16.00-19.00 น. ให้รายงานตัวที่คลินิกตรวจโรคติดต่อทางเดินหายใจที่สถานพยาบาลใกล้บ้านทันที เพื่อรับการตรวจรักษาและสังเกตอาการตนเองจนถึงวันที่ 29 มีนาคม 2563</t>
+          <t>(คำชี้แจง) ได้ทราบข่าวผู้พักอาศัย 1 คน ติดเชื้อโควิด-19 จากการไปดูมวย ปัจจุบันอยู่ในโรงพยาบาลรัฐแล้ว</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://imgur.com/9fqomiQ</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -6982,56 +6988,48 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-03-15 18:00</t>
+          <t>2020-03-15 16:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>จังหวัดนครสวรรค์</t>
+          <t>สนามกีฬาจิระนคร</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>15.703143</v>
+        <v>7.020039</v>
       </c>
       <c r="E118" t="n">
-        <v>100.125006</v>
+        <v>100.471903</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
+          <t>(ประกาศ) ผู้ที่อยู่สนามกีฬาจิระนคร ในช่วง 14-15 มีนาคม 16.00-19.00 น. ให้รายงานตัวที่คลินิกตรวจโรคติดต่อทางเดินหายใจที่สถานพยาบาลใกล้บ้านทันที เพื่อรับการตรวจรักษาและสังเกตอาการตนเองจนถึงวันที่ 29 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M118" t="n">
@@ -7041,27 +7039,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-03-15 20:30</t>
+          <t>2020-03-15 18:00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเพชรบูรณ์</t>
+          <t>จังหวัดนครสวรรค์</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>16.427158</v>
+        <v>15.703143</v>
       </c>
       <c r="E119" t="n">
-        <v>101.153523</v>
+        <v>100.125006</v>
       </c>
       <c r="F119" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7070,7 +7068,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Belgian</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7085,12 +7083,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
+          <t>(คำชี้แจง) เจ้าของร้านเครือบอนบอนที่จังหวัดนครสวรรค์ ได้ติดเชื้อโควิด-19 คาดว่าติดจากผู้ที่เดินทางกลับมาจากอิตาลี่ แต่ผู้ติดเชื้อไม่ได้เข้าไปในร้านแต่อย่างใด</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2058081</t>
+          <t>https://www.khaosod.co.th/special-stories/news_3761857</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -7105,22 +7103,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020-03-15 23:00</t>
+          <t>2020-03-15 20:30</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
+          <t>โรงพยาบาลเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>13.765684</v>
+        <v>16.427158</v>
       </c>
       <c r="E120" t="n">
-        <v>100.533389</v>
+        <v>101.153523</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7129,7 +7127,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Belgian</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7144,12 +7142,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบูรณ์แจงผู้ป่วยชาวเบลเยียมติดโควิด-19 และเข้ารับการรักษาที่ รพ.เพชรบูรณ์ ส่วนคนใกล้ชิดไม่พบติดเชื้อและกักตัวอยู่ในบ้าน 14 วัน</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
+          <t>https://www.matichon.co.th/region/news_2058081</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -7169,14 +7167,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเปาโล</t>
+          <t>โรงพยาบาลเวชศาสตร์เขตร้อน</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>13.792305</v>
+        <v>13.765684</v>
       </c>
       <c r="E121" t="n">
-        <v>100.549973</v>
+        <v>100.533389</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -7198,17 +7196,17 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
+          <t>(ยืนยัน) พิธีกรร่วมสนามมวยลุมพินียืนยันว่าติดเชื้อและกำลังเข้ารักษา</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
+          <t>https://www.facebook.com/mr.pong17/posts/1310999225760008</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -7218,7 +7216,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7228,21 +7226,21 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
+          <t>โรงพยาบาลเปาโล</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13.737169</v>
+        <v>13.792305</v>
       </c>
       <c r="E122" t="n">
-        <v>100.643512</v>
+        <v>100.549973</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7262,12 +7260,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
+          <t>(ยืนยัน) นายกอบจ.ฉะเชิงเทรา ติดเชื้อโควิด-19 หลังไปดูมวย สนามลุมพินี</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
+          <t>https://www.bangkokbiznews.com/news/detail/870879</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -7277,7 +7275,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7287,14 +7285,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลิดสิน</t>
+          <t>โครงการริชพาร์ค @ ทริปเปิลสเตชั่น</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>13.722081</v>
+        <v>13.737169</v>
       </c>
       <c r="E123" t="n">
-        <v>100.517465</v>
+        <v>100.643512</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7316,12 +7314,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
+          <t>(รอยืนยัน) ผู้พักอาศัยในอาคารโครงการริชพาร์ค @ ทริปเปิ้ลสเตชั่นได้รับเชื้อไวรัสโควิด-19 ส่งตัวไปโรงพยาบาลเลิศสินและทำความสะอาดห้อง รวมถึงส่วนกลางแล้ว</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -7336,48 +7334,56 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2020-03-16 02:00</t>
+          <t>2020-03-15 23:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ตะวันแดง จังหวัดขอนแก่น</t>
+          <t>โรงพยาบาลเลิดสิน</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>16.432354</v>
+        <v>13.722081</v>
       </c>
       <c r="E124" t="n">
-        <v>102.84194</v>
+        <v>100.517465</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>(ประกาศ) ผู้ที่อยู่ตะวันแดง ขอนแก่น ในช่วง 16 มีนาคม ให้มารายงานตัวแสดงตรกับเจ้าหน้าที่สาธารณะสุข ณ สถานพยาบาลใกล้บ้านทันที ภายในวันที่ 30 มีนาคม 2563</t>
+          <t>(รอยืนยัน) ผู้ป่วยจากริชพาร์ค @ ทริปเปิ้ลสเตชั่น ถูกส่งตัวมายังโรงพยาบาลเลิศสิน</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://pbs.twimg.com/media/ETJ6n3DU0AA3skf?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -7387,56 +7393,48 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2020-03-16 09:00</t>
+          <t>2020-03-16 02:00</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>สถานีดับเพลิงบางอ้อ</t>
+          <t>ตะวันแดง จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>13.802817</v>
+        <v>16.432354</v>
       </c>
       <c r="E125" t="n">
-        <v>100.512125</v>
+        <v>102.84194</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
+          <t>(ประกาศ) ผู้ที่อยู่ตะวันแดง ขอนแก่น ในช่วง 16 มีนาคม ให้มารายงานตัวแสดงตรกับเจ้าหน้าที่สาธารณะสุข ณ สถานพยาบาลใกล้บ้านทันที ภายในวันที่ 30 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -7446,7 +7444,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7456,21 +7454,21 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
+          <t>สถานีดับเพลิงบางอ้อ</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>13.721404</v>
+        <v>13.802817</v>
       </c>
       <c r="E126" t="n">
-        <v>100.511063</v>
+        <v>100.512125</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7485,17 +7483,17 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
+          <t>(รอยืนยัน) มีกระแสข่าวว่าพนักงานสถานีดับเพลิงบางอ้อ เขตบางพลัด กทม. ติดเชื้อไวรัสโควิด-19 ทั้งสถานี จากการตรวจสอบล่าสุดพบว่ามีการปิดสถานีดับเพลิงจริงและให้เจ้าหน้าที่กักตัว 14 วันรอผลตรวจอย่างละเอียด รอแถลงข่าว</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
+          <t>https://www.matichonweekly.com/hot-news/article_286309</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -7510,26 +7508,26 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-03-16 10:00</t>
+          <t>2020-03-16 09:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
+          <t>เดอะ ริเวอร์ คอนโดมิเนียม</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>13.753194</v>
+        <v>13.721404</v>
       </c>
       <c r="E127" t="n">
-        <v>100.576234</v>
+        <v>100.511063</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -7544,17 +7542,17 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
+          <t>(รอยืนยัน) สตรีท่านหนึ่ง โพสต์ข้อความผ่านอินสตาแกรมส่วนตัวระบุว่า สามีของตนเองตรวจพบโควิด-19</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
+          <t>https://www.prachachat.net/social-media-viral/news-432639</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -7564,7 +7562,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7574,14 +7572,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>ลุมพินี พาร์ค พระราม 9 - รัชดา</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>13.732153</v>
+        <v>13.753194</v>
       </c>
       <c r="E128" t="n">
-        <v>100.536033</v>
+        <v>100.576234</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -7603,12 +7601,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>transferred</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวไปยังโรงพยาบาลจุฬาลงกรณ์แล้วและอาคารได้ทำความสะอาดฆ่าเชื้อแล้ว</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -7623,30 +7621,32 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-03-16 12:00</t>
+          <t>2020-03-16 10:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
+          <t>โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16.942695</v>
+        <v>13.732153</v>
       </c>
       <c r="E129" t="n">
-        <v>104.723904</v>
+        <v>100.536033</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="n">
-        <v>0</v>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -7665,12 +7665,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
+          <t>(รอยืนยัน) ผู้ป่วยถูกส่งตัวจากเคสอาคารลุมพินี</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
+          <t>https://pbs.twimg.com/media/ETNrbDqXQAABx0g?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -7685,19 +7685,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2020-03-16 14:00</t>
+          <t>2020-03-16 12:00</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
+          <t>วัดพระธาตุพนมวรมหาวิหาร</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13.706591</v>
+        <v>16.942695</v>
       </c>
       <c r="E130" t="n">
-        <v>101.129142</v>
+        <v>104.723904</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -7705,23 +7705,29 @@
       <c r="G130" t="n">
         <v>0</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
+          <t>(ยืนยัน) ผู้ว่าฯ สั่งปิดพระธาตุพนมชั้นในภายใจองค์พระธาตุพนม และรอบกำแพงแก้ว หลังพบผู้ป่วยติดโควิด-19 เดินทางไปยังวัด ส่วนชั้นนอกเป็นพื้นที่โล่งเป็นพื้นที่แดดส่องถึงได้พ่นยาฆ่าเชื้อทั้งหมดแล้ว</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1796191</t>
+          <t>https://www.khaosod.co.th/breaking-news/news_3760330</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -7731,7 +7737,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7741,14 +7747,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
+          <t>ที่ทำการ อบจ.ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>13.285124</v>
+        <v>13.706591</v>
       </c>
       <c r="E131" t="n">
-        <v>100.922403</v>
+        <v>101.129142</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -7767,12 +7773,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
+          <t>(คำชี้แจง) เจ้าหน้าที่สาธารณสุขจังหวัดฯ เข้าเคลียร์พื้นที่ทำความสะอาดที่ทำการ อบจ.ฉะเชิงเทรา และพ่นยาฆ่าเชื้อควบคุมโรคดังกล่าวในทันที</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
+          <t>https://www.thairath.co.th/news/society/1796191</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -7782,32 +7788,30 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-03-16 15:41</t>
+          <t>2020-03-16 14:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>อาคารมณียา เซ็นเตอร์</t>
+          <t>โรงพยาบาลมหาวิทยาลัยบูรพา</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>13.744037</v>
+        <v>13.285124</v>
       </c>
       <c r="E132" t="n">
-        <v>100.542015</v>
+        <v>100.922403</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G132" t="n">
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -7815,19 +7819,17 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J132" t="n">
+        <v>0</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
+          <t>(คำชี้แจง) โรงพยาบาลมหาวิทยาลัยบูรพา แจงคลิปชายชาวต่างชาติไอ ล้มบริเวณหน้าโรงแรม อาการคล้ายโควิด-19 ยันไม่เข้าเกณฑ์</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/general/news-432768</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=3789089144464701&amp;id=881711041869207&amp;__tn__=-R</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -7837,30 +7839,32 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020-03-16 17:00</t>
+          <t>2020-03-16 15:41</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ตลาดหนองไผ่ล้อม จังหวัดขอนแก่น</t>
+          <t>อาคารมณียา เซ็นเตอร์</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>16.426596</v>
+        <v>13.744037</v>
       </c>
       <c r="E133" t="n">
-        <v>102.831719</v>
+        <v>100.542015</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="n">
-        <v>0</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7868,17 +7872,19 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>(ประกาศ) ผู้ที่อยู่ตลาดหนองไผ่ล้อม ในช่วง 16 มีนาคม 17.00 ให้มารายงานตัวแสดงตนกับเจ้าหน้าที่สาธารณะสุข ณ สถานพยาบาลใกล้บ้านทันที ภายในวันที่ 30 มีนาคม 2563</t>
+          <t>(คำชี้แจง) อาคารมณียา เซ็นเตอร์ บนถนนเพลินจิต ได้ทำการปิดชั้น 8 หลังทราบข่าวว่ามีผู้ติดเชื้อโควิด-19 และได้ทำการพ่นยาแล้ว</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>https://ddc.moph.go.th/viralpneumonia/file/check_covid19.pdf</t>
+          <t>https://www.prachachat.net/general/news-432768</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -7888,24 +7894,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020-03-16 21:00</t>
+          <t>2020-03-16 17:00</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
+          <t>ตลาดหนองไผ่ล้อม จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>13.71831</v>
+        <v>16.426596</v>
       </c>
       <c r="E134" t="n">
-        <v>100.585345</v>
+        <v>102.831719</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -7913,27 +7919,23 @@
       <c r="G134" t="n">
         <v>0</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
+          <t>(ประกาศ) ผู้ที่อยู่ตลาดหนองไผ่ล้อม ในช่วง 16 มีนาคม 17.00 ให้มารายงานตัวแสดงตนกับเจ้าหน้าที่สาธารณะสุข ณ สถานพยาบาลใกล้บ้านทันที ภายในวันที่ 30 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
+          <t>https://ddc.moph.go.th/viralpneumonia/</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -7943,32 +7945,30 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2020-03-17 00:08</t>
+          <t>2020-03-16 21:00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
+          <t>ธนาคารไทยพาณิชย์ สาขาศูนย์การค้าเกตเวย์ (เอกมัย)</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>16.948493</v>
+        <v>13.71831</v>
       </c>
       <c r="E135" t="n">
-        <v>99.96773</v>
+        <v>100.585345</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="G135" t="n">
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -7980,19 +7980,17 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J135" t="n">
+        <v>0</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
+          <t>(ยืนยัน) ผลตรวจจากรพ.ไม่พบว่าพนักงานต้องสงสัยคนดังกล่าวติดเชื้อโควิด-19 โดยธนาคารฯจะทำความสะอาดตามมาตรฐานและจะเปิดดำเนินการตามปกติในวันที่ 20 มีนาคมนี้</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
+          <t>https://www.facebook.com/scb.thailand/posts/10158078967633545</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -8002,52 +8000,56 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020-03-17 10:00</t>
+          <t>2020-03-17 00:08</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
+          <t>อำเภอกงไกรลาศ จ.สุโขทัย</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14.045304</v>
+        <v>16.948493</v>
       </c>
       <c r="E136" t="n">
-        <v>100.433878</v>
+        <v>99.96773</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="n">
-        <v>0</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
+          <t>(คำชี้แจง) ภรรยาเซียนมวยที่ติดเชื้อก่อนหน้า เข้ารักษาด้วยอาการไข้สูง ไอและเจ็บคอ ขณะนี้กำลังรอการยืนยันผลตรวจ</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>https://imgur.com/MRZ15kd</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3765045</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -8057,24 +8059,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020-03-17 11:00</t>
+          <t>2020-03-17 10:00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
+          <t>บริษัทเอเชียนสแตนเลย์ อินเตอร์เนชั่นแนล จำกัด</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>13.767544</v>
+        <v>14.045304</v>
       </c>
       <c r="E137" t="n">
-        <v>100.44369</v>
+        <v>100.433878</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -8082,23 +8084,27 @@
       <c r="G137" t="n">
         <v>0</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
+          <t>(คำชี้แจง) บริษัท เอเชียนสแตนเลย์ ได้รับการยืนยันว่า พนักงานชาวญี่ปุ่นของบริษัทที่อยู่ฝ่ายจัดซื้อติดเชื้อโควิด-19 ในวันที่ 17 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
+          <t>https://imgur.com/MRZ15kd</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -8108,56 +8114,48 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-03-17 11:45</t>
+          <t>2020-03-17 11:00</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ปัตตานี</t>
+          <t>Absolute You สาขา The Circle ราชพฤกษ์</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6.749083</v>
+        <v>13.767544</v>
       </c>
       <c r="E138" t="n">
-        <v>101.32889</v>
+        <v>100.44369</v>
       </c>
       <c r="F138" t="n">
-        <v>65</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
+          <t xml:space="preserve">(คำชี้แจง) ตรวจพบเชื้อโควิด-19 ในสมาชิกที่เข้าคลาสปั่นจักรยาน </t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1796811</t>
+          <t>https://www.facebook.com/photo.php?fbid=10215202530312082&amp;set=a.10201573646518505&amp;type=3&amp;theater</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -8167,33 +8165,37 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2020-03-17 12:00</t>
+          <t>2020-03-17 11:45</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ชุมชนพรทวีวัฒน์1</t>
+          <t>ปัตตานี</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>14.054377</v>
+        <v>6.749083</v>
       </c>
       <c r="E139" t="n">
-        <v>100.631022</v>
+        <v>101.32889</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -8207,12 +8209,12 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดโควิด-19 1 รายที่ปัตตานี เป็นชายวัย 65 กลับจากร่วมชุมนุมทางศาสนาที่มาเลเซีย</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
+          <t>https://www.thairath.co.th/news/local/south/1796811</t>
         </is>
       </c>
       <c r="M139" t="n">
@@ -8222,24 +8224,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2020-03-17 14:00</t>
+          <t>2020-03-17 12:00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>เชฟแมน ราชดำริ</t>
+          <t>ชุมชนพรทวีวัฒน์1</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>13.739698</v>
+        <v>14.054377</v>
       </c>
       <c r="E140" t="n">
-        <v>100.541591</v>
+        <v>100.631022</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -8247,10 +8249,8 @@
       <c r="G140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H140" t="n">
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -8264,12 +8264,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
+          <t>(ยืนยัน) พบลูกบ้านเป็นผู้ติดเชื้อไวรัสโควิด 19 จำนวน 2 ราย</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
+          <t>https://drive.google.com/file/d/1U1xTn5I8HweO-RGGAB-734au_Ciq1r8P/view?fbclid=IwAR3WtKTLqrPJWdnEFU0i0LXdyUap2626Zr3KnAQmxA0PutEt9sVay1r80kM</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -8279,24 +8279,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2020-03-17 14:24</t>
+          <t>2020-03-17 14:00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>เชฟแมน ราชดำริ</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>15.276705</v>
+        <v>13.739698</v>
       </c>
       <c r="E141" t="n">
-        <v>104.80429</v>
+        <v>100.541591</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8309,22 +8309,24 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
+          <t>(คำชี้แจง) ลูกค้าที่เข้าใช้บริการที่ร้านเชฟแมน ราชดำริแจ้งว่าตรวจพบเชื้อโควิด-19 ทางร้านจึงได้ดำเนินการปิดร้านและทำความสะอาดฆ่าเชื้อโรค และเปิดอีกครั้งในวันที่ 25 มีนาคม 2563 โดยพนักงานจะทำการกักตัว 14 วันเพื่อดูอาการ</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>https://www.komchadluek.net/news/regional/422815</t>
+          <t>https://www.facebook.com/Chefmanchineserestaurant/photos/pcb.2864725926937916/2864867820257060</t>
         </is>
       </c>
       <c r="M141" t="n">
@@ -8334,24 +8336,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2020-03-17 15:00</t>
+          <t>2020-03-17 14:24</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>กาญจนบุรี</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>14.005274</v>
+        <v>15.276705</v>
       </c>
       <c r="E142" t="n">
-        <v>99.54920799999999</v>
+        <v>104.80429</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -8359,25 +8361,27 @@
       <c r="G142" t="n">
         <v>0</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
+          <t>(คำชี้แจง) เซียนมวยและภรรยาที่ได้ไปสนามมวยได้ถูกเชิญเข้ามากักตัวเป็นระยะ 14 วันเพื่อรอดูผลการตรวจพิสูจน์อย่างละเอียดซ้ำ</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
+          <t>https://www.komchadluek.net/news/regional/422815</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -8397,46 +8401,40 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>จังหวัดยะลา</t>
+          <t>กาญจนบุรี</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6.547652</v>
+        <v>14.005274</v>
       </c>
       <c r="E143" t="n">
-        <v>101.276494</v>
+        <v>99.54920799999999</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
+          <t>(คำชี้แจง) ผู้ว่ากาญจน์แถลงพบผู้ป่วยเข้าข่ายติดเชื้อโควิด 19 2 ราย และ เฝ้าระวังอีก 23 ราย</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>https://www.paktaireport.com/?p=289</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064602</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -8446,30 +8444,32 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-03-17 15:15</t>
+          <t>2020-03-17 15:00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ศาลหลักเมืองชลบุรี</t>
+          <t>จังหวัดยะลา</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>13.364938</v>
+        <v>6.547652</v>
       </c>
       <c r="E144" t="n">
-        <v>100.98566</v>
+        <v>101.276494</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="n">
-        <v>0</v>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8488,12 +8488,12 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
+          <t>(คำชี้แจง) พบผู้ติดเชื้อ Covid-19 2 ราย ในจังหวัดยะลา หลังกักตัว ผลตรวจเป็นบวก คาดว่าติดจากการกลับจากการชุมนุมทางศาสนาที่มาเลย์</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/east/1796964</t>
+          <t>https://www.paktaireport.com/?p=289</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -8503,24 +8503,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-03-17 16:00</t>
+          <t>2020-03-17 15:15</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
+          <t>ศาลหลักเมืองชลบุรี</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>8.426632</v>
+        <v>13.364938</v>
       </c>
       <c r="E145" t="n">
-        <v>99.945635</v>
+        <v>100.98566</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -8545,12 +8545,12 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
+          <t>(คำชี้แจง) มีข่าวว่ามีผู้ติดเชื้อโควิด-19 จากสนามมวยในกรุงเทพฯมาบริเวณนี้ ทางสาธารณสุขจังหวัดได้จัดพนักงานมาทำความสะอาด และจะนำผู้ที่อยู่บริเวณดังกล่าว และผู้ที่นั่งเล่นหมากรุก ไปตรวจหาติดเชื้อไวรัสประมาณ 20 กว่าคน</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
+          <t>https://www.thairath.co.th/news/local/east/1796964</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -8565,35 +8565,35 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-03-17 20:00</t>
+          <t>2020-03-17 16:00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>หมู่ที่ 7 ตำบลโพธิ์เสด็จ อำเภอเมือง จังหวัดนครศรีธรรมราช</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>16.442351</v>
+        <v>8.426632</v>
       </c>
       <c r="E146" t="n">
-        <v>102.835978</v>
+        <v>99.945635</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G146" t="n">
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -8602,12 +8602,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
+          <t>(ยืนยัน) พบผู้ป่วยยืนยันติดโควิด-19 ในพื้นที่หมู่ 7 ตำบลโพธิ์เสด็ต อ.เมือง จ.นครศรีธรรมราช ตอนนี้พักรักษาตัวในโรงพยาบาล และมีการกักตัวบุคคลในครอบครัวและผู้ใกล้ชิด เพื่อป้องกันการแพร่กระจายของโรค</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
+          <t>https://www.facebook.com/Posadet260662/photos/a.2233744033622702/2449578808705889</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -8617,48 +8617,54 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-03-17 20:45</t>
+          <t>2020-03-17 20:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Gym Monkey</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>13.768027</v>
+        <v>16.442351</v>
       </c>
       <c r="E147" t="n">
-        <v>100.442156</v>
+        <v>102.835978</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
+          <t>(คำชี้แจง) พบชายติดเชื้อโควิด-19 1 ราย โดยมีความเสี่ยงมาจากสนามมวยลุมพินี แต่ได้ทำการกักตัวเองเมื่อมีความเสี่ยงและตรวจพบเชื้อในเวลาต่อมา</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
+          <t>https://www.matichon.co.th/news-monitor/news_2064976</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -8668,7 +8674,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8678,14 +8684,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ขอนแก่น</t>
+          <t>Gym Monkey</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>16.442257</v>
+        <v>13.768027</v>
       </c>
       <c r="E148" t="n">
-        <v>102.837362</v>
+        <v>100.442156</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -8699,19 +8705,17 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J148" t="n">
+        <v>0</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
+          <t>(ยืนยัน) หลังจากพบว่ามีสมาชิกที่ได้เข้ามาใช้บริการ ตรวจพบเชื้อโควิด-19 จึงได้มีการทำความสะอาด พ่นยาฆ่าเชื้อโรค และ ออกมาตราการรักษาความปลอดภัยต่าง ๆ</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
+          <t>https://drive.google.com/file/d/1KvggrzAPdNJTkBBVV7SUIpP8FUlv4Waa/view?usp=sharing</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -8731,32 +8735,26 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ฉะเชิงเทรา</t>
+          <t>ขอนแก่น</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13.6887431</v>
+        <v>16.442257</v>
       </c>
       <c r="E149" t="n">
-        <v>101.0785358</v>
+        <v>102.837362</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -8765,12 +8763,12 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อไวรัสโควิด 19 จำนวน 1 ราย เป็นชาย 1 ใน 11 คน ที่อยู่ในสนามมวยร่วมกับคุณแมทธิว ดีน</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
+          <t>https://www.khonkaenlink.info/home/news/10106.html#.XnDiLMrfhS9.facebook</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -8780,30 +8778,32 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-03-17 20:55</t>
+          <t>2020-03-17 20:45</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
+          <t>ฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13.763845</v>
+        <v>13.6887431</v>
       </c>
       <c r="E150" t="n">
-        <v>100.569331</v>
+        <v>101.0785358</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="G150" t="n">
-        <v>0</v>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -8822,12 +8822,12 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
+          <t>(ยืนยัน) ภรรยาผู้ติดเชื้อท่านหนึ่ง ติดเชื้อโควิด-19 และเข้ารับการรักษาที่โรงพยาบาลแล้ว รวมถึงไม่ได้เดินทางออกจากบ้านตั้งแต่ตรวจหาเชื้อ ส่วนผู้ใกล้ชิดอีก 4 คนไม่ติดเชื้อ</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
+          <t>https://www.facebook.com/permalink.php?story_fbid=888164111636767&amp;id=677278876058626&amp;__xts__[0]=68.</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -8837,52 +8837,54 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-03-18 12:30</t>
+          <t>2020-03-17 20:55</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
+          <t>โนเบิล รีวอล์ฟ รัชดา 2</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>15.219054</v>
+        <v>13.763845</v>
       </c>
       <c r="E151" t="n">
-        <v>100.133061</v>
+        <v>100.569331</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 ภายในอาคารโครงการโนเบิล รีวอล์ฟ รัชดา 2 ทางอาคารได้ปิดชั่วคราวและกำลังดำเนินการทำความสะอาดและพ่นน้ำยาฆ่าเชื้อ</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1420176</t>
+          <t>https://www.facebook.com/NobleDevelopment/photos/a.144205848924075/3128240647187232/</t>
         </is>
       </c>
       <c r="M151" t="n">
@@ -8892,24 +8894,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-03-18 14:44</t>
+          <t>2020-03-18 12:30</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
+          <t>สนามชนไก่บ้านเขาดิน ตำบลเขาท่าพระ</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>13.767126</v>
+        <v>15.219054</v>
       </c>
       <c r="E152" t="n">
-        <v>100.57881</v>
+        <v>100.133061</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -8927,17 +8929,17 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
+          <t>(คำชี้แจง) พบผู้สัมผัสใกล้ชิดผู้ป่วยโรคโควิด-19 จำนวน 2 คน ซึ่งขณะนี้อยู่ระหว่างการดูอาการอย่างใกล้ชิด ที่โรงพยาบาลชัยนาทนเรนทร แต่ยังไม่พบเชื้อเคยเข้ามาในบริเวณสนามชนไก่บ้านเขาดิน เจ้าหน้าที่จึงต้องลงพื้นที่ควบคุมโรคด้วยการฉีดน้ำยาฆ่าเชื้อ เป็นการดำเนินการตามมาตรการเพื่อป้องกันการระบาดของโรค</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>https://imgur.com/snvTfA5</t>
+          <t>https://www.77kaoded.com/content/1420176</t>
         </is>
       </c>
       <c r="M152" t="n">
@@ -8947,56 +8949,52 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-03-18 15:18</t>
+          <t>2020-03-18 14:44</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
+          <t>อาคารชุดศุภาลัย เวลลิงตัน อาคาร 3</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>16.401265</v>
+        <v>13.767126</v>
       </c>
       <c r="E153" t="n">
-        <v>103.374251</v>
+        <v>100.57881</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
+          <t>(คำชี้แจง) ฝ่ายนิติบุคคลอาคารชุดได้รับทราบข้อมูลว่า มีผู้ติดเชื้อโควิด-19 ในอาคาร 3 จึงได้ดำเนินมาตราการป้องกันแล้ว</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
+          <t>https://imgur.com/snvTfA5</t>
         </is>
       </c>
       <c r="M153" t="n">
@@ -9011,19 +9009,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-03-18 15:24</t>
+          <t>2020-03-18 15:18</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>จังหวัดร้อยเอ็ด</t>
+          <t>อำเภอยางตลาด จังหวัดกาฬสินธุ์</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>16.04753</v>
+        <v>16.401265</v>
       </c>
       <c r="E154" t="n">
-        <v>103.653192</v>
+        <v>103.374251</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -9045,17 +9043,17 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
+          <t>(คำชี้แจง) เคสสนามมวย พบผู้ป่วยโควิด-19 รายแรกของ จ.กาฬสินธุ์ หลังกักตัวตรวจเชื้อพบมีผลเป็นบวก ขณะที่ สาธารณะสุขจังหวัด เร่งสอบเส้นทางว่าผู้ติดเชื้อไปที่ไหนบ้าง เพื่อไปฆ่าเชื้อและกักโรค</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8056818/</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1797903</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -9065,31 +9063,31 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-03-18 15:41</t>
+          <t>2020-03-18 15:24</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
+          <t>จังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>14.984929</v>
+        <v>16.04753</v>
       </c>
       <c r="E155" t="n">
-        <v>102.103557</v>
+        <v>103.653192</v>
       </c>
       <c r="F155" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -9109,12 +9107,12 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) นายพีระณัติ มีเนตร์ ได้โพสท์ลงผลการตรวจพบโควิด-19 ซึ่งก่อนหน้านี้ทำงานที่สนามมวยราชดำเนินก่อนกลับบ้านเกิดทีจังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
+          <t>https://www.sanook.com/news/8056818/</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -9138,13 +9136,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>14.984919</v>
+        <v>14.984929</v>
       </c>
       <c r="E156" t="n">
-        <v>102.103547</v>
+        <v>102.103557</v>
       </c>
       <c r="F156" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -9158,7 +9156,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9168,7 +9166,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว ทำงานที่กรุงเทพฯ ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -9183,7 +9181,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9193,7 +9191,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>โรงพยาบาลมหาราชนครราชสีมา</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -9203,11 +9201,11 @@
         <v>102.103547</v>
       </c>
       <c r="F157" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -9217,7 +9215,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9227,12 +9225,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ในจังหวัดนครราชสีมาแล้ว มาจากชายแดนกัมพูชา ตอนนี้คุมสถานการณ์ได้แล้ว</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8057670/</t>
+          <t>https://www.facebook.com/472531009808139/videos/vb.472531009808139/189729155815171/?type=2&amp;theater</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -9242,38 +9240,42 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-03-18 16:30</t>
+          <t>2020-03-18 15:41</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>13.758529</v>
+        <v>14.984919</v>
       </c>
       <c r="E158" t="n">
-        <v>100.566238</v>
+        <v>102.103547</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -9282,12 +9284,12 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พบผู้ป่วยจากไวรัสโควิด-19 เพิ่มเป็นรายที่ 3 เป็นชาย อายุ 57 ปี ผู้ป่วยรายนี้ติดมาจากสนามมวยที่กรุงเทพมหานคร ตั้งแต่วันที่ 5 มีนาคม 2563 และมีอาการป่วยในวันที่ 12 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
+          <t>https://www.sanook.com/news/8057670/</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -9297,7 +9299,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9307,14 +9309,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาเซ็นทรัล พลาซ่า แกรนด์ พระราม 9</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>13.724323</v>
+        <v>13.758529</v>
       </c>
       <c r="E159" t="n">
-        <v>100.578732</v>
+        <v>100.566238</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -9337,7 +9339,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาอื่นๆที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -9362,14 +9364,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาทองหล่อ</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>13.762677</v>
+        <v>13.724323</v>
       </c>
       <c r="E160" t="n">
-        <v>100.472519</v>
+        <v>100.578732</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -9392,7 +9394,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาทองหล่อที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -9417,14 +9419,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาจรัญสนิทวงศ์</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>13.726004</v>
+        <v>13.762677</v>
       </c>
       <c r="E161" t="n">
-        <v>100.529007</v>
+        <v>100.472519</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -9447,7 +9449,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาจรัญสนิทวงศ์ที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -9462,24 +9464,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2020-03-18 16:55</t>
+          <t>2020-03-18 16:30</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>ธนาคาร ซีไอเอ็มบี สาขาสำนักสีลม</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>7.197264</v>
+        <v>13.726004</v>
       </c>
       <c r="E162" t="n">
-        <v>100.592928</v>
+        <v>100.529007</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -9497,17 +9499,17 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นชาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
+          <t>(คำชี้แจง) พนักงาน Wealth Advisor ของธนาคาร 1 ราย ซึ่งปฎิบัติงานที่อาคารสำนักงานใหญ่ ชั้น 20 ติดเชื้อไวรัส โควิด-19 ได้รับการคัดแยกเพื่อรักษาแล้ว และทำการปิดทำความสะอาดสาขาสำนักสีลมที่ได้ไปติดต่อมาในช่วง 14 วันด้วย</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>https://mgronline.com/south/detail/9630000027399</t>
+          <t>https://www.facebook.com/CIMBThai/photos/a.193395164035894/3534528226589221/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -9522,19 +9524,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2020-03-18 17:00</t>
+          <t>2020-03-18 16:55</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>จังหวัดลพบุรี</t>
+          <t>จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>14.805827</v>
+        <v>7.197264</v>
       </c>
       <c r="E163" t="n">
-        <v>100.652328</v>
+        <v>100.592928</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -9552,17 +9554,17 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
+          <t>(คำชี้แจง) สงขลาพบผู้ป่วยเฝ้าระวัง มีผลตรวจเชื้อไวรัสโควิด-19 ทั้งสิ้น 12 คนเป็นชาวสงขลา 9 คน จังหวัดอื่นอีก 3 คน</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
+          <t>https://mgronline.com/south/detail/9630000027399</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -9572,7 +9574,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -9582,14 +9584,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
+          <t>จังหวัดลพบุรี</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>13.713369</v>
+        <v>14.805827</v>
       </c>
       <c r="E164" t="n">
-        <v>100.479241</v>
+        <v>100.652328</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -9612,12 +9614,12 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
+          <t>(คำชี้แจ้ง) สำนักงานสาธารณะสุขจังหวัดลพบุรี แจ้งพบผู้ติดเชื้อไวรัสโควิด-19 จำนวน 1 ราย</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1895451883861717/posts/3634201333320088/</t>
         </is>
       </c>
       <c r="M164" t="n">
@@ -9632,37 +9634,33 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2020-03-18 17:28</t>
+          <t>2020-03-18 17:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>9.124031</v>
+        <v>13.713369</v>
       </c>
       <c r="E165" t="n">
-        <v>99.309859</v>
+        <v>100.479241</v>
       </c>
       <c r="F165" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -9671,12 +9669,12 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
+          <t>(คำชี้ี้แจ้ง) นักศึกษาคนหนึ่งที่ฝึกงานอยู่ที่ธนาคารกรุงศรีอยุธยา สาขาเดอะมอลล์ท่าพระ ได้ตรวจพบเชื้อโควิด-19 ปัจจุบันนักศึกษาได้รับการรักษาเรียบร้อยแล้ว และทำการปิดทำความสะอาดสาขาเดอะมอลล์ท่าพระ ตั้งแต่วันที่ 18-22 มีนาคม และเปิดให้บริการอีกทีในวันที่ 23 มีนาคม</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618074</t>
+          <t>https://www.facebook.com/KrungsriSimple/photos/pb.117117641670238.-2207520000../2678484185533558/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -9686,50 +9684,56 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2020-03-18 18:00</t>
+          <t>2020-03-18 17:28</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>12.683745</v>
+        <v>9.124031</v>
       </c>
       <c r="E166" t="n">
-        <v>101.248754</v>
+        <v>99.309859</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มี.ค. ทางศูนย์การค้าจึงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มี.ค.</t>
+          <t>(คำชี้แจง) พบผู้ติดไวรัส COVID-19 ทำอาชีพรับเหมาก่อสร้างกับชาวมาเลเซีย โดยเริ่มป่วยวันที่ 8 มี.ค. 63 ได้รับผลพบติดเชื้อ COVID-19 เมื่อวันที่ 15 มีนาคม 2563 และผลการตรวจยืนยันครั้งที่ 2 เมื่อวันที่ 17 มีนาคม 2563 ขณะนี้ (18 มี.ค. 63) อยู่ที่หอผู้ป่วยวิกฤติของโรงพยาบาล</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
+          <t>https://www.posttoday.com/social/local/618074</t>
         </is>
       </c>
       <c r="M166" t="n">
@@ -9739,7 +9743,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9749,46 +9753,40 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>สนามบินสุวรรณภูมิ</t>
+          <t>ศูนย์การค้าแพชชั่น ช็อปปิ้งเดสติเนชั่น</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>13.68924</v>
+        <v>12.683745</v>
       </c>
       <c r="E167" t="n">
-        <v>100.750014</v>
+        <v>101.248754</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
+          <t>(คำชี้แจง) จากกระแสข่าวลือว่ามีผู้ติดเชื้อไวรัสโควิด-19 มาใช้บริการในวันที่ 12 มี.ค. ทางศูนย์การค้าจึงทำการปิดทำความสะอาด และเปิดให้บริการในวันศุกร์ที่ 20 มี.ค.</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>https://covid-19.kapook.com/view222445.html</t>
+          <t>https://www.facebook.com/Passioneshoppingdestination/photos/pcb.3260572630624441/3260618067286564/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M167" t="n">
@@ -9798,24 +9796,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-03-18 23:00</t>
+          <t>2020-03-18 18:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>สนามบินสุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>18.7931751</v>
+        <v>13.68924</v>
       </c>
       <c r="E168" t="n">
-        <v>98.94244550000001</v>
+        <v>100.750014</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -9825,8 +9823,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -9835,17 +9835,17 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
+          <t>(คำชี้แจง) วันที่ 17 มีนาคม 2563 พบว่ามีเจ้าหน้าที่คลังสินค้าของสายการบินโคเรียนแอร์ ที่ประจำอยู่ที่ท่าอากาศยานสุวรรณภูมิ ติดเชื้อไวรัสโคโรน่า จำนวน 1 คน เป็นคนไทย ปฏิบัติหน้าที่อยู่เฉพาะภายในอาคารคลังสินค้าของสุวรรณภูมิ ไม่ได้เข้ามาปฏิบัติหน้าที่ภายในอาคารผู้โดยสารหลักของสนามบิน ซึ่งเบื้องต้นถูกส่งตัวเข้าสู่กระบวนการรักษาแล้ว</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-434059</t>
+          <t>https://covid-19.kapook.com/view222445.html</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -9855,7 +9855,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9865,14 +9865,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>บริษัท MinebeaMitsumi</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>14.152245</v>
+        <v>18.7931751</v>
       </c>
       <c r="E169" t="n">
-        <v>100.617803</v>
+        <v>98.94244550000001</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -9882,14 +9882,12 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
+      <c r="H169" t="n">
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9899,12 +9897,12 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
+          <t>(คำชี้แจง) ผู้ว่าฯเชียงใหม่ เพิ่มมาตรการป้องกัน ภายในจังหวัด ด้วยการสั่งปิดสถานประกอบการ เนื่องจากพบผู้ป่วย เพิ่มอีก 1 ราย</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>https://imgur.com/iI8MLi1</t>
+          <t>https://www.prachachat.net/local-economy/news-434059</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -9914,24 +9912,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2020-03-19 09:30</t>
+          <t>2020-03-18 23:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>BASE Amarin</t>
+          <t>บริษัท MinebeaMitsumi</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>13.743774</v>
+        <v>14.152245</v>
       </c>
       <c r="E170" t="n">
-        <v>100.541312</v>
+        <v>100.617803</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -9941,25 +9939,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากสถานการณ์ที่ตรวจพบผู้มาใช้บริการติดเชื้อโควิด-19 ปัจจุบัน ได้ทำการทำความสะอาดฆ่าเชื้อตัวตึกทั้งหมดแล้วในวันที่ 18 มีนาคม 2563</t>
+          <t>(คำชี้แจง) พนักงานชาวเยอรมัน 1 ท่านได้รับการตรวจและยืนยันการติดเชื้อไวรัสโควิด-19 บริษัทได้ปิดกั้นพื้นที่และทำความสะอาดฆ่าเชื้อเรียบร้อยแล้ว</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1096603273717108/posts/2995390553838361/</t>
+          <t>https://imgur.com/iI8MLi1</t>
         </is>
       </c>
       <c r="M170" t="n">
@@ -9969,24 +9971,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2020-03-19 11:00</t>
+          <t>2020-03-19 09:30</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>จังหวัดปัตตานี</t>
+          <t>BASE Amarin</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>6.85436</v>
+        <v>13.743774</v>
       </c>
       <c r="E171" t="n">
-        <v>101.371369</v>
+        <v>100.541312</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -10004,17 +10006,17 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
+          <t>(อัปเดทสถานการณ์) จากสถานการณ์ที่ตรวจพบผู้มาใช้บริการติดเชื้อโควิด-19 ปัจจุบัน ได้ทำการทำความสะอาดฆ่าเชื้อตัวตึกทั้งหมดแล้วในวันที่ 18 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1096603273717108/posts/2995390553838361/</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -10034,20 +10036,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ชลบุรี</t>
+          <t>จังหวัดปัตตานี</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13.361891</v>
+        <v>6.85436</v>
       </c>
       <c r="E172" t="n">
-        <v>100.983336</v>
+        <v>101.371369</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
-      <c r="G172" t="n">
-        <v>0</v>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10062,12 +10066,12 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
+          <t>(คำชี้แจง) ผู้ว่าราชการจังหวัดปัตตานี แถลงพบผู้ติดเชื้อไวรัสโควิด-19 ในผู้ที่เดินทางกลับจากงานชุมนุมผู้เผยแพร่ศาสนาในประเทศมาเลเซีย และเป็นผู้ใกล้ชิด จำนวน 7 คน จาก 7 หมู่บ้าน ใน 3 อำเภอ</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>http://www.chonburi.go.th/website/activity/view396</t>
+          <t>https://www.facebook.com/ThaiPBSNews/photos/a.643740665701663/2822674761141565/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -10077,7 +10081,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -10087,14 +10091,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Sidel South Asia-Pacific LTD.</t>
+          <t>ชลบุรี</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>13.749285</v>
+        <v>13.361891</v>
       </c>
       <c r="E173" t="n">
-        <v>100.556816</v>
+        <v>100.983336</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -10110,17 +10114,17 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>(ยืนยัน) เนื่องด้วยวันศุกร์ที่ 13 มีนาคม เวลาประมาณ 18.00 ได้รับแจ้งว่า มีผู้ติดเชื้อโควิด-19 ติดต่อกับบริษัท จากบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค ชั้นที่ 18 และได้ดำเนินการฆ่าเชื้อ พร้อมกับกักตัวพนักงานบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค แล้ว</t>
+          <t>(คำชี้แจง) ผู้ว่าฯชลบุรี ยืนยันการติดเชื้อโควิด-19 6 ราย พร้อมออกคำสั่งปิดบาร์ ผับ สปา โรงภาพยนตร์ สนามมวย ฟิตเนสต่างๆชั่วคราว</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>https://imgur.com/fBVkK0r</t>
+          <t>http://www.chonburi.go.th/website/activity/view396</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -10130,7 +10134,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -10140,22 +10144,20 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>อาคารชุดซีณิธเพลส ห้วยขวาง</t>
+          <t>Sidel South Asia-Pacific LTD.</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>13.777464</v>
+        <v>13.749285</v>
       </c>
       <c r="E174" t="n">
-        <v>100.579256</v>
+        <v>100.556816</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G174" t="n">
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10165,17 +10167,17 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทางอาคารได้รับรายงานว่ามีลูกบ้านตรวจพบเชื้อโควิด-19 เมื่อวันที่ 18 มีนาคม 2563 พักอยู่ที่ชั้น 4 ปัจจุบันเข้ารักษาต่อที่โรงพยาบาลรามาธิบดีแล้ว</t>
+          <t>(ยืนยัน) เนื่องด้วยวันศุกร์ที่ 13 มีนาคม เวลาประมาณ 18.00 ได้รับแจ้งว่า มีผู้ติดเชื้อโควิด-19 ติดต่อกับบริษัท จากบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค ชั้นที่ 18 และได้ดำเนินการฆ่าเชื้อ พร้อมกับกักตัวพนักงานบริษัท ซีเดล เซ้าท์เอเชีย แปซิฟิค แล้ว</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>https://imgur.com/pr66gbO</t>
+          <t>https://imgur.com/fBVkK0r</t>
         </is>
       </c>
       <c r="M174" t="n">
@@ -10185,24 +10187,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2020-03-19 12:00</t>
+          <t>2020-03-19 11:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
+          <t>อาคารชุดซีณิธเพลส ห้วยขวาง</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>13.748381</v>
+        <v>13.777464</v>
       </c>
       <c r="E175" t="n">
-        <v>100.564095</v>
+        <v>100.579256</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -10225,12 +10227,12 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
+          <t>(ยืนยัน) ทางอาคารได้รับรายงานว่ามีลูกบ้านตรวจพบเชื้อโควิด-19 เมื่อวันที่ 18 มีนาคม 2563 พักอยู่ที่ชั้น 4 ปัจจุบันเข้ารักษาต่อที่โรงพยาบาลรามาธิบดีแล้ว</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
+          <t>https://imgur.com/pr66gbO</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -10240,7 +10242,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -10250,20 +10252,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ลุมพินี มิกซ์ เทพารักษ์-ศรีนครินทร์</t>
+          <t>อาคารสิงห์ คอมเพล็กซ์ ชั้น 30</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>13.626072</v>
+        <v>13.748381</v>
       </c>
       <c r="E176" t="n">
-        <v>100.629077</v>
+        <v>100.564095</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
-      <c r="G176" t="n">
-        <v>0</v>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10278,12 +10282,12 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุคคลแจ้งว่าจากการตรวจสอบย้อนหลังพบผู้ป่วยโควิด-19 ที่พักอาศัยอยู่ ได้ใช้พื้นที่ฟิตเนสวันที่ 11 มี.ค.63 / ซื้อของ 7-eleven และแวะนิติบุคคลเมื่อ 15 มี.ค.63</t>
+          <t>(คำชี้แจง) ในวันที่ 19 มีนาคม 2563 บริษัทฯ ได้รับแจ้งจาก บริษัท กรุงเทพ ราชเทวี เซ็นเตอร์ จำกัด ผู้เช่าพื้นที่ภายในอาคาร สิงห์ คอมเพล็กซ์ ชั้น 30 ว่าลูกค้าของผู้เช่าที่มาใช้พื้นที่เป็นผู้ติดเชื้อไวรัส COVID-19 ผู้มาใช้พื้นที่คนดังกล่าว ได้เข้ามาที่อาคารสิงห์ คอมเพล็กซ์ ในวันที่ 17 มีนาคม 2563 ได้ดำเนินการทำความสะอาดฆ่าเชื้อและปิดพื้นที่ในบริเวณชั้น 30 เป็นเวลา 3 วัน พร้อมทำความสะอาดฆ่าเชื้อบริเวณลิฟต์โดยสารทุกตัว บันไดเลื่อน ห้องน้ำทุกชั้น ห้องอาหาร และพื้นที่ส่วนกลางทั้งหมด</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/lpnmixx/photos/a.630816660454887/1387205514815994/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/SinghaComplex/photos/a.242684893250185/622780201907317/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -10293,37 +10297,33 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2020-03-19 12:02</t>
+          <t>2020-03-19 12:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>จังหวัดพัทลุง</t>
+          <t>ลุมพินี มิกซ์ เทพารักษ์-ศรีนครินทร์</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>7.616929</v>
+        <v>13.626072</v>
       </c>
       <c r="E177" t="n">
-        <v>100.072822</v>
+        <v>100.629077</v>
       </c>
       <c r="F177" t="n">
-        <v>56</v>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -10335,12 +10335,12 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
+          <t>(คำชี้แจง) นิติบุคคลแจ้งว่าจากการตรวจสอบย้อนหลังพบผู้ป่วยโควิด-19 ที่พักอาศัยอยู่ ได้ใช้พื้นที่ฟิตเนสวันที่ 11 มี.ค.63 / ซื้อของ 7-eleven และแวะนิติบุคคลเมื่อ 15 มี.ค.63</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/society/1798681</t>
+          <t>https://web.facebook.com/lpnmixx/photos/a.630816660454887/1387205514815994/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M177" t="n">
@@ -10350,50 +10350,54 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 12:02</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>จังหวัดพัทลุง</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>13.079526</v>
+        <v>7.616929</v>
       </c>
       <c r="E178" t="n">
-        <v>100.921558</v>
+        <v>100.072822</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
+          <t>(คำชี้แจง) ในขณะนี้จังหวัดพัทลุงพบผู้ป่วยด้วยโรคดังกล่าวแล้ว จำนวน 1 ราย ซึ่งเป็นผู้ดูแลนักมวยในค่ายมวยชื่อดังค่ายหนึ่ง คาดติดเชื้อมาจากสนามมวยแห่งหนึ่ง เมื่อวันที่ 12 มี.ค.ที่ผ่านมา</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/society/1798681</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -10403,7 +10407,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10413,14 +10417,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.612125</v>
+        <v>13.079526</v>
       </c>
       <c r="E179" t="n">
-        <v>101.328831</v>
+        <v>100.921558</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10436,17 +10440,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10456,7 +10460,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10466,32 +10470,26 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>14.838629</v>
+        <v>13.612125</v>
       </c>
       <c r="E180" t="n">
-        <v>104.682512</v>
+        <v>101.328831</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10500,12 +10498,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10515,38 +10513,42 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 12:30</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>9.735879000000001</v>
+        <v>14.838629</v>
       </c>
       <c r="E181" t="n">
-        <v>99.99124999999999</v>
+        <v>104.682512</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10555,12 +10557,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10580,21 +10582,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>13.752392</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>100.663796</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10610,12 +10612,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10635,14 +10637,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.89878</v>
+        <v>13.752392</v>
       </c>
       <c r="E183" t="n">
-        <v>100.545152</v>
+        <v>100.663796</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10665,12 +10667,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10685,19 +10687,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.73697</v>
+        <v>13.89878</v>
       </c>
       <c r="E184" t="n">
-        <v>100.641787</v>
+        <v>100.545152</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10720,12 +10722,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10735,30 +10737,32 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>12.706901</v>
+        <v>13.73697</v>
       </c>
       <c r="E185" t="n">
-        <v>101.183109</v>
+        <v>100.641787</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="n">
-        <v>0</v>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10773,12 +10777,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10788,24 +10792,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>13.853877</v>
+        <v>12.706901</v>
       </c>
       <c r="E186" t="n">
-        <v>100.859128</v>
+        <v>101.183109</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10826,12 +10830,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10841,7 +10845,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10851,14 +10855,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.863389</v>
+        <v>13.853877</v>
       </c>
       <c r="E187" t="n">
-        <v>100.51366</v>
+        <v>100.859128</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10879,12 +10883,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10894,113 +10898,107 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-03-19 16:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>จังหวัดนนทบุรี</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>13.863389</v>
+      </c>
+      <c r="E188" t="n">
+        <v>100.51366</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>confirmed</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>2020-03-19 17:30</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D189" t="n">
         <v>13.908185</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E189" t="n">
         <v>99.767413</v>
       </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="inlineStr">
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr">
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr">
+      <c r="L189" t="inlineStr">
         <is>
           <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:56</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>15.004437</v>
-      </c>
-      <c r="E189" t="n">
-        <v>103.112176</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11010,36 +11008,42 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-19 17:56</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>14.527356</v>
+        <v>15.004437</v>
       </c>
       <c r="E190" t="n">
-        <v>100.910644</v>
+        <v>103.112176</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11048,12 +11052,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11073,14 +11077,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>7.888859</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>98.39840599999999</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -11101,12 +11105,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11116,7 +11120,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11126,44 +11130,40 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>19.690448</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.176291</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
-        <v>35</v>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11173,31 +11173,31 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>16.442351</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>102.835978</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -11210,17 +11210,17 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11235,26 +11235,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14.127509</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>101.654682</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11262,10 +11262,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I194" t="n">
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -11274,12 +11272,12 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11289,38 +11287,42 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>18.789733</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>98.974171</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11329,12 +11331,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11354,20 +11356,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>9.124031</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>99.309859</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11382,12 +11386,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11397,7 +11401,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -11407,27 +11411,23 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>16.426912</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>101.153556</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>47</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -11439,12 +11439,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11454,7 +11454,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11464,23 +11464,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>13.730586</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>100.513634</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11492,12 +11496,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11507,7 +11511,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11517,22 +11521,20 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>13.74596</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>100.540751</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G199" t="n">
+        <v>0</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -11542,17 +11544,17 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11562,7 +11564,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11572,14 +11574,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.667345</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.650481</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -11597,17 +11599,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11617,30 +11619,32 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>14.836452</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>103.476803</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
-      <c r="G201" t="n">
-        <v>0</v>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -11655,12 +11659,12 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11670,7 +11674,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11680,22 +11684,20 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>17.127271</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>105.451326</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
-        <v>38</v>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11705,17 +11707,17 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11725,31 +11727,31 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13.731984</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>100.57661</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -11760,17 +11762,17 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,37 +11787,33 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>13.746522</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>100.529104</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -11824,12 +11822,12 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11839,50 +11837,56 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>18.789733</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>98.974171</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11902,22 +11906,20 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.783453</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.546504</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G206" t="n">
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -11932,12 +11934,12 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11947,56 +11949,52 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>6.3472894</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>101.7637775</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12020,13 +12018,13 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6.3768399</v>
+        <v>6.3472894</v>
       </c>
       <c r="E208" t="n">
-        <v>101.8409443</v>
+        <v>101.7637775</v>
       </c>
       <c r="F208" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -12050,7 +12048,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -12070,25 +12068,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>14.984919</v>
+        <v>6.3768399</v>
       </c>
       <c r="E209" t="n">
-        <v>102.103547</v>
+        <v>101.8409443</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -12097,22 +12097,22 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12122,24 +12122,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>13.757503</v>
+        <v>14.984919</v>
       </c>
       <c r="E210" t="n">
-        <v>100.56122</v>
+        <v>102.103547</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -12147,11 +12147,15 @@
       <c r="G210" t="n">
         <v>0</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -12160,12 +12164,12 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -12175,32 +12179,30 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>13.547414</v>
+        <v>13.757503</v>
       </c>
       <c r="E211" t="n">
-        <v>100.273464</v>
+        <v>100.56122</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G211" t="n">
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12215,12 +12217,12 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12230,24 +12232,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>16.8080697</v>
+        <v>13.547414</v>
       </c>
       <c r="E212" t="n">
-        <v>100.2945489</v>
+        <v>100.273464</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -12257,27 +12259,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H212" t="n">
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12287,31 +12287,31 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>19.9007421</v>
+        <v>16.8080697</v>
       </c>
       <c r="E213" t="n">
-        <v>99.829194</v>
+        <v>100.2945489</v>
       </c>
       <c r="F213" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -12324,17 +12324,17 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12349,22 +12349,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>17.414934</v>
+        <v>19.9007421</v>
       </c>
       <c r="E214" t="n">
-        <v>102.780286</v>
+        <v>99.829194</v>
       </c>
       <c r="F214" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -12376,10 +12376,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I214" t="n">
+        <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -12388,12 +12386,12 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12403,7 +12401,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -12413,14 +12411,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>17.381135</v>
+        <v>17.414934</v>
       </c>
       <c r="E215" t="n">
-        <v>102.57471</v>
+        <v>102.780286</v>
       </c>
       <c r="F215" t="n">
         <v>33</v>
@@ -12447,7 +12445,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -12462,7 +12460,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -12472,30 +12470,32 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>12.6079491</v>
+        <v>17.381135</v>
       </c>
       <c r="E216" t="n">
-        <v>99.94803760000001</v>
+        <v>102.57471</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Thai , British</t>
-        </is>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12504,12 +12504,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12519,48 +12519,54 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>14.071779</v>
+        <v>12.6079491</v>
       </c>
       <c r="E217" t="n">
-        <v>100.632851</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
       </c>
-      <c r="G217" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Thai , British</t>
+        </is>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>0</v>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M217" t="n">
@@ -12570,32 +12576,30 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>7.006991</v>
+        <v>14.071779</v>
       </c>
       <c r="E218" t="n">
-        <v>100.643068</v>
+        <v>100.632851</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G218" t="n">
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -12603,19 +12607,17 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J218" t="n">
+        <v>0</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12625,27 +12627,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>17.48777</v>
+        <v>7.006991</v>
       </c>
       <c r="E219" t="n">
-        <v>101.722455</v>
+        <v>100.643068</v>
       </c>
       <c r="F219" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -12665,12 +12667,12 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12685,49 +12687,47 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>13.781466</v>
+        <v>17.48777</v>
       </c>
       <c r="E220" t="n">
-        <v>99.74632010000001</v>
+        <v>101.722455</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12742,26 +12742,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>12.603813</v>
+        <v>13.781466</v>
       </c>
       <c r="E221" t="n">
-        <v>102.1022441</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F221" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -12774,17 +12774,17 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12794,27 +12794,27 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>7.4782366</v>
+        <v>12.603813</v>
       </c>
       <c r="E222" t="n">
-        <v>99.6455411</v>
+        <v>102.1022441</v>
       </c>
       <c r="F222" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -12831,17 +12831,17 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12856,26 +12856,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>13.7322691</v>
+        <v>7.4782366</v>
       </c>
       <c r="E223" t="n">
-        <v>100.5369166</v>
+        <v>99.6455411</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12893,12 +12893,12 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12913,49 +12913,49 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>12.6821309</v>
+        <v>13.7322691</v>
       </c>
       <c r="E224" t="n">
-        <v>101.2763963</v>
+        <v>100.5369166</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12965,7 +12965,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12975,38 +12975,44 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>8.449477</v>
+        <v>12.6821309</v>
       </c>
       <c r="E225" t="n">
-        <v>98.52607500000001</v>
+        <v>101.2763963</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
       </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>0</v>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13016,54 +13022,48 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>15.4493884</v>
+        <v>8.449477</v>
       </c>
       <c r="E226" t="n">
-        <v>101.0550581</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F226" t="n">
-        <v>34</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J226" t="n">
+        <v>0</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13073,31 +13073,31 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>15.229853</v>
+        <v>15.4493884</v>
       </c>
       <c r="E227" t="n">
-        <v>104.857271</v>
+        <v>101.0550581</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -13110,17 +13110,17 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13130,24 +13130,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>13.7359364</v>
+        <v>15.229853</v>
       </c>
       <c r="E228" t="n">
-        <v>100.5287473</v>
+        <v>104.857271</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -13167,17 +13167,17 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13187,7 +13187,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -13197,14 +13197,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>13.8681928</v>
+        <v>13.7359364</v>
       </c>
       <c r="E229" t="n">
-        <v>100.4829428</v>
+        <v>100.5287473</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -13224,17 +13224,17 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13249,43 +13249,49 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>7.9250861</v>
+        <v>13.8681928</v>
       </c>
       <c r="E230" t="n">
-        <v>98.3075255</v>
+        <v>100.4829428</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
-      <c r="G230" t="n">
-        <v>0</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>0</v>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13300,19 +13306,19 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2020-03-23 14:06</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>จังหวัดแพร่</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>18.1009878</v>
+        <v>7.9250861</v>
       </c>
       <c r="E231" t="n">
-        <v>100.2810275</v>
+        <v>98.3075255</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -13326,19 +13332,17 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J231" t="n">
+        <v>0</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13348,24 +13352,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2020-03-23 15:30</t>
+          <t>2020-03-23 14:06</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+          <t>จังหวัดแพร่</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13.6908986</v>
+        <v>18.1009878</v>
       </c>
       <c r="E232" t="n">
-        <v>102.5030711</v>
+        <v>100.2810275</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -13373,10 +13377,8 @@
       <c r="G232" t="n">
         <v>0</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H232" t="n">
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -13388,12 +13390,12 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13403,31 +13405,31 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 15:34</t>
+          <t>2020-03-23 14:14</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+          <t>จังหวัดเพชรบุรี</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13.8577378</v>
+        <v>99.94551869999999</v>
       </c>
       <c r="E233" t="n">
-        <v>100.5360211</v>
+        <v>99.94551869999999</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -13445,12 +13447,12 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13460,24 +13462,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2020-03-23 17:36</t>
+          <t>2020-03-23 15:30</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>14.6903685</v>
+        <v>13.6908986</v>
       </c>
       <c r="E234" t="n">
-        <v>100.8077161</v>
+        <v>102.5030711</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -13485,23 +13487,27 @@
       <c r="G234" t="n">
         <v>0</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13516,51 +13522,49 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 17:54</t>
+          <t>2020-03-23 15:34</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>13.6783729</v>
+        <v>13.8577378</v>
       </c>
       <c r="E235" t="n">
-        <v>100.5136153</v>
+        <v>100.5360211</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -13570,32 +13574,30 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-03-23 18:52</t>
+          <t>2020-03-23 17:36</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>6.1174893</v>
+        <v>14.6903685</v>
       </c>
       <c r="E236" t="n">
-        <v>101.7888233</v>
+        <v>100.8077161</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G236" t="n">
+        <v>0</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -13603,23 +13605,300 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J236" t="n">
+        <v>0</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>234</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2020-03-23 17:54</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>13.6783729</v>
+      </c>
+      <c r="E237" t="n">
+        <v>100.5136153</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2020-03-23 18:52</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>6.1174893</v>
+      </c>
+      <c r="E238" t="n">
+        <v>101.7888233</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2020-03-23 22:22</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>อาคารทรู ทาวเวอร์ 1</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>13.7625241</v>
+      </c>
+      <c r="E239" t="n">
+        <v>100.5677793</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:53</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13.72624</v>
+      </c>
+      <c r="E240" t="n">
+        <v>100.526799</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/ict/news-436572</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2020-03-24 16:46</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>13.0911754</v>
+      </c>
+      <c r="E241" t="n">
+        <v>100.9027354</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/motoring/news-436958</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6807,8 +6807,10 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -13419,10 +13421,10 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>99.94551869999999</v>
+        <v>13.11181</v>
       </c>
       <c r="E233" t="n">
-        <v>99.94551869999999</v>
+        <v>99.945353</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -13899,6 +13901,63 @@
       </c>
       <c r="M241" t="n">
         <v>239</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2020-03-24 19:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>จังหวัดอยุธยา</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>14.3532127</v>
+      </c>
+      <c r="E242" t="n">
+        <v>100.56896</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุขอยุธยา พบผู้ป่วยติดเชื้อ 1 รายในอำเภอแห่งหนึ่ง ขณะนี้เข้ารับการรักษาอยู่ที่ รพ. ในกรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo.php?fbid=1702103989932241&amp;set=a.1280801768729134&amp;type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6807,8 +6807,10 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10407,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10445,12 +10447,13 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -11067,30 +11070,32 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>14.527356</v>
+        <v>13.743099</v>
       </c>
       <c r="E191" t="n">
-        <v>100.910644</v>
+        <v>100.588946</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="n">
-        <v>0</v>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11105,12 +11110,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11130,14 +11135,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>7.888859</v>
+        <v>14.527356</v>
       </c>
       <c r="E192" t="n">
-        <v>98.39840599999999</v>
+        <v>100.910644</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11158,12 +11163,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11173,7 +11178,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11183,44 +11188,40 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>19.690448</v>
+        <v>7.888859</v>
       </c>
       <c r="E193" t="n">
-        <v>100.176291</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F193" t="n">
-        <v>35</v>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11230,31 +11231,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>16.442351</v>
+        <v>19.690448</v>
       </c>
       <c r="E194" t="n">
-        <v>102.835978</v>
+        <v>100.176291</v>
       </c>
       <c r="F194" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11267,17 +11268,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11292,26 +11293,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>14.127509</v>
+        <v>16.442351</v>
       </c>
       <c r="E195" t="n">
-        <v>101.654682</v>
+        <v>102.835978</v>
       </c>
       <c r="F195" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11319,10 +11320,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I195" t="n">
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11331,12 +11330,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11346,38 +11345,42 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>18.789733</v>
+        <v>14.127509</v>
       </c>
       <c r="E196" t="n">
-        <v>98.974171</v>
+        <v>101.654682</v>
       </c>
       <c r="F196" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11386,12 +11389,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11411,20 +11414,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>9.124031</v>
+        <v>18.789733</v>
       </c>
       <c r="E197" t="n">
-        <v>99.309859</v>
+        <v>98.974171</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11439,12 +11444,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11454,7 +11459,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11464,27 +11469,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>16.426912</v>
+        <v>9.124031</v>
       </c>
       <c r="E198" t="n">
-        <v>101.153556</v>
+        <v>99.309859</v>
       </c>
       <c r="F198" t="n">
-        <v>47</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11496,12 +11497,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11511,7 +11512,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11521,23 +11522,27 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>13.730586</v>
+        <v>16.426912</v>
       </c>
       <c r="E199" t="n">
-        <v>100.513634</v>
+        <v>101.153556</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11549,12 +11554,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11564,7 +11569,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11574,22 +11579,20 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.74596</v>
+        <v>13.730586</v>
       </c>
       <c r="E200" t="n">
-        <v>100.540751</v>
+        <v>100.513634</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G200" t="n">
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11599,17 +11602,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11619,7 +11622,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11629,14 +11632,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.667345</v>
+        <v>13.74596</v>
       </c>
       <c r="E201" t="n">
-        <v>100.650481</v>
+        <v>100.540751</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11654,17 +11657,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11674,30 +11677,32 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>14.836452</v>
+        <v>13.667345</v>
       </c>
       <c r="E202" t="n">
-        <v>103.476803</v>
+        <v>100.650481</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="n">
-        <v>0</v>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11712,12 +11717,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11727,7 +11732,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11737,22 +11742,20 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>17.198818</v>
+        <v>14.836452</v>
       </c>
       <c r="E203" t="n">
-        <v>102.457285</v>
+        <v>103.476803</v>
       </c>
       <c r="F203" t="n">
-        <v>38</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11767,12 +11770,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11782,31 +11785,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>13.731984</v>
+        <v>17.198818</v>
       </c>
       <c r="E204" t="n">
-        <v>100.57661</v>
+        <v>102.457285</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11817,17 +11820,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11842,37 +11845,33 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.746522</v>
+        <v>13.731984</v>
       </c>
       <c r="E205" t="n">
-        <v>100.529104</v>
+        <v>100.57661</v>
       </c>
       <c r="F205" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -11881,12 +11880,12 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11896,50 +11895,56 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>18.789733</v>
+        <v>13.746522</v>
       </c>
       <c r="E206" t="n">
-        <v>98.974171</v>
+        <v>100.529104</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11959,22 +11964,20 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>13.783453</v>
+        <v>18.789733</v>
       </c>
       <c r="E207" t="n">
-        <v>100.546504</v>
+        <v>98.974171</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G207" t="n">
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11989,12 +11992,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12004,56 +12007,52 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6.3472894</v>
+        <v>13.783453</v>
       </c>
       <c r="E208" t="n">
-        <v>101.7637775</v>
+        <v>100.546504</v>
       </c>
       <c r="F208" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12063,56 +12062,50 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>6.3768399</v>
+        <v>13.694593</v>
       </c>
       <c r="E209" t="n">
-        <v>101.8409443</v>
+        <v>99.851686</v>
       </c>
       <c r="F209" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
           <t>unknown</t>
         </is>
       </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12127,25 +12120,27 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>14.984919</v>
+        <v>6.3472894</v>
       </c>
       <c r="E210" t="n">
-        <v>102.103547</v>
+        <v>101.7637775</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -12154,22 +12149,22 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -12179,50 +12174,56 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>13.757503</v>
+        <v>6.3768399</v>
       </c>
       <c r="E211" t="n">
-        <v>100.56122</v>
+        <v>101.8409443</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12232,38 +12233,40 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>13.547414</v>
+        <v>14.984919</v>
       </c>
       <c r="E212" t="n">
-        <v>100.273464</v>
+        <v>102.103547</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12272,12 +12275,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12287,54 +12290,50 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>16.8080697</v>
+        <v>13.757503</v>
       </c>
       <c r="E213" t="n">
-        <v>100.2945489</v>
+        <v>100.56122</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12349,32 +12348,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>19.9007421</v>
+        <v>13.547414</v>
       </c>
       <c r="E214" t="n">
-        <v>99.829194</v>
+        <v>100.273464</v>
       </c>
       <c r="F214" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -12386,12 +12383,12 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12401,31 +12398,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>17.414934</v>
+        <v>16.8080697</v>
       </c>
       <c r="E215" t="n">
-        <v>102.780286</v>
+        <v>100.2945489</v>
       </c>
       <c r="F215" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12433,24 +12430,22 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I215" t="n">
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12460,27 +12455,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>17.381135</v>
+        <v>19.9007421</v>
       </c>
       <c r="E216" t="n">
-        <v>102.57471</v>
+        <v>99.829194</v>
       </c>
       <c r="F216" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -12492,10 +12487,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I216" t="n">
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12504,12 +12497,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12529,30 +12522,32 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>12.6079491</v>
+        <v>17.414934</v>
       </c>
       <c r="E217" t="n">
-        <v>99.94803760000001</v>
+        <v>102.780286</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Thai , British</t>
-        </is>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -12561,12 +12556,12 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M217" t="n">
@@ -12576,48 +12571,56 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>14.071779</v>
+        <v>17.381135</v>
       </c>
       <c r="E218" t="n">
-        <v>100.632851</v>
+        <v>102.57471</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12627,35 +12630,37 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>7.006991</v>
+        <v>12.6079491</v>
       </c>
       <c r="E219" t="n">
-        <v>100.643068</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Thai , British</t>
+        </is>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -12667,12 +12672,12 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12682,32 +12687,30 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>17.48777</v>
+        <v>14.071779</v>
       </c>
       <c r="E220" t="n">
-        <v>101.722455</v>
+        <v>100.632851</v>
       </c>
       <c r="F220" t="n">
-        <v>22</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12715,19 +12718,17 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J220" t="n">
+        <v>0</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12737,54 +12738,52 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>13.781466</v>
+        <v>7.006991</v>
       </c>
       <c r="E221" t="n">
-        <v>99.74632010000001</v>
+        <v>100.643068</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12799,32 +12798,30 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>12.603813</v>
+        <v>17.48777</v>
       </c>
       <c r="E222" t="n">
-        <v>102.1022441</v>
+        <v>101.722455</v>
       </c>
       <c r="F222" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -12836,12 +12833,12 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12851,31 +12848,31 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>7.4782366</v>
+        <v>13.781466</v>
       </c>
       <c r="E223" t="n">
-        <v>99.6455411</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F223" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12893,12 +12890,12 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12908,31 +12905,31 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13.7322691</v>
+        <v>12.603813</v>
       </c>
       <c r="E224" t="n">
-        <v>100.5369166</v>
+        <v>102.1022441</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -12945,17 +12942,17 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12970,49 +12967,49 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>12.6821309</v>
+        <v>7.4782366</v>
       </c>
       <c r="E225" t="n">
-        <v>101.2763963</v>
+        <v>99.6455411</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13022,48 +13019,54 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>8.449477</v>
+        <v>13.7322691</v>
       </c>
       <c r="E226" t="n">
-        <v>98.52607500000001</v>
+        <v>100.5369166</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>0</v>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13073,31 +13076,31 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>15.4493884</v>
+        <v>12.6821309</v>
       </c>
       <c r="E227" t="n">
-        <v>101.0550581</v>
+        <v>101.2763963</v>
       </c>
       <c r="F227" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -13115,12 +13118,12 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13130,54 +13133,48 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>15.229853</v>
+        <v>8.449477</v>
       </c>
       <c r="E228" t="n">
-        <v>104.857271</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J228" t="n">
+        <v>0</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13192,26 +13189,26 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>13.7359364</v>
+        <v>15.4493884</v>
       </c>
       <c r="E229" t="n">
-        <v>100.5287473</v>
+        <v>101.0550581</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13229,12 +13226,12 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13249,19 +13246,19 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>13.8681928</v>
+        <v>15.229853</v>
       </c>
       <c r="E230" t="n">
-        <v>100.4829428</v>
+        <v>104.857271</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -13286,12 +13283,12 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13301,48 +13298,54 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>7.9250861</v>
+        <v>13.7359364</v>
       </c>
       <c r="E231" t="n">
-        <v>98.3075255</v>
+        <v>100.5287473</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
       </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>0</v>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13357,28 +13360,32 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2020-03-23 14:06</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>จังหวัดแพร่</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>18.1009878</v>
+        <v>13.8681928</v>
       </c>
       <c r="E232" t="n">
-        <v>100.2810275</v>
+        <v>100.4829428</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
       </c>
-      <c r="G232" t="n">
-        <v>0</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -13390,12 +13397,12 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13405,24 +13412,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 14:14</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบุรี</t>
+          <t>อาคาร The Ninth Towers ชั้น 30</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>99.94551869999999</v>
+        <v>13.758921</v>
       </c>
       <c r="E233" t="n">
-        <v>99.94551869999999</v>
+        <v>100.567832</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -13432,27 +13439,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H233" t="n">
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
+          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
+          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13462,24 +13467,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2020-03-23 15:30</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>13.6908986</v>
+        <v>7.9250861</v>
       </c>
       <c r="E234" t="n">
-        <v>102.5030711</v>
+        <v>98.3075255</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -13487,27 +13492,23 @@
       <c r="G234" t="n">
         <v>0</v>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H234" t="n">
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J234" t="n">
+        <v>0</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13517,37 +13518,35 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 15:34</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+          <t>จังหวัดตาก</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>13.8577378</v>
+        <v>16.902532</v>
       </c>
       <c r="E235" t="n">
-        <v>100.5360211</v>
+        <v>99.115815</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -13559,12 +13558,12 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+          <t>https://www.facebook.com/photo?fbid=1891909684274939&amp;set=pcb.1891909770941597</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -13574,24 +13573,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-03-23 17:36</t>
+          <t>2020-03-23 14:06</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+          <t>จังหวัดแพร่</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>14.6903685</v>
+        <v>18.1009878</v>
       </c>
       <c r="E236" t="n">
-        <v>100.8077161</v>
+        <v>100.2810275</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -13605,17 +13604,19 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>0</v>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
         </is>
       </c>
       <c r="M236" t="n">
@@ -13625,24 +13626,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-03-23 17:54</t>
+          <t>2020-03-23 14:14</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+          <t>จังหวัดเพชรบุรี</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>13.6783729</v>
+        <v>13.11181</v>
       </c>
       <c r="E237" t="n">
-        <v>100.5136153</v>
+        <v>99.945353</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -13657,24 +13658,22 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I237" t="n">
+        <v>0</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
         </is>
       </c>
       <c r="M237" t="n">
@@ -13684,52 +13683,52 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020-03-23 18:52</t>
+          <t>2020-03-23 15:30</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>6.1174893</v>
+        <v>13.6908986</v>
       </c>
       <c r="E238" t="n">
-        <v>101.7888233</v>
+        <v>102.5030711</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
         </is>
       </c>
       <c r="M238" t="n">
@@ -13739,54 +13738,54 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2020-03-23 22:22</t>
+          <t>2020-03-23 15:34</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>อาคารทรู ทาวเวอร์ 1</t>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>13.7625241</v>
+        <v>13.8577378</v>
       </c>
       <c r="E239" t="n">
-        <v>100.5677793</v>
+        <v>100.5360211</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -13801,19 +13800,19 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-03-24 09:53</t>
+          <t>2020-03-23 17:36</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>13.72624</v>
+        <v>14.6903685</v>
       </c>
       <c r="E240" t="n">
-        <v>100.526799</v>
+        <v>100.8077161</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -13832,12 +13831,12 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/ict/news-436572</t>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -13852,19 +13851,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2020-03-24 16:46</t>
+          <t>2020-03-23 17:54</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>13.0911754</v>
+        <v>13.6783729</v>
       </c>
       <c r="E241" t="n">
-        <v>100.9027354</v>
+        <v>100.5136153</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -13879,26 +13878,643 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/motoring/news-436958</t>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>239</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2020-03-23 18:52</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>6.1174893</v>
+      </c>
+      <c r="E242" t="n">
+        <v>101.7888233</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2020-03-23 22:22</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>อาคารทรู ทาวเวอร์ 1</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>13.7625241</v>
+      </c>
+      <c r="E243" t="n">
+        <v>100.5677793</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2020-03-24 06:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>จังหวัดสงขลา</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>7.197264</v>
+      </c>
+      <c r="E244" t="n">
+        <v>100.592928</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ยอดผู้ป่วยจังหวัดสงขลา เพิ่มเป็น 18 ราย เป็นชาวสงขลา 13 ราย และต่างจังหวัด 5 ราย กลับจากเข้าร่วมพิธีทางศาสนาที่มาเลเซียและที่สนามมวย กรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo?fbid=2894508087296071&amp;set=a.107256766021231</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>จังหวัดจันทบุรี</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>12.594541</v>
+      </c>
+      <c r="E245" t="n">
+        <v>102.093009</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุขจันทบุรี พบผู้ติดเชื้อรายที่ 2 อาชีพรถขับ-ส่ง นักท่องเที่ยว</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo?fbid=1442835212565642&amp;set=a.240477356134773</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>อำเภอมหาราช จังหวัดพระนครศรีอยุธยา</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>14.566764</v>
+      </c>
+      <c r="E246" t="n">
+        <v>100.519318</v>
+      </c>
+      <c r="F246" t="n">
+        <v>58</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผลตรวจยืนยันโควิด-19 ผู้ป่วยมีภูมิลำเนาอำเภอมหาราช จังหวัดพระนครศรีอยุธยา ตรวจที่สถาบันบำราศนราดูร วันที่ 23 มีนาคม 2563 และเริ่มป่วยตั้งแต่ 16 มีนาคม 2563</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>https://scontent.fbkk12-3.fna.fbcdn.net/v/t1.15752-0/p480x480/90999310_1357385664444783_4657494318540390400_n.jpg?_nc_cat=102&amp;_nc_sid=b96e70&amp;_nc_ohc=ToU9y8qnCDcAX8lOkia&amp;_nc_ht=scontent.fbkk12-3.fna&amp;_nc_tp=6&amp;oh=e082301db359ed73596f8a27a6fd1f32&amp;oe=5E9E93B1</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:53</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>13.72624</v>
+      </c>
+      <c r="E247" t="n">
+        <v>100.526799</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/ict/news-436572</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2020-03-24 16:46</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>13.0911754</v>
+      </c>
+      <c r="E248" t="n">
+        <v>100.9027354</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/motoring/news-436958</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2020-03-24 16:51</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>จังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>19.9007421</v>
+      </c>
+      <c r="E249" t="n">
+        <v>99.829194</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2020-03-24 19:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>จังหวัดอยุธยา</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>14.3532127</v>
+      </c>
+      <c r="E250" t="n">
+        <v>100.56896</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุขอยุธยา พบผู้ป่วยติดเชื้อ 1 รายในอำเภอแห่งหนึ่ง ขณะนี้เข้ารับการรักษาอยู่ที่ รพ. ในกรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo.php?fbid=1702103989932241&amp;set=a.1280801768729134&amp;type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2020-03-24 19:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ธ.กรุงไทย สาขาสามแยกปักธงชัย</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>14.9583324</v>
+      </c>
+      <c r="E251" t="n">
+        <v>102.0480826</v>
+      </c>
+      <c r="F251" t="n">
+        <v>38</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) จนท.นับเงิน ธ.กรุงไทย สาขาสามแยกปักธงชัย ติดเชื้อรายเพิ่ม 1 ราย ล่าสุดรวม 6 ราย (,มีประวัติใกล้ชิดผู้ป่วยรายที่ 5) และเร่งตามกลุ่มเสี่ยง 101 คน อ.ประทาย และ อ.บ้านแฮด จ.ขอนแก่น เข้าระบบคัดกรอง</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>https://www.nationtv.tv/main/content/378767258/?qj=</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E252" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F252" t="n">
+        <v>43</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6807,8 +6807,10 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10407,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10445,12 +10447,13 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) บริษัทฮาร์เบอร์ ออฟฟิศ ได้รับแจ้งจากบริษัทรู้ใจ เซอร์วิส จำกัดว่ามีพนักงานของบริษัท 1 ท่านได้สัมผัสใกล้ชิดกับผู้ป่วยติดเชื้อโควิด-19 ปัจจุบันได้สั่งกักตัวแล้ว</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/HarborOffice/photos/pcb.1072811759738968/1072863003067177/?type=3&amp;theater</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -11067,30 +11070,32 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>14.527356</v>
+        <v>13.743099</v>
       </c>
       <c r="E191" t="n">
-        <v>100.910644</v>
+        <v>100.588946</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="n">
-        <v>0</v>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11105,12 +11110,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11130,14 +11135,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>7.888859</v>
+        <v>14.527356</v>
       </c>
       <c r="E192" t="n">
-        <v>98.39840599999999</v>
+        <v>100.910644</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11158,12 +11163,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11173,7 +11178,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11183,44 +11188,40 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>19.690448</v>
+        <v>7.888859</v>
       </c>
       <c r="E193" t="n">
-        <v>100.176291</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F193" t="n">
-        <v>35</v>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11230,31 +11231,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>16.442351</v>
+        <v>19.690448</v>
       </c>
       <c r="E194" t="n">
-        <v>102.835978</v>
+        <v>100.176291</v>
       </c>
       <c r="F194" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11267,17 +11268,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11292,26 +11293,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>14.127509</v>
+        <v>16.442351</v>
       </c>
       <c r="E195" t="n">
-        <v>101.654682</v>
+        <v>102.835978</v>
       </c>
       <c r="F195" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11319,10 +11320,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I195" t="n">
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11331,12 +11330,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11346,38 +11345,42 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>18.789733</v>
+        <v>14.127509</v>
       </c>
       <c r="E196" t="n">
-        <v>98.974171</v>
+        <v>101.654682</v>
       </c>
       <c r="F196" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11386,12 +11389,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11411,20 +11414,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>9.124031</v>
+        <v>18.789733</v>
       </c>
       <c r="E197" t="n">
-        <v>99.309859</v>
+        <v>98.974171</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11439,12 +11444,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11454,7 +11459,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11464,27 +11469,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>16.426912</v>
+        <v>9.124031</v>
       </c>
       <c r="E198" t="n">
-        <v>101.153556</v>
+        <v>99.309859</v>
       </c>
       <c r="F198" t="n">
-        <v>47</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11496,12 +11497,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11511,7 +11512,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11521,23 +11522,27 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>13.730586</v>
+        <v>16.426912</v>
       </c>
       <c r="E199" t="n">
-        <v>100.513634</v>
+        <v>101.153556</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11549,12 +11554,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11564,7 +11569,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11574,22 +11579,20 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.74596</v>
+        <v>13.730586</v>
       </c>
       <c r="E200" t="n">
-        <v>100.540751</v>
+        <v>100.513634</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G200" t="n">
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11599,17 +11602,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11619,7 +11622,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11629,14 +11632,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.667345</v>
+        <v>13.74596</v>
       </c>
       <c r="E201" t="n">
-        <v>100.650481</v>
+        <v>100.540751</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11654,17 +11657,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11674,30 +11677,32 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>14.836452</v>
+        <v>13.667345</v>
       </c>
       <c r="E202" t="n">
-        <v>103.476803</v>
+        <v>100.650481</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="n">
-        <v>0</v>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11712,12 +11717,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11727,7 +11732,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11737,22 +11742,20 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>17.198818</v>
+        <v>14.836452</v>
       </c>
       <c r="E203" t="n">
-        <v>102.457285</v>
+        <v>103.476803</v>
       </c>
       <c r="F203" t="n">
-        <v>38</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11767,12 +11770,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11782,31 +11785,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>13.731984</v>
+        <v>17.198818</v>
       </c>
       <c r="E204" t="n">
-        <v>100.57661</v>
+        <v>102.457285</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11817,17 +11820,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11842,37 +11845,33 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.746522</v>
+        <v>13.731984</v>
       </c>
       <c r="E205" t="n">
-        <v>100.529104</v>
+        <v>100.57661</v>
       </c>
       <c r="F205" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -11881,12 +11880,12 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11896,50 +11895,56 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>18.789733</v>
+        <v>13.746522</v>
       </c>
       <c r="E206" t="n">
-        <v>98.974171</v>
+        <v>100.529104</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11959,22 +11964,20 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>13.783453</v>
+        <v>18.789733</v>
       </c>
       <c r="E207" t="n">
-        <v>100.546504</v>
+        <v>98.974171</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G207" t="n">
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11989,12 +11992,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12004,56 +12007,52 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6.3472894</v>
+        <v>13.783453</v>
       </c>
       <c r="E208" t="n">
-        <v>101.7637775</v>
+        <v>100.546504</v>
       </c>
       <c r="F208" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12063,56 +12062,50 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>6.3768399</v>
+        <v>13.694593</v>
       </c>
       <c r="E209" t="n">
-        <v>101.8409443</v>
+        <v>99.851686</v>
       </c>
       <c r="F209" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
           <t>unknown</t>
         </is>
       </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12127,25 +12120,27 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>14.984919</v>
+        <v>6.3472894</v>
       </c>
       <c r="E210" t="n">
-        <v>102.103547</v>
+        <v>101.7637775</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -12154,22 +12149,22 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -12179,50 +12174,56 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>13.757503</v>
+        <v>6.3768399</v>
       </c>
       <c r="E211" t="n">
-        <v>100.56122</v>
+        <v>101.8409443</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12232,38 +12233,40 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>13.547414</v>
+        <v>14.984919</v>
       </c>
       <c r="E212" t="n">
-        <v>100.273464</v>
+        <v>102.103547</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12272,12 +12275,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12287,54 +12290,50 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>16.8080697</v>
+        <v>13.757503</v>
       </c>
       <c r="E213" t="n">
-        <v>100.2945489</v>
+        <v>100.56122</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12349,32 +12348,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>19.9007421</v>
+        <v>13.547414</v>
       </c>
       <c r="E214" t="n">
-        <v>99.829194</v>
+        <v>100.273464</v>
       </c>
       <c r="F214" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -12386,12 +12383,12 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12401,31 +12398,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>17.414934</v>
+        <v>16.8080697</v>
       </c>
       <c r="E215" t="n">
-        <v>102.780286</v>
+        <v>100.2945489</v>
       </c>
       <c r="F215" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12433,24 +12430,22 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I215" t="n">
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12460,27 +12455,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>17.381135</v>
+        <v>19.9007421</v>
       </c>
       <c r="E216" t="n">
-        <v>102.57471</v>
+        <v>99.829194</v>
       </c>
       <c r="F216" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -12492,10 +12487,8 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I216" t="n">
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12504,12 +12497,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12529,30 +12522,32 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>12.6079491</v>
+        <v>17.414934</v>
       </c>
       <c r="E217" t="n">
-        <v>99.94803760000001</v>
+        <v>102.780286</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Thai , British</t>
-        </is>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -12561,12 +12556,12 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M217" t="n">
@@ -12576,48 +12571,56 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>14.071779</v>
+        <v>17.381135</v>
       </c>
       <c r="E218" t="n">
-        <v>100.632851</v>
+        <v>102.57471</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12627,35 +12630,37 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>7.006991</v>
+        <v>12.6079491</v>
       </c>
       <c r="E219" t="n">
-        <v>100.643068</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Thai , British</t>
+        </is>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -12667,12 +12672,12 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12682,32 +12687,30 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>17.48777</v>
+        <v>14.071779</v>
       </c>
       <c r="E220" t="n">
-        <v>101.722455</v>
+        <v>100.632851</v>
       </c>
       <c r="F220" t="n">
-        <v>22</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12715,19 +12718,17 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J220" t="n">
+        <v>0</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12737,54 +12738,52 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>13.781466</v>
+        <v>7.006991</v>
       </c>
       <c r="E221" t="n">
-        <v>99.74632010000001</v>
+        <v>100.643068</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12799,32 +12798,30 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>12.603813</v>
+        <v>17.48777</v>
       </c>
       <c r="E222" t="n">
-        <v>102.1022441</v>
+        <v>101.722455</v>
       </c>
       <c r="F222" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -12836,12 +12833,12 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12851,31 +12848,31 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>7.4782366</v>
+        <v>13.781466</v>
       </c>
       <c r="E223" t="n">
-        <v>99.6455411</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F223" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12893,12 +12890,12 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12908,31 +12905,31 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13.7322691</v>
+        <v>12.603813</v>
       </c>
       <c r="E224" t="n">
-        <v>100.5369166</v>
+        <v>102.1022441</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -12945,17 +12942,17 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12970,49 +12967,49 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>12.6821309</v>
+        <v>7.4782366</v>
       </c>
       <c r="E225" t="n">
-        <v>101.2763963</v>
+        <v>99.6455411</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13022,48 +13019,54 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>8.449477</v>
+        <v>13.7322691</v>
       </c>
       <c r="E226" t="n">
-        <v>98.52607500000001</v>
+        <v>100.5369166</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>0</v>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13073,31 +13076,31 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>15.4493884</v>
+        <v>12.6821309</v>
       </c>
       <c r="E227" t="n">
-        <v>101.0550581</v>
+        <v>101.2763963</v>
       </c>
       <c r="F227" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -13115,12 +13118,12 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13130,54 +13133,48 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>15.229853</v>
+        <v>8.449477</v>
       </c>
       <c r="E228" t="n">
-        <v>104.857271</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J228" t="n">
+        <v>0</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13192,26 +13189,26 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>13.7359364</v>
+        <v>15.4493884</v>
       </c>
       <c r="E229" t="n">
-        <v>100.5287473</v>
+        <v>101.0550581</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13229,12 +13226,12 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13249,19 +13246,19 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>13.8681928</v>
+        <v>15.229853</v>
       </c>
       <c r="E230" t="n">
-        <v>100.4829428</v>
+        <v>104.857271</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -13286,12 +13283,12 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13301,48 +13298,54 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>7.9250861</v>
+        <v>13.7359364</v>
       </c>
       <c r="E231" t="n">
-        <v>98.3075255</v>
+        <v>100.5287473</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
       </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>0</v>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13357,28 +13360,32 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2020-03-23 14:06</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>จังหวัดแพร่</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>18.1009878</v>
+        <v>13.8681928</v>
       </c>
       <c r="E232" t="n">
-        <v>100.2810275</v>
+        <v>100.4829428</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
       </c>
-      <c r="G232" t="n">
-        <v>0</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -13390,12 +13397,12 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13405,24 +13412,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 14:14</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบุรี</t>
+          <t>อาคาร The Ninth Towers ชั้น 30</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>99.94551869999999</v>
+        <v>13.758921</v>
       </c>
       <c r="E233" t="n">
-        <v>99.94551869999999</v>
+        <v>100.567832</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -13432,27 +13439,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H233" t="n">
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
+          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
+          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13462,24 +13467,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2020-03-23 15:30</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>13.6908986</v>
+        <v>7.9250861</v>
       </c>
       <c r="E234" t="n">
-        <v>102.5030711</v>
+        <v>98.3075255</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -13487,27 +13492,23 @@
       <c r="G234" t="n">
         <v>0</v>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H234" t="n">
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J234" t="n">
+        <v>0</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13517,27 +13518,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 15:34</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+          <t>อำเภอแม่สอด จังหวัดตาก</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>13.8577378</v>
+        <v>16.719769</v>
       </c>
       <c r="E235" t="n">
-        <v>100.5360211</v>
+        <v>98.572627</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -13546,7 +13547,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I235" t="n">
@@ -13554,17 +13555,17 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+          <t>https://www.matichon.co.th/region/news_2083325</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -13574,24 +13575,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-03-23 17:36</t>
+          <t>2020-03-23 14:06</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+          <t>จังหวัดแพร่</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>14.6903685</v>
+        <v>18.1009878</v>
       </c>
       <c r="E236" t="n">
-        <v>100.8077161</v>
+        <v>100.2810275</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -13605,17 +13606,19 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>0</v>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
         </is>
       </c>
       <c r="M236" t="n">
@@ -13625,24 +13628,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-03-23 17:54</t>
+          <t>2020-03-23 14:14</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+          <t>จังหวัดเพชรบุรี</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>13.6783729</v>
+        <v>13.11181</v>
       </c>
       <c r="E237" t="n">
-        <v>100.5136153</v>
+        <v>99.945353</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -13657,24 +13660,22 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="I237" t="n">
+        <v>0</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
         </is>
       </c>
       <c r="M237" t="n">
@@ -13684,52 +13685,52 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020-03-23 18:52</t>
+          <t>2020-03-23 15:30</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>6.1174893</v>
+        <v>13.6908986</v>
       </c>
       <c r="E238" t="n">
-        <v>101.7888233</v>
+        <v>102.5030711</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
         </is>
       </c>
       <c r="M238" t="n">
@@ -13739,54 +13740,54 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2020-03-23 22:22</t>
+          <t>2020-03-23 15:34</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>อาคารทรู ทาวเวอร์ 1</t>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>13.7625241</v>
+        <v>13.8577378</v>
       </c>
       <c r="E239" t="n">
-        <v>100.5677793</v>
+        <v>100.5360211</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -13796,24 +13797,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-03-24 09:53</t>
+          <t>2020-03-23 17:04</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>โรงพยาบาลแม่สอดราม</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>13.72624</v>
+        <v>16.710895</v>
       </c>
       <c r="E240" t="n">
-        <v>100.526799</v>
+        <v>98.564061</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -13827,17 +13828,19 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>0</v>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+          <t>(ยืนยัน) ผู้ติดเชื้อCOVID-19 เป็นผู้ป่วยยืนยันของโรงพยาบาลแม่สอด ทางโรงพยาบาลแม่สอดราม ได้ทำความสะอาดฆ่าเชื้อด้วยวิธีมาตรฐานในทุกที่ที่ผู้ป่วยคนนี้สัมผัส ทันทีที่ผู้ป่วยรายนี้ถูกส่งตัวออกไป</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/ict/news-436572</t>
+          <t>https://www.facebook.com/1589835417932797/posts/2474728002776863/</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -13847,58 +13850,885 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2020-03-24 16:46</t>
+          <t>2020-03-23 17:36</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>13.0911754</v>
+        <v>14.6903685</v>
       </c>
       <c r="E241" t="n">
-        <v>100.9027354</v>
+        <v>100.8077161</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="J241" t="n">
+        <v>0</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/motoring/news-436958</t>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>239</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2020-03-23 17:54</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>13.6783729</v>
+      </c>
+      <c r="E242" t="n">
+        <v>100.5136153</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2020-03-23 18:52</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>จังหวัดนราธิวาส</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>6.1174893</v>
+      </c>
+      <c r="E243" t="n">
+        <v>101.7888233</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2020-03-23 22:22</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>อาคารทรู ทาวเวอร์ 1</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>13.7625241</v>
+      </c>
+      <c r="E244" t="n">
+        <v>100.5677793</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2020-03-24 06:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>จังหวัดสงขลา</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>7.197264</v>
+      </c>
+      <c r="E245" t="n">
+        <v>100.592928</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ยอดผู้ป่วยจังหวัดสงขลา เพิ่มเป็น 18 ราย เป็นชาวสงขลา 13 ราย และต่างจังหวัด 5 ราย กลับจากเข้าร่วมพิธีทางศาสนาที่มาเลเซียและที่สนามมวย กรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo?fbid=2894508087296071&amp;set=a.107256766021231</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>จังหวัดนนทบุรี</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>13.863355</v>
+      </c>
+      <c r="E246" t="n">
+        <v>100.513671</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์จังหวัดนนทบุรี 24 มีนาคม 2563 มีผู้ป่วยยืนยัน 30 คน หายแล้ว 2 คน ยังรักษาอยู่ 28 คน</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo/?fbid=640575793430440&amp;set=a.312199156268107</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>จังหวัดปราจีนบุรี</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>14.045423</v>
+      </c>
+      <c r="E247" t="n">
+        <v>101.368744</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) จังหวัดปราจีนบุรี พบผู้ติดโควิด-19 อีก 2 ราย อายุ43และ64ปี รวมปัจจุบันเป็น 3 ราย</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1594829844145694/videos/280283009622389/</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>จังหวัดจันทบุรี</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>12.594541</v>
+      </c>
+      <c r="E248" t="n">
+        <v>102.093009</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุขจันทบุรี พบผู้ติดเชื้อรายที่ 2 อาชีพรถขับ-ส่ง นักท่องเที่ยว</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo?fbid=1442835212565642&amp;set=a.240477356134773</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>อำเภอมหาราช จังหวัดพระนครศรีอยุธยา</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>14.566764</v>
+      </c>
+      <c r="E249" t="n">
+        <v>100.519318</v>
+      </c>
+      <c r="F249" t="n">
+        <v>58</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ผลตรวจยืนยันโควิด-19 ผู้ป่วยมีภูมิลำเนาอำเภอมหาราช จังหวัดพระนครศรีอยุธยา ตรวจที่สถาบันบำราศนราดูร วันที่ 23 มีนาคม 2563 และเริ่มป่วยตั้งแต่ 16 มีนาคม 2563</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>https://scontent.fbkk12-3.fna.fbcdn.net/v/t1.15752-0/p480x480/90999310_1357385664444783_4657494318540390400_n.jpg?_nc_cat=102&amp;_nc_sid=b96e70&amp;_nc_ohc=ToU9y8qnCDcAX8lOkia&amp;_nc_ht=scontent.fbkk12-3.fna&amp;_nc_tp=6&amp;oh=e082301db359ed73596f8a27a6fd1f32&amp;oe=5E9E93B1</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>fake_news</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2020-03-24 09:53</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>13.72624</v>
+      </c>
+      <c r="E250" t="n">
+        <v>100.526799</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/ict/news-436572</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2020-03-24 11:29</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>จังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>7.888747</v>
+      </c>
+      <c r="E251" t="n">
+        <v>98.39841</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ภูเก็ตพบผู้ติดเชื้อโควิด-19 รายใหม่เพิ่มขึ้น 9 ราย รวมยอดสะสมแล้ว 26 ราย ทุกรายอาการอยู่ในเกณฑ์ดี ไม่มีอาการรุนแรง</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/NewshawkPhuket/photos/a.1582338055349378/2531978563718651/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2020-03-24 16:46</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>13.0911754</v>
+      </c>
+      <c r="E252" t="n">
+        <v>100.9027354</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>https://www.prachachat.net/motoring/news-436958</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2020-03-24 16:51</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>จังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>19.9007421</v>
+      </c>
+      <c r="E253" t="n">
+        <v>99.829194</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2020-03-24 19:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>จังหวัดอยุธยา</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>14.3532127</v>
+      </c>
+      <c r="E254" t="n">
+        <v>100.56896</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>transferred</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สาธารณะสุขอยุธยา พบผู้ป่วยติดเชื้อ 1 รายในอำเภอแห่งหนึ่ง ขณะนี้เข้ารับการรักษาอยู่ที่ รพ. ในกรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo.php?fbid=1702103989932241&amp;set=a.1280801768729134&amp;type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2020-03-24 19:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>ธ.กรุงไทย สาขาสามแยกปักธงชัย</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>14.9583324</v>
+      </c>
+      <c r="E255" t="n">
+        <v>102.0480826</v>
+      </c>
+      <c r="F255" t="n">
+        <v>38</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) จนท.นับเงิน ธ.กรุงไทย สาขาสามแยกปักธงชัย ติดเชื้อรายเพิ่ม 1 ราย ล่าสุดรวม 6 ราย (,มีประวัติใกล้ชิดผู้ป่วยรายที่ 5) และเร่งตามกลุ่มเสี่ยง 101 คน อ.ประทาย และ อ.บ้านแฮด จ.ขอนแก่น เข้าระบบคัดกรอง</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>https://www.nationtv.tv/main/content/378767258/?qj=</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E256" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F256" t="n">
+        <v>43</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10409,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10419,14 +10419,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.079526</v>
+        <v>13.612125</v>
       </c>
       <c r="E179" t="n">
-        <v>100.921558</v>
+        <v>101.328831</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10442,18 +10442,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
-พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10463,7 +10462,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10473,26 +10472,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.612125</v>
+        <v>14.838629</v>
       </c>
       <c r="E180" t="n">
-        <v>101.328831</v>
+        <v>104.682512</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10501,12 +10506,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10516,42 +10521,38 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14.838629</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>104.682512</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10560,12 +10561,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10585,21 +10586,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.735879000000001</v>
+        <v>13.752392</v>
       </c>
       <c r="E182" t="n">
-        <v>99.99124999999999</v>
+        <v>100.663796</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10615,12 +10616,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10640,14 +10641,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.752392</v>
+        <v>13.89878</v>
       </c>
       <c r="E183" t="n">
-        <v>100.663796</v>
+        <v>100.545152</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10670,12 +10671,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10690,19 +10691,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.89878</v>
+        <v>13.73697</v>
       </c>
       <c r="E184" t="n">
-        <v>100.545152</v>
+        <v>100.641787</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10725,12 +10726,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10740,32 +10741,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13.73697</v>
+        <v>12.706901</v>
       </c>
       <c r="E185" t="n">
-        <v>100.641787</v>
+        <v>101.183109</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10780,12 +10779,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10795,24 +10794,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.706901</v>
+        <v>13.853877</v>
       </c>
       <c r="E186" t="n">
-        <v>101.183109</v>
+        <v>100.859128</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10833,12 +10832,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10848,7 +10847,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10858,14 +10857,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.853877</v>
+        <v>13.863389</v>
       </c>
       <c r="E187" t="n">
-        <v>100.859128</v>
+        <v>100.51366</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10886,12 +10885,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10901,30 +10900,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 17:30</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.863389</v>
+        <v>13.908185</v>
       </c>
       <c r="E188" t="n">
-        <v>100.51366</v>
+        <v>99.767413</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188" t="n">
-        <v>0</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10938,70 +10939,74 @@
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:30</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>โรงพยาบาลมะการักษ์</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>13.908185</v>
-      </c>
-      <c r="E189" t="n">
-        <v>99.767413</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E189" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11011,42 +11016,38 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-19 17:56</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15.004437</v>
+        <v>13.743099</v>
       </c>
       <c r="E190" t="n">
-        <v>103.112176</v>
+        <v>100.588946</v>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11055,12 +11056,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11070,32 +11071,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 09:00</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>13.743099</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>100.588946</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G191" t="n">
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11110,12 +11109,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11135,14 +11134,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.527356</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.910644</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11163,12 +11162,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11178,7 +11177,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11188,40 +11187,44 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>7.888859</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>98.39840599999999</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11231,31 +11234,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19.690448</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>100.176291</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11268,17 +11271,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11293,26 +11296,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>16.442351</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>102.835978</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11320,8 +11323,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11330,12 +11335,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11345,42 +11350,38 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>14.127509</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>101.654682</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11389,12 +11390,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11414,22 +11415,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18.789733</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>98.974171</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11444,12 +11443,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11459,7 +11458,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11469,23 +11468,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.124031</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>99.309859</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11497,12 +11500,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11512,7 +11515,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11522,27 +11525,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16.426912</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>101.153556</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
-        <v>47</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11554,12 +11553,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11569,7 +11568,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11579,20 +11578,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.730586</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.513634</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="n">
-        <v>0</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11602,17 +11603,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11622,7 +11623,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11632,14 +11633,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.74596</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>100.540751</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11657,17 +11658,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11677,32 +11678,30 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.667345</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>100.650481</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11717,12 +11716,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11732,7 +11731,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11742,20 +11741,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14.836452</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>103.476803</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11770,12 +11771,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,31 +11786,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>17.198818</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>102.457285</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11820,17 +11821,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11845,47 +11846,51 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.731984</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>100.57661</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11895,56 +11900,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.746522</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.529104</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11964,20 +11963,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.789733</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>98.974171</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11992,12 +11993,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12007,7 +12008,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12017,14 +12018,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13.783453</v>
+        <v>13.694593</v>
       </c>
       <c r="E208" t="n">
-        <v>100.546504</v>
+        <v>99.851686</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -12040,19 +12041,17 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J208" t="n">
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12062,50 +12061,56 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.694593</v>
+        <v>6.3472894</v>
       </c>
       <c r="E209" t="n">
-        <v>99.851686</v>
+        <v>101.7637775</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12129,13 +12134,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6.3472894</v>
+        <v>6.3768399</v>
       </c>
       <c r="E210" t="n">
-        <v>101.7637775</v>
+        <v>101.8409443</v>
       </c>
       <c r="F210" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -12159,7 +12164,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -12179,27 +12184,25 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6.3768399</v>
+        <v>14.984919</v>
       </c>
       <c r="E211" t="n">
-        <v>101.8409443</v>
+        <v>102.103547</v>
       </c>
       <c r="F211" t="n">
-        <v>41</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -12208,22 +12211,22 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12233,24 +12236,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14.984919</v>
+        <v>13.757503</v>
       </c>
       <c r="E212" t="n">
-        <v>102.103547</v>
+        <v>100.56122</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -12258,15 +12261,11 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12275,12 +12274,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12290,30 +12289,32 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>13.757503</v>
+        <v>13.547414</v>
       </c>
       <c r="E213" t="n">
-        <v>100.56122</v>
+        <v>100.273464</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
-      <c r="G213" t="n">
-        <v>0</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12328,12 +12329,12 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12343,24 +12344,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>13.547414</v>
+        <v>16.8080697</v>
       </c>
       <c r="E214" t="n">
-        <v>100.273464</v>
+        <v>100.2945489</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -12370,25 +12371,27 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12398,31 +12401,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>16.8080697</v>
+        <v>19.9007421</v>
       </c>
       <c r="E215" t="n">
-        <v>100.2945489</v>
+        <v>99.829194</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12435,17 +12438,17 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12460,22 +12463,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>19.9007421</v>
+        <v>17.414934</v>
       </c>
       <c r="E216" t="n">
-        <v>99.829194</v>
+        <v>102.780286</v>
       </c>
       <c r="F216" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -12487,8 +12490,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12497,12 +12502,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12512,7 +12517,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12522,14 +12527,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>17.414934</v>
+        <v>17.381135</v>
       </c>
       <c r="E217" t="n">
-        <v>102.780286</v>
+        <v>102.57471</v>
       </c>
       <c r="F217" t="n">
         <v>33</v>
@@ -12556,7 +12561,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -12571,7 +12576,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12581,32 +12586,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>17.381135</v>
+        <v>12.6079491</v>
       </c>
       <c r="E218" t="n">
-        <v>102.57471</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F218" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>Thai , British</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -12615,12 +12618,12 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12630,54 +12633,48 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>12.6079491</v>
+        <v>14.071779</v>
       </c>
       <c r="E219" t="n">
-        <v>99.94803760000001</v>
+        <v>100.632851</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Thai , British</t>
-        </is>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J219" t="n">
+        <v>0</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12687,30 +12684,32 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>14.071779</v>
+        <v>7.006991</v>
       </c>
       <c r="E220" t="n">
-        <v>100.632851</v>
+        <v>100.643068</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
-      <c r="G220" t="n">
-        <v>0</v>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12718,17 +12717,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>0</v>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12738,27 +12739,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>7.006991</v>
+        <v>17.48777</v>
       </c>
       <c r="E221" t="n">
-        <v>100.643068</v>
+        <v>101.722455</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -12778,12 +12779,12 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12798,47 +12799,49 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>17.48777</v>
+        <v>13.781466</v>
       </c>
       <c r="E222" t="n">
-        <v>101.722455</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F222" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12853,26 +12856,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>13.781466</v>
+        <v>12.603813</v>
       </c>
       <c r="E223" t="n">
-        <v>99.74632010000001</v>
+        <v>102.1022441</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12885,17 +12888,17 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12905,27 +12908,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>12.603813</v>
+        <v>7.4782366</v>
       </c>
       <c r="E224" t="n">
-        <v>102.1022441</v>
+        <v>99.6455411</v>
       </c>
       <c r="F224" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -12942,17 +12945,17 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12967,26 +12970,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>7.4782366</v>
+        <v>13.7322691</v>
       </c>
       <c r="E225" t="n">
-        <v>99.6455411</v>
+        <v>100.5369166</v>
       </c>
       <c r="F225" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -13004,12 +13007,12 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13024,26 +13027,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>13.7322691</v>
+        <v>12.6821309</v>
       </c>
       <c r="E226" t="n">
-        <v>100.5369166</v>
+        <v>101.2763963</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -13056,17 +13059,17 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13076,7 +13079,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13086,44 +13089,38 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>12.6821309</v>
+        <v>8.449477</v>
       </c>
       <c r="E227" t="n">
-        <v>101.2763963</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J227" t="n">
+        <v>0</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13133,48 +13130,54 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>8.449477</v>
+        <v>15.4493884</v>
       </c>
       <c r="E228" t="n">
-        <v>98.52607500000001</v>
+        <v>101.0550581</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>0</v>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13184,31 +13187,31 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>15.4493884</v>
+        <v>15.229853</v>
       </c>
       <c r="E229" t="n">
-        <v>101.0550581</v>
+        <v>104.857271</v>
       </c>
       <c r="F229" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13221,17 +13224,17 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13241,24 +13244,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15.229853</v>
+        <v>13.7359364</v>
       </c>
       <c r="E230" t="n">
-        <v>104.857271</v>
+        <v>100.5287473</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -13278,17 +13281,17 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13298,7 +13301,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -13308,14 +13311,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>13.7359364</v>
+        <v>13.8681928</v>
       </c>
       <c r="E231" t="n">
-        <v>100.5287473</v>
+        <v>100.4829428</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -13335,17 +13338,17 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13355,7 +13358,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -13365,14 +13368,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>อาคาร The Ninth Towers ชั้น 30</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13.8681928</v>
+        <v>13.758921</v>
       </c>
       <c r="E232" t="n">
-        <v>100.4829428</v>
+        <v>100.567832</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -13382,27 +13385,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H232" t="n">
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13412,32 +13413,30 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>อาคาร The Ninth Towers ชั้น 30</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13.758921</v>
+        <v>7.9250861</v>
       </c>
       <c r="E233" t="n">
-        <v>100.567832</v>
+        <v>98.3075255</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G233" t="n">
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13445,19 +13444,17 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J233" t="n">
+        <v>0</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13477,38 +13474,44 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>อำเภอแม่สอด จังหวัดตาก</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>7.9250861</v>
+        <v>16.719769</v>
       </c>
       <c r="E234" t="n">
-        <v>98.3075255</v>
+        <v>98.572627</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.matichon.co.th/region/news_2083325</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13518,54 +13521,51 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 12:30</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>อำเภอแม่สอด จังหวัดตาก</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16.719769</v>
+        <v>13.079526</v>
       </c>
       <c r="E235" t="n">
-        <v>98.572627</v>
+        <v>100.921558</v>
       </c>
       <c r="F235" t="n">
-        <v>38</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2083325</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -14677,37 +14677,35 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-03-25 11:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>จังหวัดพิษณุโลก</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16.808342</v>
+        <v>13.784392</v>
       </c>
       <c r="E256" t="n">
-        <v>100.263524</v>
+        <v>100.547092</v>
       </c>
       <c r="F256" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14719,16 +14717,126 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E257" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F257" t="n">
+        <v>43</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>13.694595</v>
+      </c>
+      <c r="E258" t="n">
+        <v>99.85168299999999</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10409,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10419,14 +10419,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.079526</v>
+        <v>13.612125</v>
       </c>
       <c r="E179" t="n">
-        <v>100.921558</v>
+        <v>101.328831</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10442,18 +10442,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
-พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10463,7 +10462,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10473,26 +10472,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.612125</v>
+        <v>14.838629</v>
       </c>
       <c r="E180" t="n">
-        <v>101.328831</v>
+        <v>104.682512</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10501,12 +10506,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10516,42 +10521,38 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14.838629</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>104.682512</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10560,12 +10561,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10585,21 +10586,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.735879000000001</v>
+        <v>13.752392</v>
       </c>
       <c r="E182" t="n">
-        <v>99.99124999999999</v>
+        <v>100.663796</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10615,12 +10616,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10640,14 +10641,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.752392</v>
+        <v>13.89878</v>
       </c>
       <c r="E183" t="n">
-        <v>100.663796</v>
+        <v>100.545152</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10670,12 +10671,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10690,19 +10691,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.89878</v>
+        <v>13.73697</v>
       </c>
       <c r="E184" t="n">
-        <v>100.545152</v>
+        <v>100.641787</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10725,12 +10726,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10740,32 +10741,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13.73697</v>
+        <v>12.706901</v>
       </c>
       <c r="E185" t="n">
-        <v>100.641787</v>
+        <v>101.183109</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10780,12 +10779,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10795,24 +10794,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.706901</v>
+        <v>13.853877</v>
       </c>
       <c r="E186" t="n">
-        <v>101.183109</v>
+        <v>100.859128</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10833,12 +10832,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10848,7 +10847,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10858,14 +10857,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.853877</v>
+        <v>13.863389</v>
       </c>
       <c r="E187" t="n">
-        <v>100.859128</v>
+        <v>100.51366</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10886,12 +10885,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10901,30 +10900,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 17:30</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.863389</v>
+        <v>13.908185</v>
       </c>
       <c r="E188" t="n">
-        <v>100.51366</v>
+        <v>99.767413</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188" t="n">
-        <v>0</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10938,70 +10939,74 @@
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:30</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>โรงพยาบาลมะการักษ์</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>13.908185</v>
-      </c>
-      <c r="E189" t="n">
-        <v>99.767413</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E189" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11011,42 +11016,38 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-19 17:56</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15.004437</v>
+        <v>13.743099</v>
       </c>
       <c r="E190" t="n">
-        <v>103.112176</v>
+        <v>100.588946</v>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11055,12 +11056,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11070,32 +11071,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 09:00</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>13.743099</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>100.588946</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G191" t="n">
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11110,12 +11109,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11135,14 +11134,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.527356</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.910644</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11163,12 +11162,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11178,7 +11177,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11188,40 +11187,44 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>7.888859</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>98.39840599999999</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11231,31 +11234,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19.690448</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>100.176291</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11268,17 +11271,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11293,26 +11296,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>16.442351</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>102.835978</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11320,8 +11323,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11330,12 +11335,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11345,42 +11350,38 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>14.127509</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>101.654682</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11389,12 +11390,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11414,22 +11415,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18.789733</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>98.974171</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11444,12 +11443,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11459,7 +11458,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11469,23 +11468,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.124031</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>99.309859</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11497,12 +11500,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11512,7 +11515,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11522,27 +11525,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16.426912</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>101.153556</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
-        <v>47</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11554,12 +11553,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11569,7 +11568,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11579,20 +11578,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.730586</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.513634</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="n">
-        <v>0</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11602,17 +11603,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11622,7 +11623,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11632,14 +11633,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.74596</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>100.540751</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11657,17 +11658,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11677,32 +11678,30 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.667345</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>100.650481</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11717,12 +11716,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11732,7 +11731,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11742,20 +11741,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14.836452</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>103.476803</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11770,12 +11771,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,31 +11786,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>17.198818</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>102.457285</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11820,17 +11821,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11845,47 +11846,51 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.731984</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>100.57661</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11895,56 +11900,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.746522</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.529104</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11964,20 +11963,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.789733</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>98.974171</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11992,12 +11993,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12007,7 +12008,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12017,14 +12018,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13.783453</v>
+        <v>13.694593</v>
       </c>
       <c r="E208" t="n">
-        <v>100.546504</v>
+        <v>99.851686</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -12040,19 +12041,17 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J208" t="n">
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12062,50 +12061,56 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.694593</v>
+        <v>6.3472894</v>
       </c>
       <c r="E209" t="n">
-        <v>99.851686</v>
+        <v>101.7637775</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12129,13 +12134,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6.3472894</v>
+        <v>6.3768399</v>
       </c>
       <c r="E210" t="n">
-        <v>101.7637775</v>
+        <v>101.8409443</v>
       </c>
       <c r="F210" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -12159,7 +12164,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -12179,27 +12184,25 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6.3768399</v>
+        <v>14.984919</v>
       </c>
       <c r="E211" t="n">
-        <v>101.8409443</v>
+        <v>102.103547</v>
       </c>
       <c r="F211" t="n">
-        <v>41</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -12208,22 +12211,22 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12233,24 +12236,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14.984919</v>
+        <v>13.757503</v>
       </c>
       <c r="E212" t="n">
-        <v>102.103547</v>
+        <v>100.56122</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -12258,15 +12261,11 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12275,12 +12274,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12290,30 +12289,32 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>13.757503</v>
+        <v>13.547414</v>
       </c>
       <c r="E213" t="n">
-        <v>100.56122</v>
+        <v>100.273464</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
-      <c r="G213" t="n">
-        <v>0</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12328,12 +12329,12 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12343,24 +12344,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>13.547414</v>
+        <v>16.8080697</v>
       </c>
       <c r="E214" t="n">
-        <v>100.273464</v>
+        <v>100.2945489</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -12370,25 +12371,27 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12398,31 +12401,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>16.8080697</v>
+        <v>19.9007421</v>
       </c>
       <c r="E215" t="n">
-        <v>100.2945489</v>
+        <v>99.829194</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12435,17 +12438,17 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12460,22 +12463,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>19.9007421</v>
+        <v>17.414934</v>
       </c>
       <c r="E216" t="n">
-        <v>99.829194</v>
+        <v>102.780286</v>
       </c>
       <c r="F216" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -12487,8 +12490,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12497,12 +12502,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12512,7 +12517,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12522,14 +12527,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>17.414934</v>
+        <v>17.381135</v>
       </c>
       <c r="E217" t="n">
-        <v>102.780286</v>
+        <v>102.57471</v>
       </c>
       <c r="F217" t="n">
         <v>33</v>
@@ -12556,7 +12561,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -12571,7 +12576,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12581,32 +12586,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>17.381135</v>
+        <v>12.6079491</v>
       </c>
       <c r="E218" t="n">
-        <v>102.57471</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F218" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>Thai , British</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -12615,12 +12618,12 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12630,54 +12633,48 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>12.6079491</v>
+        <v>14.071779</v>
       </c>
       <c r="E219" t="n">
-        <v>99.94803760000001</v>
+        <v>100.632851</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Thai , British</t>
-        </is>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J219" t="n">
+        <v>0</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12687,30 +12684,32 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>14.071779</v>
+        <v>7.006991</v>
       </c>
       <c r="E220" t="n">
-        <v>100.632851</v>
+        <v>100.643068</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
-      <c r="G220" t="n">
-        <v>0</v>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12718,17 +12717,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>0</v>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12738,27 +12739,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>7.006991</v>
+        <v>17.48777</v>
       </c>
       <c r="E221" t="n">
-        <v>100.643068</v>
+        <v>101.722455</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -12778,12 +12779,12 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12798,47 +12799,49 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>17.48777</v>
+        <v>13.781466</v>
       </c>
       <c r="E222" t="n">
-        <v>101.722455</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F222" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12853,26 +12856,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>13.781466</v>
+        <v>12.603813</v>
       </c>
       <c r="E223" t="n">
-        <v>99.74632010000001</v>
+        <v>102.1022441</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12885,17 +12888,17 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12905,27 +12908,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>12.603813</v>
+        <v>7.4782366</v>
       </c>
       <c r="E224" t="n">
-        <v>102.1022441</v>
+        <v>99.6455411</v>
       </c>
       <c r="F224" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -12942,17 +12945,17 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12967,26 +12970,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>7.4782366</v>
+        <v>13.7322691</v>
       </c>
       <c r="E225" t="n">
-        <v>99.6455411</v>
+        <v>100.5369166</v>
       </c>
       <c r="F225" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -13004,12 +13007,12 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13024,26 +13027,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>13.7322691</v>
+        <v>12.6821309</v>
       </c>
       <c r="E226" t="n">
-        <v>100.5369166</v>
+        <v>101.2763963</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -13056,17 +13059,17 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13076,7 +13079,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13086,44 +13089,38 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>12.6821309</v>
+        <v>8.449477</v>
       </c>
       <c r="E227" t="n">
-        <v>101.2763963</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J227" t="n">
+        <v>0</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13133,48 +13130,54 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>8.449477</v>
+        <v>15.4493884</v>
       </c>
       <c r="E228" t="n">
-        <v>98.52607500000001</v>
+        <v>101.0550581</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>0</v>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13184,31 +13187,31 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>15.4493884</v>
+        <v>15.229853</v>
       </c>
       <c r="E229" t="n">
-        <v>101.0550581</v>
+        <v>104.857271</v>
       </c>
       <c r="F229" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13221,17 +13224,17 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13241,24 +13244,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15.229853</v>
+        <v>13.7359364</v>
       </c>
       <c r="E230" t="n">
-        <v>104.857271</v>
+        <v>100.5287473</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -13278,17 +13281,17 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13298,7 +13301,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -13308,14 +13311,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>13.7359364</v>
+        <v>13.8681928</v>
       </c>
       <c r="E231" t="n">
-        <v>100.5287473</v>
+        <v>100.4829428</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -13335,17 +13338,17 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13355,7 +13358,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -13365,14 +13368,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>อาคาร The Ninth Towers ชั้น 30</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13.8681928</v>
+        <v>13.758921</v>
       </c>
       <c r="E232" t="n">
-        <v>100.4829428</v>
+        <v>100.567832</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -13382,27 +13385,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H232" t="n">
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13412,32 +13413,30 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>อาคาร The Ninth Towers ชั้น 30</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13.758921</v>
+        <v>7.9250861</v>
       </c>
       <c r="E233" t="n">
-        <v>100.567832</v>
+        <v>98.3075255</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G233" t="n">
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13445,19 +13444,17 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J233" t="n">
+        <v>0</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13477,38 +13474,44 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>อำเภอแม่สอด จังหวัดตาก</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>7.9250861</v>
+        <v>16.719769</v>
       </c>
       <c r="E234" t="n">
-        <v>98.3075255</v>
+        <v>98.572627</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.matichon.co.th/region/news_2083325</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13518,54 +13521,51 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 12:30</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>อำเภอแม่สอด จังหวัดตาก</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16.719769</v>
+        <v>13.079526</v>
       </c>
       <c r="E235" t="n">
-        <v>98.572627</v>
+        <v>100.921558</v>
       </c>
       <c r="F235" t="n">
-        <v>38</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2083325</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -14677,37 +14677,35 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-03-25 11:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>จังหวัดพิษณุโลก</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16.808342</v>
+        <v>13.784392</v>
       </c>
       <c r="E256" t="n">
-        <v>100.263524</v>
+        <v>100.547092</v>
       </c>
       <c r="F256" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14719,16 +14717,283 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E257" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F257" t="n">
+        <v>43</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:30</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>17.700635</v>
+      </c>
+      <c r="E258" t="n">
+        <v>103.260393</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2020-03-25 12:15</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>13.690881</v>
+      </c>
+      <c r="E259" t="n">
+        <v>102.502987</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นายแพทย์สาธารณสุขจังหวัดสระแก้ว แถลงยอดผู้ป่วยโควิด-19 ยืนยันเพิ่มอีก 4 ราย รวม 6 ราย มีผู้ป่วยเข้าเกณฑ์เฝ้าระวังสะสม 80 ราย</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/170117163028534/posts/3837455822961298/?d=n</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>13.694595</v>
+      </c>
+      <c r="E260" t="n">
+        <v>99.85168299999999</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ป็อปปูล่าคอนโดมิเนียมเมืองทอง อาคาร T7</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>13.916628</v>
+      </c>
+      <c r="E261" t="n">
+        <v>100.556343</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้พักอาศัยภายในอาคารติดเชื้อโควิด-19 ได้มีการรับตัวไปรักษาพยาบาลแล้ว ทั้งนี้ได้จัดส่งทีม M safe เข้าทำความสะอาดพื้นผิวสัมผลทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>https://scontent.xx.fbcdn.net/v/t1.15752-0/p480x480/90595301_508386916511507_1934201512020410368_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=BZOeswqbAjAAX-cylUd&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zor=9&amp;_nc_ht=scontent.xx&amp;_nc_tp=6&amp;oh=aa63b0c7a33dc3d4a8ec9602f1cfa530&amp;oe=5EA2A917</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10409,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10419,14 +10419,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.079526</v>
+        <v>13.612125</v>
       </c>
       <c r="E179" t="n">
-        <v>100.921558</v>
+        <v>101.328831</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10442,18 +10442,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
-พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10463,7 +10462,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10473,26 +10472,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.612125</v>
+        <v>14.838629</v>
       </c>
       <c r="E180" t="n">
-        <v>101.328831</v>
+        <v>104.682512</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10501,12 +10506,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10516,42 +10521,38 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14.838629</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>104.682512</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10560,12 +10561,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10585,21 +10586,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.735879000000001</v>
+        <v>13.752392</v>
       </c>
       <c r="E182" t="n">
-        <v>99.99124999999999</v>
+        <v>100.663796</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10615,12 +10616,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10640,14 +10641,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.752392</v>
+        <v>13.89878</v>
       </c>
       <c r="E183" t="n">
-        <v>100.663796</v>
+        <v>100.545152</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10670,12 +10671,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10690,19 +10691,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.89878</v>
+        <v>13.73697</v>
       </c>
       <c r="E184" t="n">
-        <v>100.545152</v>
+        <v>100.641787</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10725,12 +10726,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10740,32 +10741,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13.73697</v>
+        <v>12.706901</v>
       </c>
       <c r="E185" t="n">
-        <v>100.641787</v>
+        <v>101.183109</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10780,12 +10779,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10795,24 +10794,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.706901</v>
+        <v>13.853877</v>
       </c>
       <c r="E186" t="n">
-        <v>101.183109</v>
+        <v>100.859128</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10833,12 +10832,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10848,7 +10847,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10858,14 +10857,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.853877</v>
+        <v>13.863389</v>
       </c>
       <c r="E187" t="n">
-        <v>100.859128</v>
+        <v>100.51366</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10886,12 +10885,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10901,30 +10900,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 17:30</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.863389</v>
+        <v>13.908185</v>
       </c>
       <c r="E188" t="n">
-        <v>100.51366</v>
+        <v>99.767413</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188" t="n">
-        <v>0</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10938,70 +10939,74 @@
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:30</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>โรงพยาบาลมะการักษ์</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>13.908185</v>
-      </c>
-      <c r="E189" t="n">
-        <v>99.767413</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E189" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11011,42 +11016,38 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-19 17:56</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15.004437</v>
+        <v>13.743099</v>
       </c>
       <c r="E190" t="n">
-        <v>103.112176</v>
+        <v>100.588946</v>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11055,12 +11056,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11070,32 +11071,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 09:00</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>13.743099</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>100.588946</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G191" t="n">
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11110,12 +11109,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11135,14 +11134,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.527356</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.910644</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11163,12 +11162,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11178,7 +11177,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11188,40 +11187,44 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>7.888859</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>98.39840599999999</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11231,31 +11234,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19.690448</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>100.176291</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11268,17 +11271,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11293,26 +11296,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>16.442351</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>102.835978</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11320,8 +11323,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11330,12 +11335,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11345,42 +11350,38 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>14.127509</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>101.654682</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11389,12 +11390,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11414,22 +11415,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18.789733</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>98.974171</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11444,12 +11443,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11459,7 +11458,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11469,23 +11468,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.124031</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>99.309859</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11497,12 +11500,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11512,7 +11515,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11522,27 +11525,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16.426912</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>101.153556</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
-        <v>47</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11554,12 +11553,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11569,7 +11568,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11579,20 +11578,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.730586</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.513634</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="n">
-        <v>0</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11602,17 +11603,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11622,7 +11623,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11632,14 +11633,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.74596</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>100.540751</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11657,17 +11658,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11677,32 +11678,30 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.667345</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>100.650481</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11717,12 +11716,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11732,7 +11731,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11742,20 +11741,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14.836452</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>103.476803</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11770,12 +11771,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,31 +11786,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>17.198818</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>102.457285</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11820,17 +11821,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11845,47 +11846,51 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.731984</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>100.57661</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11895,56 +11900,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.746522</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.529104</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11964,20 +11963,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.789733</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>98.974171</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11992,12 +11993,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12007,7 +12008,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12017,14 +12018,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13.783453</v>
+        <v>13.694593</v>
       </c>
       <c r="E208" t="n">
-        <v>100.546504</v>
+        <v>99.851686</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -12040,19 +12041,17 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J208" t="n">
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12062,50 +12061,56 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.694593</v>
+        <v>6.3472894</v>
       </c>
       <c r="E209" t="n">
-        <v>99.851686</v>
+        <v>101.7637775</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12129,13 +12134,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6.3472894</v>
+        <v>6.3768399</v>
       </c>
       <c r="E210" t="n">
-        <v>101.7637775</v>
+        <v>101.8409443</v>
       </c>
       <c r="F210" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -12159,7 +12164,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -12179,27 +12184,25 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6.3768399</v>
+        <v>14.984919</v>
       </c>
       <c r="E211" t="n">
-        <v>101.8409443</v>
+        <v>102.103547</v>
       </c>
       <c r="F211" t="n">
-        <v>41</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -12208,22 +12211,22 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12233,24 +12236,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14.984919</v>
+        <v>13.757503</v>
       </c>
       <c r="E212" t="n">
-        <v>102.103547</v>
+        <v>100.56122</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -12258,15 +12261,11 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12275,12 +12274,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12290,30 +12289,32 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>13.757503</v>
+        <v>13.547414</v>
       </c>
       <c r="E213" t="n">
-        <v>100.56122</v>
+        <v>100.273464</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
-      <c r="G213" t="n">
-        <v>0</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12328,12 +12329,12 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12343,24 +12344,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>13.547414</v>
+        <v>16.8080697</v>
       </c>
       <c r="E214" t="n">
-        <v>100.273464</v>
+        <v>100.2945489</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -12370,25 +12371,27 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12398,31 +12401,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>16.8080697</v>
+        <v>19.9007421</v>
       </c>
       <c r="E215" t="n">
-        <v>100.2945489</v>
+        <v>99.829194</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12435,17 +12438,17 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12460,22 +12463,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>19.9007421</v>
+        <v>17.414934</v>
       </c>
       <c r="E216" t="n">
-        <v>99.829194</v>
+        <v>102.780286</v>
       </c>
       <c r="F216" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -12487,8 +12490,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12497,12 +12502,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12512,7 +12517,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12522,14 +12527,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>17.414934</v>
+        <v>17.381135</v>
       </c>
       <c r="E217" t="n">
-        <v>102.780286</v>
+        <v>102.57471</v>
       </c>
       <c r="F217" t="n">
         <v>33</v>
@@ -12556,7 +12561,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -12571,7 +12576,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12581,32 +12586,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>17.381135</v>
+        <v>12.6079491</v>
       </c>
       <c r="E218" t="n">
-        <v>102.57471</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F218" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>Thai , British</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -12615,12 +12618,12 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12630,54 +12633,48 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>12.6079491</v>
+        <v>14.071779</v>
       </c>
       <c r="E219" t="n">
-        <v>99.94803760000001</v>
+        <v>100.632851</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Thai , British</t>
-        </is>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J219" t="n">
+        <v>0</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12687,30 +12684,32 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>14.071779</v>
+        <v>7.006991</v>
       </c>
       <c r="E220" t="n">
-        <v>100.632851</v>
+        <v>100.643068</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
-      <c r="G220" t="n">
-        <v>0</v>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12718,17 +12717,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>0</v>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12738,27 +12739,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>7.006991</v>
+        <v>17.48777</v>
       </c>
       <c r="E221" t="n">
-        <v>100.643068</v>
+        <v>101.722455</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -12778,12 +12779,12 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12798,47 +12799,49 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>17.48777</v>
+        <v>13.781466</v>
       </c>
       <c r="E222" t="n">
-        <v>101.722455</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F222" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12853,26 +12856,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>13.781466</v>
+        <v>12.603813</v>
       </c>
       <c r="E223" t="n">
-        <v>99.74632010000001</v>
+        <v>102.1022441</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12885,17 +12888,17 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12905,27 +12908,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>12.603813</v>
+        <v>7.4782366</v>
       </c>
       <c r="E224" t="n">
-        <v>102.1022441</v>
+        <v>99.6455411</v>
       </c>
       <c r="F224" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -12942,17 +12945,17 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12967,26 +12970,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>7.4782366</v>
+        <v>13.7322691</v>
       </c>
       <c r="E225" t="n">
-        <v>99.6455411</v>
+        <v>100.5369166</v>
       </c>
       <c r="F225" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -13004,12 +13007,12 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13024,26 +13027,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>13.7322691</v>
+        <v>12.6821309</v>
       </c>
       <c r="E226" t="n">
-        <v>100.5369166</v>
+        <v>101.2763963</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -13056,17 +13059,17 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13076,7 +13079,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13086,44 +13089,38 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>12.6821309</v>
+        <v>8.449477</v>
       </c>
       <c r="E227" t="n">
-        <v>101.2763963</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J227" t="n">
+        <v>0</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13133,48 +13130,54 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>8.449477</v>
+        <v>15.4493884</v>
       </c>
       <c r="E228" t="n">
-        <v>98.52607500000001</v>
+        <v>101.0550581</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>0</v>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13184,31 +13187,31 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>15.4493884</v>
+        <v>15.229853</v>
       </c>
       <c r="E229" t="n">
-        <v>101.0550581</v>
+        <v>104.857271</v>
       </c>
       <c r="F229" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13221,17 +13224,17 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13241,24 +13244,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15.229853</v>
+        <v>13.7359364</v>
       </c>
       <c r="E230" t="n">
-        <v>104.857271</v>
+        <v>100.5287473</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -13278,17 +13281,17 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13298,7 +13301,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -13308,14 +13311,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>13.7359364</v>
+        <v>13.8681928</v>
       </c>
       <c r="E231" t="n">
-        <v>100.5287473</v>
+        <v>100.4829428</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -13335,17 +13338,17 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13355,7 +13358,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -13365,14 +13368,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>อาคาร The Ninth Towers ชั้น 30</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13.8681928</v>
+        <v>13.758921</v>
       </c>
       <c r="E232" t="n">
-        <v>100.4829428</v>
+        <v>100.567832</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -13382,27 +13385,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H232" t="n">
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13412,32 +13413,30 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>อาคาร The Ninth Towers ชั้น 30</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13.758921</v>
+        <v>7.9250861</v>
       </c>
       <c r="E233" t="n">
-        <v>100.567832</v>
+        <v>98.3075255</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G233" t="n">
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13445,19 +13444,17 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J233" t="n">
+        <v>0</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13477,38 +13474,44 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>อำเภอแม่สอด จังหวัดตาก</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>7.9250861</v>
+        <v>16.719769</v>
       </c>
       <c r="E234" t="n">
-        <v>98.3075255</v>
+        <v>98.572627</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.matichon.co.th/region/news_2083325</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13518,54 +13521,51 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 12:30</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>อำเภอแม่สอด จังหวัดตาก</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16.719769</v>
+        <v>13.079526</v>
       </c>
       <c r="E235" t="n">
-        <v>98.572627</v>
+        <v>100.921558</v>
       </c>
       <c r="F235" t="n">
-        <v>38</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2083325</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -14677,37 +14677,35 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-03-25 11:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>จังหวัดพิษณุโลก</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16.808342</v>
+        <v>13.784392</v>
       </c>
       <c r="E256" t="n">
-        <v>100.263524</v>
+        <v>100.547092</v>
       </c>
       <c r="F256" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14719,16 +14717,283 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E257" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F257" t="n">
+        <v>43</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:30</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>17.700635</v>
+      </c>
+      <c r="E258" t="n">
+        <v>103.260393</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2020-03-25 12:15</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>13.690881</v>
+      </c>
+      <c r="E259" t="n">
+        <v>102.502987</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นายแพทย์สาธารณสุขจังหวัดสระแก้ว แถลงยอดผู้ป่วยโควิด-19 ยืนยันเพิ่มอีก 4 ราย รวม 6 ราย มีผู้ป่วยเข้าเกณฑ์เฝ้าระวังสะสม 80 ราย</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/170117163028534/posts/3837455822961298/?d=n</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>13.694595</v>
+      </c>
+      <c r="E260" t="n">
+        <v>99.85168299999999</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ป็อปปูล่าคอนโดมิเนียมเมืองทอง อาคาร T7</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>13.916628</v>
+      </c>
+      <c r="E261" t="n">
+        <v>100.556343</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้พักอาศัยภายในอาคารติดเชื้อโควิด-19 ได้มีการรับตัวไปรักษาพยาบาลแล้ว ทั้งนี้ได้จัดส่งทีม M safe เข้าทำความสะอาดพื้นผิวสัมผัสทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>https://scontent.xx.fbcdn.net/v/t1.15752-0/p480x480/90595301_508386916511507_1934201512020410368_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=BZOeswqbAjAAX-cylUd&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zor=9&amp;_nc_ht=scontent.xx&amp;_nc_tp=6&amp;oh=aa63b0c7a33dc3d4a8ec9602f1cfa530&amp;oe=5EA2A917</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10409,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10419,14 +10419,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.079526</v>
+        <v>13.612125</v>
       </c>
       <c r="E179" t="n">
-        <v>100.921558</v>
+        <v>101.328831</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10442,18 +10442,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
-พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10463,7 +10462,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10473,26 +10472,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.612125</v>
+        <v>14.838629</v>
       </c>
       <c r="E180" t="n">
-        <v>101.328831</v>
+        <v>104.682512</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10501,12 +10506,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10516,42 +10521,38 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14.838629</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>104.682512</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10560,12 +10561,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10585,21 +10586,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.735879000000001</v>
+        <v>13.752392</v>
       </c>
       <c r="E182" t="n">
-        <v>99.99124999999999</v>
+        <v>100.663796</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10615,12 +10616,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10640,14 +10641,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.752392</v>
+        <v>13.89878</v>
       </c>
       <c r="E183" t="n">
-        <v>100.663796</v>
+        <v>100.545152</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10670,12 +10671,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10690,19 +10691,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.89878</v>
+        <v>13.73697</v>
       </c>
       <c r="E184" t="n">
-        <v>100.545152</v>
+        <v>100.641787</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10725,12 +10726,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10740,32 +10741,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13.73697</v>
+        <v>12.706901</v>
       </c>
       <c r="E185" t="n">
-        <v>100.641787</v>
+        <v>101.183109</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10780,12 +10779,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10795,24 +10794,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.706901</v>
+        <v>13.853877</v>
       </c>
       <c r="E186" t="n">
-        <v>101.183109</v>
+        <v>100.859128</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10833,12 +10832,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10848,7 +10847,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10858,14 +10857,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.853877</v>
+        <v>13.863389</v>
       </c>
       <c r="E187" t="n">
-        <v>100.859128</v>
+        <v>100.51366</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10886,12 +10885,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10901,30 +10900,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 17:30</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.863389</v>
+        <v>13.908185</v>
       </c>
       <c r="E188" t="n">
-        <v>100.51366</v>
+        <v>99.767413</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188" t="n">
-        <v>0</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10938,70 +10939,74 @@
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:30</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>โรงพยาบาลมะการักษ์</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>13.908185</v>
-      </c>
-      <c r="E189" t="n">
-        <v>99.767413</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E189" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11011,42 +11016,38 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-19 17:56</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15.004437</v>
+        <v>13.743099</v>
       </c>
       <c r="E190" t="n">
-        <v>103.112176</v>
+        <v>100.588946</v>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11055,12 +11056,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11070,32 +11071,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 09:00</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>13.743099</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>100.588946</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G191" t="n">
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11110,12 +11109,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11135,14 +11134,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.527356</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.910644</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11163,12 +11162,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11178,7 +11177,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11188,40 +11187,44 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>7.888859</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>98.39840599999999</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11231,31 +11234,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19.690448</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>100.176291</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11268,17 +11271,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11293,26 +11296,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>16.442351</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>102.835978</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11320,8 +11323,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11330,12 +11335,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11345,42 +11350,38 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>14.127509</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>101.654682</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11389,12 +11390,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11414,22 +11415,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18.789733</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>98.974171</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11444,12 +11443,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11459,7 +11458,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11469,23 +11468,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.124031</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>99.309859</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11497,12 +11500,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11512,7 +11515,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11522,27 +11525,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16.426912</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>101.153556</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
-        <v>47</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11554,12 +11553,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11569,7 +11568,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11579,20 +11578,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.730586</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.513634</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="n">
-        <v>0</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11602,17 +11603,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11622,7 +11623,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11632,14 +11633,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.74596</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>100.540751</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11657,17 +11658,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11677,32 +11678,30 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.667345</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>100.650481</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11717,12 +11716,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11732,7 +11731,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11742,20 +11741,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14.836452</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>103.476803</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11770,12 +11771,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,31 +11786,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>17.198818</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>102.457285</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11820,17 +11821,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11845,47 +11846,51 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.731984</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>100.57661</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11895,56 +11900,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.746522</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.529104</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11964,20 +11963,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.789733</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>98.974171</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11992,12 +11993,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12007,7 +12008,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12017,14 +12018,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13.783453</v>
+        <v>13.694593</v>
       </c>
       <c r="E208" t="n">
-        <v>100.546504</v>
+        <v>99.851686</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -12040,19 +12041,17 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J208" t="n">
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12062,50 +12061,56 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2020-03-20 21:00</t>
+          <t>2020-03-20 21:49</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.694593</v>
+        <v>6.3472894</v>
       </c>
       <c r="E209" t="n">
-        <v>99.851686</v>
+        <v>101.7637775</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
+          <t>https://www.thairath.co.th/news/local/south/1800154</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -12129,13 +12134,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6.3472894</v>
+        <v>6.3768399</v>
       </c>
       <c r="E210" t="n">
-        <v>101.7637775</v>
+        <v>101.8409443</v>
       </c>
       <c r="F210" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -12159,7 +12164,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 55 ปี ขณะนี้อาการดีขึ้น ไม่มีไข้ เจ็บหน้าอกเวลาไอ )</t>
+          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -12179,27 +12184,25 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2020-03-20 21:49</t>
+          <t>2020-03-21 09:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>จังหวัดนครราชสีมา</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6.3768399</v>
+        <v>14.984919</v>
       </c>
       <c r="E211" t="n">
-        <v>101.8409443</v>
+        <v>102.103547</v>
       </c>
       <c r="F211" t="n">
-        <v>41</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -12208,22 +12211,22 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯนราธิวาส แถลงพบผู้ป่วย จำนวน 2 ราย เป็นกลุ่ม 132 คนไทยที่ไปร่วมกิจกรรมทางศาสนาที่มาเลเซีย (ชายอายุ 41 ปี ขณะนี้อาการทั่วไปปกติ ไม่มีไข้ ไม่ไอ รับประทานอาหารได้ตามปกติ)</t>
+          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1800154</t>
+          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -12233,24 +12236,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2020-03-21 09:00</t>
+          <t>2020-03-21 10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>จังหวัดนครราชสีมา</t>
+          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14.984919</v>
+        <v>13.757503</v>
       </c>
       <c r="E212" t="n">
-        <v>102.103547</v>
+        <v>100.56122</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -12258,15 +12261,11 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -12275,12 +12274,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>(เพิ่มเติม) นครราชสีมาพบผู้ติดเชื้อโควิด-19 เพิ่มอีก 2 ราย รวมทั้งสิ้น 5 ราย</t>
+          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/472531009808139/posts/1072319943162573/</t>
+          <t>https://imgur.com/82hZkJC</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -12290,30 +12289,32 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020-03-21 10:00</t>
+          <t>2020-03-21 11:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A-space อโศก-รัชดา ไฮด์อเวย์ ตึกXYZ</t>
+          <t>จังหวัดสมุทรสาคร</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>13.757503</v>
+        <v>13.547414</v>
       </c>
       <c r="E213" t="n">
-        <v>100.56122</v>
+        <v>100.273464</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
-      <c r="G213" t="n">
-        <v>0</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12328,12 +12329,12 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันศุกร์ที่ 20 มีนาคม ได้รับแจ้งว่าผู้พักอาศัยโดยตรงว่าติดโควิด-19 ที่อาคารชุดเอสเปซ XYZ ได้ทำการฆ่าเชื้อบริเวณพื้นที่ส่วนกลางทั้งหมดแล้ว ในวันที่ 21 มีนาคม 2563 17.30</t>
+          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://imgur.com/82hZkJC</t>
+          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12343,24 +12344,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2020-03-21 11:00</t>
+          <t>2020-03-21 13:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>จังหวัดสมุทรสาคร</t>
+          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>13.547414</v>
+        <v>16.8080697</v>
       </c>
       <c r="E214" t="n">
-        <v>100.273464</v>
+        <v>100.2945489</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -12370,25 +12371,27 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>(ชี้แจง) จังหวัดสมุทรสาคร มีผู้ป่วยรักษาในสมุทรสาคร 2 ราย</t>
+          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/MCCableTV/photos/a.593439060699588/2870175749692563/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12398,31 +12401,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-03-21 13:00</t>
+          <t>2020-03-21 19:12</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>กองบัญชาการช่วยรบที่ 3 ค่ายสมพระเอกาทศรถ</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>16.8080697</v>
+        <v>19.9007421</v>
       </c>
       <c r="E215" t="n">
-        <v>100.2945489</v>
+        <v>99.829194</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12435,17 +12438,17 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พลโทฉลองชัย ชัยยะคำ แม่ทัพภาคที่ 3 สั่งกักตัว บุคคลใกล้ชิด 19 นาย เนื่องจากทราบข่าวมีผู้ตรวจพบเชื้อเดินทางมารับเงินเดือนในค่ายทหารเมื่อหลายวันที่ผ่านมา ทราบว่าเป็นกรรมการที่สนามมวยลุมพินี ได้รับเชื้อจากสนามมวย) ตอนนี้รักษาตัวอยู่ที่โรงพยาบาลใน กทม ไม่ได้อยู่ที่ค่ายทหารแต่อย่างใด</t>
+          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/ArmytimesThailand/photos/a.1741170529507075/2418077855149669/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/local-economy/news-435393</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -12460,22 +12463,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2020-03-21 19:12</t>
+          <t>2020-03-22 10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>19.9007421</v>
+        <v>17.414934</v>
       </c>
       <c r="E216" t="n">
-        <v>99.829194</v>
+        <v>102.780286</v>
       </c>
       <c r="F216" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -12487,8 +12490,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -12497,12 +12502,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขเชียงรายแถลง พบผู้ป่วยติดเชื้อ มีประวัติเคยเดินทางไปสถานบันเทิงย่านทองหล่อ ,บ่อนคาสิโนปอยเปต และเดินทางมาสนามบินแม่ฟ้าหลวงวันที่ 7 มีนาคม ไม่มีอาการป่วย แต่ไปตรวจหาเชื้อเองและได้รับผลยืนยันในเช้าวันที่ 20 มีนาคม (จนถึงตอนนี้ยังไม่มีอาการป่วยใดๆ)</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/local-economy/news-435393</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -12512,7 +12517,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12522,14 +12527,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ศูนย์ควบคุมโรคโรงพยาบาลศูนย์อุดรธานี</t>
+          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>17.414934</v>
+        <v>17.381135</v>
       </c>
       <c r="E217" t="n">
-        <v>102.780286</v>
+        <v>102.57471</v>
       </c>
       <c r="F217" t="n">
         <v>33</v>
@@ -12556,7 +12561,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) ติดเชื้อโควิด-19 ขึ้นรถทัวร์เดินทางจากกรุงเทพไปอุดรธานีวันที่ 13 มีนาคม 2563 ประมาณ 10.00 น.</t>
+          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -12571,7 +12576,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12581,32 +12586,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>สนามซ้อมไก่บริเวณหมู่ 5 บ้านโสกแก ต.เชียงเพ็ง อ.กุดจับ อุดรธานี</t>
+          <t>อ.หัวหิน</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>17.381135</v>
+        <v>12.6079491</v>
       </c>
       <c r="E218" t="n">
-        <v>102.57471</v>
+        <v>99.94803760000001</v>
       </c>
       <c r="F218" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>Thai , British</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -12615,12 +12618,12 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>(เคส ส.ต.อ. สายตรวจ191) มีรายงานจากข่าวว่าผู้ป่วยโควิด-19 ไปสนามซ้อมไก่ในหมู่บ้าน / เที่ยวล่องแพกับกลุ่มเพื่อนประมาณ 16 คนที่อ่างน้ำพาน อ.สร้างคอม จ.อุดรธานี / ร่วมงานแต่งงาน</t>
+          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1800986</t>
+          <t>https://www.77kaoded.com/content/1437080</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -12630,54 +12633,48 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-03-22 10:00</t>
+          <t>2020-03-22 10:27</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>อ.หัวหิน</t>
+          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>12.6079491</v>
+        <v>14.071779</v>
       </c>
       <c r="E219" t="n">
-        <v>99.94803760000001</v>
+        <v>100.632851</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Thai , British</t>
-        </is>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J219" t="n">
+        <v>0</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จ.ประจวบคีรีขันธ์ พบผู้ติดเชื้อโควิด -19 เพิ่มอีก 4 ราย ทั้งหมดเป็นการติดเชื้อจากนอกพื้นที่ ชาวอังกฤษ 1 รักษาตัวที่ รพ.เอกชนที่หัวหิน , ชาวไทย 3 มีประวัติการเดินทางไปปอยเปต และประเทศอังกฤษ รักษาตัวอยู่ที่ รพ.หัวหิน</t>
+          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1437080</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
         </is>
       </c>
       <c r="M219" t="n">
@@ -12687,30 +12684,32 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2020-03-22 10:27</t>
+          <t>2020-03-22 11:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ตลาดค้าส่งในจังหวัดปทุมธานี</t>
+          <t>อําเภอจะนะ จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>14.071779</v>
+        <v>7.006991</v>
       </c>
       <c r="E220" t="n">
-        <v>100.632851</v>
+        <v>100.643068</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
-      <c r="G220" t="n">
-        <v>0</v>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12718,17 +12717,19 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>0</v>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) ตลาดค้าส่งในจังหวัดปทุมธานี มีผู้ติดเชื้อโควิด-19 เสียชีวิตแล้ว 2 ราย เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%95%e0%b8%a5%e0%b8%b2%e0%b8%94%e0%b8%84/</t>
+          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -12738,27 +12739,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2020-03-22 11:00</t>
+          <t>2020-03-22 13:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>อําเภอจะนะ จังหวัดสงขลา</t>
+          <t>โรงพยาบาลเลย</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>7.006991</v>
+        <v>17.48777</v>
       </c>
       <c r="E221" t="n">
-        <v>100.643068</v>
+        <v>101.722455</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -12778,12 +12779,12 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อไวรัสโควิด-19 แล้ว 5 ราย เป็นเพศชายทั้งหมด อาศัยในเขตพื้นที่อำเภอจะนะ และมีพื้นที่เฝ้าระวังอยู่ที่อำเภอบางกล่ำและหาดใหญ่</t>
+          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/story.php?story_fbid=2889564324457114&amp;id=100002107254484</t>
+          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -12798,47 +12799,49 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-03-22 13:00</t>
+          <t>2020-03-22 13:40</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเลย</t>
+          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>17.48777</v>
+        <v>13.781466</v>
       </c>
       <c r="E222" t="n">
-        <v>101.722455</v>
+        <v>99.74632010000001</v>
       </c>
       <c r="F222" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ป่วยติดเชื้อรายแรกของจังหวัดเลยจากเวทีมวยสวนลุมพินี ได้เดินทางไปยังดอนเมือง/กลับบ้านยังจังหวัดเลย/ไปเยี่ยมญาติที่อ.บ้านแท่น จ.ชัยภูมิ/กุดป่อง/รพ.สต.น้ำภู ปัจจุบันรักษาตัวที่ รพ.เลย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/loeitimeonline/posts/2055539861259488</t>
+          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -12853,26 +12856,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020-03-22 13:40</t>
+          <t>2020-03-22 14:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี อ.บ้านโป่ง</t>
+          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>13.781466</v>
+        <v>12.603813</v>
       </c>
       <c r="E223" t="n">
-        <v>99.74632010000001</v>
+        <v>102.1022441</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12885,17 +12888,17 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีประวัติการเดินทางไปสถานบันเทิงที่กรุงเทพ ( ผู้ป่วยความเสี่ยงสูง 4 รายกำลังตราจสอบอยู่ที่ อ.เมือง และ อ.โพธาราม ) / กลุ่มเสี่ยงในจังหวัดมาจากพื้นที่เสี่ยง ยอดสะสม 142 ราย ครบการเฝ้าระวัง 115 ราย ยังอยู่ในระยะเฝ้าระวัง 27 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/PR.ratchaburi/videos/138786840910208/?vh=e&amp;d=n</t>
+          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -12905,27 +12908,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020-03-22 14:00</t>
+          <t>2020-03-22 14:06</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี / โรงพยาบาลพระปกเกล้า</t>
+          <t>จังหวัดตรัง</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>12.603813</v>
+        <v>7.4782366</v>
       </c>
       <c r="E224" t="n">
-        <v>102.1022441</v>
+        <v>99.6455411</v>
       </c>
       <c r="F224" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -12942,17 +12945,17 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย ผู้ป่วยได้กลับจากกรุงเทพฯ มีประวัติการเข้าสถานบันเทิงที่กรุงเทพ ตอนนี้เข้าตรวจและรักษาตัวที่โรงพยาบาลพระปกเกล้าจังหวัดจันทบุรี ในห้องแยกพิเศษ</t>
+          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Radiochan90.25MHz/videos/1149817582016218/</t>
+          <t>https://www.posttoday.com/social/local/618418</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -12967,26 +12970,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2020-03-22 14:06</t>
+          <t>2020-03-22 17:30</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>จังหวัดตรัง</t>
+          <t>กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>7.4782366</v>
+        <v>13.7322691</v>
       </c>
       <c r="E225" t="n">
-        <v>99.6455411</v>
+        <v>100.5369166</v>
       </c>
       <c r="F225" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -13004,12 +13007,12 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ติดเชื้อแล้ว 1 ราย เป็นหญิงอายุประมาณ 24 ปี ซึ่งเดินทางกลับจากทำงานในสถานบันเทิงในจังหวัดภูเก็ต และคาดว่าคงติดเชื้อจากชาวต่างชาติที่เข้าไปเที่ยวในสถานบันเทิงดังกล่าว</t>
+          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>https://www.posttoday.com/social/local/618418</t>
+          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -13024,26 +13027,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-03-22 17:30</t>
+          <t>2020-03-22 18:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>กรุงเทพมหานคร</t>
+          <t>โรงพยาบาลจังหวัดระยอง</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>13.7322691</v>
+        <v>12.6821309</v>
       </c>
       <c r="E226" t="n">
-        <v>100.5369166</v>
+        <v>101.2763963</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -13056,17 +13059,17 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นักแสดงหนุ่ม ได้โพสต์เฟซบุ๊กว่าตัวเอง ติดเชื้อโควิด-19 พร้อมเขียนรายละเอียดไทม์ไลน์ ทราบว่าเพื่อนที่ใกล้ชิดพบเชื้อ ตนจึงเข้ารับการตรวจ ที่โรงพยาบาลจุฬาฯ และทราบผลเมื่อวันที่ 21 มีนาที่ผ่านมา</t>
+          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/entertainment/news_3800890</t>
+          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -13076,7 +13079,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13086,44 +13089,38 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>โรงพยาบาลจังหวัดระยอง</t>
+          <t>โรงพยาบาลในจังหวัดพังงา</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>12.6821309</v>
+        <v>8.449477</v>
       </c>
       <c r="E227" t="n">
-        <v>101.2763963</v>
+        <v>98.52607500000001</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J227" t="n">
+        <v>0</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>(ยื่นยัน) นายสาธิต ปิตุเตชะ รมช.กระทรวงสาธารณะสุข แจ้งว่าจ.ระยอง พบผู้ป่วยติดเชื้อเพิ่ม 1 ราย รวมจากผู้ป่วยเดิมเป็น 4 ราย โดยทั้งหมดรักษาตัวอยู่โรงพยบาลระยอง</t>
+          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/179672222097961/posts/2843565579041932/?d=n</t>
+          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -13133,48 +13130,54 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2020-03-22 18:00</t>
+          <t>2020-03-22 20:15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>โรงพยาบาลในจังหวัดพังงา</t>
+          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>8.449477</v>
+        <v>15.4493884</v>
       </c>
       <c r="E228" t="n">
-        <v>98.52607500000001</v>
+        <v>101.0550581</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>0</v>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) กรณีพบผู้ติดเชื้อ COVID-19 2รายที่โรงพยาบาลแห่งหนึ่งในจังหวัดพังงา เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>https://www.antifakenewscenter.com/%e0%b8%82%e0%b9%88%e0%b8%b2%e0%b8%a7%e0%b8%9b%e0%b8%a5%e0%b8%ad%e0%b8%a1-%e0%b8%ad%e0%b8%a2%e0%b9%88%e0%b8%b2%e0%b9%81%e0%b8%8a%e0%b8%a3%e0%b9%8c-%e0%b8%9e%e0%b8%9a%e0%b8%9c%e0%b8%b9%e0%b9%89-29/</t>
+          <t>https://www.sanook.com/news/8060246/</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -13184,31 +13187,31 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2020-03-22 20:15</t>
+          <t>2020-03-22 21:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>โรงพยาบาลศรีเทพ จังหวัดเพชรบูรณ์</t>
+          <t>จังหวัดอุบลราชธานี</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>15.4493884</v>
+        <v>15.229853</v>
       </c>
       <c r="E229" t="n">
-        <v>101.0550581</v>
+        <v>104.857271</v>
       </c>
       <c r="F229" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13221,17 +13224,17 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยเพิ่มอีก 1 ราย เป็นผู้หญิง อายุ 34 ปี ชาวอำเภอศรีเทพ ทำงานร้านอาหารแห่งหนึ่ง บริเวณซอยสุขุมวิท 23 กรุงเทพฯ ต่อมาได้เดินทางกลับบ้านที่อำเภอศรีเทพ และมีอาการป่วยเป็นไข้ จึงเข้ารับการตรวจที่โรงพยาบาลศรีเทพ เบื้องต้น พบว่าป่วยติดเชื้อไวรัสโควิด-19 นับเป็นรายที่ 3 ของจังหวัดเพชรบูรณ์</t>
+          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>https://www.sanook.com/news/8060246/</t>
+          <t>https://www.matichon.co.th/region/news_2079496</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13241,24 +13244,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2020-03-22 21:00</t>
+          <t>2020-03-23 10:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>จังหวัดอุบลราชธานี</t>
+          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15.229853</v>
+        <v>13.7359364</v>
       </c>
       <c r="E230" t="n">
-        <v>104.857271</v>
+        <v>100.5287473</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -13278,17 +13281,17 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุข อุบลราชธานี พบผู้ติดเชื้อ 7 รายในเวลา 22:00 ของวันที่ 21 มีนาคม และพบผู้ติดเชื้อเพิ่มอีก 2 ราย ในวันที่ 22 มีนาคม รวมทั้งหมด 9 ราย</t>
+          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2079496</t>
+          <t>https://www.chula.ac.th/news/28617/</t>
         </is>
       </c>
       <c r="M230" t="n">
@@ -13298,7 +13301,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -13308,14 +13311,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>คณะนิเทศศาสตร์ จุฬาลงกรณ์มหาวิทยาลัย</t>
+          <t>มทร.สุวรรณภูมิ</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>13.7359364</v>
+        <v>13.8681928</v>
       </c>
       <c r="E231" t="n">
-        <v>100.5287473</v>
+        <v>100.4829428</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -13335,17 +13338,17 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>(ยืนยัน) คณบดีคณะนิเทศศาสตร์ จุฬาฯ ได้แจ้งว่ามีนิสิตของคณะฯ 1 คนติดเชื้อ ขณะนี้อยู่ระหว่างดำเนินการย้ายนิสิตคนดังกล่าวเข้ารับการรักษาพยาบาลที่โรงพยาบาลจุฬาลงกรณ์</t>
+          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>https://www.chula.ac.th/news/28617/</t>
+          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -13355,7 +13358,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -13365,14 +13368,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>มทร.สุวรรณภูมิ</t>
+          <t>อาคาร The Ninth Towers ชั้น 30</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13.8681928</v>
+        <v>13.758921</v>
       </c>
       <c r="E232" t="n">
-        <v>100.4829428</v>
+        <v>100.567832</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -13382,27 +13385,25 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H232" t="n">
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบนักศึกษาติดเชื้อ และมีไทม์ไลน์การเดินทางตั้งแต่วันที่ 8-20 มีนาคม แล้วให้ผู้ที่เคยใชสถานที่ต่างๆในวันดังกล่างเฝ้าระวังและกักตัว 14 วัน</t>
+          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/111436242905562/posts/527890827926766/?d=n</t>
+          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -13412,32 +13413,30 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2020-03-23 10:00</t>
+          <t>2020-03-23 12:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>อาคาร The Ninth Towers ชั้น 30</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>13.758921</v>
+        <v>7.9250861</v>
       </c>
       <c r="E233" t="n">
-        <v>100.567832</v>
+        <v>98.3075255</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G233" t="n">
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13445,19 +13444,17 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>quarantined</t>
-        </is>
+      <c r="J233" t="n">
+        <v>0</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>(ชี้แจง) อาคารได้รับแจ้งจากผู้เช่าชั้น 30 ว่ามีผู้เข้าข่ายติดเชื้อโควิด-19 ได้ปิดชั่วคราวและกักตัวแล้ว พร้อมฆ่าเชื้อภายในและเครื่องปรับอากาศ</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk13-1.fna.fbcdn.net/v/t1.15752-0/p480x480/90629073_793374881185625_2152875674497449984_n.jpg?_nc_cat=108&amp;_nc_sid=b96e70&amp;_nc_ohc=ykzvC086KD0AX-gM9c_&amp;_nc_ht=scontent.fbkk13-1.fna&amp;_nc_tp=6&amp;oh=88cc71bf6d6aa7fcbe103dd8727d639d&amp;oe=5EA1A399</t>
+          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -13477,38 +13474,44 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>อำเภอแม่สอด จังหวัดตาก</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>7.9250861</v>
+        <v>16.719769</v>
       </c>
       <c r="E234" t="n">
-        <v>98.3075255</v>
+        <v>98.572627</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อเพิ่ม 6 ราย ( ชาวไทย 3 ราย เป็น ชายวัย 48,35 หญิงวัย 35 ) , (ชาวต่างชาติ 3 ราย ชายชาวมาเลเซีย วัย47 , ครูผู้หญิงชาวสวิสวัย 26 , ชายชาวแคนนาดา วัย46 )</t>
+          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/posts/2529846927265148</t>
+          <t>https://www.matichon.co.th/region/news_2083325</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -13518,54 +13521,51 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020-03-23 12:00</t>
+          <t>2020-03-23 12:30</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>อำเภอแม่สอด จังหวัดตาก</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16.719769</v>
+        <v>13.079526</v>
       </c>
       <c r="E235" t="n">
-        <v>98.572627</v>
+        <v>100.921558</v>
       </c>
       <c r="F235" t="n">
-        <v>38</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จังหวัดตาก พบผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย ตรวจพบที่โรงพยาบาลแม่สอด อำเภอแม่สอด ได้เดินทางไปยัง พัทยา และสนามบินดอนเมือง เมื่อวันที่ 20 มีนาคม 2563 เกิดอาการป่วยวันที่ 22 มีนาคม</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2083325</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -14563,7 +14563,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -14573,44 +14573,44 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>จังหวัดอยุธยา</t>
+          <t>ธ.กรุงไทย สาขาสามแยกปักธงชัย</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>14.3532127</v>
+        <v>14.9583324</v>
       </c>
       <c r="E254" t="n">
-        <v>100.56896</v>
+        <v>102.0480826</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>transferred</t>
-        </is>
-      </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขอยุธยา พบผู้ป่วยติดเชื้อ 1 รายในอำเภอแห่งหนึ่ง ขณะนี้เข้ารับการรักษาอยู่ที่ รพ. ในกรุงเทพมหานคร</t>
+          <t>(ยืนยัน) จนท.นับเงิน ธ.กรุงไทย สาขาสามแยกปักธงชัย ติดเชื้อรายเพิ่ม 1 ราย ล่าสุดรวม 6 ราย (,มีประวัติใกล้ชิดผู้ป่วยรายที่ 5) และเร่งตามกลุ่มเสี่ยง 101 คน อ.ประทาย และ อ.บ้านแฮด จ.ขอนแก่น เข้าระบบคัดกรอง</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=1702103989932241&amp;set=a.1280801768729134&amp;type=3&amp;theater</t>
+          <t>https://www.nationtv.tv/main/content/378767258/?qj=</t>
         </is>
       </c>
       <c r="M254" t="n">
@@ -14620,54 +14620,52 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2020-03-24 19:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>ธ.กรุงไทย สาขาสามแยกปักธงชัย</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14.9583324</v>
+        <v>13.784392</v>
       </c>
       <c r="E255" t="n">
-        <v>102.0480826</v>
+        <v>100.547092</v>
       </c>
       <c r="F255" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จนท.นับเงิน ธ.กรุงไทย สาขาสามแยกปักธงชัย ติดเชื้อรายเพิ่ม 1 ราย ล่าสุดรวม 6 ราย (,มีประวัติใกล้ชิดผู้ป่วยรายที่ 5) และเร่งตามกลุ่มเสี่ยง 101 คน อ.ประทาย และ อ.บ้านแฮด จ.ขอนแก่น เข้าระบบคัดกรอง</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378767258/?qj=</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M255" t="n">
@@ -14729,6 +14727,216 @@
       </c>
       <c r="M256" t="n">
         <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:30</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>17.700635</v>
+      </c>
+      <c r="E257" t="n">
+        <v>103.260393</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2020-03-25 12:15</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>13.690881</v>
+      </c>
+      <c r="E258" t="n">
+        <v>102.502987</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นายแพทย์สาธารณสุขจังหวัดสระแก้ว แถลงยอดผู้ป่วยโควิด-19 ยืนยันเพิ่มอีก 4 ราย รวม 6 ราย มีผู้ป่วยเข้าเกณฑ์เฝ้าระวังสะสม 80 ราย</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/170117163028534/posts/3837455822961298/?d=n</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>13.694595</v>
+      </c>
+      <c r="E259" t="n">
+        <v>99.85168299999999</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ป็อปปูล่าคอนโดมิเนียมเมืองทอง อาคาร T7</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>13.916628</v>
+      </c>
+      <c r="E260" t="n">
+        <v>100.556343</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้พักอาศัยภายในอาคารติดเชื้อโควิด-19 ได้มีการรับตัวไปรักษาพยาบาลแล้ว ทั้งนี้ได้จัดส่งทีม M safe เข้าทำความสะอาดพื้นผิวสัมผัสทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>https://scontent.xx.fbcdn.net/v/t1.15752-0/p480x480/90595301_508386916511507_1934201512020410368_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=BZOeswqbAjAAX-cylUd&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zor=9&amp;_nc_ht=scontent.xx&amp;_nc_tp=6&amp;oh=aa63b0c7a33dc3d4a8ec9602f1cfa530&amp;oe=5EA2A917</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10409,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10419,14 +10419,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.079526</v>
+        <v>13.612125</v>
       </c>
       <c r="E179" t="n">
-        <v>100.921558</v>
+        <v>101.328831</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10442,18 +10442,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
-พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10463,7 +10462,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10473,26 +10472,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.612125</v>
+        <v>14.838629</v>
       </c>
       <c r="E180" t="n">
-        <v>101.328831</v>
+        <v>104.682512</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10501,12 +10506,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10516,42 +10521,38 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14.838629</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>104.682512</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10560,12 +10561,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10585,21 +10586,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.735879000000001</v>
+        <v>13.752392</v>
       </c>
       <c r="E182" t="n">
-        <v>99.99124999999999</v>
+        <v>100.663796</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10615,12 +10616,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10640,14 +10641,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.752392</v>
+        <v>13.89878</v>
       </c>
       <c r="E183" t="n">
-        <v>100.663796</v>
+        <v>100.545152</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10670,12 +10671,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10690,19 +10691,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.89878</v>
+        <v>13.73697</v>
       </c>
       <c r="E184" t="n">
-        <v>100.545152</v>
+        <v>100.641787</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10725,12 +10726,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10740,32 +10741,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13.73697</v>
+        <v>12.706901</v>
       </c>
       <c r="E185" t="n">
-        <v>100.641787</v>
+        <v>101.183109</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10780,12 +10779,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10795,24 +10794,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.706901</v>
+        <v>13.853877</v>
       </c>
       <c r="E186" t="n">
-        <v>101.183109</v>
+        <v>100.859128</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10833,12 +10832,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10848,7 +10847,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10858,14 +10857,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.853877</v>
+        <v>13.863389</v>
       </c>
       <c r="E187" t="n">
-        <v>100.859128</v>
+        <v>100.51366</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10886,12 +10885,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10901,30 +10900,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 17:30</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.863389</v>
+        <v>13.908185</v>
       </c>
       <c r="E188" t="n">
-        <v>100.51366</v>
+        <v>99.767413</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188" t="n">
-        <v>0</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10938,70 +10939,74 @@
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:30</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>โรงพยาบาลมะการักษ์</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>13.908185</v>
-      </c>
-      <c r="E189" t="n">
-        <v>99.767413</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E189" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11011,42 +11016,38 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-19 17:56</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15.004437</v>
+        <v>13.743099</v>
       </c>
       <c r="E190" t="n">
-        <v>103.112176</v>
+        <v>100.588946</v>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11055,12 +11056,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11070,32 +11071,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 09:00</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>13.743099</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>100.588946</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G191" t="n">
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11110,12 +11109,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11135,14 +11134,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.527356</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.910644</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11163,12 +11162,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11178,7 +11177,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11188,40 +11187,44 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>7.888859</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>98.39840599999999</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11231,31 +11234,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19.690448</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>100.176291</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11268,17 +11271,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11293,26 +11296,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>16.442351</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>102.835978</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11320,8 +11323,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11330,12 +11335,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11345,42 +11350,38 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>14.127509</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>101.654682</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11389,12 +11390,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11414,22 +11415,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18.789733</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>98.974171</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11444,12 +11443,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11459,7 +11458,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11469,23 +11468,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.124031</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>99.309859</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11497,12 +11500,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11512,7 +11515,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11522,27 +11525,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16.426912</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>101.153556</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
-        <v>47</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11554,12 +11553,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11569,7 +11568,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11579,20 +11578,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.730586</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.513634</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="n">
-        <v>0</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11602,17 +11603,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11622,7 +11623,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11632,14 +11633,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.74596</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>100.540751</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11657,17 +11658,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11677,32 +11678,30 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.667345</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>100.650481</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11717,12 +11716,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11732,7 +11731,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11742,20 +11741,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14.836452</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>103.476803</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11770,12 +11771,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,31 +11786,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>17.198818</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>102.457285</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11820,17 +11821,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11845,47 +11846,51 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.731984</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>100.57661</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11895,56 +11900,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.746522</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.529104</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11964,20 +11963,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.789733</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>98.974171</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11992,12 +11993,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12007,7 +12008,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12017,14 +12018,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13.783453</v>
+        <v>13.694593</v>
       </c>
       <c r="E208" t="n">
-        <v>100.546504</v>
+        <v>99.851686</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -12040,19 +12041,17 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J208" t="n">
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12062,7 +12061,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -12072,21 +12071,21 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.694593</v>
+        <v>18.79029</v>
       </c>
       <c r="E209" t="n">
-        <v>99.851686</v>
+        <v>98.964538</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -12095,17 +12094,19 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>0</v>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
+          <t>(ยืนยัน) จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อเพิ่มอีก 1 ราย เป็นลูกสาวของผู้ติดเชื้อเดิม</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
+          <t>https://www.posttoday.com/social/local/618539?fbclid=IwAR2tASpRqcbyMzr_qruzy9724euSb7NQMQoS3VFbH40JdVoIsoHtxP4qfq4</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -13575,24 +13576,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-03-23 14:06</t>
+          <t>2020-03-23 12:30</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>จังหวัดแพร่</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>18.1009878</v>
+        <v>13.079526</v>
       </c>
       <c r="E236" t="n">
-        <v>100.2810275</v>
+        <v>100.921558</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -13608,17 +13609,18 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M236" t="n">
@@ -13633,49 +13635,45 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-03-23 14:14</t>
+          <t>2020-03-23 14:06</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบุรี</t>
+          <t>จังหวัดแพร่</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>13.11181</v>
+        <v>18.1009878</v>
       </c>
       <c r="E237" t="n">
-        <v>99.945353</v>
+        <v>100.2810275</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
+          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
         </is>
       </c>
       <c r="M237" t="n">
@@ -13685,30 +13683,32 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020-03-23 15:30</t>
+          <t>2020-03-23 14:14</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+          <t>จังหวัดเพชรบุรี</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>13.6908986</v>
+        <v>13.11181</v>
       </c>
       <c r="E238" t="n">
-        <v>102.5030711</v>
+        <v>99.945353</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
-      <c r="G238" t="n">
-        <v>0</v>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -13725,12 +13725,12 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
         </is>
       </c>
       <c r="M238" t="n">
@@ -13745,27 +13745,25 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2020-03-23 15:34</t>
+          <t>2020-03-23 15:30</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>13.8577378</v>
+        <v>13.6908986</v>
       </c>
       <c r="E239" t="n">
-        <v>100.5360211</v>
+        <v>102.5030711</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G239" t="n">
+        <v>0</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -13782,12 +13780,12 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -13797,50 +13795,54 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-03-23 17:04</t>
+          <t>2020-03-23 15:34</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>โรงพยาบาลแม่สอดราม</t>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>16.710895</v>
+        <v>13.8577378</v>
       </c>
       <c r="E240" t="n">
-        <v>98.564061</v>
+        <v>100.5360211</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
-      <c r="G240" t="n">
-        <v>0</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ติดเชื้อCOVID-19 เป็นผู้ป่วยยืนยันของโรงพยาบาลแม่สอด ทางโรงพยาบาลแม่สอดราม ได้ทำความสะอาดฆ่าเชื้อด้วยวิธีมาตรฐานในทุกที่ที่ผู้ป่วยคนนี้สัมผัส ทันทีที่ผู้ป่วยรายนี้ถูกส่งตัวออกไป</t>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1589835417932797/posts/2474728002776863/</t>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -13850,24 +13852,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2020-03-23 17:36</t>
+          <t>2020-03-23 17:04</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+          <t>โรงพยาบาลแม่สอดราม</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>14.6903685</v>
+        <v>16.710895</v>
       </c>
       <c r="E241" t="n">
-        <v>100.8077161</v>
+        <v>98.564061</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -13881,17 +13883,19 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>0</v>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ผู้ติดเชื้อCOVID-19 เป็นผู้ป่วยยืนยันของโรงพยาบาลแม่สอด ทางโรงพยาบาลแม่สอดราม ได้ทำความสะอาดฆ่าเชื้อด้วยวิธีมาตรฐานในทุกที่ที่ผู้ป่วยคนนี้สัมผัส ทันทีที่ผู้ป่วยรายนี้ถูกส่งตัวออกไป</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+          <t>https://www.facebook.com/1589835417932797/posts/2474728002776863/</t>
         </is>
       </c>
       <c r="M241" t="n">
@@ -13901,56 +13905,48 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2020-03-23 17:54</t>
+          <t>2020-03-23 17:36</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>13.6783729</v>
+        <v>14.6903685</v>
       </c>
       <c r="E242" t="n">
-        <v>100.5136153</v>
+        <v>100.8077161</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
         </is>
       </c>
       <c r="M242" t="n">
@@ -13960,24 +13956,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2020-03-23 18:52</t>
+          <t>2020-03-23 17:54</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>6.1174893</v>
+        <v>13.6783729</v>
       </c>
       <c r="E243" t="n">
-        <v>101.7888233</v>
+        <v>100.5136153</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -13987,25 +13983,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
         </is>
       </c>
       <c r="M243" t="n">
@@ -14020,19 +14020,19 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2020-03-23 22:22</t>
+          <t>2020-03-23 18:52</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>อาคารทรู ทาวเวอร์ 1</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>13.7625241</v>
+        <v>6.1174893</v>
       </c>
       <c r="E244" t="n">
-        <v>100.5677793</v>
+        <v>101.7888233</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -14042,10 +14042,8 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H244" t="n">
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -14057,12 +14055,12 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
         </is>
       </c>
       <c r="M244" t="n">
@@ -14077,19 +14075,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2020-03-24 06:00</t>
+          <t>2020-03-23 22:22</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>อาคารทรู ทาวเวอร์ 1</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>7.197264</v>
+        <v>13.7625241</v>
       </c>
       <c r="E245" t="n">
-        <v>100.592928</v>
+        <v>100.5677793</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -14099,25 +14097,27 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ยอดผู้ป่วยจังหวัดสงขลา เพิ่มเป็น 18 ราย เป็นชาวสงขลา 13 ราย และต่างจังหวัด 5 ราย กลับจากเข้าร่วมพิธีทางศาสนาที่มาเลเซียและที่สนามมวย กรุงเทพมหานคร</t>
+          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo?fbid=2894508087296071&amp;set=a.107256766021231</t>
+          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
         </is>
       </c>
       <c r="M245" t="n">
@@ -14132,25 +14132,27 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00</t>
+          <t>2020-03-24 06:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>13.863355</v>
+        <v>7.197264</v>
       </c>
       <c r="E246" t="n">
-        <v>100.513671</v>
+        <v>100.592928</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
       </c>
-      <c r="G246" t="n">
-        <v>0</v>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14158,17 +14160,19 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>0</v>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดนนทบุรี 24 มีนาคม 2563 มีผู้ป่วยยืนยัน 30 คน หายแล้ว 2 คน ยังรักษาอยู่ 28 คน</t>
+          <t>(ยืนยัน) ยอดผู้ป่วยจังหวัดสงขลา เพิ่มเป็น 18 ราย เป็นชาวสงขลา 13 ราย และต่างจังหวัด 5 ราย กลับจากเข้าร่วมพิธีทางศาสนาที่มาเลเซียและที่สนามมวย กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo/?fbid=640575793430440&amp;set=a.312199156268107</t>
+          <t>https://www.facebook.com/photo?fbid=2894508087296071&amp;set=a.107256766021231</t>
         </is>
       </c>
       <c r="M246" t="n">
@@ -14188,22 +14192,20 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>14.045423</v>
+        <v>13.863355</v>
       </c>
       <c r="E247" t="n">
-        <v>101.368744</v>
+        <v>100.513671</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G247" t="n">
+        <v>0</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14211,19 +14213,17 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J247" t="n">
+        <v>0</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จังหวัดปราจีนบุรี พบผู้ติดโควิด-19 อีก 2 ราย อายุ43และ64ปี รวมปัจจุบันเป็น 3 ราย</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดนนทบุรี 24 มีนาคม 2563 มีผู้ป่วยยืนยัน 30 คน หายแล้ว 2 คน ยังรักษาอยู่ 28 คน</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1594829844145694/videos/280283009622389/</t>
+          <t>https://www.facebook.com/photo/?fbid=640575793430440&amp;set=a.312199156268107</t>
         </is>
       </c>
       <c r="M247" t="n">
@@ -14238,19 +14238,19 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-03-24 09:00</t>
+          <t>2020-03-24 08:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>12.594541</v>
+        <v>14.045423</v>
       </c>
       <c r="E248" t="n">
-        <v>102.093009</v>
+        <v>101.368744</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -14273,12 +14273,12 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขจันทบุรี พบผู้ติดเชื้อรายที่ 2 อาชีพรถขับ-ส่ง นักท่องเที่ยว</t>
+          <t>(ยืนยัน) จังหวัดปราจีนบุรี พบผู้ติดโควิด-19 อีก 2 ราย อายุ43และ64ปี รวมปัจจุบันเป็น 3 ราย</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo?fbid=1442835212565642&amp;set=a.240477356134773</t>
+          <t>https://www.facebook.com/1594829844145694/videos/280283009622389/</t>
         </is>
       </c>
       <c r="M248" t="n">
@@ -14298,27 +14298,25 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>อำเภอมหาราช จังหวัดพระนครศรีอยุธยา</t>
+          <t>จังหวัดจันทบุรี</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>14.566764</v>
+        <v>12.594541</v>
       </c>
       <c r="E249" t="n">
-        <v>100.519318</v>
+        <v>102.093009</v>
       </c>
       <c r="F249" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -14330,12 +14328,12 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจยืนยันโควิด-19 ผู้ป่วยมีภูมิลำเนาอำเภอมหาราช จังหวัดพระนครศรีอยุธยา ตรวจที่สถาบันบำราศนราดูร วันที่ 23 มีนาคม 2563 และเริ่มป่วยตั้งแต่ 16 มีนาคม 2563</t>
+          <t>(ยืนยัน) สาธารณะสุขจันทบุรี พบผู้ติดเชื้อรายที่ 2 อาชีพรถขับ-ส่ง นักท่องเที่ยว</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-3.fna.fbcdn.net/v/t1.15752-0/p480x480/90999310_1357385664444783_4657494318540390400_n.jpg?_nc_cat=102&amp;_nc_sid=b96e70&amp;_nc_ohc=ToU9y8qnCDcAX8lOkia&amp;_nc_ht=scontent.fbkk12-3.fna&amp;_nc_tp=6&amp;oh=e082301db359ed73596f8a27a6fd1f32&amp;oe=5E9E93B1</t>
+          <t>https://www.facebook.com/photo?fbid=1442835212565642&amp;set=a.240477356134773</t>
         </is>
       </c>
       <c r="M249" t="n">
@@ -14345,48 +14343,54 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2020-03-24 09:53</t>
+          <t>2020-03-24 09:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>อำเภอมหาราช จังหวัดพระนครศรีอยุธยา</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>13.72624</v>
+        <v>14.566764</v>
       </c>
       <c r="E250" t="n">
-        <v>100.526799</v>
+        <v>100.519318</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>0</v>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+          <t>(ยืนยัน) ผลตรวจยืนยันโควิด-19 ผู้ป่วยมีภูมิลำเนาอำเภอมหาราช จังหวัดพระนครศรีอยุธยา ตรวจที่สถาบันบำราศนราดูร วันที่ 23 มีนาคม 2563 และเริ่มป่วยตั้งแต่ 16 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/ict/news-436572</t>
+          <t>https://scontent.fbkk12-3.fna.fbcdn.net/v/t1.15752-0/p480x480/90999310_1357385664444783_4657494318540390400_n.jpg?_nc_cat=102&amp;_nc_sid=b96e70&amp;_nc_ohc=ToU9y8qnCDcAX8lOkia&amp;_nc_ht=scontent.fbkk12-3.fna&amp;_nc_tp=6&amp;oh=e082301db359ed73596f8a27a6fd1f32&amp;oe=5E9E93B1</t>
         </is>
       </c>
       <c r="M250" t="n">
@@ -14396,24 +14400,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2020-03-24 11:29</t>
+          <t>2020-03-24 09:53</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7.888747</v>
+        <v>13.72624</v>
       </c>
       <c r="E251" t="n">
-        <v>98.39841</v>
+        <v>100.526799</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -14427,19 +14431,17 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J251" t="n">
+        <v>0</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภูเก็ตพบผู้ติดเชื้อโควิด-19 รายใหม่เพิ่มขึ้น 9 ราย รวมยอดสะสมแล้ว 26 ราย ทุกรายอาการอยู่ในเกณฑ์ดี ไม่มีอาการรุนแรง</t>
+          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/photos/a.1582338055349378/2531978563718651/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/ict/news-436572</t>
         </is>
       </c>
       <c r="M251" t="n">
@@ -14449,54 +14451,50 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2020-03-24 16:46</t>
+          <t>2020-03-24 11:29</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>13.0911754</v>
+        <v>7.888747</v>
       </c>
       <c r="E252" t="n">
-        <v>100.9027354</v>
+        <v>98.39841</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+          <t>(ยืนยัน) ภูเก็ตพบผู้ติดเชื้อโควิด-19 รายใหม่เพิ่มขึ้น 9 ราย รวมยอดสะสมแล้ว 26 ราย ทุกรายอาการอยู่ในเกณฑ์ดี ไม่มีอาการรุนแรง</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/motoring/news-436958</t>
+          <t>https://www.facebook.com/NewshawkPhuket/photos/a.1582338055349378/2531978563718651/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M252" t="n">
@@ -14506,31 +14504,31 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2020-03-24 16:51</t>
+          <t>2020-03-24 16:46</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>19.9007421</v>
+        <v>13.0911754</v>
       </c>
       <c r="E253" t="n">
-        <v>99.829194</v>
+        <v>100.9027354</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -14543,17 +14541,17 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
+          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
+          <t>https://www.prachachat.net/motoring/news-436958</t>
         </is>
       </c>
       <c r="M253" t="n">
@@ -14568,26 +14566,26 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2020-03-24 19:00</t>
+          <t>2020-03-24 16:51</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>จังหวัดอยุธยา</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>14.3532127</v>
+        <v>19.9007421</v>
       </c>
       <c r="E254" t="n">
-        <v>100.56896</v>
+        <v>99.829194</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -14600,17 +14598,17 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขอยุธยา พบผู้ป่วยติดเชื้อ 1 รายในอำเภอแห่งหนึ่ง ขณะนี้เข้ารับการรักษาอยู่ที่ รพ. ในกรุงเทพมหานคร</t>
+          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=1702103989932241&amp;set=a.1280801768729134&amp;type=3&amp;theater</t>
+          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
         </is>
       </c>
       <c r="M254" t="n">
@@ -14677,37 +14675,35 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-03-25 11:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>จังหวัดพิษณุโลก</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16.808342</v>
+        <v>13.784392</v>
       </c>
       <c r="E256" t="n">
-        <v>100.263524</v>
+        <v>100.547092</v>
       </c>
       <c r="F256" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14719,16 +14715,340 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E257" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F257" t="n">
+        <v>43</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:30</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>17.700635</v>
+      </c>
+      <c r="E258" t="n">
+        <v>103.260393</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2020-03-25 12:15</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>13.690881</v>
+      </c>
+      <c r="E259" t="n">
+        <v>102.502987</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นายแพทย์สาธารณสุขจังหวัดสระแก้ว แถลงยอดผู้ป่วยโควิด-19 ยืนยันเพิ่มอีก 4 ราย รวม 6 ราย มีผู้ป่วยเข้าเกณฑ์เฝ้าระวังสะสม 80 ราย</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/170117163028534/posts/3837455822961298/?d=n</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>13.694595</v>
+      </c>
+      <c r="E260" t="n">
+        <v>99.85168299999999</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ป็อปปูล่าคอนโดมิเนียมเมืองทอง อาคาร T7</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>13.916628</v>
+      </c>
+      <c r="E261" t="n">
+        <v>100.556343</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้พักอาศัยภายในอาคารติดเชื้อโควิด-19 ได้มีการรับตัวไปรักษาพยาบาลแล้ว ทั้งนี้ได้จัดส่งทีม M safe เข้าทำความสะอาดพื้นผิวสัมผัสทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>https://scontent.xx.fbcdn.net/v/t1.15752-0/p480x480/90595301_508386916511507_1934201512020410368_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=BZOeswqbAjAAX-cylUd&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zor=9&amp;_nc_ht=scontent.xx&amp;_nc_tp=6&amp;oh=aa63b0c7a33dc3d4a8ec9602f1cfa530&amp;oe=5EA2A917</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2020-03-25 21:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>แอททรีคอนโด</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>16.795958</v>
+      </c>
+      <c r="E262" t="n">
+        <v>100.254651</v>
+      </c>
+      <c r="F262" t="n">
+        <v>43</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 เป็นผู้พักอาศัยในอาคารชุด "แอททรีคอนโด" ถนนบึงพระจันทร์ รวมผู้ป่วยยืนยันในพื้นที่จังหวัดพิษณุโลกจำนวน 3 ราย</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo?fbid=3193851474173270&amp;set=pcb.3193853007506450</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10409,7 +10409,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10419,14 +10419,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ฮาร์เบอร์ ออฟฟิศ</t>
+          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>13.079526</v>
+        <v>13.612125</v>
       </c>
       <c r="E179" t="n">
-        <v>100.921558</v>
+        <v>101.328831</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -10442,18 +10442,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
-พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
+          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
+          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -10463,7 +10462,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10473,26 +10472,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>สำนักงานโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา</t>
+          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.612125</v>
+        <v>14.838629</v>
       </c>
       <c r="E180" t="n">
-        <v>101.328831</v>
+        <v>104.682512</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -10501,12 +10506,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทฯ ได้รับการยืนยันว่ามีพนักงานในสายสำนักงาน (นอกสายการผลิต) ของโตโยต้า เกตเวย์ จังหวัดฉะเชิงเทรา จำนวน 1 คน เป็นผู้ติดเชื้อ COVID-19 โดยบริษัทฯ พบว่า มีพนักงานมีอาการบ่งชี้ จึงได้ทำการแจ้งให้พนักงานทำการตรวจสอบการติดเชื้อครั้งแรกเมื่อวันที่ 17 มีนาคม 2563 และได้รับการยืนยันว่ามีอาการติดเชื้อ จึงได้นำตัวพนักงานเข้ารับการรักษา พร้อมดำเนินมาตรการป้องกันการแพร่ระบาดภายในองค์กรโดยทันที</t>
+          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>https://www.toyota.co.th/news/VOW0QX4k?fbclid=IwAR2SgJlj9iquY1nba-WlapYdX3oIf-YFwS8rtO0vLQNaHTBvDVd3oN0pAGM</t>
+          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -10516,42 +10521,38 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-03-19 12:30</t>
+          <t>2020-03-19 14:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>หนองงูเหลือม อำเภอเบญจลักษ์ จังหวัดศรีสะเกษ</t>
+          <t>โรงพยาบาลเกาะพะงัน</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14.838629</v>
+        <v>9.735879000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>104.682512</v>
+        <v>99.99124999999999</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -10560,12 +10561,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) พบผู้ป่วยโรคติดเชื้อไวรัสโคโรนา 2019 ในพื้นที่ ต.หนองงูเหลือม อ.เบญจลักษ์ จังหวัดศรีสะเกษ โดย วันที่ 15 มีนาคม 2563 ผู้ป่วยได้เข้าร่วมกิจกรรมในสนามไก่ชน และเดินทางกลับจ.สมุทรปราการ</t>
+          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/around-thailand/news_3783769</t>
+          <t>https://www.thairath.co.th/news/local/south/1799181</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -10585,21 +10586,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเกาะพะงัน</t>
+          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9.735879000000001</v>
+        <v>13.752392</v>
       </c>
       <c r="E182" t="n">
-        <v>99.99124999999999</v>
+        <v>100.663796</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -10615,12 +10616,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุราษฎร์ธานีพบผู้ป่วยโควิด-19 รายที่ 2 รักษาที่ รพ.เกาะพะงัน คาดติดมาจากนอกพื้นที่ โดยได้แยกห้องผู้ป่วย และตามบุคคลใกล้ชิดมากักตัวหมดแล้ว ขณะที่ยังรอผลตรวจ 16 ราย</t>
+          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1799181</t>
+          <t>https://imgur.com/7kXAYAB</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -10640,14 +10641,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9</t>
+          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>13.752392</v>
+        <v>13.89878</v>
       </c>
       <c r="E183" t="n">
-        <v>100.663796</v>
+        <v>100.545152</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -10670,12 +10671,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) โครงการเศรษฐสิริ ศรีนครินทร์ พระราม 9 ได้ตรวจพบผู้ติดเชื้อโควิด-19 พักอาศัยภายในโครงการ ได้ประสานให้เข้ารับการรักษาในวันที่ 18 มีนาคม โดยมีการเคลื่อนย้ายตามมาตราฐานควบคุมโรคกำหนด</t>
+          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>https://imgur.com/7kXAYAB</t>
+          <t>https://imgur.com/a0k1SAI</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -10690,19 +10691,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-03-19 14:00</t>
+          <t>2020-03-19 15:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>เดอะซี๊ด แจ้งวัฒนะ</t>
+          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>13.89878</v>
+        <v>13.73697</v>
       </c>
       <c r="E184" t="n">
-        <v>100.545152</v>
+        <v>100.641787</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -10725,12 +10726,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ภายในคอนโดได้มีผู้ติดเชื้อไวรัสโควิด-19 ขณะนี้พักอยู่ที่โรงพยาบาลเรียบร้อยแล้ว และได้ดำเนินการฉีดฆ่าพ่นเชื้อในพื้นที่ส่วนกลางในวันที่ 19 มีนาคม 14.00</t>
+          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>https://imgur.com/a0k1SAI</t>
+          <t>https://imgur.com/rgPnOZC</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10740,32 +10741,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-03-19 15:00</t>
+          <t>2020-03-19 15:36</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ลุมพินี เพลส ศรีนครินทร์-หัวหมาก สเตชั่น</t>
+          <t>จังหวัดระยอง</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13.73697</v>
+        <v>12.706901</v>
       </c>
       <c r="E185" t="n">
-        <v>100.641787</v>
+        <v>101.183109</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10780,12 +10779,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) นิติบุุคคลอาคารชุดลุมพินี เพลส ศรีนครินทร์-หัวหมก ได้รับแจ้งจากผู้พักอาศัยอาคาร B ว่าผลการตรวจมีเชื้อไวรัสโควิด-19 เมื่อวันที่ 17 มีนาคม</t>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>https://imgur.com/rgPnOZC</t>
+          <t>https://www.matichon.co.th/region/news_2069972</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -10795,24 +10794,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-03-19 15:36</t>
+          <t>2020-03-19 16:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>จังหวัดระยอง</t>
+          <t>เขตหนองจอก</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.706901</v>
+        <v>13.853877</v>
       </c>
       <c r="E186" t="n">
-        <v>101.183109</v>
+        <v>100.859128</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -10833,12 +10832,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 2 ราย มีประวัติไปต่างจังหวัดกรุงเทพ และจังหวัดอื่นๆ</t>
+          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2069972</t>
+          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -10848,7 +10847,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10858,14 +10857,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>เขตหนองจอก</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13.853877</v>
+        <v>13.863389</v>
       </c>
       <c r="E187" t="n">
-        <v>100.859128</v>
+        <v>100.51366</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -10886,12 +10885,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เฟซบุ๊กศูนย์บริการสาธารณสุขสี่สิบสี่ ลำผักชี หนองจอกระบุว่ามีผู้ติดเชื้อโควิด-19 สะสมในเขตหนองจอก 4 ราย</t>
+          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>https://web.facebook.com/photo.php?fbid=2769517273155364&amp;set=pcb.2769517493155342&amp;type=1&amp;theater</t>
+          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -10901,30 +10900,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-19 16:00</t>
+          <t>2020-03-19 17:30</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>โรงพยาบาลมะการักษ์</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.863389</v>
+        <v>13.908185</v>
       </c>
       <c r="E188" t="n">
-        <v>100.51366</v>
+        <v>99.767413</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188" t="n">
-        <v>0</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10938,70 +10939,74 @@
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>(คำชี้แจง) สถานการณ์โควิด-19 จังหวัดนนทบุรี ปัจจุบันมีผู้ป่วยยืนยัน 9 ราย ยังรักษาอยู่ 7 ราย และหาย 2 ราย</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>https://ssjnonthaburi.moph.go.th/nont/index.php?m=m101&amp;groupwork=&amp;module=newpost1&amp;0c9818de48de7c212f5d9c0bc70cf833&amp;fmod=planing&amp;id=400</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2020-03-19 17:30</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>โรงพยาบาลมะการักษ์</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>13.908185</v>
-      </c>
-      <c r="E189" t="n">
-        <v>99.767413</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>(คำชี้แจง) ณ วันที่ 19 มีนาคม 2563 ในเขต อ.ท่ามะกา มีผู้ติดเชื้อ นอนโรงพยาบาล 1 ราย 
 ได้มีการดำเนินการให้พักรักษาตัวอยู่ในห้องแยกเดี่ยว เพื่อป้องกันการแพร่กระจายเชื้อ 
 และได้รับการรักษาตามมาตรฐานโดยมีทีมแพทย์พยาบาลดูแลโดยเฉพาะ</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-19 17:56</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15.004437</v>
+      </c>
+      <c r="E189" t="n">
+        <v>103.112176</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/MakarakHospital/photos/rpp.368548687299836/640332863454749/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -11011,42 +11016,38 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-19 17:56</t>
+          <t>2020-03-20 09:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">โรงพยาบาลรามบุรีรัมย์ </t>
+          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15.004437</v>
+        <v>13.743099</v>
       </c>
       <c r="E190" t="n">
-        <v>103.112176</v>
+        <v>100.588946</v>
       </c>
       <c r="F190" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -11055,12 +11056,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เดินทางจากสหรัฐถึงไทย 16 มี.ค.63 และไปชลบุรี เข้ารับการรักษาอาการไข้ที่โรงพยาบาลเอกชนแห่งหนึ่ง จากนั้นเหมารถแท็กซี่มาบุรีรัมย์</t>
+          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/northeast/1799971</t>
+          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -11070,32 +11071,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-20 09:00</t>
+          <t>2020-03-20 11:30</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>โครงการศุภาลัย ปาร์ค เอกมัย-ทองหล่อ</t>
+          <t>จังหวัดสระบุรี</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>13.743099</v>
+        <v>14.527356</v>
       </c>
       <c r="E191" t="n">
-        <v>100.588946</v>
+        <v>100.910644</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G191" t="n">
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11110,12 +11109,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>(ยืนยัน) อาคารได้รับแจ้งจากผู้พักอาศัยชั้น 22 ยืนยันผลการติดเชื้อโควิด-19 เมื่อวันที่ 20 มีนาคม 2563 ขณะนี้อยู่โรงพยาบาลวิภาราม ชัยปราการแล้ว</t>
+          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-2.fna.fbcdn.net/v/t1.15752-0/p480x480/91052106_1482428641938235_8277373239001350144_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=-xmnkZ2Gvs0AX8nJ3Dx&amp;_nc_ht=scontent.fbkk12-2.fna&amp;_nc_tp=6&amp;oh=7b57315f642f16a9b6c8a78dd824dc14&amp;oe=5EA08D92</t>
+          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -11135,14 +11134,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.527356</v>
+        <v>7.888859</v>
       </c>
       <c r="E192" t="n">
-        <v>100.910644</v>
+        <v>98.39840599999999</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -11163,12 +11162,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สำนักงานประชาสัมพันธ์จังหวัดสระบุรี แจ้งยอดข้อมูลวันที่ 20 มีนาคม เวลา 11.30 มีผู้ป่วยยืนยันติดเชื้อโควิด-19 1 ราย เข้าเกณฑ์สงสัย 37 ราย และรอผลการตรวจ 9 ราย</t>
+          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pr.saraburi08/photos/a.220879808509269/593212704609309/?type=3&amp;theater</t>
+          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -11178,7 +11177,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11188,40 +11187,44 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>โรงพยาบาลเทิง</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>7.888859</v>
+        <v>19.690448</v>
       </c>
       <c r="E193" t="n">
-        <v>98.39840599999999</v>
+        <v>100.176291</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าราชการจังหวัดภูเก็ต แถลงยืนยันว่า จนถึงปัจจุบัน พบผู้ติดเชื้อโควิด-19 แล้ว 5 ราย</t>
+          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/TheSouthernTH/photos/a.107747663929797/220371462667416/?type=3&amp;source=57</t>
+          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -11231,31 +11234,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-20 11:30</t>
+          <t>2020-03-20 13:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>โรงพยาบาลเทิง</t>
+          <t>จังหวัดขอนแก่น</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19.690448</v>
+        <v>16.442351</v>
       </c>
       <c r="E194" t="n">
-        <v>100.176291</v>
+        <v>102.835978</v>
       </c>
       <c r="F194" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11268,17 +11271,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>quarantined</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เทิงพบผู้ต้องสงสัยป่วยโควิด-19 มีรายงานข่าวว่าวันนี้เวลา 11.30 น ที่โรงพยาบาลเทิง มีผู้ต้องสงสัยติดเชื้อไวรัสโคโรน่า 2019 จำนวน 1 คน เป็นชายชาวอำเภอเทิง วัย 35 ปี พึ่งกลับจากกรุงเทพฯ</t>
+          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/penkhaonews/photos/a.652798651516846/1842617455868287/?type=3&amp;theater</t>
+          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -11293,26 +11296,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-20 13:30</t>
+          <t>2020-03-20 14:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>จังหวัดขอนแก่น</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>16.442351</v>
+        <v>14.127509</v>
       </c>
       <c r="E195" t="n">
-        <v>102.835978</v>
+        <v>101.654682</v>
       </c>
       <c r="F195" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11320,8 +11323,10 @@
           <t>Thai</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -11330,12 +11335,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ได้ยืนยันว่าจังหวัดขอนแก่นตรวจพบผู้ติดเชื้อไวรัสโควิด - 19 จริง เป็นเพศหญิง อายุ 37 ปี มีภูมิลำเนาอยู่ที่จังหวัดขอนแก่น โดยเคสนี้เป็นผู้ติดเชื้อจากสนามมวยลุมพินี โดยรายล่าสุดติดจากลุงซึ่งเป็นชาวขอนแก่น แต่ตรวจพบและรักษาอยู่ที่กรุงเทพฯ ได้คลุกคลีกับผู้ติดเชื้อสนามมวยลุมพินี วันที่ 10-13 มี.ค. แล้วป่วยในวันที่ 14 มี.ค. จากนั้นเข้าพบแพทย์ ที่รพ.ศูนย์ขอนแก่นในวันที่ 18 มี.ค.</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>https://www.khonkaenlink.info/home/news/10125.html</t>
+          <t>https://www.matichon.co.th/region/news_2073805</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -11345,42 +11350,38 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020-03-20 14:00</t>
+          <t>2020-03-20 15:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>รพ. มหาราชนครเชียงใหม่</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>14.127509</v>
+        <v>18.789733</v>
       </c>
       <c r="E196" t="n">
-        <v>101.654682</v>
+        <v>98.974171</v>
       </c>
       <c r="F196" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -11389,12 +11390,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด-19 จำนวน 1 รายมีประวัติสัมผัสกับผู้ป่วยที่กรุงเทพ จากผู้เข้าเกณฑ์เฝ้าระวังทั้งหมด 30 ราย / ตรวจไม่พบเชื้อกลับบ้านแล้ว 29 ราย</t>
+          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://www.matichon.co.th/region/news_2073805</t>
+          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -11414,22 +11415,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>รพ. มหาราชนครเชียงใหม่</t>
+          <t>โรงพยาบาลสุราษฎร์ธานี</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18.789733</v>
+        <v>9.124031</v>
       </c>
       <c r="E197" t="n">
-        <v>98.974171</v>
+        <v>99.309859</v>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11444,12 +11443,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทาง รพ. ได้รับผู้ป่วยติดเชื้อโควิด-19 เข้ามารักษาจำนวน 1 ราย และมีผู้เข้าข่ายสงสัยติดเชื้อ รอผลการตรวจทางห้องปฎิบัติการอีก 1 ราย เป็นผู้มีประวัติสัมผัสกับผู้ติดเชื้อเชื่อมโยงกับสนามมวย</t>
+          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/190910644280633/posts/289990932671407</t>
+          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -11459,7 +11458,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11469,23 +11468,27 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>โรงพยาบาลสุราษฎร์ธานี</t>
+          <t>จังหวัดเพชรบูรณ์</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.124031</v>
+        <v>16.426912</v>
       </c>
       <c r="E198" t="n">
-        <v>99.309859</v>
+        <v>101.153556</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -11497,12 +11500,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) ยืนยันพบผู้ป่วย 3 ราย เป็นชายไทยอายุ 49 (ออกข่าวมาก่อนหน้านี้) / หญิงไทยอายุ 29 ปี และหญิงต่างชาติ</t>
+          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1125445010886857/photos/a.1127037167394308/2775281755903166/?type=3&amp;theater</t>
+          <t>https://www.77kaoded.com/content/1429473</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -11512,7 +11515,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11522,27 +11525,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบูรณ์</t>
+          <t>โคแวน แคสเซิส</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16.426912</v>
+        <v>13.730586</v>
       </c>
       <c r="E199" t="n">
-        <v>101.153556</v>
+        <v>100.513634</v>
       </c>
       <c r="F199" t="n">
-        <v>47</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -11554,12 +11553,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เพชรบูรณ์พบผู้ป่วยหญิงติดเชื้อโควิด-19 โผล่รายที่ 2 ติดจากกทม. ภูมิลำเนาอยู่ที่อ.เมือง เพชรบูรณ์ มีประวัติทำงานเป็นไกด์และทำงานที่ร้านคาโอเกะที่ย่านทองหล่อ เดินทางกลับเพชรบูรณ์ทางรถโดยสารประจำทางเมื่อวันที่ 18 มีนาคม โดยออกจากห้องพักย่านสุขุมวิท และขึ้นรถไฟฟ้าใต้ดิน MRT ลงที่สถานีจตุจักร จากนั้นนั่งรถวินมอเตอร์ไซต์ไปที่สถานีหมอชิต หลังซื้อตั่วรถโดยสารเที่ยว 19.00 น.แล้ว จึงนั่งรอขึ้นรถที่บริเวณศูนย์อาหาร</t>
+          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>https://www.77kaoded.com/content/1429473</t>
+          <t>https://www.nationtv.tv/main/content/378766624/</t>
         </is>
       </c>
       <c r="M199" t="n">
@@ -11569,7 +11568,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11579,20 +11578,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>โคแวน แคสเซิส</t>
+          <t>ตึก Gaysorn Tower</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13.730586</v>
+        <v>13.74596</v>
       </c>
       <c r="E200" t="n">
-        <v>100.513634</v>
+        <v>100.540751</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="n">
-        <v>0</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -11602,17 +11603,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องด้วยคืนวันที่ 18 มี.ค.63 เวลาประมาณ 23.00 น. ริเวอร์ซิตี้ แบงค๊อก ได้รับแจ้งว่ามีพนักงานของโค แวน แคสเซิล คนหนึ่งติดเชื้อไวรัสโควิด-19 จากการตรวจที่ห้องปฏิบัติการโรงพยาบาลรามาธิบดี ซึ่งให้ผลเป็นบวก ในวันที่ 17 มี.ค.63</t>
+          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378766624/</t>
+          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -11622,7 +11623,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11632,14 +11633,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ตึก Gaysorn Tower</t>
+          <t>THE PARKLAND บางนา-ตราด</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.74596</v>
+        <v>13.667345</v>
       </c>
       <c r="E201" t="n">
-        <v>100.540751</v>
+        <v>100.650481</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -11657,17 +11658,17 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(อัพเดทสถานการณ์) เกษรวิลเลจได้รับการยืนยันจากผู้เช่าชั้น 27 ว่ามีผู้ติดเชื้อไวรัสโควิด-19 ในวันที่ 20 มีนาคม 2563 ได้มีการปิดชั้น 27 เพื่อทำการฆ่าเชื้อแล้ว </t>
+          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/GaysornVillage/posts/10158167292813489</t>
+          <t>https://imgur.com/tXFPQlJ</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -11677,32 +11678,30 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2020-03-20 15:00</t>
+          <t>2020-03-20 16:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>THE PARKLAND บางนา-ตราด</t>
+          <t>จังหวัดสุรินทร์</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.667345</v>
+        <v>14.836452</v>
       </c>
       <c r="E202" t="n">
-        <v>100.650481</v>
+        <v>103.476803</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G202" t="n">
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -11717,12 +11716,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้พักอาศัยในโครงการได้ไปทำการตรวจโควิด-19 ที่รพ.รามาธิบดี บางพลี และผลตรวจยืนยันว่าพบเชื้อในวันที่ 19 มีนาคม 2563 ทางบริษัท PCS ได้เข้ามาฉีดฆ่าเชื้อแล้วในวันเสาร์ที่ 21 มีนาคม 2563 พร้อมกับได้ให้ทางครอบครัวคนไข้กักตัวในบริเวณบ้านพัก เพื่อรอการผลการตรวจต่อไป</t>
+          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>https://imgur.com/tXFPQlJ</t>
+          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -11732,7 +11731,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11742,20 +11741,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>จังหวัดสุรินทร์</t>
+          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14.836452</v>
+        <v>17.198818</v>
       </c>
       <c r="E203" t="n">
-        <v>103.476803</v>
+        <v>102.457285</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -11770,12 +11771,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) จังหวัดสุรินทร์ แถลงข่าว สถานการณ์โรคติดต่อเชื้อไวรัสโควิด-19 สุรินทร์ พบผู้ป่วยแล้ว 3 คน</t>
+          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/SurinBiz/photos/a.1184465351587652/3059861740714661/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
         </is>
       </c>
       <c r="M203" t="n">
@@ -11785,31 +11786,31 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>suspected</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-03-20 16:00</t>
+          <t>2020-03-20 18:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>The Hive ทองหล่อ</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>17.198818</v>
+        <v>13.731984</v>
       </c>
       <c r="E204" t="n">
-        <v>102.457285</v>
+        <v>100.57661</v>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -11820,17 +11821,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>(ยืนยัน) วันที่ 20 มี.ค. 63 พบผู้ติดเชื้อไวรัสโคโรนา2019 จ.หนองบัวลำภู คนแรก เป็นชาย อายุ 38 ปี ภูมิลำเนา ต.บ้านขาม อ.เมืองหนองบัวลำภู</t>
+          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1957771564484143/posts/2516518535276107/</t>
+          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -11845,47 +11846,51 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2020-03-20 18:00</t>
+          <t>2020-03-20 18:20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The Hive ทองหล่อ</t>
+          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13.731984</v>
+        <v>13.746522</v>
       </c>
       <c r="E205" t="n">
-        <v>100.57661</v>
+        <v>100.529104</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เนื่องจากได้รับการยืนยันว่ามีผู้ติดเชื้อโควิด-19 ที่ The Hive จึงปิด The hive พระโขนงและทองหล่อ เป็นเวลา 2 สัปดาห์ และเปิดอีกครั้งในวันที่ 6 เมษายน 2563</t>
+          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thehiveprakanong/photos/a.303095536692859/1133113783691026/?type=3&amp;theater</t>
+          <t>https://www.thairath.co.th/news/crime/1800034</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -11895,56 +11900,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>suspected</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2020-03-20 18:20</t>
+          <t>2020-03-20 21:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>สถานีรถไฟฟ้าสนามกีฬาแห่งชาติ</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.746522</v>
+        <v>18.789733</v>
       </c>
       <c r="E206" t="n">
-        <v>100.529104</v>
+        <v>98.974171</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>(คำชี้แจง) เกิดเหตุชายไทย (มีอาการทางจิตเล็กน้อย) ป้ายน้ำลายทั่วลิฟต์บีทีเอส</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/crime/1800034</t>
+          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -11964,20 +11963,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงใหม่</t>
+          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.789733</v>
+        <v>13.783453</v>
       </c>
       <c r="E207" t="n">
-        <v>98.974171</v>
+        <v>100.546504</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -11992,12 +11993,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อ 7 ราย เพิ่มจากของเดิม 5 ราย กลับบ้านแล้ว 1 ราย อยู่ใน รพ. 6 ราย</t>
+          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Chiangmaidatacenter/photos/a.102084031436695/103125247999240/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -12007,7 +12008,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12017,14 +12018,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19</t>
+          <t>จังหวัดราชบุรี</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13.783453</v>
+        <v>13.694593</v>
       </c>
       <c r="E208" t="n">
-        <v>100.546504</v>
+        <v>99.851686</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -12040,19 +12041,17 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J208" t="n">
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>(ยืนยัน) บริษัทได้รับรายงานว่า มีพนักงาน 1 ราย ซ่งปฎิบัติหน้าที่ ณ อาคารเอไอเอส ทาวเวอร์ 1 ชั้น 19 ได้รับการยืนยันจากแพทย์เมื่อคืนวันศุกร์ที่ 20 มีนาคม 2563 ว่าติดเชื้อไวรัสโควิด-19 โดยพนักงานดังกล่าวมิได้มีหน้าที่ปฏิบัติงานเกี่ยวกับการให้บริการลูกค้าแต่อย่างใด</t>
+          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AIS/photos/pb.127434041553.-2207520000../10158829254846554/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -12062,7 +12061,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -12072,21 +12071,21 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>จังหวัดเชียงใหม่</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.694593</v>
+        <v>18.79029</v>
       </c>
       <c r="E209" t="n">
-        <v>99.851686</v>
+        <v>98.964538</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -12095,17 +12094,19 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>0</v>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) จากเพจ "อีจัน" ที่แจ้งว่ามีผู้ป่วยติดเชื้อโควิด-19 3 ราย ไม่เป็นความจริง //ข้อมูลล่าสุด ณ เวลานี้ คือติดเชื้อ 1 ราย</t>
+          <t>(ยืนยัน) จังหวัดเชียงใหม่ มีผู้ป่วยติดเชื้อเพิ่มอีก 1 ราย เป็นลูกสาวของผู้ติดเชื้อเดิม</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/posts/2512381082410733/</t>
+          <t>https://www.posttoday.com/social/local/618539?fbclid=IwAR2tASpRqcbyMzr_qruzy9724euSb7NQMQoS3VFbH40JdVoIsoHtxP4qfq4</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -13575,24 +13576,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2020-03-23 14:06</t>
+          <t>2020-03-23 12:30</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>จังหวัดแพร่</t>
+          <t>ฮาร์เบอร์ ออฟฟิศ</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>18.1009878</v>
+        <v>13.079526</v>
       </c>
       <c r="E236" t="n">
-        <v>100.2810275</v>
+        <v>100.921558</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -13608,17 +13609,18 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>quarantined</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
+          <t>(อัปเดทสถานการณ์) จากกรณีที่พนักงาน Roojai.com คนหนึ่ง มีความเสี่ยงว่าอาจจะได้รับเชื้อ COVID-19 นั้น
+พนักงานคนดังกล่าวได้ดำเนินการตรวจเชื้อเป็นที่เรียบร้อยแล้ว ซึ่งได้ผลเป็นลบ หรือหมายถึงไม่ได้ติดเชื้อ COVID-19</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
+          <t>https://www.roojai.com/article/news-activity/navigating-covid-19-update/?fbclid=IwAR3uAuzZdk6dbxRUlFpb_cJZ4mu-tf2tPzmN5VeeYXASlEbChZHBx_wuQGY</t>
         </is>
       </c>
       <c r="M236" t="n">
@@ -13633,49 +13635,45 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-03-23 14:14</t>
+          <t>2020-03-23 14:06</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>จังหวัดเพชรบุรี</t>
+          <t>จังหวัดแพร่</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>13.11181</v>
+        <v>18.1009878</v>
       </c>
       <c r="E237" t="n">
-        <v>99.945353</v>
+        <v>100.2810275</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
+          <t>(ยืนยัน) พบผู้ป่วยติดเชื้อ 1 ราย มีีประวัติการไปที่สนามมวยลุมพินี , สนามมวยช่อง 7 ,สนามชนไก่ 2 ที่ ตอนนี้รักษาตัวอยู่ที่โรงพยาบาล ( และกักตัวผู้ที่มีความใกล้ชิดกว่า 60 คน)</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
+          <t>https://www.facebook.com/2140592272664794/videos/2507237839605408/?vh=e</t>
         </is>
       </c>
       <c r="M237" t="n">
@@ -13685,30 +13683,32 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020-03-23 15:30</t>
+          <t>2020-03-23 14:14</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
+          <t>จังหวัดเพชรบุรี</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>13.6908986</v>
+        <v>13.11181</v>
       </c>
       <c r="E238" t="n">
-        <v>102.5030711</v>
+        <v>99.945353</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
-      <c r="G238" t="n">
-        <v>0</v>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -13725,12 +13725,12 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
+          <t>(ยืนยัน) ผู้ว่าฯเพชรบุรี แถลงพบผู้ติดเชื้อโควิด19 ที่เพชรบุรี 1 ราย เป็นผู้ใกล้ชิดผู้ป่วยที่จังหวัดประจวบคีรีขันธ์ และกำลังเฝ้ากักตัวผู้ใช้ชิด 14 วัน</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
+          <t>https://www.facebook.com/watch/?v=1068290733542862</t>
         </is>
       </c>
       <c r="M238" t="n">
@@ -13745,27 +13745,25 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2020-03-23 15:34</t>
+          <t>2020-03-23 15:30</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
+          <t>โรงพยาบาลอรัญประเทศ จังหวัดสระแก้ว</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>13.8577378</v>
+        <v>13.6908986</v>
       </c>
       <c r="E239" t="n">
-        <v>100.5360211</v>
+        <v>102.5030711</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="G239" t="n">
+        <v>0</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -13782,12 +13780,12 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
+          <t>(ยืนยัน) แถลงพบผู้ป่วยยืนยันจำนวน 2 ราย เป็นเพศชาย อายุ 29 ปี ภูมิลำเนา จ.สมุทรปราการ มีประวัติสัมพันธ์กับนักท่องเที่ยวในปอยเปต และเพศหญิง อายุ 27 ปี ภูมิลำเนาจังหวัดสระแก้ว แต่มีประวัติเสี่ยงสูงคือสัมผัสกับผู้ป่วยที่ยืนยัน ขณะนี้ทั้งคู่เข้ารับการรักษาที่โรงพยาบาลอรัญประเทศ อาการไม่รุนแรง</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
+          <t>https://m.facebook.com/170117163028534/posts/3829671397073074/</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -13797,50 +13795,54 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sanitized</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-03-23 17:04</t>
+          <t>2020-03-23 15:34</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>โรงพยาบาลแม่สอดราม</t>
+          <t>ห้างพันธุ์ทิพย์ งามวงศ์วาน</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>16.710895</v>
+        <v>13.8577378</v>
       </c>
       <c r="E240" t="n">
-        <v>98.564061</v>
+        <v>100.5360211</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
-      <c r="G240" t="n">
-        <v>0</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผู้ติดเชื้อCOVID-19 เป็นผู้ป่วยยืนยันของโรงพยาบาลแม่สอด ทางโรงพยาบาลแม่สอดราม ได้ทำความสะอาดฆ่าเชื้อด้วยวิธีมาตรฐานในทุกที่ที่ผู้ป่วยคนนี้สัมผัส ทันทีที่ผู้ป่วยรายนี้ถูกส่งตัวออกไป</t>
+          <t>(ยืนยัน) ห้างพันธุ์ทิพย์ งามวงศ์วานประกาศ ว่าวันที่ 22 มีนาคมพบผู้ติดเชื้อ 1 ราย เป็นผู้ประกอบการร้านประเภทธุรกิจมือถือ ชั้น 4 ซึ่งมีประวัติเกี่ยวข้องกับสนามมวย</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1589835417932797/posts/2474728002776863/</t>
+          <t>https://www.khaosod.co.th/covid-19/news_3805890</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -13850,24 +13852,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2020-03-23 17:36</t>
+          <t>2020-03-23 17:04</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
+          <t>โรงพยาบาลแม่สอดราม</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>14.6903685</v>
+        <v>16.710895</v>
       </c>
       <c r="E241" t="n">
-        <v>100.8077161</v>
+        <v>98.564061</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -13881,17 +13883,19 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>0</v>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
+          <t>(ยืนยัน) ผู้ติดเชื้อCOVID-19 เป็นผู้ป่วยยืนยันของโรงพยาบาลแม่สอด ทางโรงพยาบาลแม่สอดราม ได้ทำความสะอาดฆ่าเชื้อด้วยวิธีมาตรฐานในทุกที่ที่ผู้ป่วยคนนี้สัมผัส ทันทีที่ผู้ป่วยรายนี้ถูกส่งตัวออกไป</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
+          <t>https://www.facebook.com/1589835417932797/posts/2474728002776863/</t>
         </is>
       </c>
       <c r="M241" t="n">
@@ -13901,56 +13905,48 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2020-03-23 17:54</t>
+          <t>2020-03-23 17:36</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
+          <t>จังหวัดสระบุรี / อำเภอพระพุทธบาท</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>13.6783729</v>
+        <v>14.6903685</v>
       </c>
       <c r="E242" t="n">
-        <v>100.5136153</v>
+        <v>100.8077161</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
+          <t>(ข่าวปลอม) พบผู้ติดเชื้อ COVID-19 ที่โรงพยาบาลแห่งหนึ่งในอำเภอพระพุทธบาท จังหวัดสระบุรี เป็นข้อมูลเท็จ</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
+          <t>http://fm91bkk.com/%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%8A%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%8A-4</t>
         </is>
       </c>
       <c r="M242" t="n">
@@ -13960,24 +13956,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2020-03-23 18:52</t>
+          <t>2020-03-23 17:54</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>จังหวัดนราธิวาส</t>
+          <t>ธนาคารกสิกรสำนักงานใหญ่ กรุงเทพฯ</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>6.1174893</v>
+        <v>13.6783729</v>
       </c>
       <c r="E243" t="n">
-        <v>101.7888233</v>
+        <v>100.5136153</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -13987,25 +13983,29 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
+          <t>(ยืนยัน) พนักงานธนาคารกสิกร สำนักงานใหญ่ ชั้น 34 ติดเชื้อ โควิด-19 ขณะนี้รักษาตัวอยู่ที่โรงพยาบาล พนักงานรายดังกล่าวไม่ได้ทำงานในส่วนบริการลูกค้า และยังไม่พบว่าผู้ที่ใกล้ชิดติดเชื้อเพิ่มเติม</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>https://www.thairath.co.th/news/local/south/1801359</t>
+          <t>https://www.facebook.com/127610057890/posts/10159544854597891/?d=n</t>
         </is>
       </c>
       <c r="M243" t="n">
@@ -14020,19 +14020,19 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2020-03-23 22:22</t>
+          <t>2020-03-23 18:52</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>อาคารทรู ทาวเวอร์ 1</t>
+          <t>จังหวัดนราธิวาส</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>13.7625241</v>
+        <v>6.1174893</v>
       </c>
       <c r="E244" t="n">
-        <v>100.5677793</v>
+        <v>101.7888233</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -14042,10 +14042,8 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H244" t="n">
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -14057,12 +14055,12 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
+          <t>(ยืนยัน) ศูนย์ปฏิบัติการภาวะฉุกเฉิน หรือ EOC COVID-19 จังหวัดนราธิวาส ได้รายงานข้อมูลสถานการณ์โรคติดเชื้อ พบผู้ป่วยยืนยันติดเชื้อ จำนวน 6 ราย และผู้ป่วยเข้าเกณฑ์สอบสวนโรคเฝ้าระวัง จำนวน 103 ราย</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
+          <t>https://www.thairath.co.th/news/local/south/1801359</t>
         </is>
       </c>
       <c r="M244" t="n">
@@ -14077,19 +14075,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2020-03-24 06:00</t>
+          <t>2020-03-23 22:22</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>จังหวัดสงขลา</t>
+          <t>อาคารทรู ทาวเวอร์ 1</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>7.197264</v>
+        <v>13.7625241</v>
       </c>
       <c r="E245" t="n">
-        <v>100.592928</v>
+        <v>100.5677793</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -14099,25 +14097,27 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ยอดผู้ป่วยจังหวัดสงขลา เพิ่มเป็น 18 ราย เป็นชาวสงขลา 13 ราย และต่างจังหวัด 5 ราย กลับจากเข้าร่วมพิธีทางศาสนาที่มาเลเซียและที่สนามมวย กรุงเทพมหานคร</t>
+          <t>(ยืนยัน) ทรูแจ้ง ได้รับการยืนยันจากแพทย์ว่า พนักงานติดเชื้อไวัส 1 รายจึงได้เร่งประสานดูแลส่งตัวพนักงานคนดังกล่าวเข้ารับการรักษาพยาบาลทันที และกักตัวผู้บริหาร และพนักงานใกล้ชิด ทั้งนี้พนักงานผู้ติดเชื้อไม่ได้อยู่ในส่วนของการบริการลูกค้าแต่อย่างใด</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo?fbid=2894508087296071&amp;set=a.107256766021231</t>
+          <t>https://www.khaosod.co.th/breaking-news/news_3808631</t>
         </is>
       </c>
       <c r="M245" t="n">
@@ -14132,25 +14132,27 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00</t>
+          <t>2020-03-24 06:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>จังหวัดนนทบุรี</t>
+          <t>จังหวัดสงขลา</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>13.863355</v>
+        <v>7.197264</v>
       </c>
       <c r="E246" t="n">
-        <v>100.513671</v>
+        <v>100.592928</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
       </c>
-      <c r="G246" t="n">
-        <v>0</v>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14158,17 +14160,19 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>0</v>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์จังหวัดนนทบุรี 24 มีนาคม 2563 มีผู้ป่วยยืนยัน 30 คน หายแล้ว 2 คน ยังรักษาอยู่ 28 คน</t>
+          <t>(ยืนยัน) ยอดผู้ป่วยจังหวัดสงขลา เพิ่มเป็น 18 ราย เป็นชาวสงขลา 13 ราย และต่างจังหวัด 5 ราย กลับจากเข้าร่วมพิธีทางศาสนาที่มาเลเซียและที่สนามมวย กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo/?fbid=640575793430440&amp;set=a.312199156268107</t>
+          <t>https://www.facebook.com/photo?fbid=2894508087296071&amp;set=a.107256766021231</t>
         </is>
       </c>
       <c r="M246" t="n">
@@ -14188,22 +14192,20 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>จังหวัดปราจีนบุรี</t>
+          <t>จังหวัดนนทบุรี</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>14.045423</v>
+        <v>13.863355</v>
       </c>
       <c r="E247" t="n">
-        <v>101.368744</v>
+        <v>100.513671</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
+      <c r="G247" t="n">
+        <v>0</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14211,19 +14213,17 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J247" t="n">
+        <v>0</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จังหวัดปราจีนบุรี พบผู้ติดโควิด-19 อีก 2 ราย อายุ43และ64ปี รวมปัจจุบันเป็น 3 ราย</t>
+          <t>(ยืนยัน) สถานการณ์จังหวัดนนทบุรี 24 มีนาคม 2563 มีผู้ป่วยยืนยัน 30 คน หายแล้ว 2 คน ยังรักษาอยู่ 28 คน</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1594829844145694/videos/280283009622389/</t>
+          <t>https://www.facebook.com/photo/?fbid=640575793430440&amp;set=a.312199156268107</t>
         </is>
       </c>
       <c r="M247" t="n">
@@ -14238,19 +14238,19 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-03-24 09:00</t>
+          <t>2020-03-24 08:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>จังหวัดจันทบุรี</t>
+          <t>จังหวัดปราจีนบุรี</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>12.594541</v>
+        <v>14.045423</v>
       </c>
       <c r="E248" t="n">
-        <v>102.093009</v>
+        <v>101.368744</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -14273,12 +14273,12 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขจันทบุรี พบผู้ติดเชื้อรายที่ 2 อาชีพรถขับ-ส่ง นักท่องเที่ยว</t>
+          <t>(ยืนยัน) จังหวัดปราจีนบุรี พบผู้ติดโควิด-19 อีก 2 ราย อายุ43และ64ปี รวมปัจจุบันเป็น 3 ราย</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo?fbid=1442835212565642&amp;set=a.240477356134773</t>
+          <t>https://www.facebook.com/1594829844145694/videos/280283009622389/</t>
         </is>
       </c>
       <c r="M248" t="n">
@@ -14298,27 +14298,25 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>อำเภอมหาราช จังหวัดพระนครศรีอยุธยา</t>
+          <t>จังหวัดจันทบุรี</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>14.566764</v>
+        <v>12.594541</v>
       </c>
       <c r="E249" t="n">
-        <v>100.519318</v>
+        <v>102.093009</v>
       </c>
       <c r="F249" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -14330,12 +14328,12 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ผลตรวจยืนยันโควิด-19 ผู้ป่วยมีภูมิลำเนาอำเภอมหาราช จังหวัดพระนครศรีอยุธยา ตรวจที่สถาบันบำราศนราดูร วันที่ 23 มีนาคม 2563 และเริ่มป่วยตั้งแต่ 16 มีนาคม 2563</t>
+          <t>(ยืนยัน) สาธารณะสุขจันทบุรี พบผู้ติดเชื้อรายที่ 2 อาชีพรถขับ-ส่ง นักท่องเที่ยว</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>https://scontent.fbkk12-3.fna.fbcdn.net/v/t1.15752-0/p480x480/90999310_1357385664444783_4657494318540390400_n.jpg?_nc_cat=102&amp;_nc_sid=b96e70&amp;_nc_ohc=ToU9y8qnCDcAX8lOkia&amp;_nc_ht=scontent.fbkk12-3.fna&amp;_nc_tp=6&amp;oh=e082301db359ed73596f8a27a6fd1f32&amp;oe=5E9E93B1</t>
+          <t>https://www.facebook.com/photo?fbid=1442835212565642&amp;set=a.240477356134773</t>
         </is>
       </c>
       <c r="M249" t="n">
@@ -14345,48 +14343,54 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fake_news</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2020-03-24 09:53</t>
+          <t>2020-03-24 09:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>อำเภอมหาราช จังหวัดพระนครศรีอยุธยา</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>13.72624</v>
+        <v>14.566764</v>
       </c>
       <c r="E250" t="n">
-        <v>100.526799</v>
+        <v>100.519318</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>0</v>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
+          <t>(ยืนยัน) ผลตรวจยืนยันโควิด-19 ผู้ป่วยมีภูมิลำเนาอำเภอมหาราช จังหวัดพระนครศรีอยุธยา ตรวจที่สถาบันบำราศนราดูร วันที่ 23 มีนาคม 2563 และเริ่มป่วยตั้งแต่ 16 มีนาคม 2563</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/ict/news-436572</t>
+          <t>https://scontent.fbkk12-3.fna.fbcdn.net/v/t1.15752-0/p480x480/90999310_1357385664444783_4657494318540390400_n.jpg?_nc_cat=102&amp;_nc_sid=b96e70&amp;_nc_ohc=ToU9y8qnCDcAX8lOkia&amp;_nc_ht=scontent.fbkk12-3.fna&amp;_nc_tp=6&amp;oh=e082301db359ed73596f8a27a6fd1f32&amp;oe=5E9E93B1</t>
         </is>
       </c>
       <c r="M250" t="n">
@@ -14396,24 +14400,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>fake_news</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2020-03-24 11:29</t>
+          <t>2020-03-24 09:53</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>จังหวัดภูเก็ต</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7.888747</v>
+        <v>13.72624</v>
       </c>
       <c r="E251" t="n">
-        <v>98.39841</v>
+        <v>100.526799</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -14427,19 +14431,17 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J251" t="n">
+        <v>0</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ภูเก็ตพบผู้ติดเชื้อโควิด-19 รายใหม่เพิ่มขึ้น 9 ราย รวมยอดสะสมแล้ว 26 ราย ทุกรายอาการอยู่ในเกณฑ์ดี ไม่มีอาการรุนแรง</t>
+          <t>(ข่าวปลอม) รายงานข่าวจาก บริษัท เคอรี่ เอ็กซ์เพรส (ประเทศไทย) จำกัด (มหาชน) แจ้งว่าตามที่ได้มีกระแสข่าวทางโซเชียลมีเดียวามีพนักงานบริษัท เคอรี่ เอ็กซ์เพรส ติดเชื้อโควิด-19 นั้น ทางบริษัทฯขอยืนยันว่า ไม่เป็นความจริง</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/NewshawkPhuket/photos/a.1582338055349378/2531978563718651/?type=3&amp;theater</t>
+          <t>https://www.prachachat.net/ict/news-436572</t>
         </is>
       </c>
       <c r="M251" t="n">
@@ -14449,54 +14451,50 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2020-03-24 16:46</t>
+          <t>2020-03-24 11:29</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+          <t>จังหวัดภูเก็ต</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>13.0911754</v>
+        <v>7.888747</v>
       </c>
       <c r="E252" t="n">
-        <v>100.9027354</v>
+        <v>98.39841</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
+          <t>(ยืนยัน) ภูเก็ตพบผู้ติดเชื้อโควิด-19 รายใหม่เพิ่มขึ้น 9 ราย รวมยอดสะสมแล้ว 26 ราย ทุกรายอาการอยู่ในเกณฑ์ดี ไม่มีอาการรุนแรง</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>https://www.prachachat.net/motoring/news-436958</t>
+          <t>https://www.facebook.com/NewshawkPhuket/photos/a.1582338055349378/2531978563718651/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M252" t="n">
@@ -14506,31 +14504,31 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2020-03-24 16:51</t>
+          <t>2020-03-24 16:46</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>19.9007421</v>
+        <v>13.0911754</v>
       </c>
       <c r="E253" t="n">
-        <v>99.829194</v>
+        <v>100.9027354</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -14543,17 +14541,17 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
+          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
+          <t>https://www.prachachat.net/motoring/news-436958</t>
         </is>
       </c>
       <c r="M253" t="n">
@@ -14568,26 +14566,26 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2020-03-24 19:00</t>
+          <t>2020-03-24 16:51</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>จังหวัดอยุธยา</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>14.3532127</v>
+        <v>19.9007421</v>
       </c>
       <c r="E254" t="n">
-        <v>100.56896</v>
+        <v>99.829194</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>female</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -14600,17 +14598,17 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>transferred</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สาธารณะสุขอยุธยา พบผู้ป่วยติดเชื้อ 1 รายในอำเภอแห่งหนึ่ง ขณะนี้เข้ารับการรักษาอยู่ที่ รพ. ในกรุงเทพมหานคร</t>
+          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo.php?fbid=1702103989932241&amp;set=a.1280801768729134&amp;type=3&amp;theater</t>
+          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
         </is>
       </c>
       <c r="M254" t="n">
@@ -14677,37 +14675,35 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-03-25 11:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>จังหวัดพิษณุโลก</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16.808342</v>
+        <v>13.784392</v>
       </c>
       <c r="E256" t="n">
-        <v>100.263524</v>
+        <v>100.547092</v>
       </c>
       <c r="F256" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14719,16 +14715,393 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2020-03-25 10:30</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ธนาคารไทยพาณิชย์ สำนักงานใหญ่ ชั้น21 โซนA</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>13.826762</v>
+      </c>
+      <c r="E257" t="n">
+        <v>100.564328</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) ทางธนาคารไทยพาณิชย์ หรือ SCB ได้รับรายงานว่า มีพนักงานของธนาคารที่ปฏิบัติงานที่ชั้น 21 โซน A อาคารสำนักงานใหญ่ รัชโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโคโรนา 2019</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thestandardth/photos/a.1725541161072102/2391321721160706/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>จังหวัดพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>16.808342</v>
+      </c>
+      <c r="E258" t="n">
+        <v>100.263524</v>
+      </c>
+      <c r="F258" t="n">
+        <v>43</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2020-03-25 11:30</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>17.700635</v>
+      </c>
+      <c r="E259" t="n">
+        <v>103.260393</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2020-03-25 12:15</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>13.690881</v>
+      </c>
+      <c r="E260" t="n">
+        <v>102.502987</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) นายแพทย์สาธารณสุขจังหวัดสระแก้ว แถลงยอดผู้ป่วยโควิด-19 ยืนยันเพิ่มอีก 4 ราย รวม 6 ราย มีผู้ป่วยเข้าเกณฑ์เฝ้าระวังสะสม 80 ราย</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/170117163028534/posts/3837455822961298/?d=n</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>จังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>13.694595</v>
+      </c>
+      <c r="E261" t="n">
+        <v>99.85168299999999</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2020-03-25 13:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ป็อปปูล่าคอนโดมิเนียมเมืองทอง อาคาร T7</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>13.916628</v>
+      </c>
+      <c r="E262" t="n">
+        <v>100.556343</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้พักอาศัยภายในอาคารติดเชื้อโควิด-19 ได้มีการรับตัวไปรักษาพยาบาลแล้ว ทั้งนี้ได้จัดส่งทีม M safe เข้าทำความสะอาดพื้นผิวสัมผัสทั้งหมดแล้ว</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>https://scontent.xx.fbcdn.net/v/t1.15752-0/p480x480/90595301_508386916511507_1934201512020410368_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=BZOeswqbAjAAX-cylUd&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zor=9&amp;_nc_ht=scontent.xx&amp;_nc_tp=6&amp;oh=aa63b0c7a33dc3d4a8ec9602f1cfa530&amp;oe=5EA2A917</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2020-03-25 21:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>แอททรีคอนโด</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>16.795958</v>
+      </c>
+      <c r="E263" t="n">
+        <v>100.254651</v>
+      </c>
+      <c r="F263" t="n">
+        <v>43</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 เป็นผู้พักอาศัยในอาคารชุด "แอททรีคอนโด" ถนนบึงพระจันทร์ รวมผู้ป่วยยืนยันในพื้นที่จังหวัดพิษณุโลกจำนวน 3 ราย</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo?fbid=3193851474173270&amp;set=pcb.3193853007506450</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/5lab.xlsx
+++ b/datasets/5lab.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14504,24 +14504,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2020-03-24 16:46</t>
+          <t>2020-03-24 12:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
+          <t>อาคารคอนโดชุด ชาวโตว์ อินทาวน์ พหลโยนธิน</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>13.0911754</v>
+        <v>13.8295163</v>
       </c>
       <c r="E253" t="n">
-        <v>100.9027354</v>
+        <v>100.5725924</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -14531,10 +14531,8 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+      <c r="H253" t="n">
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -14546,13 +14544,11 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
-        </is>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>https://www.prachachat.net/motoring/news-436958</t>
-        </is>
+          <t>(ประกาศ) เอกสารประกาศจากนิติบุคคล ชาวโตว์ ตรวจพบผู้ติดเชื้อภายในโครงการชั้น 8 เข้ารับการตรวจที่ รพ. เปาโลเกษตร แล้วแต่เตียงไม่พอสำหรับผู้ป่วยจึงให้กลับมาพักที่บ้าน</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
       </c>
       <c r="M253" t="n">
         <v>251</v>
@@ -14561,31 +14557,31 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2020-03-24 16:51</t>
+          <t>2020-03-24 16:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>จังหวัดเชียงราย</t>
+          <t>รพ.เชียงรายประชานุเคราะห์</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>19.9007421</v>
+        <v>19.9007705</v>
       </c>
       <c r="E254" t="n">
-        <v>99.829194</v>
+        <v>99.8291772</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -14603,12 +14599,12 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
+          <t>(ยื่นยัน) สสจ.เชียงราย พบผู้ป่วยติดเชื้อ รายที่ 3 เป็นชายวัย 33 ปี กลุ่มผับทองหล่อ เข้ารักษาตัวที่ รพ.เชียงรายประชานุเคราะห์ นั่งสมบัติทัวร์ 19.15 น. กรุงเทพฯ-เชียงแสน กลับ อ.แม่จัน เร่งตามกลุ่มเสี่ยง 30-40 คนด่วน คาดอาจต้องขอปิดทั้ง อ.แม่จัน</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
+          <t>https://www.thairath.co.th/news/local/north/1802889</t>
         </is>
       </c>
       <c r="M254" t="n">
@@ -14623,26 +14619,26 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2020-03-24 19:00</t>
+          <t>2020-03-24 16:46</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>ธ.กรุงไทย สาขาสามแยกปักธงชัย</t>
+          <t>มิตซูบิชิ โรงงานแหลมฉบัง</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14.9583324</v>
+        <v>13.0911754</v>
       </c>
       <c r="E255" t="n">
-        <v>102.0480826</v>
+        <v>100.9027354</v>
       </c>
       <c r="F255" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -14660,12 +14656,12 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>(ยืนยัน) จนท.นับเงิน ธ.กรุงไทย สาขาสามแยกปักธงชัย ติดเชื้อรายเพิ่ม 1 ราย ล่าสุดรวม 6 ราย (,มีประวัติใกล้ชิดผู้ป่วยรายที่ 5) และเร่งตามกลุ่มเสี่ยง 101 คน อ.ประทาย และ อ.บ้านแฮด จ.ขอนแก่น เข้าระบบคัดกรอง</t>
+          <t>(ยืนยัน) มิตซูบิชิ มอเตอร์ส (ประเทศไทย) จำกัด ได้ ออกจดหมายแถลงการยืนยันมีพนักงงานติดเชื้อ จำนวน 1 ราย เข้ารับการรักษาด้วยอาการไข้ที่โรงพยาบาล18 มีนาคม และได้รับการแจ้งผลยืนยันการติดเชื้อ ในวันที่ 23 มีนาคม</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>https://www.nationtv.tv/main/content/378767258/?qj=</t>
+          <t>https://www.prachachat.net/motoring/news-436958</t>
         </is>
       </c>
       <c r="M255" t="n">
@@ -14675,35 +14671,37 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sanitizing</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-03-24 20:00</t>
+          <t>2020-03-24 16:51</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Ari Hill พหลโยธิน ชั้น 20</t>
+          <t>จังหวัดเชียงราย</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>13.784392</v>
+        <v>19.9007421</v>
       </c>
       <c r="E256" t="n">
-        <v>100.547092</v>
+        <v>99.829194</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14715,12 +14713,12 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
+          <t>(ยืนยัน) เชียงรายพบผู้ติดเชื้อโควิด-19 จำนวน 3 คน เป็นผู้โดยสารครอบครัวเดียวกันที่เดินทางโดยรถสมบัติทัวร์ กรุงเทพ- เชียงแสน ปรับอากาศ VIP ทะเบียน 16-3473 กทม. วันที่ 21 มี.ค.ที่ผ่านมา เวลา 19.15 น.</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
+          <t>https://news.thaipbs.or.th/content/290183?fbclid=IwAR2_lsGMfCSZ0HSPVGi5ZCutgzVlbHnVkgyM3yNuUfkGQIaCfuZXSEL6C3g</t>
         </is>
       </c>
       <c r="M256" t="n">
@@ -14735,45 +14733,49 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2020-03-25 10:30</t>
+          <t>2020-03-24 19:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>ธนาคารไทยพาณิชย์ สำนักงานใหญ่ ชั้น21 โซนA</t>
+          <t>ธ.กรุงไทย สาขาสามแยกปักธงชัย</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>13.826762</v>
+        <v>14.9583324</v>
       </c>
       <c r="E257" t="n">
-        <v>100.564328</v>
+        <v>102.0480826</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>(ยืนยัน) ทางธนาคารไทยพาณิชย์ หรือ SCB ได้รับรายงานว่า มีพนักงานของธนาคารที่ปฏิบัติงานที่ชั้น 21 โซน A อาคารสำนักงานใหญ่ รัชโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโคโรนา 2019</t>
+          <t>(ยืนยัน) จนท.นับเงิน ธ.กรุงไทย สาขาสามแยกปักธงชัย ติดเชื้อรายเพิ่ม 1 ราย ล่าสุดรวม 6 ราย (,มีประวัติใกล้ชิดผู้ป่วยรายที่ 5) และเร่งตามกลุ่มเสี่ยง 101 คน อ.ประทาย และ อ.บ้านแฮด จ.ขอนแก่น เข้าระบบคัดกรอง</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/thestandardth/photos/a.1725541161072102/2391321721160706/?type=3&amp;theater</t>
+          <t>https://www.nationtv.tv/main/content/378767258/?qj=</t>
         </is>
       </c>
       <c r="M257" t="n">
@@ -14783,37 +14785,35 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitizing</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-03-25 11:00</t>
+          <t>2020-03-24 20:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>จังหวัดพิษณุโลก</t>
+          <t>Ari Hill พหลโยธิน ชั้น 20</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>16.808342</v>
+        <v>13.784392</v>
       </c>
       <c r="E258" t="n">
-        <v>100.263524</v>
+        <v>100.547092</v>
       </c>
       <c r="F258" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -14825,12 +14825,12 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
+          <t>(ยืนยัน) ธนาคารฯ ได้รับรายงานว่า มีผู้รับจ้างชั่วคราว ของธนาคารที่ปฏิบัติงานที่ชั้น 20 อาคาร Ari Hill พหลโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโควิด-19 และได้เข้ารักษาตัวในโรงพยาบาลแล้ว โดยเจ้าหน้าที่คนนี้ได้เข้ามาที่ทำงานในวันที่ 23 มีนาคม 2563 เป็นวันสุดท้าย</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
+          <t>https://www.facebook.com/photo?fbid=10158106862793545&amp;set=a.10151711204373545</t>
         </is>
       </c>
       <c r="M258" t="n">
@@ -14840,24 +14840,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>unspecified_location</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2020-03-25 11:30</t>
+          <t>2020-03-25 10:30</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
+          <t>ธนาคารไทยพาณิชย์ สำนักงานใหญ่ ชั้น21 โซนA</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>17.700635</v>
+        <v>13.826762</v>
       </c>
       <c r="E259" t="n">
-        <v>103.260393</v>
+        <v>100.564328</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -14878,12 +14878,12 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
+          <t>(ยืนยัน) ทางธนาคารไทยพาณิชย์ หรือ SCB ได้รับรายงานว่า มีพนักงานของธนาคารที่ปฏิบัติงานที่ชั้น 21 โซน A อาคารสำนักงานใหญ่ รัชโยธิน ได้รับการตรวจและยืนยันจากแพทย์ว่าติดเชื้อไวรัสโคโรนา 2019</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
+          <t>https://www.facebook.com/thestandardth/photos/a.1725541161072102/2391321721160706/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M259" t="n">
@@ -14898,43 +14898,49 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2020-03-25 12:15</t>
+          <t>2020-03-25 11:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>จังหวัดสระแก้ว</t>
+          <t>จังหวัดพิษณุโลก</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>13.690881</v>
+        <v>16.808342</v>
       </c>
       <c r="E260" t="n">
-        <v>102.502987</v>
+        <v>100.263524</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>0</v>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>(ยืนยัน) นายแพทย์สาธารณสุขจังหวัดสระแก้ว แถลงยอดผู้ป่วยโควิด-19 ยืนยันเพิ่มอีก 4 ราย รวม 6 ราย มีผู้ป่วยเข้าเกณฑ์เฝ้าระวังสะสม 80 ราย</t>
+          <t>(ยืนยัน) พบผู้ป่วยโควิด -19 รายแรก ของจังหวัดพิษณุโลก เป็นหญิงไทยอายุ 43 ปี</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/170117163028534/posts/3837455822961298/?d=n</t>
+          <t>https://www.facebook.com/pitlokjudtem/photos/a.306997666357931/1258384244552597/?type=3&amp;theater</t>
         </is>
       </c>
       <c r="M260" t="n">
@@ -14949,19 +14955,19 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2020-03-25 13:00</t>
+          <t>2020-03-25 11:30</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>จังหวัดราชบุรี</t>
+          <t>อำเภอบ้านดุง จังหวัดอุดรธานี</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>13.694595</v>
+        <v>17.700635</v>
       </c>
       <c r="E261" t="n">
-        <v>99.85168299999999</v>
+        <v>103.260393</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -14982,12 +14988,12 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>(ยืนยัน) สถานการณ์ covid-19 ราชบุรี พบผู้ติดเชื้อเพิ่ม เป็น 5 ราย วันที่ 25 มีนาคม 2563 โดย นายชยาวุธ จันทร ผู้ว่าราชการจังหวัดราชบุรี</t>
+          <t>(ยืนยัน) พบผู้ป่วย รายที่ 7 อำเภอบ้านดุง</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1736278136687702/videos/199460264817101</t>
+          <t>https://www.facebook.com/insideudon/posts/2715309661929207</t>
         </is>
       </c>
       <c r="M261" t="n">
@@ -14997,50 +15003,54 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>unspecified_location</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2020-03-25 13:00</t>
+          <t>2020-03-25 12:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>ป็อปปูล่าคอนโดมิเนียมเมืองทอง อาคาร T7</t>
+          <t>จังหวัดร้อยเอ็ด</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>13.916628</v>
+        <v>16.0577727</v>
       </c>
       <c r="E262" t="n">
-        <v>100.556343</v>
+        <v>103.6511172</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้พักอาศัยภายในอาคารติดเชื้อโควิด-19 ได้มีการรับตัวไปรักษาพยาบาลแล้ว ทั้งนี้ได้จัดส่งทีม M safe เข้าทำความสะอาดพื้นผิวสัมผัสทั้งหมดแล้ว</t>
+          <t>(ยืนยัน) ผู้ว่าจ.ร้อยเอ็ดได้เปิดเผยข้อมูลว่า มีการตรวจพบผู้ป่วยติดเชื้อ เพิ่มอีก 1 ราย รวมสะสมจำนวน 3 ราย เป็นหญิงไทย อายุ 34 ปี ทำงานในสถานบันเทิงแห่งหนึ่ง ย่านสุขุมวิท กรุงเทพมหานคร</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>https://scontent.xx.fbcdn.net/v/t1.15752-0/p480x480/90595301_508386916511507_1934201512020410368_n.jpg?_nc_cat=104&amp;_nc_sid=b96e70&amp;_nc_ohc=BZOeswqbAjAAX-cylUd&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zor=9&amp;_nc_ht=scontent.xx&amp;_nc_tp=6&amp;oh=aa63b0c7a33dc3d4a8ec9602f1cfa530&amp;oe=5EA2A917</t>
+          <t>https://www.jangkhao.com/11142/</t>
         </is>
       </c>
       <c r="M262" t="n">
@@ -15050,58 +15060,924 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>sanitized</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2020-03-25 21:00</t>
+          <t>2020-03-25 12:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>แอททรีคอนโด</t>
+          <t>อาคาร ดิ ออฟฟิศ แอท เซ็นทรัลเวิลด์</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>16.795958</v>
+        <v>13.7459986</v>
       </c>
       <c r="E263" t="n">
-        <v>100.254651</v>
+        <v>100.5384354</v>
       </c>
       <c r="F263" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
+      <c r="J263" t="n">
+        <v>0</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>(ยืนยัน) พบผู้ติดเชื้อโควิด-19 เป็นผู้พักอาศัยในอาคารชุด "แอททรีคอนโด" ถนนบึงพระจันทร์ รวมผู้ป่วยยืนยันในพื้นที่จังหวัดพิษณุโลกจำนวน 3 ราย</t>
+          <t>(ยืนยัน) เอกสารประกาศจากอาคาร ดิ ออฟฟิศ แอท เซ็นทรัลเวิลด์ แจ้งว่ามีผู้เช่าชั้น 37 รายงานว่ามีพนังงานติดเชื้อ แต่พนักงานท่านนี้ได้ Work from home แล้วตั้งแต่วันที่ 18 มีนาคม แต่ได้รับการยืนยันวันที่ 24 มีนาว่า พบเชื้อทางอาคารได้มีมาตรการตรวจสอบอย่างเป็นประจำ และทำความสะอาดอาคารอย่างเร่งด่วนทันที ตั้งแต่คืนวันที่ 24-26 มีนาคม</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/photo?fbid=3193851474173270&amp;set=pcb.3193853007506450</t>
+          <t>https://imgur.com/pu6FUce</t>
         </is>
       </c>
       <c r="M263" t="n">
         <v>261</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>unspecified_location</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2020-03-25 12:15</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>จังหวัดสระแก้ว</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>13.690881</v>
+      </c>
+